--- a/kpiExcelSheet/nhóm L1.xlsx
+++ b/kpiExcelSheet/nhóm L1.xlsx
@@ -520,15 +520,15 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="20" customWidth="1" min="1" max="1"/>
-    <col width="30" customWidth="1" min="2" max="2"/>
-    <col width="30" customWidth="1" min="3" max="3"/>
-    <col width="30" customWidth="1" min="4" max="4"/>
-    <col width="30" customWidth="1" min="5" max="5"/>
+    <col width="35" customWidth="1" min="2" max="2"/>
+    <col width="35" customWidth="1" min="3" max="3"/>
+    <col width="35" customWidth="1" min="4" max="4"/>
+    <col width="35" customWidth="1" min="5" max="5"/>
     <col width="20" customWidth="1" min="14" max="14"/>
     <col width="20" customWidth="1" min="15" max="15"/>
-    <col width="30" customWidth="1" min="16" max="16"/>
-    <col width="30" customWidth="1" min="17" max="17"/>
-    <col width="30" customWidth="1" min="18" max="18"/>
+    <col width="35" customWidth="1" min="16" max="16"/>
+    <col width="35" customWidth="1" min="17" max="17"/>
+    <col width="35" customWidth="1" min="18" max="18"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -828,7 +828,7 @@
         <v>20</v>
       </c>
       <c r="L5" s="8" t="n">
-        <v/>
+        <v>0</v>
       </c>
       <c r="M5" s="8" t="n">
         <v/>
@@ -837,7 +837,7 @@
         <v>13</v>
       </c>
       <c r="O5" s="8" t="n">
-        <v/>
+        <v>8</v>
       </c>
       <c r="P5" s="8" t="inlineStr">
         <is>
@@ -846,7 +846,23 @@
 - Kiểm tra, điều chỉnh cấu hình cho các service: 1h</t>
         </is>
       </c>
-      <c r="Q5" s="8" t="n"/>
+      <c r="Q5" s="8" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+              <rFont val="&lt;openpyxl.styles.fonts.Font object&gt;&#10;Parameters:&#10;name='Arial', charset=None, family=None, b=False, i=False, strike=False, outline=None, shadow=None, condense=None, color=&lt;openpyxl.styles.colors.Color object&gt;&#10;Parameters:&#10;rgb='00FF0000', indexed=None, auto=None, theme=None, tint=0.0, type='rgb', extend=None, sz=11.0, u=None, vertAlign=None, scheme=None"/>
+            </rPr>
+            <t xml:space="preserve">Xin xác nhân kết quả thực hiện - Hoàn thành triển khai tích hợp HVAC client vào source code dự án SOP : </t>
+          </r>
+          <r>
+            <rPr>
+              <rFont val="&lt;openpyxl.styles.fonts.Font object&gt;&#10;Parameters:&#10;name='Arial', charset=None, family=None, b=False, i=False, strike=False, outline=None, shadow=None, condense=None, color=&lt;openpyxl.styles.colors.Color object&gt;&#10;Parameters:&#10;rgb='00FF0000', indexed=None, auto=None, theme=None, tint=0.0, type='rgb', extend=None, sz=11.0, u=None, vertAlign=None, scheme=None"/>
+            </rPr>
+            <t xml:space="preserve">https://drive.google.com/file/d/1df790NLF5dCua4CjSRZ1jjx1JA3VCXmp/view?usp=drive_link
+</t>
+          </r>
+        </is>
+      </c>
       <c r="R5" s="8" t="inlineStr"/>
     </row>
     <row r="6">
@@ -889,12 +905,8 @@
       <c r="M6" s="9" t="n">
         <v>0</v>
       </c>
-      <c r="N6" s="9" t="n">
-        <v>184</v>
-      </c>
-      <c r="O6" s="9" t="n">
-        <v>156</v>
-      </c>
+      <c r="N6" s="9" t="inlineStr"/>
+      <c r="O6" s="9" t="inlineStr"/>
       <c r="P6" s="8" t="n">
         <v/>
       </c>
@@ -1044,7 +1056,7 @@
         <v>184</v>
       </c>
       <c r="O8" s="9" t="n">
-        <v>156</v>
+        <v>164</v>
       </c>
       <c r="P8" s="8" t="n">
         <v/>
@@ -1214,142 +1226,72 @@
       </c>
       <c r="B12" s="8" t="inlineStr">
         <is>
-          <t>Hoàn thành đúng tiến độ và chất lượng các Công việc phát sinh/ Seminar/ Cải tiến</t>
+          <t>Đảm bảo chất lượng sản phẩm với số bug log trên các môi trường trong dự án OnCX, SOP, HappyConnect, Dialo, CheckMK</t>
         </is>
       </c>
       <c r="C12" s="8" t="inlineStr">
         <is>
-          <t>Đảm bảo các công việc phát sinh hoàn thành đúng tiến độ và chất lượng</t>
+          <t>Đảm bảo chất lượng sản phẩm với số bug log trên các môi trường trong dự án SOP</t>
         </is>
       </c>
       <c r="D12" s="8" t="inlineStr">
         <is>
-          <t>Nghiên cứu model AI Falcon-40b và demo trước 23.08.2023; Tham dự thi sáng tạo FTEL</t>
+          <t>Trên môi trường stg Trung bình số bugs được report trong mỗi tính năng khi review code/ thực hiện dev &lt;= 5 và trên môi trường UAT critical/important issue &lt;= 1</t>
         </is>
       </c>
       <c r="E12" s="8" t="inlineStr">
-        <is>
-          <t>Báo cáo được CBQL confirm</t>
-        </is>
-      </c>
-      <c r="F12" s="8" t="inlineStr">
-        <is>
-          <t>Mail</t>
-        </is>
-      </c>
-      <c r="G12" s="8" t="inlineStr">
-        <is>
-          <t>Tháng</t>
-        </is>
-      </c>
-      <c r="H12" s="8" t="inlineStr">
-        <is>
-          <t>Đạt/Không đạt</t>
-        </is>
-      </c>
-      <c r="I12" s="8" t="inlineStr">
-        <is>
-          <t>=</t>
-        </is>
-      </c>
-      <c r="J12" s="8" t="inlineStr">
-        <is>
-          <t>Đạt</t>
-        </is>
-      </c>
-      <c r="K12" s="8" t="n">
-        <v>20</v>
-      </c>
-      <c r="L12" s="8" t="n">
-        <v>50</v>
-      </c>
-      <c r="M12" s="8" t="n">
-        <v/>
-      </c>
-      <c r="N12" s="8" t="n">
-        <v>52</v>
-      </c>
-      <c r="O12" s="8" t="n">
-        <v>4</v>
-      </c>
-      <c r="P12" s="8" t="inlineStr">
-        <is>
-          <t>- Nghiên cứu, suport vẽ lowcode cho tool</t>
-        </is>
-      </c>
-      <c r="Q12" s="8" t="n"/>
-      <c r="R12" s="8" t="inlineStr"/>
-    </row>
-    <row r="13">
-      <c r="A13" s="2" t="n"/>
-      <c r="B13" s="8" t="inlineStr">
-        <is>
-          <t>Đảm bảo chất lượng sản phẩm với số bug log trên các môi trường trong dự án OnCX, SOP, HappyConnect, Dialo, CheckMK</t>
-        </is>
-      </c>
-      <c r="C13" s="8" t="inlineStr">
-        <is>
-          <t>Đảm bảo chất lượng sản phẩm với số bug log trên các môi trường trong dự án SOP</t>
-        </is>
-      </c>
-      <c r="D13" s="8" t="inlineStr">
-        <is>
-          <t>Trên môi trường stg Trung bình số bugs được report trong mỗi tính năng khi review code/ thực hiện dev &lt;= 5 và trên môi trường UAT critical/important issue &lt;= 1</t>
-        </is>
-      </c>
-      <c r="E13" s="8" t="inlineStr">
         <is>
           <t>- STG: số bug/tính năng khi review code/ thực hiện dev &lt;= 5
 - UAT: critical/important issue &lt;= 1
 ** Không tính issue do nguyên nhân enhancement, wishlist, support</t>
         </is>
       </c>
-      <c r="F13" s="8" t="inlineStr">
+      <c r="F12" s="8" t="inlineStr">
         <is>
           <t>Taiga</t>
         </is>
       </c>
-      <c r="G13" s="8" t="inlineStr">
+      <c r="G12" s="8" t="inlineStr">
         <is>
           <t>Tháng</t>
         </is>
       </c>
-      <c r="H13" s="8" t="inlineStr">
+      <c r="H12" s="8" t="inlineStr">
         <is>
           <t>%</t>
         </is>
       </c>
-      <c r="I13" s="8" t="inlineStr">
+      <c r="I12" s="8" t="inlineStr">
         <is>
           <t>=</t>
         </is>
       </c>
-      <c r="J13" s="8" t="inlineStr">
+      <c r="J12" s="8" t="inlineStr">
         <is>
           <t>100%</t>
         </is>
       </c>
-      <c r="K13" s="8" t="n">
+      <c r="K12" s="8" t="n">
         <v>80</v>
       </c>
-      <c r="L13" s="8" t="n">
+      <c r="L12" s="8" t="n">
         <v>100</v>
       </c>
-      <c r="M13" s="8" t="n">
-        <v/>
-      </c>
-      <c r="N13" s="8" t="n">
+      <c r="M12" s="8" t="n">
+        <v/>
+      </c>
+      <c r="N12" s="8" t="n">
         <v>20</v>
       </c>
-      <c r="O13" s="8" t="n">
+      <c r="O12" s="8" t="n">
         <v>12</v>
       </c>
-      <c r="P13" s="8" t="inlineStr">
+      <c r="P12" s="8" t="inlineStr">
         <is>
           <t>- Thời gian check - fix bugs: 20h/tháng</t>
         </is>
       </c>
-      <c r="Q13" s="8" t="inlineStr">
+      <c r="Q12" s="8" t="inlineStr">
         <is>
           <r>
             <rPr>
@@ -1366,6 +1308,76 @@
           </r>
         </is>
       </c>
+      <c r="R12" s="8" t="inlineStr"/>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n"/>
+      <c r="B13" s="8" t="inlineStr">
+        <is>
+          <t>Hoàn thành đúng tiến độ và chất lượng các Công việc phát sinh/ Seminar/ Cải tiến</t>
+        </is>
+      </c>
+      <c r="C13" s="8" t="inlineStr">
+        <is>
+          <t>Đảm bảo các công việc phát sinh hoàn thành đúng tiến độ và chất lượng</t>
+        </is>
+      </c>
+      <c r="D13" s="8" t="inlineStr">
+        <is>
+          <t>Nghiên cứu model AI Falcon-40b và demo trước 23.08.2023; Tham dự thi sáng tạo FTEL</t>
+        </is>
+      </c>
+      <c r="E13" s="8" t="inlineStr">
+        <is>
+          <t>Báo cáo được CBQL confirm</t>
+        </is>
+      </c>
+      <c r="F13" s="8" t="inlineStr">
+        <is>
+          <t>Mail</t>
+        </is>
+      </c>
+      <c r="G13" s="8" t="inlineStr">
+        <is>
+          <t>Tháng</t>
+        </is>
+      </c>
+      <c r="H13" s="8" t="inlineStr">
+        <is>
+          <t>Đạt/Không đạt</t>
+        </is>
+      </c>
+      <c r="I13" s="8" t="inlineStr">
+        <is>
+          <t>=</t>
+        </is>
+      </c>
+      <c r="J13" s="8" t="inlineStr">
+        <is>
+          <t>Đạt</t>
+        </is>
+      </c>
+      <c r="K13" s="8" t="n">
+        <v>20</v>
+      </c>
+      <c r="L13" s="8" t="n">
+        <v>50</v>
+      </c>
+      <c r="M13" s="8" t="n">
+        <v/>
+      </c>
+      <c r="N13" s="8" t="n">
+        <v>52</v>
+      </c>
+      <c r="O13" s="8" t="n">
+        <v>20</v>
+      </c>
+      <c r="P13" s="8" t="inlineStr">
+        <is>
+          <t>- Nghiên cứu, suport vẽ lowcode cho tool</t>
+        </is>
+      </c>
+      <c r="Q13" s="8" t="n"/>
       <c r="R13" s="8" t="inlineStr"/>
     </row>
     <row r="14">
@@ -1408,12 +1420,8 @@
       <c r="M14" s="9" t="n">
         <v>0</v>
       </c>
-      <c r="N14" s="9" t="n">
-        <v>184</v>
-      </c>
-      <c r="O14" s="9" t="n">
-        <v>131.5</v>
-      </c>
+      <c r="N14" s="9" t="inlineStr"/>
+      <c r="O14" s="9" t="inlineStr"/>
       <c r="P14" s="8" t="n">
         <v/>
       </c>
@@ -1490,7 +1498,7 @@
         <v>112</v>
       </c>
       <c r="O15" s="8" t="n">
-        <v>115.5</v>
+        <v>145</v>
       </c>
       <c r="P15" s="8" t="inlineStr">
         <is>
@@ -1563,7 +1571,7 @@
         <v>184</v>
       </c>
       <c r="O16" s="9" t="n">
-        <v>131.5</v>
+        <v>177</v>
       </c>
       <c r="P16" s="8" t="n">
         <v/>
@@ -1738,22 +1746,22 @@
       </c>
       <c r="C20" s="8" t="inlineStr">
         <is>
-          <t>Đảm bảo các công việc phát sinh hoàn thành đúng tiến độ và chất lượng</t>
+          <t>Bàn giao công việc</t>
         </is>
       </c>
       <c r="D20" s="8" t="inlineStr">
         <is>
-          <t>Tất cả ticket xử lý đạt SLA 100% (các ticket đúng hạn xử lý)</t>
+          <t>Bàn giao công việc</t>
         </is>
       </c>
       <c r="E20" s="8" t="inlineStr">
         <is>
-          <t>Ticket đúng hạn theo SLA = 100%</t>
+          <t xml:space="preserve">24 * 6 </t>
         </is>
       </c>
       <c r="F20" s="8" t="inlineStr">
         <is>
-          <t>Mail</t>
+          <t>File tài liệu</t>
         </is>
       </c>
       <c r="G20" s="8" t="inlineStr">
@@ -1763,7 +1771,7 @@
       </c>
       <c r="H20" s="8" t="inlineStr">
         <is>
-          <t>Đạt/Không đạt</t>
+          <t>%</t>
         </is>
       </c>
       <c r="I20" s="8" t="inlineStr">
@@ -1773,7 +1781,7 @@
       </c>
       <c r="J20" s="8" t="inlineStr">
         <is>
-          <t>Đạt</t>
+          <t>100%</t>
         </is>
       </c>
       <c r="K20" s="8" t="n">
@@ -1786,17 +1794,29 @@
         <v/>
       </c>
       <c r="N20" s="8" t="n">
-        <v>34.5</v>
+        <v>48</v>
       </c>
       <c r="O20" s="8" t="n">
-        <v/>
-      </c>
-      <c r="P20" s="8" t="inlineStr">
-        <is>
-          <t>23 * 1,5 , mỗi ngày 1 tiếng xử lý ticket và 0.5h daily meeting</t>
-        </is>
-      </c>
-      <c r="Q20" s="8" t="n"/>
+        <v>48</v>
+      </c>
+      <c r="P20" s="8" t="n"/>
+      <c r="Q20" s="8" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+              <rFont val="&lt;openpyxl.styles.fonts.Font object&gt;&#10;Parameters:&#10;name='Arial', charset=None, family=None, b=False, i=False, strike=False, outline=None, shadow=None, condense=None, color=&lt;openpyxl.styles.colors.Color object&gt;&#10;Parameters:&#10;rgb='00FF0000', indexed=None, auto=None, theme=None, tint=0.0, type='rgb', extend=None, sz=11.0, u=None, vertAlign=None, scheme=None"/>
+            </rPr>
+            <t xml:space="preserve">confirm bàn giao : </t>
+          </r>
+          <r>
+            <rPr>
+              <rFont val="&lt;openpyxl.styles.fonts.Font object&gt;&#10;Parameters:&#10;name='Arial', charset=None, family=None, b=False, i=False, strike=False, outline=None, shadow=None, condense=None, color=&lt;openpyxl.styles.colors.Color object&gt;&#10;Parameters:&#10;rgb='00FF0000', indexed=None, auto=None, theme=None, tint=0.0, type='rgb', extend=None, sz=11.0, u=None, vertAlign=None, scheme=None"/>
+            </rPr>
+            <t xml:space="preserve">https://docs.google.com/spreadsheets/d/1qUcmCoXKUACHxdPttXY6Avga6qyL18uMcdmXnl0sokM/edit#gid=0
+</t>
+          </r>
+        </is>
+      </c>
       <c r="R20" s="8" t="inlineStr"/>
     </row>
     <row r="21">
@@ -1861,14 +1881,30 @@
         <v>46</v>
       </c>
       <c r="O21" s="8" t="n">
-        <v/>
+        <v>0</v>
       </c>
       <c r="P21" s="8" t="inlineStr">
         <is>
           <t>23*2 mỗi ngày 2 tiếng fix bug</t>
         </is>
       </c>
-      <c r="Q21" s="8" t="n"/>
+      <c r="Q21" s="8" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+              <rFont val="&lt;openpyxl.styles.fonts.Font object&gt;&#10;Parameters:&#10;name='Arial', charset=None, family=None, b=False, i=False, strike=False, outline=None, shadow=None, condense=None, color=&lt;openpyxl.styles.colors.Color object&gt;&#10;Parameters:&#10;rgb='00FF0000', indexed=None, auto=None, theme=None, tint=0.0, type='rgb', extend=None, sz=11.0, u=None, vertAlign=None, scheme=None"/>
+            </rPr>
+            <t xml:space="preserve">sô bug còn lại trên longchau-uat : </t>
+          </r>
+          <r>
+            <rPr>
+              <rFont val="&lt;openpyxl.styles.fonts.Font object&gt;&#10;Parameters:&#10;name='Arial', charset=None, family=None, b=False, i=False, strike=False, outline=None, shadow=None, condense=None, color=&lt;openpyxl.styles.colors.Color object&gt;&#10;Parameters:&#10;rgb='00FF0000', indexed=None, auto=None, theme=None, tint=0.0, type='rgb', extend=None, sz=11.0, u=None, vertAlign=None, scheme=None"/>
+            </rPr>
+            <t xml:space="preserve">http://172.27.228.249:9000/project/smart-contact-center/issues?tags=lcuat&amp;status=16
+</t>
+          </r>
+        </is>
+      </c>
       <c r="R21" s="8" t="inlineStr"/>
     </row>
     <row r="22">
@@ -1911,9 +1947,7 @@
       <c r="M22" s="9" t="n">
         <v>0</v>
       </c>
-      <c r="N22" s="9" t="n">
-        <v>184</v>
-      </c>
+      <c r="N22" s="9" t="inlineStr"/>
       <c r="O22" s="9" t="inlineStr"/>
       <c r="P22" s="8" t="n">
         <v/>
@@ -1994,14 +2028,30 @@
         <v>103.5</v>
       </c>
       <c r="O23" s="8" t="n">
-        <v/>
+        <v>0</v>
       </c>
       <c r="P23" s="8" t="inlineStr">
         <is>
           <t>23*4.5 mỗi ngày làm task</t>
         </is>
       </c>
-      <c r="Q23" s="8" t="n"/>
+      <c r="Q23" s="8" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+              <rFont val="&lt;openpyxl.styles.fonts.Font object&gt;&#10;Parameters:&#10;name='Arial', charset=None, family=None, b=False, i=False, strike=False, outline=None, shadow=None, condense=None, color=&lt;openpyxl.styles.colors.Color object&gt;&#10;Parameters:&#10;rgb='00FF0000', indexed=None, auto=None, theme=None, tint=0.0, type='rgb', extend=None, sz=11.0, u=None, vertAlign=None, scheme=None"/>
+            </rPr>
+            <t xml:space="preserve">migarte CRM longchau : </t>
+          </r>
+          <r>
+            <rPr>
+              <rFont val="&lt;openpyxl.styles.fonts.Font object&gt;&#10;Parameters:&#10;name='Arial', charset=None, family=None, b=False, i=False, strike=False, outline=None, shadow=None, condense=None, color=&lt;openpyxl.styles.colors.Color object&gt;&#10;Parameters:&#10;rgb='00FF0000', indexed=None, auto=None, theme=None, tint=0.0, type='rgb', extend=None, sz=11.0, u=None, vertAlign=None, scheme=None"/>
+            </rPr>
+            <t xml:space="preserve">https://docs.google.com/spreadsheets/d/1cawx0cvzUkyuDyL7H0MyN4sxnIt4dHgQ_njIjm4IFKk/edit#gid=0
+</t>
+          </r>
+        </is>
+      </c>
       <c r="R23" s="8" t="inlineStr"/>
     </row>
     <row r="24">
@@ -2045,9 +2095,11 @@
         <v>0</v>
       </c>
       <c r="N24" s="9" t="n">
-        <v>184</v>
-      </c>
-      <c r="O24" s="9" t="inlineStr"/>
+        <v>197.5</v>
+      </c>
+      <c r="O24" s="9" t="n">
+        <v>48</v>
+      </c>
       <c r="P24" s="8" t="n">
         <v/>
       </c>
@@ -2216,142 +2268,72 @@
       </c>
       <c r="B28" s="8" t="inlineStr">
         <is>
-          <t>Hoàn thành đúng tiến độ và chất lượng các Công việc phát sinh/ Seminar/ Cải tiến</t>
+          <t>Đảm bảo chất lượng sản phẩm với số bug log trên các môi trường trong dự án OnCX, SOP, HappyConnect, Dialo, CheckMK</t>
         </is>
       </c>
       <c r="C28" s="8" t="inlineStr">
         <is>
-          <t>Đảm bảo các công việc phát sinh hoàn thành đúng tiến độ và chất lượng</t>
+          <t>Đảm bảo chất lượng sản phẩm với số bug log trên các môi trường trong dự án SOP</t>
         </is>
       </c>
       <c r="D28" s="8" t="inlineStr">
         <is>
-          <t>Hoàn thành demo áp dụng tool Storybook và slide giới thiệu sản phẩm thi sáng tạo FTEL trước 23.8.2023</t>
+          <t>Trên môi trường stg Trung bình số bugs được report trong mỗi tính năng khi review code/ thực hiện dev &lt;= 5 và trên môi trường UAT critical/important issue &lt;= 1</t>
         </is>
       </c>
       <c r="E28" s="8" t="inlineStr">
-        <is>
-          <t>Báo cáo được CBQL confirm</t>
-        </is>
-      </c>
-      <c r="F28" s="8" t="inlineStr">
-        <is>
-          <t>Mail</t>
-        </is>
-      </c>
-      <c r="G28" s="8" t="inlineStr">
-        <is>
-          <t>Tháng</t>
-        </is>
-      </c>
-      <c r="H28" s="8" t="inlineStr">
-        <is>
-          <t>Đạt/Không đạt</t>
-        </is>
-      </c>
-      <c r="I28" s="8" t="inlineStr">
-        <is>
-          <t>=</t>
-        </is>
-      </c>
-      <c r="J28" s="8" t="inlineStr">
-        <is>
-          <t>Đạt</t>
-        </is>
-      </c>
-      <c r="K28" s="8" t="n">
-        <v>20</v>
-      </c>
-      <c r="L28" s="8" t="n">
-        <v/>
-      </c>
-      <c r="M28" s="8" t="n">
-        <v/>
-      </c>
-      <c r="N28" s="8" t="n">
-        <v>52</v>
-      </c>
-      <c r="O28" s="8" t="n">
-        <v>4</v>
-      </c>
-      <c r="P28" s="8" t="inlineStr">
-        <is>
-          <t>- Nghiên cứu, code tính năng</t>
-        </is>
-      </c>
-      <c r="Q28" s="8" t="n"/>
-      <c r="R28" s="8" t="inlineStr"/>
-    </row>
-    <row r="29">
-      <c r="A29" s="2" t="n"/>
-      <c r="B29" s="8" t="inlineStr">
-        <is>
-          <t>Đảm bảo chất lượng sản phẩm với số bug log trên các môi trường trong dự án OnCX, SOP, HappyConnect, Dialo, CheckMK</t>
-        </is>
-      </c>
-      <c r="C29" s="8" t="inlineStr">
-        <is>
-          <t>Đảm bảo chất lượng sản phẩm với số bug log trên các môi trường trong dự án SOP</t>
-        </is>
-      </c>
-      <c r="D29" s="8" t="inlineStr">
-        <is>
-          <t>Trên môi trường stg Trung bình số bugs được report trong mỗi tính năng khi review code/ thực hiện dev &lt;= 5 và trên môi trường UAT critical/important issue &lt;= 1</t>
-        </is>
-      </c>
-      <c r="E29" s="8" t="inlineStr">
         <is>
           <t>- STG: số bug/tính năng khi review code/ thực hiện dev &lt;= 5
 - UAT: critical/important issue &lt;= 1
 ** Không tính issue do nguyên nhân enhancement, wishlist, support</t>
         </is>
       </c>
-      <c r="F29" s="8" t="inlineStr">
+      <c r="F28" s="8" t="inlineStr">
         <is>
           <t>Taiga</t>
         </is>
       </c>
-      <c r="G29" s="8" t="inlineStr">
+      <c r="G28" s="8" t="inlineStr">
         <is>
           <t>Tháng</t>
         </is>
       </c>
-      <c r="H29" s="8" t="inlineStr">
+      <c r="H28" s="8" t="inlineStr">
         <is>
           <t>%</t>
         </is>
       </c>
-      <c r="I29" s="8" t="inlineStr">
+      <c r="I28" s="8" t="inlineStr">
         <is>
           <t>=</t>
         </is>
       </c>
-      <c r="J29" s="8" t="inlineStr">
+      <c r="J28" s="8" t="inlineStr">
         <is>
           <t>100%</t>
         </is>
       </c>
-      <c r="K29" s="8" t="n">
+      <c r="K28" s="8" t="n">
         <v>80</v>
       </c>
-      <c r="L29" s="8" t="n">
+      <c r="L28" s="8" t="n">
         <v>100</v>
       </c>
-      <c r="M29" s="8" t="n">
-        <v/>
-      </c>
-      <c r="N29" s="8" t="n">
+      <c r="M28" s="8" t="n">
+        <v/>
+      </c>
+      <c r="N28" s="8" t="n">
         <v>20</v>
       </c>
-      <c r="O29" s="8" t="n">
+      <c r="O28" s="8" t="n">
         <v>20</v>
       </c>
-      <c r="P29" s="8" t="inlineStr">
+      <c r="P28" s="8" t="inlineStr">
         <is>
           <t>- Thời gian check - fix bugs: 20h/tháng</t>
         </is>
       </c>
-      <c r="Q29" s="8" t="inlineStr">
+      <c r="Q28" s="8" t="inlineStr">
         <is>
           <r>
             <rPr>
@@ -2368,6 +2350,76 @@
           </r>
         </is>
       </c>
+      <c r="R28" s="8" t="inlineStr"/>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n"/>
+      <c r="B29" s="8" t="inlineStr">
+        <is>
+          <t>Hoàn thành đúng tiến độ và chất lượng các Công việc phát sinh/ Seminar/ Cải tiến</t>
+        </is>
+      </c>
+      <c r="C29" s="8" t="inlineStr">
+        <is>
+          <t>Đảm bảo các công việc phát sinh hoàn thành đúng tiến độ và chất lượng</t>
+        </is>
+      </c>
+      <c r="D29" s="8" t="inlineStr">
+        <is>
+          <t>Hoàn thành demo áp dụng tool Storybook và slide giới thiệu sản phẩm thi sáng tạo FTEL trước 23.8.2023</t>
+        </is>
+      </c>
+      <c r="E29" s="8" t="inlineStr">
+        <is>
+          <t>Báo cáo được CBQL confirm</t>
+        </is>
+      </c>
+      <c r="F29" s="8" t="inlineStr">
+        <is>
+          <t>Mail</t>
+        </is>
+      </c>
+      <c r="G29" s="8" t="inlineStr">
+        <is>
+          <t>Tháng</t>
+        </is>
+      </c>
+      <c r="H29" s="8" t="inlineStr">
+        <is>
+          <t>Đạt/Không đạt</t>
+        </is>
+      </c>
+      <c r="I29" s="8" t="inlineStr">
+        <is>
+          <t>=</t>
+        </is>
+      </c>
+      <c r="J29" s="8" t="inlineStr">
+        <is>
+          <t>Đạt</t>
+        </is>
+      </c>
+      <c r="K29" s="8" t="n">
+        <v>20</v>
+      </c>
+      <c r="L29" s="8" t="n">
+        <v/>
+      </c>
+      <c r="M29" s="8" t="n">
+        <v/>
+      </c>
+      <c r="N29" s="8" t="n">
+        <v>52</v>
+      </c>
+      <c r="O29" s="8" t="n">
+        <v>4</v>
+      </c>
+      <c r="P29" s="8" t="inlineStr">
+        <is>
+          <t>- Nghiên cứu, code tính năng</t>
+        </is>
+      </c>
+      <c r="Q29" s="8" t="n"/>
       <c r="R29" s="8" t="inlineStr"/>
     </row>
     <row r="30">
@@ -2410,12 +2462,8 @@
       <c r="M30" s="9" t="n">
         <v>0</v>
       </c>
-      <c r="N30" s="9" t="n">
-        <v>184</v>
-      </c>
-      <c r="O30" s="9" t="n">
-        <v>146</v>
-      </c>
+      <c r="N30" s="9" t="inlineStr"/>
+      <c r="O30" s="9" t="inlineStr"/>
       <c r="P30" s="8" t="n">
         <v/>
       </c>
@@ -2492,7 +2540,7 @@
         <v>112</v>
       </c>
       <c r="O31" s="8" t="n">
-        <v>122</v>
+        <v>138</v>
       </c>
       <c r="P31" s="8" t="inlineStr">
         <is>
@@ -2565,7 +2613,7 @@
         <v>184</v>
       </c>
       <c r="O32" s="9" t="n">
-        <v>146</v>
+        <v>162</v>
       </c>
       <c r="P32" s="8" t="n">
         <v/>
@@ -2806,13 +2854,13 @@
             <rPr>
               <rFont val="&lt;openpyxl.styles.fonts.Font object&gt;&#10;Parameters:&#10;name='Arial', charset=None, family=None, b=False, i=False, strike=False, outline=None, shadow=None, condense=None, color=&lt;openpyxl.styles.colors.Color object&gt;&#10;Parameters:&#10;rgb='00FF0000', indexed=None, auto=None, theme=None, tint=0.0, type='rgb', extend=None, sz=11.0, u=None, vertAlign=None, scheme=None"/>
             </rPr>
-            <t xml:space="preserve">Bằng Chứng KPI : </t>
+            <t xml:space="preserve">Bằng Chứng Bug : </t>
           </r>
           <r>
             <rPr>
               <rFont val="&lt;openpyxl.styles.fonts.Font object&gt;&#10;Parameters:&#10;name='Arial', charset=None, family=None, b=False, i=False, strike=False, outline=None, shadow=None, condense=None, color=&lt;openpyxl.styles.colors.Color object&gt;&#10;Parameters:&#10;rgb='00FF0000', indexed=None, auto=None, theme=None, tint=0.0, type='rgb', extend=None, sz=11.0, u=None, vertAlign=None, scheme=None"/>
             </rPr>
-            <t xml:space="preserve">https://docs.google.com/spreadsheets/d/1itq3wm3wMFZwx8TMOOhmL5yflVTO8ThmgrynaDTCzw8/edit#gid=313670827
+            <t xml:space="preserve">https://docs.google.com/spreadsheets/d/17eBVsuHjK24RBxa2t94FtApqvEtEebLG04XAQvsHTFA/edit#gid=0
 </t>
           </r>
         </is>
@@ -2929,12 +2977,8 @@
       <c r="M38" s="9" t="n">
         <v>0</v>
       </c>
-      <c r="N38" s="9" t="n">
-        <v>184</v>
-      </c>
-      <c r="O38" s="9" t="n">
-        <v>128</v>
-      </c>
+      <c r="N38" s="9" t="inlineStr"/>
+      <c r="O38" s="9" t="inlineStr"/>
       <c r="P38" s="8" t="n">
         <v/>
       </c>
@@ -3027,13 +3071,13 @@
             <rPr>
               <rFont val="&lt;openpyxl.styles.fonts.Font object&gt;&#10;Parameters:&#10;name='Arial', charset=None, family=None, b=False, i=False, strike=False, outline=None, shadow=None, condense=None, color=&lt;openpyxl.styles.colors.Color object&gt;&#10;Parameters:&#10;rgb='00FF0000', indexed=None, auto=None, theme=None, tint=0.0, type='rgb', extend=None, sz=11.0, u=None, vertAlign=None, scheme=None"/>
             </rPr>
-            <t xml:space="preserve">Bằng Chứng OKR : </t>
+            <t xml:space="preserve">Bằng Chứng Timeline : </t>
           </r>
           <r>
             <rPr>
               <rFont val="&lt;openpyxl.styles.fonts.Font object&gt;&#10;Parameters:&#10;name='Arial', charset=None, family=None, b=False, i=False, strike=False, outline=None, shadow=None, condense=None, color=&lt;openpyxl.styles.colors.Color object&gt;&#10;Parameters:&#10;rgb='00FF0000', indexed=None, auto=None, theme=None, tint=0.0, type='rgb', extend=None, sz=11.0, u=None, vertAlign=None, scheme=None"/>
             </rPr>
-            <t xml:space="preserve">https://docs.google.com/spreadsheets/d/1itq3wm3wMFZwx8TMOOhmL5yflVTO8ThmgrynaDTCzw8/edit#gid=313670827
+            <t xml:space="preserve">https://docs.google.com/spreadsheets/d/1WPxs4Ii5gkDtp9GpnjsRl6_j19eP-wKmxDwgii1f5Y4/edit#gid=0
 </t>
           </r>
         </is>
@@ -3254,142 +3298,72 @@
       </c>
       <c r="B44" s="8" t="inlineStr">
         <is>
-          <t>Hoàn thành đúng tiến độ và chất lượng các Công việc phát sinh/ Seminar/ Cải tiến</t>
+          <t>Đảm bảo chất lượng sản phẩm với số bug log trên các môi trường trong dự án OnCX, SOP, HappyConnect, Dialo, CheckMK</t>
         </is>
       </c>
       <c r="C44" s="8" t="inlineStr">
         <is>
-          <t>Hoàn thành đúng tiến độ và chất lượng các Công việc phát sinh</t>
+          <t>Đảm bảo chất lượng sản phẩm với số bug log trên các môi trường trong dự án Dialo</t>
         </is>
       </c>
       <c r="D44" s="8" t="inlineStr">
         <is>
-          <t>Có &gt;= 1 cải tiến để nâng cao chất lượng công việc trong dự án/ môi trường hoặc semninar/ công việc phát sinh được CBQL giao</t>
+          <t>Trên môi trường stg Trung bình số bugs được report trong mỗi tính năng khi review code/ thực hiện dev &lt;= 5 và trên môi trường UAT critical/important issue &lt;= 1</t>
         </is>
       </c>
       <c r="E44" s="8" t="inlineStr">
-        <is>
-          <t>CBQL/PM/SA confirm</t>
-        </is>
-      </c>
-      <c r="F44" s="8" t="inlineStr">
-        <is>
-          <t>Mail</t>
-        </is>
-      </c>
-      <c r="G44" s="8" t="inlineStr">
-        <is>
-          <t>Tháng</t>
-        </is>
-      </c>
-      <c r="H44" s="8" t="inlineStr">
-        <is>
-          <t>Đạt/Không đạt</t>
-        </is>
-      </c>
-      <c r="I44" s="8" t="inlineStr">
-        <is>
-          <t>=</t>
-        </is>
-      </c>
-      <c r="J44" s="8" t="inlineStr">
-        <is>
-          <t>Đạt</t>
-        </is>
-      </c>
-      <c r="K44" s="8" t="n">
-        <v>20</v>
-      </c>
-      <c r="L44" s="8" t="n">
-        <v/>
-      </c>
-      <c r="M44" s="8" t="n">
-        <v/>
-      </c>
-      <c r="N44" s="8" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="O44" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="P44" s="8" t="inlineStr">
-        <is>
-          <t>11.5h/tháng</t>
-        </is>
-      </c>
-      <c r="Q44" s="8" t="n"/>
-      <c r="R44" s="8" t="inlineStr"/>
-    </row>
-    <row r="45">
-      <c r="A45" s="2" t="n"/>
-      <c r="B45" s="8" t="inlineStr">
-        <is>
-          <t>Đảm bảo chất lượng sản phẩm với số bug log trên các môi trường trong dự án OnCX, SOP, HappyConnect, Dialo, CheckMK</t>
-        </is>
-      </c>
-      <c r="C45" s="8" t="inlineStr">
-        <is>
-          <t>Đảm bảo chất lượng sản phẩm với số bug log trên các môi trường trong dự án Dialo</t>
-        </is>
-      </c>
-      <c r="D45" s="8" t="inlineStr">
-        <is>
-          <t>Trên môi trường stg Trung bình số bugs được report trong mỗi tính năng khi review code/ thực hiện dev &lt;= 5 và trên môi trường UAT critical/important issue &lt;= 1</t>
-        </is>
-      </c>
-      <c r="E45" s="8" t="inlineStr">
         <is>
           <t>- STG: số bug/tính năng khi review code/ thực hiện dev &lt;= 5
 - UAT: critical/important issue &lt;= 1
 ** Không tính issue do nguyên nhân enhancement, wishlist, support</t>
         </is>
       </c>
-      <c r="F45" s="8" t="inlineStr">
+      <c r="F44" s="8" t="inlineStr">
         <is>
           <t>Taiga</t>
         </is>
       </c>
-      <c r="G45" s="8" t="inlineStr">
+      <c r="G44" s="8" t="inlineStr">
         <is>
           <t>Tháng</t>
         </is>
       </c>
-      <c r="H45" s="8" t="inlineStr">
+      <c r="H44" s="8" t="inlineStr">
         <is>
           <t>%</t>
         </is>
       </c>
-      <c r="I45" s="8" t="inlineStr">
+      <c r="I44" s="8" t="inlineStr">
         <is>
           <t>=</t>
         </is>
       </c>
-      <c r="J45" s="8" t="inlineStr">
+      <c r="J44" s="8" t="inlineStr">
         <is>
           <t>100%</t>
         </is>
       </c>
-      <c r="K45" s="8" t="n">
+      <c r="K44" s="8" t="n">
         <v>80</v>
       </c>
-      <c r="L45" s="8" t="n">
+      <c r="L44" s="8" t="n">
         <v>100</v>
       </c>
-      <c r="M45" s="8" t="n">
-        <v/>
-      </c>
-      <c r="N45" s="8" t="n">
+      <c r="M44" s="8" t="n">
+        <v/>
+      </c>
+      <c r="N44" s="8" t="n">
         <v>57.5</v>
       </c>
-      <c r="O45" s="8" t="n">
+      <c r="O44" s="8" t="n">
         <v>24</v>
       </c>
-      <c r="P45" s="8" t="inlineStr">
+      <c r="P44" s="8" t="inlineStr">
         <is>
           <t>23 * 2,5 ( sấp xỉ 2h30p mỗi ngày fix bug / meeting clear bug )</t>
         </is>
       </c>
-      <c r="Q45" s="8" t="inlineStr">
+      <c r="Q44" s="8" t="inlineStr">
         <is>
           <r>
             <rPr>
@@ -3406,6 +3380,76 @@
           </r>
         </is>
       </c>
+      <c r="R44" s="8" t="inlineStr"/>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n"/>
+      <c r="B45" s="8" t="inlineStr">
+        <is>
+          <t>Hoàn thành đúng tiến độ và chất lượng các Công việc phát sinh/ Seminar/ Cải tiến</t>
+        </is>
+      </c>
+      <c r="C45" s="8" t="inlineStr">
+        <is>
+          <t>Hoàn thành đúng tiến độ và chất lượng các Công việc phát sinh</t>
+        </is>
+      </c>
+      <c r="D45" s="8" t="inlineStr">
+        <is>
+          <t>Có &gt;= 1 cải tiến để nâng cao chất lượng công việc trong dự án/ môi trường hoặc semninar/ công việc phát sinh được CBQL giao</t>
+        </is>
+      </c>
+      <c r="E45" s="8" t="inlineStr">
+        <is>
+          <t>CBQL/PM/SA confirm</t>
+        </is>
+      </c>
+      <c r="F45" s="8" t="inlineStr">
+        <is>
+          <t>Mail</t>
+        </is>
+      </c>
+      <c r="G45" s="8" t="inlineStr">
+        <is>
+          <t>Tháng</t>
+        </is>
+      </c>
+      <c r="H45" s="8" t="inlineStr">
+        <is>
+          <t>Đạt/Không đạt</t>
+        </is>
+      </c>
+      <c r="I45" s="8" t="inlineStr">
+        <is>
+          <t>=</t>
+        </is>
+      </c>
+      <c r="J45" s="8" t="inlineStr">
+        <is>
+          <t>Đạt</t>
+        </is>
+      </c>
+      <c r="K45" s="8" t="n">
+        <v>20</v>
+      </c>
+      <c r="L45" s="8" t="n">
+        <v/>
+      </c>
+      <c r="M45" s="8" t="n">
+        <v/>
+      </c>
+      <c r="N45" s="8" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="O45" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="P45" s="8" t="inlineStr">
+        <is>
+          <t>11.5h/tháng</t>
+        </is>
+      </c>
+      <c r="Q45" s="8" t="n"/>
       <c r="R45" s="8" t="inlineStr"/>
     </row>
     <row r="46">
@@ -3448,12 +3492,8 @@
       <c r="M46" s="9" t="n">
         <v>0</v>
       </c>
-      <c r="N46" s="9" t="n">
-        <v>184</v>
-      </c>
-      <c r="O46" s="9" t="n">
-        <v>184</v>
-      </c>
+      <c r="N46" s="9" t="inlineStr"/>
+      <c r="O46" s="9" t="inlineStr"/>
       <c r="P46" s="8" t="n">
         <v/>
       </c>
@@ -3770,74 +3810,153 @@
       </c>
       <c r="B52" s="8" t="inlineStr">
         <is>
+          <t>Hoàn thành đúng tiến độ và chất lượng các Công việc phát sinh/ Seminar/ Cải tiến</t>
+        </is>
+      </c>
+      <c r="C52" s="8" t="inlineStr">
+        <is>
+          <t>Đảm bảo các công việc phát sinh hoàn thành đúng tiến độ và chất lượng</t>
+        </is>
+      </c>
+      <c r="D52" s="8" t="inlineStr">
+        <is>
+          <t>Hoàn thành demo áp dụng tool Storybook và slide giới thiệu sản phẩm thi sáng tạo FTEL trước 23.8.2023</t>
+        </is>
+      </c>
+      <c r="E52" s="8" t="inlineStr">
+        <is>
+          <t>Báo cáo được CBQL confirm</t>
+        </is>
+      </c>
+      <c r="F52" s="8" t="inlineStr">
+        <is>
+          <t>Mail</t>
+        </is>
+      </c>
+      <c r="G52" s="8" t="inlineStr">
+        <is>
+          <t>Tháng</t>
+        </is>
+      </c>
+      <c r="H52" s="8" t="inlineStr">
+        <is>
+          <t>Đạt/Không đạt</t>
+        </is>
+      </c>
+      <c r="I52" s="8" t="inlineStr">
+        <is>
+          <t>=</t>
+        </is>
+      </c>
+      <c r="J52" s="8" t="inlineStr">
+        <is>
+          <t>Đạt</t>
+        </is>
+      </c>
+      <c r="K52" s="8" t="n">
+        <v>20</v>
+      </c>
+      <c r="L52" s="8" t="n">
+        <v/>
+      </c>
+      <c r="M52" s="8" t="n">
+        <v/>
+      </c>
+      <c r="N52" s="8" t="n">
+        <v>16</v>
+      </c>
+      <c r="O52" s="8" t="n">
+        <v>8</v>
+      </c>
+      <c r="P52" s="8" t="n"/>
+      <c r="Q52" s="8" t="n"/>
+      <c r="R52" s="8" t="inlineStr"/>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n"/>
+      <c r="B53" s="8" t="inlineStr">
+        <is>
           <t>Đảm bảo chất lượng sản phẩm với số bug log trên các môi trường trong dự án HappyConnect, Dialo</t>
         </is>
       </c>
-      <c r="C52" s="8" t="inlineStr">
+      <c r="C53" s="8" t="inlineStr">
         <is>
           <t>Đảm bảo chất lượng sản phẩm với số bug log trên các môi trường trong dự án Happy Connect, Dialo</t>
         </is>
       </c>
-      <c r="D52" s="8" t="inlineStr">
+      <c r="D53" s="8" t="inlineStr">
         <is>
           <t>Trên môi trường stg Trung bình số bugs được report trong mỗi tính năng khi review code/ thực hiện dev &lt;= 5 và trên môi trường Prod critical/important issue &lt;= 1</t>
         </is>
       </c>
-      <c r="E52" s="8" t="inlineStr">
+      <c r="E53" s="8" t="inlineStr">
         <is>
           <t>- STG: số bug/tính năng khi review code/ thực hiện dev &lt;= 5
 - UAT: critical/important issue &lt;= 1
 ** Không tính issue do nguyên nhân enhancement, wishlist, support</t>
         </is>
       </c>
-      <c r="F52" s="8" t="inlineStr">
+      <c r="F53" s="8" t="inlineStr">
         <is>
           <t>Taiga</t>
         </is>
       </c>
-      <c r="G52" s="8" t="inlineStr">
+      <c r="G53" s="8" t="inlineStr">
         <is>
           <t>Tháng</t>
         </is>
       </c>
-      <c r="H52" s="8" t="inlineStr">
+      <c r="H53" s="8" t="inlineStr">
         <is>
           <t>%</t>
         </is>
       </c>
-      <c r="I52" s="8" t="inlineStr">
+      <c r="I53" s="8" t="inlineStr">
         <is>
           <t>=</t>
         </is>
       </c>
-      <c r="J52" s="8" t="inlineStr">
+      <c r="J53" s="8" t="inlineStr">
         <is>
           <t>100%</t>
         </is>
       </c>
-      <c r="K52" s="8" t="n">
+      <c r="K53" s="8" t="n">
         <v>80</v>
       </c>
-      <c r="L52" s="8" t="n">
-        <v/>
-      </c>
-      <c r="M52" s="8" t="n">
-        <v/>
-      </c>
-      <c r="N52" s="8" t="n">
+      <c r="L53" s="8" t="n">
+        <v>100</v>
+      </c>
+      <c r="M53" s="8" t="n">
+        <v/>
+      </c>
+      <c r="N53" s="8" t="n">
         <v>40</v>
       </c>
-      <c r="O52" s="8" t="n">
-        <v>20</v>
-      </c>
-      <c r="P52" s="8" t="inlineStr">
+      <c r="O53" s="8" t="n">
+        <v>48</v>
+      </c>
+      <c r="P53" s="8" t="inlineStr">
         <is>
           <t>- Dialo: Fix bug 16h
 - Happy Connect: Fix bug 24h</t>
         </is>
       </c>
-      <c r="Q52" s="8" t="inlineStr">
-        <is>
+      <c r="Q53" s="8" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+              <rFont val="&lt;openpyxl.styles.fonts.Font object&gt;&#10;Parameters:&#10;name='Arial', charset=None, family=None, b=False, i=False, strike=False, outline=None, shadow=None, condense=None, color=&lt;openpyxl.styles.colors.Color object&gt;&#10;Parameters:&#10;rgb='00FF0000', indexed=None, auto=None, theme=None, tint=0.0, type='rgb', extend=None, sz=11.0, u=None, vertAlign=None, scheme=None"/>
+            </rPr>
+            <t xml:space="preserve">Bug Dialo : </t>
+          </r>
+          <r>
+            <rPr>
+              <rFont val="&lt;openpyxl.styles.fonts.Font object&gt;&#10;Parameters:&#10;name='Arial', charset=None, family=None, b=False, i=False, strike=False, outline=None, shadow=None, condense=None, color=&lt;openpyxl.styles.colors.Color object&gt;&#10;Parameters:&#10;rgb='00FF0000', indexed=None, auto=None, theme=None, tint=0.0, type='rgb', extend=None, sz=11.0, u=None, vertAlign=None, scheme=None"/>
+            </rPr>
+            <t xml:space="preserve">https://docs.google.com/spreadsheets/d/18AWs-XcmlK_jLArRDy4Ylcfo5qZNjfjy/edit#gid=1981640499
+</t>
+          </r>
           <r>
             <rPr>
               <rFont val="&lt;openpyxl.styles.fonts.Font object&gt;&#10;Parameters:&#10;name='Arial', charset=None, family=None, b=False, i=False, strike=False, outline=None, shadow=None, condense=None, color=&lt;openpyxl.styles.colors.Color object&gt;&#10;Parameters:&#10;rgb='00FF0000', indexed=None, auto=None, theme=None, tint=0.0, type='rgb', extend=None, sz=11.0, u=None, vertAlign=None, scheme=None"/>
@@ -3851,221 +3970,151 @@
             <t xml:space="preserve">https://docs.google.com/spreadsheets/d/13xRiQniLrgAGfqB99ZV0Ihw5wJVlOBEs/edit#gid=1187315498
 </t>
           </r>
+        </is>
+      </c>
+      <c r="R53" s="8" t="inlineStr"/>
+    </row>
+    <row r="54">
+      <c r="A54" s="8" t="n">
+        <v/>
+      </c>
+      <c r="B54" s="8" t="n">
+        <v/>
+      </c>
+      <c r="C54" s="8" t="n">
+        <v/>
+      </c>
+      <c r="D54" s="8" t="n">
+        <v/>
+      </c>
+      <c r="E54" s="8" t="n">
+        <v/>
+      </c>
+      <c r="F54" s="8" t="n">
+        <v/>
+      </c>
+      <c r="G54" s="8" t="n">
+        <v/>
+      </c>
+      <c r="H54" s="8" t="n">
+        <v/>
+      </c>
+      <c r="I54" s="8" t="n">
+        <v/>
+      </c>
+      <c r="J54" s="8" t="n">
+        <v/>
+      </c>
+      <c r="K54" s="9" t="n">
+        <v>100</v>
+      </c>
+      <c r="L54" s="9" t="n">
+        <v>100</v>
+      </c>
+      <c r="M54" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="N54" s="9" t="inlineStr"/>
+      <c r="O54" s="9" t="inlineStr"/>
+      <c r="P54" s="8" t="n">
+        <v/>
+      </c>
+      <c r="Q54" s="8" t="n">
+        <v/>
+      </c>
+      <c r="R54" s="8" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="8" t="inlineStr">
+        <is>
+          <t>okr</t>
+        </is>
+      </c>
+      <c r="B55" s="8" t="inlineStr">
+        <is>
+          <t>Nâng cao chất lượng hoàn thành phát triển và release 100% các tính năng trong dự án trung tâm HappyConnect, Dialo đúng thời hạn cam kết</t>
+        </is>
+      </c>
+      <c r="C55" s="8" t="inlineStr">
+        <is>
+          <t>Hoàn thành release các tính năng bản theo kế hoạch trong tháng 8</t>
+        </is>
+      </c>
+      <c r="D55" s="8" t="inlineStr">
+        <is>
+          <t>Đảm bảo 100% các tính năng trong sprint được giao hoàn thành đúng thời hạn (dự án Happy Connect, Dialo)</t>
+        </is>
+      </c>
+      <c r="E55" s="8" t="inlineStr">
+        <is>
+          <t>100% US/ sprint hoàn thành thỏa cả 2 điều kiện:
+- Có bằng chứng dev intergration test/ unittest ở mt dev
+- Tester test pass các US trên mt stg</t>
+        </is>
+      </c>
+      <c r="F55" s="8" t="inlineStr">
+        <is>
+          <t>Taiga</t>
+        </is>
+      </c>
+      <c r="G55" s="8" t="inlineStr">
+        <is>
+          <t>Tháng</t>
+        </is>
+      </c>
+      <c r="H55" s="8" t="inlineStr">
+        <is>
+          <t>%</t>
+        </is>
+      </c>
+      <c r="I55" s="8" t="inlineStr">
+        <is>
+          <t>=</t>
+        </is>
+      </c>
+      <c r="J55" s="8" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="K55" s="8" t="n">
+        <v>100</v>
+      </c>
+      <c r="L55" s="8" t="n">
+        <v>50</v>
+      </c>
+      <c r="M55" s="8" t="n">
+        <v/>
+      </c>
+      <c r="N55" s="8" t="n">
+        <v>128</v>
+      </c>
+      <c r="O55" s="8" t="n">
+        <v>128</v>
+      </c>
+      <c r="P55" s="8" t="inlineStr">
+        <is>
+          <t>- Dialo: làm tính năng + họp daily 24h
+- Happy Connect: làm tính năng + họp daily 72h</t>
+        </is>
+      </c>
+      <c r="Q55" s="8" t="inlineStr">
+        <is>
           <r>
             <rPr>
               <rFont val="&lt;openpyxl.styles.fonts.Font object&gt;&#10;Parameters:&#10;name='Arial', charset=None, family=None, b=False, i=False, strike=False, outline=None, shadow=None, condense=None, color=&lt;openpyxl.styles.colors.Color object&gt;&#10;Parameters:&#10;rgb='00FF0000', indexed=None, auto=None, theme=None, tint=0.0, type='rgb', extend=None, sz=11.0, u=None, vertAlign=None, scheme=None"/>
             </rPr>
-            <t xml:space="preserve">Bug Dialo : </t>
+            <t xml:space="preserve">Dialo : </t>
           </r>
           <r>
             <rPr>
               <rFont val="&lt;openpyxl.styles.fonts.Font object&gt;&#10;Parameters:&#10;name='Arial', charset=None, family=None, b=False, i=False, strike=False, outline=None, shadow=None, condense=None, color=&lt;openpyxl.styles.colors.Color object&gt;&#10;Parameters:&#10;rgb='00FF0000', indexed=None, auto=None, theme=None, tint=0.0, type='rgb', extend=None, sz=11.0, u=None, vertAlign=None, scheme=None"/>
             </rPr>
-            <t xml:space="preserve">https://docs.google.com/spreadsheets/d/18AWs-XcmlK_jLArRDy4Ylcfo5qZNjfjy/edit#gid=1981640499
+            <t xml:space="preserve">https://docs.google.com/spreadsheets/d/13xRiQniLrgAGfqB99ZV0Ihw5wJVlOBEs/edit#gid=167033470
 </t>
           </r>
-        </is>
-      </c>
-      <c r="R52" s="8" t="inlineStr"/>
-    </row>
-    <row r="53">
-      <c r="A53" s="2" t="n"/>
-      <c r="B53" s="8" t="inlineStr">
-        <is>
-          <t>Hoàn thành đúng tiến độ và chất lượng các Công việc phát sinh/ Seminar/ Cải tiến</t>
-        </is>
-      </c>
-      <c r="C53" s="8" t="inlineStr">
-        <is>
-          <t>Đảm bảo các công việc phát sinh hoàn thành đúng tiến độ và chất lượng</t>
-        </is>
-      </c>
-      <c r="D53" s="8" t="inlineStr">
-        <is>
-          <t>Hoàn thành demo áp dụng tool Storybook và slide giới thiệu sản phẩm thi sáng tạo FTEL trước 23.8.2023</t>
-        </is>
-      </c>
-      <c r="E53" s="8" t="inlineStr">
-        <is>
-          <t>Báo cáo được CBQL confirm</t>
-        </is>
-      </c>
-      <c r="F53" s="8" t="inlineStr">
-        <is>
-          <t>Mail</t>
-        </is>
-      </c>
-      <c r="G53" s="8" t="inlineStr">
-        <is>
-          <t>Tháng</t>
-        </is>
-      </c>
-      <c r="H53" s="8" t="inlineStr">
-        <is>
-          <t>Đạt/Không đạt</t>
-        </is>
-      </c>
-      <c r="I53" s="8" t="inlineStr">
-        <is>
-          <t>=</t>
-        </is>
-      </c>
-      <c r="J53" s="8" t="inlineStr">
-        <is>
-          <t>Đạt</t>
-        </is>
-      </c>
-      <c r="K53" s="8" t="n">
-        <v>20</v>
-      </c>
-      <c r="L53" s="8" t="n">
-        <v/>
-      </c>
-      <c r="M53" s="8" t="n">
-        <v/>
-      </c>
-      <c r="N53" s="8" t="n">
-        <v>16</v>
-      </c>
-      <c r="O53" s="8" t="n">
-        <v>16</v>
-      </c>
-      <c r="P53" s="8" t="n"/>
-      <c r="Q53" s="8" t="n"/>
-      <c r="R53" s="8" t="inlineStr"/>
-    </row>
-    <row r="54">
-      <c r="A54" s="8" t="n">
-        <v/>
-      </c>
-      <c r="B54" s="8" t="n">
-        <v/>
-      </c>
-      <c r="C54" s="8" t="n">
-        <v/>
-      </c>
-      <c r="D54" s="8" t="n">
-        <v/>
-      </c>
-      <c r="E54" s="8" t="n">
-        <v/>
-      </c>
-      <c r="F54" s="8" t="n">
-        <v/>
-      </c>
-      <c r="G54" s="8" t="n">
-        <v/>
-      </c>
-      <c r="H54" s="8" t="n">
-        <v/>
-      </c>
-      <c r="I54" s="8" t="n">
-        <v/>
-      </c>
-      <c r="J54" s="8" t="n">
-        <v/>
-      </c>
-      <c r="K54" s="9" t="n">
-        <v>180</v>
-      </c>
-      <c r="L54" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="M54" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="N54" s="9" t="n">
-        <v>352</v>
-      </c>
-      <c r="O54" s="9" t="n">
-        <v>252</v>
-      </c>
-      <c r="P54" s="8" t="n">
-        <v/>
-      </c>
-      <c r="Q54" s="8" t="n">
-        <v/>
-      </c>
-      <c r="R54" s="8" t="n">
-        <v/>
-      </c>
-    </row>
-    <row r="55">
-      <c r="A55" s="8" t="inlineStr">
-        <is>
-          <t>okr</t>
-        </is>
-      </c>
-      <c r="B55" s="8" t="inlineStr">
-        <is>
-          <t>Nâng cao chất lượng hoàn thành phát triển và release 100% các tính năng trong dự án trung tâm HappyConnect, Dialo đúng thời hạn cam kết</t>
-        </is>
-      </c>
-      <c r="C55" s="8" t="inlineStr">
-        <is>
-          <t>Hoàn thành release các tính năng bản theo kế hoạch trong tháng 8</t>
-        </is>
-      </c>
-      <c r="D55" s="8" t="inlineStr">
-        <is>
-          <t>Đảm bảo 100% các tính năng trong sprint được giao hoàn thành đúng thời hạn (dự án Happy Connect, Dialo)</t>
-        </is>
-      </c>
-      <c r="E55" s="8" t="inlineStr">
-        <is>
-          <t>100% US/ sprint hoàn thành thỏa cả 2 điều kiện:
-- Có bằng chứng dev intergration test/ unittest ở mt dev
-- Tester test pass các US trên mt stg</t>
-        </is>
-      </c>
-      <c r="F55" s="8" t="inlineStr">
-        <is>
-          <t>Taiga</t>
-        </is>
-      </c>
-      <c r="G55" s="8" t="inlineStr">
-        <is>
-          <t>Tháng</t>
-        </is>
-      </c>
-      <c r="H55" s="8" t="inlineStr">
-        <is>
-          <t>%</t>
-        </is>
-      </c>
-      <c r="I55" s="8" t="inlineStr">
-        <is>
-          <t>=</t>
-        </is>
-      </c>
-      <c r="J55" s="8" t="inlineStr">
-        <is>
-          <t>100%</t>
-        </is>
-      </c>
-      <c r="K55" s="8" t="n">
-        <v>100</v>
-      </c>
-      <c r="L55" s="8" t="n">
-        <v>50</v>
-      </c>
-      <c r="M55" s="8" t="n">
-        <v/>
-      </c>
-      <c r="N55" s="8" t="n">
-        <v>128</v>
-      </c>
-      <c r="O55" s="8" t="n">
-        <v>98</v>
-      </c>
-      <c r="P55" s="8" t="inlineStr">
-        <is>
-          <t>- Dialo: làm tính năng + họp daily 24h
-- Happy Connect: làm tính năng + họp daily 72h</t>
-        </is>
-      </c>
-      <c r="Q55" s="8" t="inlineStr">
-        <is>
           <r>
             <rPr>
               <rFont val="&lt;openpyxl.styles.fonts.Font object&gt;&#10;Parameters:&#10;name='Arial', charset=None, family=None, b=False, i=False, strike=False, outline=None, shadow=None, condense=None, color=&lt;openpyxl.styles.colors.Color object&gt;&#10;Parameters:&#10;rgb='00FF0000', indexed=None, auto=None, theme=None, tint=0.0, type='rgb', extend=None, sz=11.0, u=None, vertAlign=None, scheme=None"/>
@@ -4079,19 +4128,6 @@
             <t xml:space="preserve">https://docs.google.com/spreadsheets/d/13xRiQniLrgAGfqB99ZV0Ihw5wJVlOBEs/edit#gid=167033470
 </t>
           </r>
-          <r>
-            <rPr>
-              <rFont val="&lt;openpyxl.styles.fonts.Font object&gt;&#10;Parameters:&#10;name='Arial', charset=None, family=None, b=False, i=False, strike=False, outline=None, shadow=None, condense=None, color=&lt;openpyxl.styles.colors.Color object&gt;&#10;Parameters:&#10;rgb='00FF0000', indexed=None, auto=None, theme=None, tint=0.0, type='rgb', extend=None, sz=11.0, u=None, vertAlign=None, scheme=None"/>
-            </rPr>
-            <t xml:space="preserve">Dialo : </t>
-          </r>
-          <r>
-            <rPr>
-              <rFont val="&lt;openpyxl.styles.fonts.Font object&gt;&#10;Parameters:&#10;name='Arial', charset=None, family=None, b=False, i=False, strike=False, outline=None, shadow=None, condense=None, color=&lt;openpyxl.styles.colors.Color object&gt;&#10;Parameters:&#10;rgb='00FF0000', indexed=None, auto=None, theme=None, tint=0.0, type='rgb', extend=None, sz=11.0, u=None, vertAlign=None, scheme=None"/>
-            </rPr>
-            <t xml:space="preserve">https://docs.google.com/spreadsheets/d/13xRiQniLrgAGfqB99ZV0Ihw5wJVlOBEs/edit#gid=167033470
-</t>
-          </r>
         </is>
       </c>
       <c r="R55" s="8" t="inlineStr"/>
@@ -4128,19 +4164,19 @@
         <v/>
       </c>
       <c r="K56" s="9" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="L56" s="9" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="M56" s="9" t="n">
         <v>0</v>
       </c>
       <c r="N56" s="9" t="n">
-        <v>352</v>
+        <v>184</v>
       </c>
       <c r="O56" s="9" t="n">
-        <v>252</v>
+        <v>184</v>
       </c>
       <c r="P56" s="8" t="n">
         <v/>
@@ -4310,142 +4346,72 @@
       </c>
       <c r="B60" s="8" t="inlineStr">
         <is>
-          <t>Hoàn thành đúng tiến độ và chất lượng các Công việc phát sinh/ Seminar/ Cải tiến</t>
+          <t>Đảm bảo chất lượng sản phẩm với số bug log trên các môi trường trong dự án OnCX, SOP, HappyConnect, Dialo, CheckMK</t>
         </is>
       </c>
       <c r="C60" s="8" t="inlineStr">
         <is>
-          <t>Nâng cao tính chia sẻ, áp dụng khi đưa ra cải tiến trong dự án, môi trường làm việc</t>
+          <t>Đảm bảo chất lượng sản phẩm với số bug log trên các môi trường trong dự án Dialo</t>
         </is>
       </c>
       <c r="D60" s="8" t="inlineStr">
         <is>
-          <t>Ứng dụng gRPC vào tối ưu &gt;= 1 module trong dự án Dialo được CBQL/PM/SA confirm trước 23.08.2023</t>
+          <t>Trên môi trường stg Trung bình số bugs được report trong mỗi tính năng khi review code/ thực hiện dev &lt;= 5 và trên môi trường UAT critical/important issue &lt;= 1</t>
         </is>
       </c>
       <c r="E60" s="8" t="inlineStr">
-        <is>
-          <t>Báo cáo được CBQL/PM/SA confirm</t>
-        </is>
-      </c>
-      <c r="F60" s="8" t="inlineStr">
-        <is>
-          <t>Mail</t>
-        </is>
-      </c>
-      <c r="G60" s="8" t="inlineStr">
-        <is>
-          <t>Tháng</t>
-        </is>
-      </c>
-      <c r="H60" s="8" t="inlineStr">
-        <is>
-          <t>Đạt/Không đạt</t>
-        </is>
-      </c>
-      <c r="I60" s="8" t="inlineStr">
-        <is>
-          <t>=</t>
-        </is>
-      </c>
-      <c r="J60" s="8" t="inlineStr">
-        <is>
-          <t>Đạt</t>
-        </is>
-      </c>
-      <c r="K60" s="8" t="n">
-        <v>20</v>
-      </c>
-      <c r="L60" s="8" t="n">
-        <v/>
-      </c>
-      <c r="M60" s="8" t="n">
-        <v/>
-      </c>
-      <c r="N60" s="8" t="n">
-        <v>23</v>
-      </c>
-      <c r="O60" s="8" t="n">
-        <v>17</v>
-      </c>
-      <c r="P60" s="8" t="inlineStr">
-        <is>
-          <t xml:space="preserve">khoảng 1h mỗi ngày nghiên cứu ứng dụng vào module dự án </t>
-        </is>
-      </c>
-      <c r="Q60" s="8" t="n"/>
-      <c r="R60" s="8" t="inlineStr"/>
-    </row>
-    <row r="61">
-      <c r="A61" s="2" t="n"/>
-      <c r="B61" s="8" t="inlineStr">
-        <is>
-          <t>Đảm bảo chất lượng sản phẩm với số bug log trên các môi trường trong dự án OnCX, SOP, HappyConnect, Dialo, CheckMK</t>
-        </is>
-      </c>
-      <c r="C61" s="8" t="inlineStr">
-        <is>
-          <t>Đảm bảo chất lượng sản phẩm với số bug log trên các môi trường trong dự án Dialo</t>
-        </is>
-      </c>
-      <c r="D61" s="8" t="inlineStr">
-        <is>
-          <t>Trên môi trường stg Trung bình số bugs được report trong mỗi tính năng khi review code/ thực hiện dev &lt;= 5 và trên môi trường UAT critical/important issue &lt;= 1</t>
-        </is>
-      </c>
-      <c r="E61" s="8" t="inlineStr">
         <is>
           <t>- STG: số bug/tính năng khi review code/ thực hiện dev &lt;= 5
 - UAT: critical/important issue &lt;= 1
 ** Không tính issue do nguyên nhân enhancement, wishlist, support</t>
         </is>
       </c>
-      <c r="F61" s="8" t="inlineStr">
+      <c r="F60" s="8" t="inlineStr">
         <is>
           <t>Taiga</t>
         </is>
       </c>
-      <c r="G61" s="8" t="inlineStr">
+      <c r="G60" s="8" t="inlineStr">
         <is>
           <t>Tháng</t>
         </is>
       </c>
-      <c r="H61" s="8" t="inlineStr">
+      <c r="H60" s="8" t="inlineStr">
         <is>
           <t>%</t>
         </is>
       </c>
-      <c r="I61" s="8" t="inlineStr">
+      <c r="I60" s="8" t="inlineStr">
         <is>
           <t>=</t>
         </is>
       </c>
-      <c r="J61" s="8" t="inlineStr">
+      <c r="J60" s="8" t="inlineStr">
         <is>
           <t>100%</t>
         </is>
       </c>
-      <c r="K61" s="8" t="n">
+      <c r="K60" s="8" t="n">
         <v>80</v>
       </c>
-      <c r="L61" s="8" t="n">
+      <c r="L60" s="8" t="n">
         <v>100</v>
       </c>
-      <c r="M61" s="8" t="n">
-        <v/>
-      </c>
-      <c r="N61" s="8" t="n">
+      <c r="M60" s="8" t="n">
+        <v/>
+      </c>
+      <c r="N60" s="8" t="n">
         <v>46</v>
       </c>
-      <c r="O61" s="8" t="n">
+      <c r="O60" s="8" t="n">
         <v>37</v>
       </c>
-      <c r="P61" s="8" t="inlineStr">
+      <c r="P60" s="8" t="inlineStr">
         <is>
           <t>23 * 2 ( 2h fix bug / meeting clear bug)</t>
         </is>
       </c>
-      <c r="Q61" s="8" t="inlineStr">
+      <c r="Q60" s="8" t="inlineStr">
         <is>
           <r>
             <rPr>
@@ -4462,6 +4428,92 @@
           </r>
         </is>
       </c>
+      <c r="R60" s="8" t="inlineStr"/>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n"/>
+      <c r="B61" s="8" t="inlineStr">
+        <is>
+          <t>Hoàn thành đúng tiến độ và chất lượng các Công việc phát sinh/ Seminar/ Cải tiến</t>
+        </is>
+      </c>
+      <c r="C61" s="8" t="inlineStr">
+        <is>
+          <t>Nâng cao tính chia sẻ, áp dụng khi đưa ra cải tiến trong dự án, môi trường làm việc</t>
+        </is>
+      </c>
+      <c r="D61" s="8" t="inlineStr">
+        <is>
+          <t>Ứng dụng gRPC vào tối ưu &gt;= 1 module trong dự án Dialo được CBQL/PM/SA confirm trước 23.08.2023</t>
+        </is>
+      </c>
+      <c r="E61" s="8" t="inlineStr">
+        <is>
+          <t>Báo cáo được CBQL/PM/SA confirm</t>
+        </is>
+      </c>
+      <c r="F61" s="8" t="inlineStr">
+        <is>
+          <t>Mail</t>
+        </is>
+      </c>
+      <c r="G61" s="8" t="inlineStr">
+        <is>
+          <t>Tháng</t>
+        </is>
+      </c>
+      <c r="H61" s="8" t="inlineStr">
+        <is>
+          <t>Đạt/Không đạt</t>
+        </is>
+      </c>
+      <c r="I61" s="8" t="inlineStr">
+        <is>
+          <t>=</t>
+        </is>
+      </c>
+      <c r="J61" s="8" t="inlineStr">
+        <is>
+          <t>Đạt</t>
+        </is>
+      </c>
+      <c r="K61" s="8" t="n">
+        <v>20</v>
+      </c>
+      <c r="L61" s="8" t="n">
+        <v/>
+      </c>
+      <c r="M61" s="8" t="n">
+        <v/>
+      </c>
+      <c r="N61" s="8" t="n">
+        <v>23</v>
+      </c>
+      <c r="O61" s="8" t="n">
+        <v>17</v>
+      </c>
+      <c r="P61" s="8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">khoảng 1h mỗi ngày nghiên cứu ứng dụng vào module dự án </t>
+        </is>
+      </c>
+      <c r="Q61" s="8" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+              <rFont val="&lt;openpyxl.styles.fonts.Font object&gt;&#10;Parameters:&#10;name='Arial', charset=None, family=None, b=False, i=False, strike=False, outline=None, shadow=None, condense=None, color=&lt;openpyxl.styles.colors.Color object&gt;&#10;Parameters:&#10;rgb='00FF0000', indexed=None, auto=None, theme=None, tint=0.0, type='rgb', extend=None, sz=11.0, u=None, vertAlign=None, scheme=None"/>
+            </rPr>
+            <t xml:space="preserve">Link bằng chứng : </t>
+          </r>
+          <r>
+            <rPr>
+              <rFont val="&lt;openpyxl.styles.fonts.Font object&gt;&#10;Parameters:&#10;name='Arial', charset=None, family=None, b=False, i=False, strike=False, outline=None, shadow=None, condense=None, color=&lt;openpyxl.styles.colors.Color object&gt;&#10;Parameters:&#10;rgb='00FF0000', indexed=None, auto=None, theme=None, tint=0.0, type='rgb', extend=None, sz=11.0, u=None, vertAlign=None, scheme=None"/>
+            </rPr>
+            <t xml:space="preserve">https://docs.google.com/spreadsheets/d/1szpz8kekeCkkKAiEYem-xqp7zxYnCbDkbBjsgs5UXng/edit#gid=1959940647
+</t>
+          </r>
+        </is>
+      </c>
       <c r="R61" s="8" t="inlineStr"/>
     </row>
     <row r="62">
@@ -4504,12 +4556,8 @@
       <c r="M62" s="9" t="n">
         <v>0</v>
       </c>
-      <c r="N62" s="9" t="n">
-        <v>184</v>
-      </c>
-      <c r="O62" s="9" t="n">
-        <v>137</v>
-      </c>
+      <c r="N62" s="9" t="inlineStr"/>
+      <c r="O62" s="9" t="inlineStr"/>
       <c r="P62" s="8" t="n">
         <v/>
       </c>
@@ -4831,67 +4879,139 @@
       </c>
       <c r="C68" s="8" t="inlineStr">
         <is>
+          <t>Đảm bảo các công việc phát sinh hoàn thành đúng tiến độ và chất lượng</t>
+        </is>
+      </c>
+      <c r="D68" s="8" t="inlineStr">
+        <is>
+          <t>Hoàn thành triển khai tích hợp HVAC client vào source code dự án Happy Connect trong trước 23.08.2023</t>
+        </is>
+      </c>
+      <c r="E68" s="8" t="inlineStr">
+        <is>
+          <t>Báo cáo được CBQL/PM/SA confirm</t>
+        </is>
+      </c>
+      <c r="F68" s="8" t="inlineStr">
+        <is>
+          <t>Mail</t>
+        </is>
+      </c>
+      <c r="G68" s="8" t="inlineStr">
+        <is>
+          <t>Tháng</t>
+        </is>
+      </c>
+      <c r="H68" s="8" t="inlineStr">
+        <is>
+          <t>%</t>
+        </is>
+      </c>
+      <c r="I68" s="8" t="inlineStr">
+        <is>
+          <t>=</t>
+        </is>
+      </c>
+      <c r="J68" s="8" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="K68" s="8" t="n">
+        <v>20</v>
+      </c>
+      <c r="L68" s="8" t="n">
+        <v/>
+      </c>
+      <c r="M68" s="8" t="n">
+        <v/>
+      </c>
+      <c r="N68" s="8" t="n">
+        <v>16</v>
+      </c>
+      <c r="O68" s="8" t="n">
+        <v>8</v>
+      </c>
+      <c r="P68" s="8" t="inlineStr">
+        <is>
+          <t>"- Nghiên cứu HVAC: 8h 
+- Tích hợp thư viện vào source code và triển khai dev: 6h
+- Kiểm tra, điều chỉnh cấu hình cho các service: 2h"</t>
+        </is>
+      </c>
+      <c r="Q68" s="8" t="n"/>
+      <c r="R68" s="8" t="inlineStr"/>
+    </row>
+    <row r="69">
+      <c r="A69" s="2" t="n"/>
+      <c r="B69" s="8" t="inlineStr">
+        <is>
+          <t>Hoàn thành đúng tiến độ và chất lượng các Công việc phát sinh/ Seminar/ Cải tiến</t>
+        </is>
+      </c>
+      <c r="C69" s="8" t="inlineStr">
+        <is>
           <t>Đảm bảo chất lượng sản phẩm với số bug log trên các môi trường trong dự án HappyConnect</t>
         </is>
       </c>
-      <c r="D68" s="8" t="inlineStr">
+      <c r="D69" s="8" t="inlineStr">
         <is>
           <t>Trên môi trường stg Trung bình số bugs được report trong mỗi tính năng khi review code/ thực hiện dev &lt;= 5 và trên môi trường UAT critical/important issue &lt;= 1</t>
         </is>
       </c>
-      <c r="E68" s="8" t="inlineStr">
+      <c r="E69" s="8" t="inlineStr">
         <is>
           <t>- STG: số bug/tính năng khi review code/ thực hiện dev &lt;= 5
 - UAT: critical/important issue &lt;= 1
 ** Không tính issue do nguyên nhân enhancement, wishlist, support</t>
         </is>
       </c>
-      <c r="F68" s="8" t="inlineStr">
+      <c r="F69" s="8" t="inlineStr">
         <is>
           <t>Taiga</t>
         </is>
       </c>
-      <c r="G68" s="8" t="inlineStr">
+      <c r="G69" s="8" t="inlineStr">
         <is>
           <t>Tháng</t>
         </is>
       </c>
-      <c r="H68" s="8" t="inlineStr">
+      <c r="H69" s="8" t="inlineStr">
         <is>
           <t>%</t>
         </is>
       </c>
-      <c r="I68" s="8" t="inlineStr">
+      <c r="I69" s="8" t="inlineStr">
         <is>
           <t>=</t>
         </is>
       </c>
-      <c r="J68" s="8" t="inlineStr">
+      <c r="J69" s="8" t="inlineStr">
         <is>
           <t>100%</t>
         </is>
       </c>
-      <c r="K68" s="8" t="n">
+      <c r="K69" s="8" t="n">
         <v>80</v>
       </c>
-      <c r="L68" s="8" t="n">
-        <v/>
-      </c>
-      <c r="M68" s="8" t="n">
-        <v/>
-      </c>
-      <c r="N68" s="8" t="n">
+      <c r="L69" s="8" t="n">
+        <v>100</v>
+      </c>
+      <c r="M69" s="8" t="n">
+        <v/>
+      </c>
+      <c r="N69" s="8" t="n">
         <v>46</v>
       </c>
-      <c r="O68" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="P68" s="8" t="inlineStr">
+      <c r="O69" s="8" t="n">
+        <v>30</v>
+      </c>
+      <c r="P69" s="8" t="inlineStr">
         <is>
           <t>- Fix bug: 2h/ngày*23 (Meeting trao đổi và xử lý Bug)</t>
         </is>
       </c>
-      <c r="Q68" s="8" t="inlineStr">
+      <c r="Q69" s="8" t="inlineStr">
         <is>
           <r>
             <rPr>
@@ -4908,78 +5028,6 @@
           </r>
         </is>
       </c>
-      <c r="R68" s="8" t="inlineStr"/>
-    </row>
-    <row r="69">
-      <c r="A69" s="2" t="n"/>
-      <c r="B69" s="8" t="inlineStr">
-        <is>
-          <t>Hoàn thành đúng tiến độ và chất lượng các Công việc phát sinh/ Seminar/ Cải tiến</t>
-        </is>
-      </c>
-      <c r="C69" s="8" t="inlineStr">
-        <is>
-          <t>Đảm bảo các công việc phát sinh hoàn thành đúng tiến độ và chất lượng</t>
-        </is>
-      </c>
-      <c r="D69" s="8" t="inlineStr">
-        <is>
-          <t>Hoàn thành triển khai tích hợp HVAC client vào source code dự án Happy Connect trong trước 23.08.2023</t>
-        </is>
-      </c>
-      <c r="E69" s="8" t="inlineStr">
-        <is>
-          <t>Báo cáo được CBQL/PM/SA confirm</t>
-        </is>
-      </c>
-      <c r="F69" s="8" t="inlineStr">
-        <is>
-          <t>Mail</t>
-        </is>
-      </c>
-      <c r="G69" s="8" t="inlineStr">
-        <is>
-          <t>Tháng</t>
-        </is>
-      </c>
-      <c r="H69" s="8" t="inlineStr">
-        <is>
-          <t>%</t>
-        </is>
-      </c>
-      <c r="I69" s="8" t="inlineStr">
-        <is>
-          <t>=</t>
-        </is>
-      </c>
-      <c r="J69" s="8" t="inlineStr">
-        <is>
-          <t>100%</t>
-        </is>
-      </c>
-      <c r="K69" s="8" t="n">
-        <v>20</v>
-      </c>
-      <c r="L69" s="8" t="n">
-        <v/>
-      </c>
-      <c r="M69" s="8" t="n">
-        <v/>
-      </c>
-      <c r="N69" s="8" t="n">
-        <v>16</v>
-      </c>
-      <c r="O69" s="8" t="n">
-        <v/>
-      </c>
-      <c r="P69" s="8" t="inlineStr">
-        <is>
-          <t>"- Nghiên cứu HVAC: 8h 
-- Tích hợp thư viện vào source code và triển khai dev: 6h
-- Kiểm tra, điều chỉnh cấu hình cho các service: 2h"</t>
-        </is>
-      </c>
-      <c r="Q69" s="8" t="n"/>
       <c r="R69" s="8" t="inlineStr"/>
     </row>
     <row r="70">
@@ -5017,14 +5065,12 @@
         <v>100</v>
       </c>
       <c r="L70" s="9" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M70" s="9" t="n">
         <v>0</v>
       </c>
-      <c r="N70" s="9" t="n">
-        <v>184</v>
-      </c>
+      <c r="N70" s="9" t="inlineStr"/>
       <c r="O70" s="9" t="inlineStr"/>
       <c r="P70" s="8" t="n">
         <v/>
@@ -5102,7 +5148,7 @@
         <v>122</v>
       </c>
       <c r="O71" s="8" t="n">
-        <v>0</v>
+        <v>132</v>
       </c>
       <c r="P71" s="8" t="inlineStr">
         <is>
@@ -5176,7 +5222,9 @@
       <c r="N72" s="9" t="n">
         <v>184</v>
       </c>
-      <c r="O72" s="9" t="inlineStr"/>
+      <c r="O72" s="9" t="n">
+        <v>170</v>
+      </c>
       <c r="P72" s="8" t="n">
         <v/>
       </c>
@@ -5394,7 +5442,7 @@
         <v>80</v>
       </c>
       <c r="L76" s="8" t="n">
-        <v/>
+        <v>100</v>
       </c>
       <c r="M76" s="8" t="n">
         <v/>
@@ -5403,14 +5451,30 @@
         <v>46</v>
       </c>
       <c r="O76" s="8" t="n">
-        <v/>
+        <v>18</v>
       </c>
       <c r="P76" s="8" t="inlineStr">
         <is>
           <t>23 * 2 ( 2h fix bug / meeting clear bug)</t>
         </is>
       </c>
-      <c r="Q76" s="8" t="n"/>
+      <c r="Q76" s="8" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+              <rFont val="&lt;openpyxl.styles.fonts.Font object&gt;&#10;Parameters:&#10;name='Arial', charset=None, family=None, b=False, i=False, strike=False, outline=None, shadow=None, condense=None, color=&lt;openpyxl.styles.colors.Color object&gt;&#10;Parameters:&#10;rgb='00FF0000', indexed=None, auto=None, theme=None, tint=0.0, type='rgb', extend=None, sz=11.0, u=None, vertAlign=None, scheme=None"/>
+            </rPr>
+            <t xml:space="preserve">bằng chứng bug : </t>
+          </r>
+          <r>
+            <rPr>
+              <rFont val="&lt;openpyxl.styles.fonts.Font object&gt;&#10;Parameters:&#10;name='Arial', charset=None, family=None, b=False, i=False, strike=False, outline=None, shadow=None, condense=None, color=&lt;openpyxl.styles.colors.Color object&gt;&#10;Parameters:&#10;rgb='00FF0000', indexed=None, auto=None, theme=None, tint=0.0, type='rgb', extend=None, sz=11.0, u=None, vertAlign=None, scheme=None"/>
+            </rPr>
+            <t xml:space="preserve">https://docs.google.com/spreadsheets/d/1_tnT-wl7XPpycFYY5bSZyXZgFFMUZA8BvmnRSb4d8oI/edit#gid=0
+</t>
+          </r>
+        </is>
+      </c>
       <c r="R76" s="8" t="inlineStr"/>
     </row>
     <row r="77">
@@ -5464,7 +5528,7 @@
         <v>20</v>
       </c>
       <c r="L77" s="8" t="n">
-        <v/>
+        <v>0</v>
       </c>
       <c r="M77" s="8" t="n">
         <v/>
@@ -5473,7 +5537,7 @@
         <v>15</v>
       </c>
       <c r="O77" s="8" t="n">
-        <v/>
+        <v>22</v>
       </c>
       <c r="P77" s="8" t="inlineStr">
         <is>
@@ -5518,14 +5582,12 @@
         <v>100</v>
       </c>
       <c r="L78" s="9" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M78" s="9" t="n">
         <v>0</v>
       </c>
-      <c r="N78" s="9" t="n">
-        <v>184</v>
-      </c>
+      <c r="N78" s="9" t="inlineStr"/>
       <c r="O78" s="9" t="inlineStr"/>
       <c r="P78" s="8" t="n">
         <v/>
@@ -5594,7 +5656,7 @@
         <v>100</v>
       </c>
       <c r="L79" s="8" t="n">
-        <v/>
+        <v>91</v>
       </c>
       <c r="M79" s="8" t="n">
         <v/>
@@ -5603,7 +5665,7 @@
         <v>123</v>
       </c>
       <c r="O79" s="8" t="n">
-        <v/>
+        <v>107</v>
       </c>
       <c r="P79" s="8" t="inlineStr">
         <is>
@@ -5611,7 +5673,23 @@
 4h review, retro, planing 1 sprint"</t>
         </is>
       </c>
-      <c r="Q79" s="8" t="n"/>
+      <c r="Q79" s="8" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+              <rFont val="&lt;openpyxl.styles.fonts.Font object&gt;&#10;Parameters:&#10;name='Arial', charset=None, family=None, b=False, i=False, strike=False, outline=None, shadow=None, condense=None, color=&lt;openpyxl.styles.colors.Color object&gt;&#10;Parameters:&#10;rgb='00FF0000', indexed=None, auto=None, theme=None, tint=0.0, type='rgb', extend=None, sz=11.0, u=None, vertAlign=None, scheme=None"/>
+            </rPr>
+            <t xml:space="preserve">bằng chứng tiến độ : </t>
+          </r>
+          <r>
+            <rPr>
+              <rFont val="&lt;openpyxl.styles.fonts.Font object&gt;&#10;Parameters:&#10;name='Arial', charset=None, family=None, b=False, i=False, strike=False, outline=None, shadow=None, condense=None, color=&lt;openpyxl.styles.colors.Color object&gt;&#10;Parameters:&#10;rgb='00FF0000', indexed=None, auto=None, theme=None, tint=0.0, type='rgb', extend=None, sz=11.0, u=None, vertAlign=None, scheme=None"/>
+            </rPr>
+            <t xml:space="preserve">https://docs.google.com/spreadsheets/d/169S8Tj_QKcR8cMRlgrF2b2gnVkYBRcyL/edit#gid=1816014955
+</t>
+          </r>
+        </is>
+      </c>
       <c r="R79" s="8" t="inlineStr"/>
     </row>
     <row r="80">
@@ -5649,7 +5727,7 @@
         <v>100</v>
       </c>
       <c r="L80" s="9" t="n">
-        <v>0</v>
+        <v>91</v>
       </c>
       <c r="M80" s="9" t="n">
         <v>0</v>
@@ -5657,7 +5735,9 @@
       <c r="N80" s="9" t="n">
         <v>184</v>
       </c>
-      <c r="O80" s="9" t="inlineStr"/>
+      <c r="O80" s="9" t="n">
+        <v>147</v>
+      </c>
       <c r="P80" s="8" t="n">
         <v/>
       </c>

--- a/kpiExcelSheet/nhóm L1.xlsx
+++ b/kpiExcelSheet/nhóm L1.xlsx
@@ -768,7 +768,7 @@
           </r>
           <r>
             <rPr>
-              <rFont val="&lt;openpyxl.styles.fonts.Font object&gt;&#10;Parameters:&#10;name='Arial', charset=None, family=None, b=False, i=False, strike=False, outline=None, shadow=None, condense=None, color=&lt;openpyxl.styles.colors.Color object&gt;&#10;Parameters:&#10;rgb='00FF0000', indexed=None, auto=None, theme=None, tint=0.0, type='rgb', extend=None, sz=11.0, u=None, vertAlign=None, scheme=None"/>
+              <rFont val="&lt;openpyxl.styles.fonts.Font object&gt;&#10;Parameters:&#10;name='Arial', charset=None, family=None, b=False, i=False, strike=False, outline=None, shadow=None, condense=None, color=&lt;openpyxl.styles.colors.Color object&gt;&#10;Parameters:&#10;rgb='006699CC', indexed=None, auto=None, theme=None, tint=0.0, type='rgb', extend=None, sz=11.0, u=None, vertAlign=None, scheme=None"/>
             </rPr>
             <t xml:space="preserve">https://docs.google.com/spreadsheets/d/1zYsbMX-Gft2b4pZZdDyLumB5I78fhNHAE3t62baPN6s/edit#gid=0
 </t>
@@ -856,7 +856,7 @@
           </r>
           <r>
             <rPr>
-              <rFont val="&lt;openpyxl.styles.fonts.Font object&gt;&#10;Parameters:&#10;name='Arial', charset=None, family=None, b=False, i=False, strike=False, outline=None, shadow=None, condense=None, color=&lt;openpyxl.styles.colors.Color object&gt;&#10;Parameters:&#10;rgb='00FF0000', indexed=None, auto=None, theme=None, tint=0.0, type='rgb', extend=None, sz=11.0, u=None, vertAlign=None, scheme=None"/>
+              <rFont val="&lt;openpyxl.styles.fonts.Font object&gt;&#10;Parameters:&#10;name='Arial', charset=None, family=None, b=False, i=False, strike=False, outline=None, shadow=None, condense=None, color=&lt;openpyxl.styles.colors.Color object&gt;&#10;Parameters:&#10;rgb='006699CC', indexed=None, auto=None, theme=None, tint=0.0, type='rgb', extend=None, sz=11.0, u=None, vertAlign=None, scheme=None"/>
             </rPr>
             <t xml:space="preserve">https://drive.google.com/file/d/1df790NLF5dCua4CjSRZ1jjx1JA3VCXmp/view?usp=drive_link
 </t>
@@ -1003,7 +1003,7 @@
           </r>
           <r>
             <rPr>
-              <rFont val="&lt;openpyxl.styles.fonts.Font object&gt;&#10;Parameters:&#10;name='Arial', charset=None, family=None, b=False, i=False, strike=False, outline=None, shadow=None, condense=None, color=&lt;openpyxl.styles.colors.Color object&gt;&#10;Parameters:&#10;rgb='00FF0000', indexed=None, auto=None, theme=None, tint=0.0, type='rgb', extend=None, sz=11.0, u=None, vertAlign=None, scheme=None"/>
+              <rFont val="&lt;openpyxl.styles.fonts.Font object&gt;&#10;Parameters:&#10;name='Arial', charset=None, family=None, b=False, i=False, strike=False, outline=None, shadow=None, condense=None, color=&lt;openpyxl.styles.colors.Color object&gt;&#10;Parameters:&#10;rgb='006699CC', indexed=None, auto=None, theme=None, tint=0.0, type='rgb', extend=None, sz=11.0, u=None, vertAlign=None, scheme=None"/>
             </rPr>
             <t xml:space="preserve">https://docs.google.com/spreadsheets/d/1JxytDSIKmv1RNPyIQ0Ocwn1-zJwOdqS4aWsx-ZNBl5o/edit#gid=0
 </t>
@@ -1301,7 +1301,7 @@
           </r>
           <r>
             <rPr>
-              <rFont val="&lt;openpyxl.styles.fonts.Font object&gt;&#10;Parameters:&#10;name='Arial', charset=None, family=None, b=False, i=False, strike=False, outline=None, shadow=None, condense=None, color=&lt;openpyxl.styles.colors.Color object&gt;&#10;Parameters:&#10;rgb='00FF0000', indexed=None, auto=None, theme=None, tint=0.0, type='rgb', extend=None, sz=11.0, u=None, vertAlign=None, scheme=None"/>
+              <rFont val="&lt;openpyxl.styles.fonts.Font object&gt;&#10;Parameters:&#10;name='Arial', charset=None, family=None, b=False, i=False, strike=False, outline=None, shadow=None, condense=None, color=&lt;openpyxl.styles.colors.Color object&gt;&#10;Parameters:&#10;rgb='006699CC', indexed=None, auto=None, theme=None, tint=0.0, type='rgb', extend=None, sz=11.0, u=None, vertAlign=None, scheme=None"/>
             </rPr>
             <t xml:space="preserve">https://docs.google.com/spreadsheets/d/1RhypsQkAzhg2KbmyNZK4cuOIm6D9OEHNzGXMOfb_1bY/edit?usp=sharing
 </t>
@@ -1518,7 +1518,7 @@
           </r>
           <r>
             <rPr>
-              <rFont val="&lt;openpyxl.styles.fonts.Font object&gt;&#10;Parameters:&#10;name='Arial', charset=None, family=None, b=False, i=False, strike=False, outline=None, shadow=None, condense=None, color=&lt;openpyxl.styles.colors.Color object&gt;&#10;Parameters:&#10;rgb='00FF0000', indexed=None, auto=None, theme=None, tint=0.0, type='rgb', extend=None, sz=11.0, u=None, vertAlign=None, scheme=None"/>
+              <rFont val="&lt;openpyxl.styles.fonts.Font object&gt;&#10;Parameters:&#10;name='Arial', charset=None, family=None, b=False, i=False, strike=False, outline=None, shadow=None, condense=None, color=&lt;openpyxl.styles.colors.Color object&gt;&#10;Parameters:&#10;rgb='006699CC', indexed=None, auto=None, theme=None, tint=0.0, type='rgb', extend=None, sz=11.0, u=None, vertAlign=None, scheme=None"/>
             </rPr>
             <t xml:space="preserve">https://docs.google.com/spreadsheets/d/1RhypsQkAzhg2KbmyNZK4cuOIm6D9OEHNzGXMOfb_1bY/edit?usp=sharing
 </t>
@@ -1810,7 +1810,7 @@
           </r>
           <r>
             <rPr>
-              <rFont val="&lt;openpyxl.styles.fonts.Font object&gt;&#10;Parameters:&#10;name='Arial', charset=None, family=None, b=False, i=False, strike=False, outline=None, shadow=None, condense=None, color=&lt;openpyxl.styles.colors.Color object&gt;&#10;Parameters:&#10;rgb='00FF0000', indexed=None, auto=None, theme=None, tint=0.0, type='rgb', extend=None, sz=11.0, u=None, vertAlign=None, scheme=None"/>
+              <rFont val="&lt;openpyxl.styles.fonts.Font object&gt;&#10;Parameters:&#10;name='Arial', charset=None, family=None, b=False, i=False, strike=False, outline=None, shadow=None, condense=None, color=&lt;openpyxl.styles.colors.Color object&gt;&#10;Parameters:&#10;rgb='006699CC', indexed=None, auto=None, theme=None, tint=0.0, type='rgb', extend=None, sz=11.0, u=None, vertAlign=None, scheme=None"/>
             </rPr>
             <t xml:space="preserve">https://docs.google.com/spreadsheets/d/1qUcmCoXKUACHxdPttXY6Avga6qyL18uMcdmXnl0sokM/edit#gid=0
 </t>
@@ -1881,7 +1881,7 @@
         <v>46</v>
       </c>
       <c r="O21" s="8" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="P21" s="8" t="inlineStr">
         <is>
@@ -1898,7 +1898,7 @@
           </r>
           <r>
             <rPr>
-              <rFont val="&lt;openpyxl.styles.fonts.Font object&gt;&#10;Parameters:&#10;name='Arial', charset=None, family=None, b=False, i=False, strike=False, outline=None, shadow=None, condense=None, color=&lt;openpyxl.styles.colors.Color object&gt;&#10;Parameters:&#10;rgb='00FF0000', indexed=None, auto=None, theme=None, tint=0.0, type='rgb', extend=None, sz=11.0, u=None, vertAlign=None, scheme=None"/>
+              <rFont val="&lt;openpyxl.styles.fonts.Font object&gt;&#10;Parameters:&#10;name='Arial', charset=None, family=None, b=False, i=False, strike=False, outline=None, shadow=None, condense=None, color=&lt;openpyxl.styles.colors.Color object&gt;&#10;Parameters:&#10;rgb='006699CC', indexed=None, auto=None, theme=None, tint=0.0, type='rgb', extend=None, sz=11.0, u=None, vertAlign=None, scheme=None"/>
             </rPr>
             <t xml:space="preserve">http://172.27.228.249:9000/project/smart-contact-center/issues?tags=lcuat&amp;status=16
 </t>
@@ -2028,7 +2028,7 @@
         <v>103.5</v>
       </c>
       <c r="O23" s="8" t="n">
-        <v>0</v>
+        <v>130</v>
       </c>
       <c r="P23" s="8" t="inlineStr">
         <is>
@@ -2045,7 +2045,7 @@
           </r>
           <r>
             <rPr>
-              <rFont val="&lt;openpyxl.styles.fonts.Font object&gt;&#10;Parameters:&#10;name='Arial', charset=None, family=None, b=False, i=False, strike=False, outline=None, shadow=None, condense=None, color=&lt;openpyxl.styles.colors.Color object&gt;&#10;Parameters:&#10;rgb='00FF0000', indexed=None, auto=None, theme=None, tint=0.0, type='rgb', extend=None, sz=11.0, u=None, vertAlign=None, scheme=None"/>
+              <rFont val="&lt;openpyxl.styles.fonts.Font object&gt;&#10;Parameters:&#10;name='Arial', charset=None, family=None, b=False, i=False, strike=False, outline=None, shadow=None, condense=None, color=&lt;openpyxl.styles.colors.Color object&gt;&#10;Parameters:&#10;rgb='006699CC', indexed=None, auto=None, theme=None, tint=0.0, type='rgb', extend=None, sz=11.0, u=None, vertAlign=None, scheme=None"/>
             </rPr>
             <t xml:space="preserve">https://docs.google.com/spreadsheets/d/1cawx0cvzUkyuDyL7H0MyN4sxnIt4dHgQ_njIjm4IFKk/edit#gid=0
 </t>
@@ -2098,7 +2098,7 @@
         <v>197.5</v>
       </c>
       <c r="O24" s="9" t="n">
-        <v>48</v>
+        <v>208</v>
       </c>
       <c r="P24" s="8" t="n">
         <v/>
@@ -2343,7 +2343,7 @@
           </r>
           <r>
             <rPr>
-              <rFont val="&lt;openpyxl.styles.fonts.Font object&gt;&#10;Parameters:&#10;name='Arial', charset=None, family=None, b=False, i=False, strike=False, outline=None, shadow=None, condense=None, color=&lt;openpyxl.styles.colors.Color object&gt;&#10;Parameters:&#10;rgb='00FF0000', indexed=None, auto=None, theme=None, tint=0.0, type='rgb', extend=None, sz=11.0, u=None, vertAlign=None, scheme=None"/>
+              <rFont val="&lt;openpyxl.styles.fonts.Font object&gt;&#10;Parameters:&#10;name='Arial', charset=None, family=None, b=False, i=False, strike=False, outline=None, shadow=None, condense=None, color=&lt;openpyxl.styles.colors.Color object&gt;&#10;Parameters:&#10;rgb='006699CC', indexed=None, auto=None, theme=None, tint=0.0, type='rgb', extend=None, sz=11.0, u=None, vertAlign=None, scheme=None"/>
             </rPr>
             <t xml:space="preserve">https://docs.google.com/spreadsheets/d/1RhypsQkAzhg2KbmyNZK4cuOIm6D9OEHNzGXMOfb_1bY/edit#gid=994381865
 </t>
@@ -2560,7 +2560,7 @@
           </r>
           <r>
             <rPr>
-              <rFont val="&lt;openpyxl.styles.fonts.Font object&gt;&#10;Parameters:&#10;name='Arial', charset=None, family=None, b=False, i=False, strike=False, outline=None, shadow=None, condense=None, color=&lt;openpyxl.styles.colors.Color object&gt;&#10;Parameters:&#10;rgb='00FF0000', indexed=None, auto=None, theme=None, tint=0.0, type='rgb', extend=None, sz=11.0, u=None, vertAlign=None, scheme=None"/>
+              <rFont val="&lt;openpyxl.styles.fonts.Font object&gt;&#10;Parameters:&#10;name='Arial', charset=None, family=None, b=False, i=False, strike=False, outline=None, shadow=None, condense=None, color=&lt;openpyxl.styles.colors.Color object&gt;&#10;Parameters:&#10;rgb='006699CC', indexed=None, auto=None, theme=None, tint=0.0, type='rgb', extend=None, sz=11.0, u=None, vertAlign=None, scheme=None"/>
             </rPr>
             <t xml:space="preserve">https://docs.google.com/spreadsheets/d/1RhypsQkAzhg2KbmyNZK4cuOIm6D9OEHNzGXMOfb_1bY/edit#gid=0
 </t>
@@ -2858,7 +2858,7 @@
           </r>
           <r>
             <rPr>
-              <rFont val="&lt;openpyxl.styles.fonts.Font object&gt;&#10;Parameters:&#10;name='Arial', charset=None, family=None, b=False, i=False, strike=False, outline=None, shadow=None, condense=None, color=&lt;openpyxl.styles.colors.Color object&gt;&#10;Parameters:&#10;rgb='00FF0000', indexed=None, auto=None, theme=None, tint=0.0, type='rgb', extend=None, sz=11.0, u=None, vertAlign=None, scheme=None"/>
+              <rFont val="&lt;openpyxl.styles.fonts.Font object&gt;&#10;Parameters:&#10;name='Arial', charset=None, family=None, b=False, i=False, strike=False, outline=None, shadow=None, condense=None, color=&lt;openpyxl.styles.colors.Color object&gt;&#10;Parameters:&#10;rgb='006699CC', indexed=None, auto=None, theme=None, tint=0.0, type='rgb', extend=None, sz=11.0, u=None, vertAlign=None, scheme=None"/>
             </rPr>
             <t xml:space="preserve">https://docs.google.com/spreadsheets/d/17eBVsuHjK24RBxa2t94FtApqvEtEebLG04XAQvsHTFA/edit#gid=0
 </t>
@@ -3075,7 +3075,7 @@
           </r>
           <r>
             <rPr>
-              <rFont val="&lt;openpyxl.styles.fonts.Font object&gt;&#10;Parameters:&#10;name='Arial', charset=None, family=None, b=False, i=False, strike=False, outline=None, shadow=None, condense=None, color=&lt;openpyxl.styles.colors.Color object&gt;&#10;Parameters:&#10;rgb='00FF0000', indexed=None, auto=None, theme=None, tint=0.0, type='rgb', extend=None, sz=11.0, u=None, vertAlign=None, scheme=None"/>
+              <rFont val="&lt;openpyxl.styles.fonts.Font object&gt;&#10;Parameters:&#10;name='Arial', charset=None, family=None, b=False, i=False, strike=False, outline=None, shadow=None, condense=None, color=&lt;openpyxl.styles.colors.Color object&gt;&#10;Parameters:&#10;rgb='006699CC', indexed=None, auto=None, theme=None, tint=0.0, type='rgb', extend=None, sz=11.0, u=None, vertAlign=None, scheme=None"/>
             </rPr>
             <t xml:space="preserve">https://docs.google.com/spreadsheets/d/1WPxs4Ii5gkDtp9GpnjsRl6_j19eP-wKmxDwgii1f5Y4/edit#gid=0
 </t>
@@ -3373,7 +3373,7 @@
           </r>
           <r>
             <rPr>
-              <rFont val="&lt;openpyxl.styles.fonts.Font object&gt;&#10;Parameters:&#10;name='Arial', charset=None, family=None, b=False, i=False, strike=False, outline=None, shadow=None, condense=None, color=&lt;openpyxl.styles.colors.Color object&gt;&#10;Parameters:&#10;rgb='00FF0000', indexed=None, auto=None, theme=None, tint=0.0, type='rgb', extend=None, sz=11.0, u=None, vertAlign=None, scheme=None"/>
+              <rFont val="&lt;openpyxl.styles.fonts.Font object&gt;&#10;Parameters:&#10;name='Arial', charset=None, family=None, b=False, i=False, strike=False, outline=None, shadow=None, condense=None, color=&lt;openpyxl.styles.colors.Color object&gt;&#10;Parameters:&#10;rgb='006699CC', indexed=None, auto=None, theme=None, tint=0.0, type='rgb', extend=None, sz=11.0, u=None, vertAlign=None, scheme=None"/>
             </rPr>
             <t xml:space="preserve">https://docs.google.com/spreadsheets/d/1zYsbMX-Gft2b4pZZdDyLumB5I78fhNHAE3t62baPN6s/edit#gid=0
 </t>
@@ -3587,7 +3587,7 @@
           </r>
           <r>
             <rPr>
-              <rFont val="&lt;openpyxl.styles.fonts.Font object&gt;&#10;Parameters:&#10;name='Arial', charset=None, family=None, b=False, i=False, strike=False, outline=None, shadow=None, condense=None, color=&lt;openpyxl.styles.colors.Color object&gt;&#10;Parameters:&#10;rgb='00FF0000', indexed=None, auto=None, theme=None, tint=0.0, type='rgb', extend=None, sz=11.0, u=None, vertAlign=None, scheme=None"/>
+              <rFont val="&lt;openpyxl.styles.fonts.Font object&gt;&#10;Parameters:&#10;name='Arial', charset=None, family=None, b=False, i=False, strike=False, outline=None, shadow=None, condense=None, color=&lt;openpyxl.styles.colors.Color object&gt;&#10;Parameters:&#10;rgb='006699CC', indexed=None, auto=None, theme=None, tint=0.0, type='rgb', extend=None, sz=11.0, u=None, vertAlign=None, scheme=None"/>
             </rPr>
             <t xml:space="preserve">https://docs.google.com/spreadsheets/d/1JxytDSIKmv1RNPyIQ0Ocwn1-zJwOdqS4aWsx-ZNBl5o/edit#gid=0
 </t>
@@ -3952,7 +3952,7 @@
           </r>
           <r>
             <rPr>
-              <rFont val="&lt;openpyxl.styles.fonts.Font object&gt;&#10;Parameters:&#10;name='Arial', charset=None, family=None, b=False, i=False, strike=False, outline=None, shadow=None, condense=None, color=&lt;openpyxl.styles.colors.Color object&gt;&#10;Parameters:&#10;rgb='00FF0000', indexed=None, auto=None, theme=None, tint=0.0, type='rgb', extend=None, sz=11.0, u=None, vertAlign=None, scheme=None"/>
+              <rFont val="&lt;openpyxl.styles.fonts.Font object&gt;&#10;Parameters:&#10;name='Arial', charset=None, family=None, b=False, i=False, strike=False, outline=None, shadow=None, condense=None, color=&lt;openpyxl.styles.colors.Color object&gt;&#10;Parameters:&#10;rgb='006699CC', indexed=None, auto=None, theme=None, tint=0.0, type='rgb', extend=None, sz=11.0, u=None, vertAlign=None, scheme=None"/>
             </rPr>
             <t xml:space="preserve">https://docs.google.com/spreadsheets/d/18AWs-XcmlK_jLArRDy4Ylcfo5qZNjfjy/edit#gid=1981640499
 </t>
@@ -3965,7 +3965,7 @@
           </r>
           <r>
             <rPr>
-              <rFont val="&lt;openpyxl.styles.fonts.Font object&gt;&#10;Parameters:&#10;name='Arial', charset=None, family=None, b=False, i=False, strike=False, outline=None, shadow=None, condense=None, color=&lt;openpyxl.styles.colors.Color object&gt;&#10;Parameters:&#10;rgb='00FF0000', indexed=None, auto=None, theme=None, tint=0.0, type='rgb', extend=None, sz=11.0, u=None, vertAlign=None, scheme=None"/>
+              <rFont val="&lt;openpyxl.styles.fonts.Font object&gt;&#10;Parameters:&#10;name='Arial', charset=None, family=None, b=False, i=False, strike=False, outline=None, shadow=None, condense=None, color=&lt;openpyxl.styles.colors.Color object&gt;&#10;Parameters:&#10;rgb='006699CC', indexed=None, auto=None, theme=None, tint=0.0, type='rgb', extend=None, sz=11.0, u=None, vertAlign=None, scheme=None"/>
             </rPr>
             <t xml:space="preserve">https://docs.google.com/spreadsheets/d/13xRiQniLrgAGfqB99ZV0Ihw5wJVlOBEs/edit#gid=1187315498
 </t>
@@ -4110,7 +4110,7 @@
           </r>
           <r>
             <rPr>
-              <rFont val="&lt;openpyxl.styles.fonts.Font object&gt;&#10;Parameters:&#10;name='Arial', charset=None, family=None, b=False, i=False, strike=False, outline=None, shadow=None, condense=None, color=&lt;openpyxl.styles.colors.Color object&gt;&#10;Parameters:&#10;rgb='00FF0000', indexed=None, auto=None, theme=None, tint=0.0, type='rgb', extend=None, sz=11.0, u=None, vertAlign=None, scheme=None"/>
+              <rFont val="&lt;openpyxl.styles.fonts.Font object&gt;&#10;Parameters:&#10;name='Arial', charset=None, family=None, b=False, i=False, strike=False, outline=None, shadow=None, condense=None, color=&lt;openpyxl.styles.colors.Color object&gt;&#10;Parameters:&#10;rgb='006699CC', indexed=None, auto=None, theme=None, tint=0.0, type='rgb', extend=None, sz=11.0, u=None, vertAlign=None, scheme=None"/>
             </rPr>
             <t xml:space="preserve">https://docs.google.com/spreadsheets/d/13xRiQniLrgAGfqB99ZV0Ihw5wJVlOBEs/edit#gid=167033470
 </t>
@@ -4123,7 +4123,7 @@
           </r>
           <r>
             <rPr>
-              <rFont val="&lt;openpyxl.styles.fonts.Font object&gt;&#10;Parameters:&#10;name='Arial', charset=None, family=None, b=False, i=False, strike=False, outline=None, shadow=None, condense=None, color=&lt;openpyxl.styles.colors.Color object&gt;&#10;Parameters:&#10;rgb='00FF0000', indexed=None, auto=None, theme=None, tint=0.0, type='rgb', extend=None, sz=11.0, u=None, vertAlign=None, scheme=None"/>
+              <rFont val="&lt;openpyxl.styles.fonts.Font object&gt;&#10;Parameters:&#10;name='Arial', charset=None, family=None, b=False, i=False, strike=False, outline=None, shadow=None, condense=None, color=&lt;openpyxl.styles.colors.Color object&gt;&#10;Parameters:&#10;rgb='006699CC', indexed=None, auto=None, theme=None, tint=0.0, type='rgb', extend=None, sz=11.0, u=None, vertAlign=None, scheme=None"/>
             </rPr>
             <t xml:space="preserve">https://docs.google.com/spreadsheets/d/13xRiQniLrgAGfqB99ZV0Ihw5wJVlOBEs/edit#gid=167033470
 </t>
@@ -4421,7 +4421,7 @@
           </r>
           <r>
             <rPr>
-              <rFont val="&lt;openpyxl.styles.fonts.Font object&gt;&#10;Parameters:&#10;name='Arial', charset=None, family=None, b=False, i=False, strike=False, outline=None, shadow=None, condense=None, color=&lt;openpyxl.styles.colors.Color object&gt;&#10;Parameters:&#10;rgb='00FF0000', indexed=None, auto=None, theme=None, tint=0.0, type='rgb', extend=None, sz=11.0, u=None, vertAlign=None, scheme=None"/>
+              <rFont val="&lt;openpyxl.styles.fonts.Font object&gt;&#10;Parameters:&#10;name='Arial', charset=None, family=None, b=False, i=False, strike=False, outline=None, shadow=None, condense=None, color=&lt;openpyxl.styles.colors.Color object&gt;&#10;Parameters:&#10;rgb='006699CC', indexed=None, auto=None, theme=None, tint=0.0, type='rgb', extend=None, sz=11.0, u=None, vertAlign=None, scheme=None"/>
             </rPr>
             <t xml:space="preserve">https://docs.google.com/spreadsheets/d/1szpz8kekeCkkKAiEYem-xqp7zxYnCbDkbBjsgs5UXng/edit#gid=1959940647
 </t>
@@ -4507,7 +4507,7 @@
           </r>
           <r>
             <rPr>
-              <rFont val="&lt;openpyxl.styles.fonts.Font object&gt;&#10;Parameters:&#10;name='Arial', charset=None, family=None, b=False, i=False, strike=False, outline=None, shadow=None, condense=None, color=&lt;openpyxl.styles.colors.Color object&gt;&#10;Parameters:&#10;rgb='00FF0000', indexed=None, auto=None, theme=None, tint=0.0, type='rgb', extend=None, sz=11.0, u=None, vertAlign=None, scheme=None"/>
+              <rFont val="&lt;openpyxl.styles.fonts.Font object&gt;&#10;Parameters:&#10;name='Arial', charset=None, family=None, b=False, i=False, strike=False, outline=None, shadow=None, condense=None, color=&lt;openpyxl.styles.colors.Color object&gt;&#10;Parameters:&#10;rgb='006699CC', indexed=None, auto=None, theme=None, tint=0.0, type='rgb', extend=None, sz=11.0, u=None, vertAlign=None, scheme=None"/>
             </rPr>
             <t xml:space="preserve">https://docs.google.com/spreadsheets/d/1szpz8kekeCkkKAiEYem-xqp7zxYnCbDkbBjsgs5UXng/edit#gid=1959940647
 </t>
@@ -4651,7 +4651,7 @@
           </r>
           <r>
             <rPr>
-              <rFont val="&lt;openpyxl.styles.fonts.Font object&gt;&#10;Parameters:&#10;name='Arial', charset=None, family=None, b=False, i=False, strike=False, outline=None, shadow=None, condense=None, color=&lt;openpyxl.styles.colors.Color object&gt;&#10;Parameters:&#10;rgb='00FF0000', indexed=None, auto=None, theme=None, tint=0.0, type='rgb', extend=None, sz=11.0, u=None, vertAlign=None, scheme=None"/>
+              <rFont val="&lt;openpyxl.styles.fonts.Font object&gt;&#10;Parameters:&#10;name='Arial', charset=None, family=None, b=False, i=False, strike=False, outline=None, shadow=None, condense=None, color=&lt;openpyxl.styles.colors.Color object&gt;&#10;Parameters:&#10;rgb='006699CC', indexed=None, auto=None, theme=None, tint=0.0, type='rgb', extend=None, sz=11.0, u=None, vertAlign=None, scheme=None"/>
             </rPr>
             <t xml:space="preserve">https://docs.google.com/spreadsheets/d/1szpz8kekeCkkKAiEYem-xqp7zxYnCbDkbBjsgs5UXng/edit#gid=1959940647
 </t>
@@ -5021,7 +5021,7 @@
           </r>
           <r>
             <rPr>
-              <rFont val="&lt;openpyxl.styles.fonts.Font object&gt;&#10;Parameters:&#10;name='Arial', charset=None, family=None, b=False, i=False, strike=False, outline=None, shadow=None, condense=None, color=&lt;openpyxl.styles.colors.Color object&gt;&#10;Parameters:&#10;rgb='00FF0000', indexed=None, auto=None, theme=None, tint=0.0, type='rgb', extend=None, sz=11.0, u=None, vertAlign=None, scheme=None"/>
+              <rFont val="&lt;openpyxl.styles.fonts.Font object&gt;&#10;Parameters:&#10;name='Arial', charset=None, family=None, b=False, i=False, strike=False, outline=None, shadow=None, condense=None, color=&lt;openpyxl.styles.colors.Color object&gt;&#10;Parameters:&#10;rgb='006699CC', indexed=None, auto=None, theme=None, tint=0.0, type='rgb', extend=None, sz=11.0, u=None, vertAlign=None, scheme=None"/>
             </rPr>
             <t xml:space="preserve">https://docs.google.com/spreadsheets/d/1_tnT-wl7XPpycFYY5bSZyXZgFFMUZA8BvmnRSb4d8oI/edit?usp=sharing
 </t>
@@ -5170,7 +5170,7 @@
           </r>
           <r>
             <rPr>
-              <rFont val="&lt;openpyxl.styles.fonts.Font object&gt;&#10;Parameters:&#10;name='Arial', charset=None, family=None, b=False, i=False, strike=False, outline=None, shadow=None, condense=None, color=&lt;openpyxl.styles.colors.Color object&gt;&#10;Parameters:&#10;rgb='00FF0000', indexed=None, auto=None, theme=None, tint=0.0, type='rgb', extend=None, sz=11.0, u=None, vertAlign=None, scheme=None"/>
+              <rFont val="&lt;openpyxl.styles.fonts.Font object&gt;&#10;Parameters:&#10;name='Arial', charset=None, family=None, b=False, i=False, strike=False, outline=None, shadow=None, condense=None, color=&lt;openpyxl.styles.colors.Color object&gt;&#10;Parameters:&#10;rgb='006699CC', indexed=None, auto=None, theme=None, tint=0.0, type='rgb', extend=None, sz=11.0, u=None, vertAlign=None, scheme=None"/>
             </rPr>
             <t xml:space="preserve">https://docs.google.com/spreadsheets/d/169S8Tj_QKcR8cMRlgrF2b2gnVkYBRcyL/edit?usp=sharing&amp;ouid=111160206982098379432&amp;rtpof=true&amp;sd=true
 </t>
@@ -5468,7 +5468,7 @@
           </r>
           <r>
             <rPr>
-              <rFont val="&lt;openpyxl.styles.fonts.Font object&gt;&#10;Parameters:&#10;name='Arial', charset=None, family=None, b=False, i=False, strike=False, outline=None, shadow=None, condense=None, color=&lt;openpyxl.styles.colors.Color object&gt;&#10;Parameters:&#10;rgb='00FF0000', indexed=None, auto=None, theme=None, tint=0.0, type='rgb', extend=None, sz=11.0, u=None, vertAlign=None, scheme=None"/>
+              <rFont val="&lt;openpyxl.styles.fonts.Font object&gt;&#10;Parameters:&#10;name='Arial', charset=None, family=None, b=False, i=False, strike=False, outline=None, shadow=None, condense=None, color=&lt;openpyxl.styles.colors.Color object&gt;&#10;Parameters:&#10;rgb='006699CC', indexed=None, auto=None, theme=None, tint=0.0, type='rgb', extend=None, sz=11.0, u=None, vertAlign=None, scheme=None"/>
             </rPr>
             <t xml:space="preserve">https://docs.google.com/spreadsheets/d/1_tnT-wl7XPpycFYY5bSZyXZgFFMUZA8BvmnRSb4d8oI/edit#gid=0
 </t>
@@ -5683,7 +5683,7 @@
           </r>
           <r>
             <rPr>
-              <rFont val="&lt;openpyxl.styles.fonts.Font object&gt;&#10;Parameters:&#10;name='Arial', charset=None, family=None, b=False, i=False, strike=False, outline=None, shadow=None, condense=None, color=&lt;openpyxl.styles.colors.Color object&gt;&#10;Parameters:&#10;rgb='00FF0000', indexed=None, auto=None, theme=None, tint=0.0, type='rgb', extend=None, sz=11.0, u=None, vertAlign=None, scheme=None"/>
+              <rFont val="&lt;openpyxl.styles.fonts.Font object&gt;&#10;Parameters:&#10;name='Arial', charset=None, family=None, b=False, i=False, strike=False, outline=None, shadow=None, condense=None, color=&lt;openpyxl.styles.colors.Color object&gt;&#10;Parameters:&#10;rgb='006699CC', indexed=None, auto=None, theme=None, tint=0.0, type='rgb', extend=None, sz=11.0, u=None, vertAlign=None, scheme=None"/>
             </rPr>
             <t xml:space="preserve">https://docs.google.com/spreadsheets/d/169S8Tj_QKcR8cMRlgrF2b2gnVkYBRcyL/edit#gid=1816014955
 </t>

--- a/kpiExcelSheet/nhóm L1.xlsx
+++ b/kpiExcelSheet/nhóm L1.xlsx
@@ -511,7 +511,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R80"/>
+  <dimension ref="A1:R76"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -693,31 +693,21 @@
       </c>
       <c r="B4" s="8" t="inlineStr">
         <is>
-          <t>Đảm bảo chất lượng sản phẩm với số bug log trên các môi trường trong dự án OnCX, SOP, HappyConnect, Dialo, CheckMK</t>
+          <t>Hoàn thành đúng tiến độ và chất lượng các Công việc phát sinh/ Seminar/ Cải tiến</t>
         </is>
       </c>
       <c r="C4" s="8" t="inlineStr">
         <is>
-          <t>Đảm bảo chất lượng sản phẩm với số bug log trên các môi trường trong dự án SOP</t>
+          <t>Hoàn thành đúng tiến độ và chất lượng các Công việc phát sinh</t>
         </is>
       </c>
       <c r="D4" s="8" t="inlineStr">
         <is>
-          <t>Trên môi trường stg Trung bình số bugs được report trong mỗi tính năng khi review code/ thực hiện dev &lt;= 5 và trên môi trường UAT critical/important issue &lt;= 1</t>
-        </is>
-      </c>
-      <c r="E4" s="8" t="inlineStr">
-        <is>
-          <t>- STG: số bug/tính năng khi review code/ thực hiện dev &lt;= 5
-- UAT: critical/important issue &lt;= 1
-** Không tính issue do nguyên nhân enhancement, wishlist, support</t>
-        </is>
-      </c>
-      <c r="F4" s="8" t="inlineStr">
-        <is>
-          <t>Taiga</t>
-        </is>
-      </c>
+          <t>Hoàn thành triển khai tích hợp HVAC client vào source code dự án SOP trước 23.08.2023</t>
+        </is>
+      </c>
+      <c r="E4" s="8" t="n"/>
+      <c r="F4" s="8" t="n"/>
       <c r="G4" s="8" t="inlineStr">
         <is>
           <t>Tháng</t>
@@ -725,7 +715,7 @@
       </c>
       <c r="H4" s="8" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>Đạt/Không đạt</t>
         </is>
       </c>
       <c r="I4" s="8" t="inlineStr">
@@ -735,75 +725,53 @@
       </c>
       <c r="J4" s="8" t="inlineStr">
         <is>
-          <t>100%</t>
+          <t>Đạt</t>
         </is>
       </c>
       <c r="K4" s="8" t="n">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="L4" s="8" t="n">
-        <v>100</v>
+        <v/>
       </c>
       <c r="M4" s="8" t="n">
         <v/>
       </c>
       <c r="N4" s="8" t="n">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="O4" s="8" t="n">
-        <v>21</v>
+        <v/>
       </c>
       <c r="P4" s="8" t="inlineStr">
         <is>
-          <t>- Thời gian check - fix bugs: 23h/tháng</t>
-        </is>
-      </c>
-      <c r="Q4" s="8" t="inlineStr">
-        <is>
-          <r>
-            <rPr>
-              <rFont val="&lt;openpyxl.styles.fonts.Font object&gt;&#10;Parameters:&#10;name='Arial', charset=None, family=None, b=False, i=False, strike=False, outline=None, shadow=None, condense=None, color=&lt;openpyxl.styles.colors.Color object&gt;&#10;Parameters:&#10;rgb='00FF0000', indexed=None, auto=None, theme=None, tint=0.0, type='rgb', extend=None, sz=11.0, u=None, vertAlign=None, scheme=None"/>
-            </rPr>
-            <t xml:space="preserve">Thống Kê Bugs : </t>
-          </r>
-          <r>
-            <rPr>
-              <rFont val="&lt;openpyxl.styles.fonts.Font object&gt;&#10;Parameters:&#10;name='Arial', charset=None, family=None, b=False, i=False, strike=False, outline=None, shadow=None, condense=None, color=&lt;openpyxl.styles.colors.Color object&gt;&#10;Parameters:&#10;rgb='006699CC', indexed=None, auto=None, theme=None, tint=0.0, type='rgb', extend=None, sz=11.0, u=None, vertAlign=None, scheme=None"/>
-            </rPr>
-            <t xml:space="preserve">https://docs.google.com/spreadsheets/d/1zYsbMX-Gft2b4pZZdDyLumB5I78fhNHAE3t62baPN6s/edit#gid=0
-</t>
-          </r>
-        </is>
-      </c>
+          <t>- Nghiên cứu HVAC: 8h 
+- Tích hợp thư viện vào source code và triển khai dev: 4h
+- Kiểm tra, điều chỉnh cấu hình cho các service: 1h</t>
+        </is>
+      </c>
+      <c r="Q4" s="8" t="n"/>
       <c r="R4" s="8" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n"/>
       <c r="B5" s="8" t="inlineStr">
         <is>
-          <t>Hoàn thành đúng tiến độ và chất lượng các Công việc phát sinh/ Seminar/ Cải tiến</t>
+          <t>Đảm bảo chất lượng sản phẩm với số bug log trên các môi trường trong dự án OnCX, SOP, HappyConnect, Dialo, CheckMK</t>
         </is>
       </c>
       <c r="C5" s="8" t="inlineStr">
         <is>
-          <t>Hoàn thành đúng tiến độ và chất lượng các Công việc phát sinh</t>
+          <t>Đảm bảo chất lượng sản phẩm với số bug log trên các môi trường trong dự án SOP</t>
         </is>
       </c>
       <c r="D5" s="8" t="inlineStr">
         <is>
-          <t>Hoàn thành triển khai tích hợp HVAC client vào source code dự án SOP trước 23.08.2023</t>
-        </is>
-      </c>
-      <c r="E5" s="8" t="inlineStr">
-        <is>
-          <t>Báo cáo được CBQL confirm</t>
-        </is>
-      </c>
-      <c r="F5" s="8" t="inlineStr">
-        <is>
-          <t>Mail</t>
-        </is>
-      </c>
+          <t>Trên môi trường stg Trung bình số bugs được report trong mỗi tính năng khi review code/ thực hiện dev &lt;= 5 và trên môi trường UAT critical/important issue &lt;= 1</t>
+        </is>
+      </c>
+      <c r="E5" s="8" t="n"/>
+      <c r="F5" s="8" t="n"/>
       <c r="G5" s="8" t="inlineStr">
         <is>
           <t>Tháng</t>
@@ -811,7 +779,7 @@
       </c>
       <c r="H5" s="8" t="inlineStr">
         <is>
-          <t>Đạt/Không đạt</t>
+          <t>%</t>
         </is>
       </c>
       <c r="I5" s="8" t="inlineStr">
@@ -821,48 +789,30 @@
       </c>
       <c r="J5" s="8" t="inlineStr">
         <is>
-          <t>Đạt</t>
+          <t>100%</t>
         </is>
       </c>
       <c r="K5" s="8" t="n">
-        <v>20</v>
+        <v>80</v>
       </c>
       <c r="L5" s="8" t="n">
-        <v>0</v>
+        <v/>
       </c>
       <c r="M5" s="8" t="n">
         <v/>
       </c>
       <c r="N5" s="8" t="n">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="O5" s="8" t="n">
-        <v>8</v>
+        <v/>
       </c>
       <c r="P5" s="8" t="inlineStr">
         <is>
-          <t>- Nghiên cứu HVAC: 8h 
-- Tích hợp thư viện vào source code và triển khai dev: 4h
-- Kiểm tra, điều chỉnh cấu hình cho các service: 1h</t>
-        </is>
-      </c>
-      <c r="Q5" s="8" t="inlineStr">
-        <is>
-          <r>
-            <rPr>
-              <rFont val="&lt;openpyxl.styles.fonts.Font object&gt;&#10;Parameters:&#10;name='Arial', charset=None, family=None, b=False, i=False, strike=False, outline=None, shadow=None, condense=None, color=&lt;openpyxl.styles.colors.Color object&gt;&#10;Parameters:&#10;rgb='00FF0000', indexed=None, auto=None, theme=None, tint=0.0, type='rgb', extend=None, sz=11.0, u=None, vertAlign=None, scheme=None"/>
-            </rPr>
-            <t xml:space="preserve">Xin xác nhân kết quả thực hiện - Hoàn thành triển khai tích hợp HVAC client vào source code dự án SOP : </t>
-          </r>
-          <r>
-            <rPr>
-              <rFont val="&lt;openpyxl.styles.fonts.Font object&gt;&#10;Parameters:&#10;name='Arial', charset=None, family=None, b=False, i=False, strike=False, outline=None, shadow=None, condense=None, color=&lt;openpyxl.styles.colors.Color object&gt;&#10;Parameters:&#10;rgb='006699CC', indexed=None, auto=None, theme=None, tint=0.0, type='rgb', extend=None, sz=11.0, u=None, vertAlign=None, scheme=None"/>
-            </rPr>
-            <t xml:space="preserve">https://drive.google.com/file/d/1df790NLF5dCua4CjSRZ1jjx1JA3VCXmp/view?usp=drive_link
-</t>
-          </r>
-        </is>
-      </c>
+          <t>- Thời gian check - fix bugs: 23h/tháng</t>
+        </is>
+      </c>
+      <c r="Q5" s="8" t="n"/>
       <c r="R5" s="8" t="inlineStr"/>
     </row>
     <row r="6">
@@ -900,7 +850,7 @@
         <v>100</v>
       </c>
       <c r="L6" s="9" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="M6" s="9" t="n">
         <v>0</v>
@@ -938,18 +888,8 @@
           <t>Đảm bảo 100% các tính năng trong sprint được giao hoàn thành đúng thời hạn dự án SOP</t>
         </is>
       </c>
-      <c r="E7" s="8" t="inlineStr">
-        <is>
-          <t>100% US/ sprint hoàn thành thỏa cả 2 điều kiện:
-- Có bằng chứng dev intergration test/ unittest ở mt dev
-- Tester test pass các US trên mt stg</t>
-        </is>
-      </c>
-      <c r="F7" s="8" t="inlineStr">
-        <is>
-          <t>Taiga</t>
-        </is>
-      </c>
+      <c r="E7" s="8" t="n"/>
+      <c r="F7" s="8" t="n"/>
       <c r="G7" s="8" t="inlineStr">
         <is>
           <t>Tháng</t>
@@ -974,7 +914,7 @@
         <v>100</v>
       </c>
       <c r="L7" s="8" t="n">
-        <v>92</v>
+        <v/>
       </c>
       <c r="M7" s="8" t="n">
         <v/>
@@ -983,7 +923,7 @@
         <v>148</v>
       </c>
       <c r="O7" s="8" t="n">
-        <v>135</v>
+        <v/>
       </c>
       <c r="P7" s="8" t="inlineStr">
         <is>
@@ -993,23 +933,7 @@
 - Code tính năng: 5.5h/ngày * 23 = 126.5h/tháng</t>
         </is>
       </c>
-      <c r="Q7" s="8" t="inlineStr">
-        <is>
-          <r>
-            <rPr>
-              <rFont val="&lt;openpyxl.styles.fonts.Font object&gt;&#10;Parameters:&#10;name='Arial', charset=None, family=None, b=False, i=False, strike=False, outline=None, shadow=None, condense=None, color=&lt;openpyxl.styles.colors.Color object&gt;&#10;Parameters:&#10;rgb='00FF0000', indexed=None, auto=None, theme=None, tint=0.0, type='rgb', extend=None, sz=11.0, u=None, vertAlign=None, scheme=None"/>
-            </rPr>
-            <t xml:space="preserve">Tiến độ SOP SP20 : </t>
-          </r>
-          <r>
-            <rPr>
-              <rFont val="&lt;openpyxl.styles.fonts.Font object&gt;&#10;Parameters:&#10;name='Arial', charset=None, family=None, b=False, i=False, strike=False, outline=None, shadow=None, condense=None, color=&lt;openpyxl.styles.colors.Color object&gt;&#10;Parameters:&#10;rgb='006699CC', indexed=None, auto=None, theme=None, tint=0.0, type='rgb', extend=None, sz=11.0, u=None, vertAlign=None, scheme=None"/>
-            </rPr>
-            <t xml:space="preserve">https://docs.google.com/spreadsheets/d/1JxytDSIKmv1RNPyIQ0Ocwn1-zJwOdqS4aWsx-ZNBl5o/edit#gid=0
-</t>
-          </r>
-        </is>
-      </c>
+      <c r="Q7" s="8" t="n"/>
       <c r="R7" s="8" t="inlineStr"/>
     </row>
     <row r="8">
@@ -1047,7 +971,7 @@
         <v>100</v>
       </c>
       <c r="L8" s="9" t="n">
-        <v>92</v>
+        <v>0</v>
       </c>
       <c r="M8" s="9" t="n">
         <v>0</v>
@@ -1055,9 +979,7 @@
       <c r="N8" s="9" t="n">
         <v>184</v>
       </c>
-      <c r="O8" s="9" t="n">
-        <v>164</v>
-      </c>
+      <c r="O8" s="9" t="inlineStr"/>
       <c r="P8" s="8" t="n">
         <v/>
       </c>
@@ -1226,31 +1148,21 @@
       </c>
       <c r="B12" s="8" t="inlineStr">
         <is>
-          <t>Đảm bảo chất lượng sản phẩm với số bug log trên các môi trường trong dự án OnCX, SOP, HappyConnect, Dialo, CheckMK</t>
+          <t>Hoàn thành đúng tiến độ và chất lượng các Công việc phát sinh/ Seminar/ Cải tiến</t>
         </is>
       </c>
       <c r="C12" s="8" t="inlineStr">
         <is>
-          <t>Đảm bảo chất lượng sản phẩm với số bug log trên các môi trường trong dự án SOP</t>
+          <t>Đảm bảo các công việc phát sinh hoàn thành đúng tiến độ và chất lượng</t>
         </is>
       </c>
       <c r="D12" s="8" t="inlineStr">
         <is>
-          <t>Trên môi trường stg Trung bình số bugs được report trong mỗi tính năng khi review code/ thực hiện dev &lt;= 5 và trên môi trường UAT critical/important issue &lt;= 1</t>
-        </is>
-      </c>
-      <c r="E12" s="8" t="inlineStr">
-        <is>
-          <t>- STG: số bug/tính năng khi review code/ thực hiện dev &lt;= 5
-- UAT: critical/important issue &lt;= 1
-** Không tính issue do nguyên nhân enhancement, wishlist, support</t>
-        </is>
-      </c>
-      <c r="F12" s="8" t="inlineStr">
-        <is>
-          <t>Taiga</t>
-        </is>
-      </c>
+          <t>Nghiên cứu model AI Falcon-40b và demo trước 23.08.2023; Tham dự thi sáng tạo FTEL</t>
+        </is>
+      </c>
+      <c r="E12" s="8" t="n"/>
+      <c r="F12" s="8" t="n"/>
       <c r="G12" s="8" t="inlineStr">
         <is>
           <t>Tháng</t>
@@ -1258,7 +1170,7 @@
       </c>
       <c r="H12" s="8" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>Đạt/Không đạt</t>
         </is>
       </c>
       <c r="I12" s="8" t="inlineStr">
@@ -1268,75 +1180,51 @@
       </c>
       <c r="J12" s="8" t="inlineStr">
         <is>
-          <t>100%</t>
+          <t>Đạt</t>
         </is>
       </c>
       <c r="K12" s="8" t="n">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="L12" s="8" t="n">
-        <v>100</v>
+        <v/>
       </c>
       <c r="M12" s="8" t="n">
         <v/>
       </c>
       <c r="N12" s="8" t="n">
-        <v>20</v>
+        <v>52</v>
       </c>
       <c r="O12" s="8" t="n">
-        <v>12</v>
+        <v/>
       </c>
       <c r="P12" s="8" t="inlineStr">
         <is>
-          <t>- Thời gian check - fix bugs: 20h/tháng</t>
-        </is>
-      </c>
-      <c r="Q12" s="8" t="inlineStr">
-        <is>
-          <r>
-            <rPr>
-              <rFont val="&lt;openpyxl.styles.fonts.Font object&gt;&#10;Parameters:&#10;name='Arial', charset=None, family=None, b=False, i=False, strike=False, outline=None, shadow=None, condense=None, color=&lt;openpyxl.styles.colors.Color object&gt;&#10;Parameters:&#10;rgb='00FF0000', indexed=None, auto=None, theme=None, tint=0.0, type='rgb', extend=None, sz=11.0, u=None, vertAlign=None, scheme=None"/>
-            </rPr>
-            <t xml:space="preserve">SOP-T8 : </t>
-          </r>
-          <r>
-            <rPr>
-              <rFont val="&lt;openpyxl.styles.fonts.Font object&gt;&#10;Parameters:&#10;name='Arial', charset=None, family=None, b=False, i=False, strike=False, outline=None, shadow=None, condense=None, color=&lt;openpyxl.styles.colors.Color object&gt;&#10;Parameters:&#10;rgb='006699CC', indexed=None, auto=None, theme=None, tint=0.0, type='rgb', extend=None, sz=11.0, u=None, vertAlign=None, scheme=None"/>
-            </rPr>
-            <t xml:space="preserve">https://docs.google.com/spreadsheets/d/1RhypsQkAzhg2KbmyNZK4cuOIm6D9OEHNzGXMOfb_1bY/edit?usp=sharing
-</t>
-          </r>
-        </is>
-      </c>
+          <t>- Nghiên cứu, suport vẽ lowcode cho tool</t>
+        </is>
+      </c>
+      <c r="Q12" s="8" t="n"/>
       <c r="R12" s="8" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="2" t="n"/>
       <c r="B13" s="8" t="inlineStr">
         <is>
-          <t>Hoàn thành đúng tiến độ và chất lượng các Công việc phát sinh/ Seminar/ Cải tiến</t>
+          <t>Đảm bảo chất lượng sản phẩm với số bug log trên các môi trường trong dự án OnCX, SOP, HappyConnect, Dialo, CheckMK</t>
         </is>
       </c>
       <c r="C13" s="8" t="inlineStr">
         <is>
-          <t>Đảm bảo các công việc phát sinh hoàn thành đúng tiến độ và chất lượng</t>
+          <t>Đảm bảo chất lượng sản phẩm với số bug log trên các môi trường trong dự án SOP</t>
         </is>
       </c>
       <c r="D13" s="8" t="inlineStr">
         <is>
-          <t>Nghiên cứu model AI Falcon-40b và demo trước 23.08.2023; Tham dự thi sáng tạo FTEL</t>
-        </is>
-      </c>
-      <c r="E13" s="8" t="inlineStr">
-        <is>
-          <t>Báo cáo được CBQL confirm</t>
-        </is>
-      </c>
-      <c r="F13" s="8" t="inlineStr">
-        <is>
-          <t>Mail</t>
-        </is>
-      </c>
+          <t>Trên môi trường stg Trung bình số bugs được report trong mỗi tính năng khi review code/ thực hiện dev &lt;= 5 và trên môi trường UAT critical/important issue &lt;= 1</t>
+        </is>
+      </c>
+      <c r="E13" s="8" t="n"/>
+      <c r="F13" s="8" t="n"/>
       <c r="G13" s="8" t="inlineStr">
         <is>
           <t>Tháng</t>
@@ -1344,7 +1232,7 @@
       </c>
       <c r="H13" s="8" t="inlineStr">
         <is>
-          <t>Đạt/Không đạt</t>
+          <t>%</t>
         </is>
       </c>
       <c r="I13" s="8" t="inlineStr">
@@ -1354,27 +1242,27 @@
       </c>
       <c r="J13" s="8" t="inlineStr">
         <is>
-          <t>Đạt</t>
+          <t>100%</t>
         </is>
       </c>
       <c r="K13" s="8" t="n">
+        <v>80</v>
+      </c>
+      <c r="L13" s="8" t="n">
+        <v/>
+      </c>
+      <c r="M13" s="8" t="n">
+        <v/>
+      </c>
+      <c r="N13" s="8" t="n">
         <v>20</v>
       </c>
-      <c r="L13" s="8" t="n">
-        <v>50</v>
-      </c>
-      <c r="M13" s="8" t="n">
-        <v/>
-      </c>
-      <c r="N13" s="8" t="n">
-        <v>52</v>
-      </c>
       <c r="O13" s="8" t="n">
-        <v>20</v>
+        <v/>
       </c>
       <c r="P13" s="8" t="inlineStr">
         <is>
-          <t>- Nghiên cứu, suport vẽ lowcode cho tool</t>
+          <t>- Thời gian check - fix bugs: 20h/tháng</t>
         </is>
       </c>
       <c r="Q13" s="8" t="n"/>
@@ -1415,7 +1303,7 @@
         <v>100</v>
       </c>
       <c r="L14" s="9" t="n">
-        <v>150</v>
+        <v>0</v>
       </c>
       <c r="M14" s="9" t="n">
         <v>0</v>
@@ -1453,18 +1341,8 @@
           <t>Đảm bảo 100% các tính năng trong sprint được giao hoàn thành đúng thời hạn (dự án SOP)</t>
         </is>
       </c>
-      <c r="E15" s="8" t="inlineStr">
-        <is>
-          <t>100% US/ sprint hoàn thành thỏa cả 2 điều kiện:
-- Có bằng chứng dev intergration test/ unittest ở mt dev
-- Tester test pass các US trên mt stg</t>
-        </is>
-      </c>
-      <c r="F15" s="8" t="inlineStr">
-        <is>
-          <t>Taiga</t>
-        </is>
-      </c>
+      <c r="E15" s="8" t="n"/>
+      <c r="F15" s="8" t="n"/>
       <c r="G15" s="8" t="inlineStr">
         <is>
           <t>Tháng</t>
@@ -1489,7 +1367,7 @@
         <v>100</v>
       </c>
       <c r="L15" s="8" t="n">
-        <v>91</v>
+        <v/>
       </c>
       <c r="M15" s="8" t="n">
         <v/>
@@ -1498,7 +1376,7 @@
         <v>112</v>
       </c>
       <c r="O15" s="8" t="n">
-        <v>145</v>
+        <v/>
       </c>
       <c r="P15" s="8" t="inlineStr">
         <is>
@@ -1508,23 +1386,7 @@
 - Code tính năng: 4-5h/ngày * 23 = 90h/tháng</t>
         </is>
       </c>
-      <c r="Q15" s="8" t="inlineStr">
-        <is>
-          <r>
-            <rPr>
-              <rFont val="&lt;openpyxl.styles.fonts.Font object&gt;&#10;Parameters:&#10;name='Arial', charset=None, family=None, b=False, i=False, strike=False, outline=None, shadow=None, condense=None, color=&lt;openpyxl.styles.colors.Color object&gt;&#10;Parameters:&#10;rgb='00FF0000', indexed=None, auto=None, theme=None, tint=0.0, type='rgb', extend=None, sz=11.0, u=None, vertAlign=None, scheme=None"/>
-            </rPr>
-            <t xml:space="preserve">SOP-T8 : </t>
-          </r>
-          <r>
-            <rPr>
-              <rFont val="&lt;openpyxl.styles.fonts.Font object&gt;&#10;Parameters:&#10;name='Arial', charset=None, family=None, b=False, i=False, strike=False, outline=None, shadow=None, condense=None, color=&lt;openpyxl.styles.colors.Color object&gt;&#10;Parameters:&#10;rgb='006699CC', indexed=None, auto=None, theme=None, tint=0.0, type='rgb', extend=None, sz=11.0, u=None, vertAlign=None, scheme=None"/>
-            </rPr>
-            <t xml:space="preserve">https://docs.google.com/spreadsheets/d/1RhypsQkAzhg2KbmyNZK4cuOIm6D9OEHNzGXMOfb_1bY/edit?usp=sharing
-</t>
-          </r>
-        </is>
-      </c>
+      <c r="Q15" s="8" t="n"/>
       <c r="R15" s="8" t="inlineStr"/>
     </row>
     <row r="16">
@@ -1562,7 +1424,7 @@
         <v>100</v>
       </c>
       <c r="L16" s="9" t="n">
-        <v>91</v>
+        <v>0</v>
       </c>
       <c r="M16" s="9" t="n">
         <v>0</v>
@@ -1570,9 +1432,7 @@
       <c r="N16" s="9" t="n">
         <v>184</v>
       </c>
-      <c r="O16" s="9" t="n">
-        <v>177</v>
-      </c>
+      <c r="O16" s="9" t="inlineStr"/>
       <c r="P16" s="8" t="n">
         <v/>
       </c>
@@ -1609,12 +1469,12 @@
       </c>
       <c r="B18" s="3" t="inlineStr">
         <is>
-          <t>Trần Quốc Đạt</t>
+          <t>Nguyễn Công Đức</t>
         </is>
       </c>
       <c r="C18" s="3" t="inlineStr">
         <is>
-          <t>dattq33</t>
+          <t>ducnc10</t>
         </is>
       </c>
       <c r="D18" s="3" t="inlineStr">
@@ -1624,7 +1484,7 @@
       </c>
       <c r="E18" s="3" t="inlineStr">
         <is>
-          <t>Team Python</t>
+          <t>Team FE</t>
         </is>
       </c>
       <c r="F18" s="2" t="n"/>
@@ -1746,24 +1606,16 @@
       </c>
       <c r="C20" s="8" t="inlineStr">
         <is>
-          <t>Bàn giao công việc</t>
+          <t>Đảm bảo các công việc phát sinh hoàn thành đúng tiến độ và chất lượng</t>
         </is>
       </c>
       <c r="D20" s="8" t="inlineStr">
         <is>
-          <t>Bàn giao công việc</t>
-        </is>
-      </c>
-      <c r="E20" s="8" t="inlineStr">
-        <is>
-          <t xml:space="preserve">24 * 6 </t>
-        </is>
-      </c>
-      <c r="F20" s="8" t="inlineStr">
-        <is>
-          <t>File tài liệu</t>
-        </is>
-      </c>
+          <t>Hoàn thành demo áp dụng tool Storybook và slide giới thiệu sản phẩm thi sáng tạo FTEL trước 23.8.2023</t>
+        </is>
+      </c>
+      <c r="E20" s="8" t="n"/>
+      <c r="F20" s="8" t="n"/>
       <c r="G20" s="8" t="inlineStr">
         <is>
           <t>Tháng</t>
@@ -1771,7 +1623,7 @@
       </c>
       <c r="H20" s="8" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>Đạt/Không đạt</t>
         </is>
       </c>
       <c r="I20" s="8" t="inlineStr">
@@ -1781,7 +1633,7 @@
       </c>
       <c r="J20" s="8" t="inlineStr">
         <is>
-          <t>100%</t>
+          <t>Đạt</t>
         </is>
       </c>
       <c r="K20" s="8" t="n">
@@ -1794,29 +1646,17 @@
         <v/>
       </c>
       <c r="N20" s="8" t="n">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="O20" s="8" t="n">
-        <v>48</v>
-      </c>
-      <c r="P20" s="8" t="n"/>
-      <c r="Q20" s="8" t="inlineStr">
-        <is>
-          <r>
-            <rPr>
-              <rFont val="&lt;openpyxl.styles.fonts.Font object&gt;&#10;Parameters:&#10;name='Arial', charset=None, family=None, b=False, i=False, strike=False, outline=None, shadow=None, condense=None, color=&lt;openpyxl.styles.colors.Color object&gt;&#10;Parameters:&#10;rgb='00FF0000', indexed=None, auto=None, theme=None, tint=0.0, type='rgb', extend=None, sz=11.0, u=None, vertAlign=None, scheme=None"/>
-            </rPr>
-            <t xml:space="preserve">confirm bàn giao : </t>
-          </r>
-          <r>
-            <rPr>
-              <rFont val="&lt;openpyxl.styles.fonts.Font object&gt;&#10;Parameters:&#10;name='Arial', charset=None, family=None, b=False, i=False, strike=False, outline=None, shadow=None, condense=None, color=&lt;openpyxl.styles.colors.Color object&gt;&#10;Parameters:&#10;rgb='006699CC', indexed=None, auto=None, theme=None, tint=0.0, type='rgb', extend=None, sz=11.0, u=None, vertAlign=None, scheme=None"/>
-            </rPr>
-            <t xml:space="preserve">https://docs.google.com/spreadsheets/d/1qUcmCoXKUACHxdPttXY6Avga6qyL18uMcdmXnl0sokM/edit#gid=0
-</t>
-          </r>
-        </is>
-      </c>
+        <v/>
+      </c>
+      <c r="P20" s="8" t="inlineStr">
+        <is>
+          <t>- Nghiên cứu, code tính năng</t>
+        </is>
+      </c>
+      <c r="Q20" s="8" t="n"/>
       <c r="R20" s="8" t="inlineStr"/>
     </row>
     <row r="21">
@@ -1828,7 +1668,7 @@
       </c>
       <c r="C21" s="8" t="inlineStr">
         <is>
-          <t>Đảm bảo chất lượng sản phẩm với số bug log trên các môi trường trong dự án OnCX</t>
+          <t>Đảm bảo chất lượng sản phẩm với số bug log trên các môi trường trong dự án SOP</t>
         </is>
       </c>
       <c r="D21" s="8" t="inlineStr">
@@ -1836,18 +1676,8 @@
           <t>Trên môi trường stg Trung bình số bugs được report trong mỗi tính năng khi review code/ thực hiện dev &lt;= 5 và trên môi trường UAT critical/important issue &lt;= 1</t>
         </is>
       </c>
-      <c r="E21" s="8" t="inlineStr">
-        <is>
-          <t>- STG: số bug/tính năng khi review code/ thực hiện dev &lt;= 5
-- UAT: critical/important issue &lt;= 1
-** Không tính issue do nguyên nhân enhancement, wishlist, support</t>
-        </is>
-      </c>
-      <c r="F21" s="8" t="inlineStr">
-        <is>
-          <t>Taiga</t>
-        </is>
-      </c>
+      <c r="E21" s="8" t="n"/>
+      <c r="F21" s="8" t="n"/>
       <c r="G21" s="8" t="inlineStr">
         <is>
           <t>Tháng</t>
@@ -1878,33 +1708,17 @@
         <v/>
       </c>
       <c r="N21" s="8" t="n">
-        <v>46</v>
+        <v>20</v>
       </c>
       <c r="O21" s="8" t="n">
-        <v>30</v>
+        <v/>
       </c>
       <c r="P21" s="8" t="inlineStr">
         <is>
-          <t>23*2 mỗi ngày 2 tiếng fix bug</t>
-        </is>
-      </c>
-      <c r="Q21" s="8" t="inlineStr">
-        <is>
-          <r>
-            <rPr>
-              <rFont val="&lt;openpyxl.styles.fonts.Font object&gt;&#10;Parameters:&#10;name='Arial', charset=None, family=None, b=False, i=False, strike=False, outline=None, shadow=None, condense=None, color=&lt;openpyxl.styles.colors.Color object&gt;&#10;Parameters:&#10;rgb='00FF0000', indexed=None, auto=None, theme=None, tint=0.0, type='rgb', extend=None, sz=11.0, u=None, vertAlign=None, scheme=None"/>
-            </rPr>
-            <t xml:space="preserve">sô bug còn lại trên longchau-uat : </t>
-          </r>
-          <r>
-            <rPr>
-              <rFont val="&lt;openpyxl.styles.fonts.Font object&gt;&#10;Parameters:&#10;name='Arial', charset=None, family=None, b=False, i=False, strike=False, outline=None, shadow=None, condense=None, color=&lt;openpyxl.styles.colors.Color object&gt;&#10;Parameters:&#10;rgb='006699CC', indexed=None, auto=None, theme=None, tint=0.0, type='rgb', extend=None, sz=11.0, u=None, vertAlign=None, scheme=None"/>
-            </rPr>
-            <t xml:space="preserve">http://172.27.228.249:9000/project/smart-contact-center/issues?tags=lcuat&amp;status=16
-</t>
-          </r>
-        </is>
-      </c>
+          <t>- Thời gian check - fix bugs: 20h/tháng</t>
+        </is>
+      </c>
+      <c r="Q21" s="8" t="n"/>
       <c r="R21" s="8" t="inlineStr"/>
     </row>
     <row r="22">
@@ -1967,34 +1781,21 @@
       </c>
       <c r="B23" s="8" t="inlineStr">
         <is>
-          <t>Hoàn thành tối ưu hệ thống và sản phẩm core theo feedback trải nghiệm người dùng trong quý 3.2023</t>
+          <t>Nâng cao chất lượng hoàn thành phát triển và release 100% các tính năng trong dự án trung tâm OnCX, SOP, HappyConnect, Dialo, CheckMK đúng thời hạn cam kết</t>
         </is>
       </c>
       <c r="C23" s="8" t="inlineStr">
         <is>
-          <t xml:space="preserve">Hoàn thành tối ưu migrate &amp; triển khai cho KHG LC trên môi trường PROD và không xảy ra critical issue, hoàn thành tối ưu các tính năng của dự án trước 30.8.2023 </t>
+          <t>Hoàn thành release các tính năng bản web v1.2, release các tính năng theo kế hoạch trong tháng 8</t>
         </is>
       </c>
       <c r="D23" s="8" t="inlineStr">
         <is>
-          <t>Đảm bảo 100% data được migrate và resource dự án không bị quá tải Đảm bảo 100% các module bàn giao core Oncx khi được SA confirm</t>
-        </is>
-      </c>
-      <c r="E23" s="8" t="inlineStr">
-        <is>
-          <t>100% US/sprint hoàn thành thỏa cả các điều kiện:
-- Không phát sinh critical issue
-- Không downtime hệ thống
-- Có bằng chứng dev intergration test/ unittest ở mt dev
-- Tester test pass các US trên mt stg
-- 100% các module bàn giao core Oncx khi được SA confirm</t>
-        </is>
-      </c>
-      <c r="F23" s="8" t="inlineStr">
-        <is>
-          <t>Taiga</t>
-        </is>
-      </c>
+          <t>Đảm bảo 100% các tính năng trong sprint được giao hoàn thành đúng thời hạn (dự án SOP)</t>
+        </is>
+      </c>
+      <c r="E23" s="8" t="n"/>
+      <c r="F23" s="8" t="n"/>
       <c r="G23" s="8" t="inlineStr">
         <is>
           <t>Tháng</t>
@@ -2025,33 +1826,20 @@
         <v/>
       </c>
       <c r="N23" s="8" t="n">
-        <v>103.5</v>
+        <v>112</v>
       </c>
       <c r="O23" s="8" t="n">
-        <v>130</v>
+        <v/>
       </c>
       <c r="P23" s="8" t="inlineStr">
         <is>
-          <t>23*4.5 mỗi ngày làm task</t>
-        </is>
-      </c>
-      <c r="Q23" s="8" t="inlineStr">
-        <is>
-          <r>
-            <rPr>
-              <rFont val="&lt;openpyxl.styles.fonts.Font object&gt;&#10;Parameters:&#10;name='Arial', charset=None, family=None, b=False, i=False, strike=False, outline=None, shadow=None, condense=None, color=&lt;openpyxl.styles.colors.Color object&gt;&#10;Parameters:&#10;rgb='00FF0000', indexed=None, auto=None, theme=None, tint=0.0, type='rgb', extend=None, sz=11.0, u=None, vertAlign=None, scheme=None"/>
-            </rPr>
-            <t xml:space="preserve">migarte CRM longchau : </t>
-          </r>
-          <r>
-            <rPr>
-              <rFont val="&lt;openpyxl.styles.fonts.Font object&gt;&#10;Parameters:&#10;name='Arial', charset=None, family=None, b=False, i=False, strike=False, outline=None, shadow=None, condense=None, color=&lt;openpyxl.styles.colors.Color object&gt;&#10;Parameters:&#10;rgb='006699CC', indexed=None, auto=None, theme=None, tint=0.0, type='rgb', extend=None, sz=11.0, u=None, vertAlign=None, scheme=None"/>
-            </rPr>
-            <t xml:space="preserve">https://docs.google.com/spreadsheets/d/1cawx0cvzUkyuDyL7H0MyN4sxnIt4dHgQ_njIjm4IFKk/edit#gid=0
-</t>
-          </r>
-        </is>
-      </c>
+          <t>- Daily SOP: 0.5h/ngày * 21 = 10.5h/tháng
+- Sprint planing - retro review: 8h/tháng
+- Báo cáo report tuần: 2h/tháng
+- Code tính năng: 4-5h/ngày * 21 = 80h/tháng</t>
+        </is>
+      </c>
+      <c r="Q23" s="8" t="n"/>
       <c r="R23" s="8" t="inlineStr"/>
     </row>
     <row r="24">
@@ -2095,11 +1883,9 @@
         <v>0</v>
       </c>
       <c r="N24" s="9" t="n">
-        <v>197.5</v>
-      </c>
-      <c r="O24" s="9" t="n">
-        <v>208</v>
-      </c>
+        <v>184</v>
+      </c>
+      <c r="O24" s="9" t="inlineStr"/>
       <c r="P24" s="8" t="n">
         <v/>
       </c>
@@ -2136,12 +1922,12 @@
       </c>
       <c r="B26" s="3" t="inlineStr">
         <is>
-          <t>Nguyễn Công Đức</t>
+          <t>Lê Mạnh Tài</t>
         </is>
       </c>
       <c r="C26" s="3" t="inlineStr">
         <is>
-          <t>ducnc10</t>
+          <t>tailm10</t>
         </is>
       </c>
       <c r="D26" s="3" t="inlineStr">
@@ -2151,7 +1937,7 @@
       </c>
       <c r="E26" s="3" t="inlineStr">
         <is>
-          <t>Team FE</t>
+          <t>Team Python</t>
         </is>
       </c>
       <c r="F26" s="2" t="n"/>
@@ -2266,33 +2052,15 @@
           <t>kpi</t>
         </is>
       </c>
-      <c r="B28" s="8" t="inlineStr">
-        <is>
-          <t>Đảm bảo chất lượng sản phẩm với số bug log trên các môi trường trong dự án OnCX, SOP, HappyConnect, Dialo, CheckMK</t>
-        </is>
-      </c>
+      <c r="B28" s="8" t="n"/>
       <c r="C28" s="8" t="inlineStr">
         <is>
-          <t>Đảm bảo chất lượng sản phẩm với số bug log trên các môi trường trong dự án SOP</t>
-        </is>
-      </c>
-      <c r="D28" s="8" t="inlineStr">
-        <is>
-          <t>Trên môi trường stg Trung bình số bugs được report trong mỗi tính năng khi review code/ thực hiện dev &lt;= 5 và trên môi trường UAT critical/important issue &lt;= 1</t>
-        </is>
-      </c>
-      <c r="E28" s="8" t="inlineStr">
-        <is>
-          <t>- STG: số bug/tính năng khi review code/ thực hiện dev &lt;= 5
-- UAT: critical/important issue &lt;= 1
-** Không tính issue do nguyên nhân enhancement, wishlist, support</t>
-        </is>
-      </c>
-      <c r="F28" s="8" t="inlineStr">
-        <is>
-          <t>Taiga</t>
-        </is>
-      </c>
+          <t>Có &gt;= 1 cải tiến để nâng cao chất lượng công việc trong dự án/ môi trường hoặc semninar/ công việc phát sinh được CBQL giao</t>
+        </is>
+      </c>
+      <c r="D28" s="8" t="n"/>
+      <c r="E28" s="8" t="n"/>
+      <c r="F28" s="8" t="n"/>
       <c r="G28" s="8" t="inlineStr">
         <is>
           <t>Tháng</t>
@@ -2314,71 +2082,39 @@
         </is>
       </c>
       <c r="K28" s="8" t="n">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="L28" s="8" t="n">
-        <v>100</v>
+        <v/>
       </c>
       <c r="M28" s="8" t="n">
         <v/>
       </c>
       <c r="N28" s="8" t="n">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="O28" s="8" t="n">
-        <v>20</v>
+        <v/>
       </c>
       <c r="P28" s="8" t="inlineStr">
         <is>
-          <t>- Thời gian check - fix bugs: 20h/tháng</t>
-        </is>
-      </c>
-      <c r="Q28" s="8" t="inlineStr">
-        <is>
-          <r>
-            <rPr>
-              <rFont val="&lt;openpyxl.styles.fonts.Font object&gt;&#10;Parameters:&#10;name='Arial', charset=None, family=None, b=False, i=False, strike=False, outline=None, shadow=None, condense=None, color=&lt;openpyxl.styles.colors.Color object&gt;&#10;Parameters:&#10;rgb='00FF0000', indexed=None, auto=None, theme=None, tint=0.0, type='rgb', extend=None, sz=11.0, u=None, vertAlign=None, scheme=None"/>
-            </rPr>
-            <t xml:space="preserve">Tổng số Bug - Sprint 20 : </t>
-          </r>
-          <r>
-            <rPr>
-              <rFont val="&lt;openpyxl.styles.fonts.Font object&gt;&#10;Parameters:&#10;name='Arial', charset=None, family=None, b=False, i=False, strike=False, outline=None, shadow=None, condense=None, color=&lt;openpyxl.styles.colors.Color object&gt;&#10;Parameters:&#10;rgb='006699CC', indexed=None, auto=None, theme=None, tint=0.0, type='rgb', extend=None, sz=11.0, u=None, vertAlign=None, scheme=None"/>
-            </rPr>
-            <t xml:space="preserve">https://docs.google.com/spreadsheets/d/1RhypsQkAzhg2KbmyNZK4cuOIm6D9OEHNzGXMOfb_1bY/edit#gid=994381865
-</t>
-          </r>
-        </is>
-      </c>
+          <t>2h trong 1 tuần</t>
+        </is>
+      </c>
+      <c r="Q28" s="8" t="n"/>
       <c r="R28" s="8" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="2" t="n"/>
-      <c r="B29" s="8" t="inlineStr">
-        <is>
-          <t>Hoàn thành đúng tiến độ và chất lượng các Công việc phát sinh/ Seminar/ Cải tiến</t>
-        </is>
-      </c>
+      <c r="B29" s="8" t="n"/>
       <c r="C29" s="8" t="inlineStr">
         <is>
-          <t>Đảm bảo các công việc phát sinh hoàn thành đúng tiến độ và chất lượng</t>
-        </is>
-      </c>
-      <c r="D29" s="8" t="inlineStr">
-        <is>
-          <t>Hoàn thành demo áp dụng tool Storybook và slide giới thiệu sản phẩm thi sáng tạo FTEL trước 23.8.2023</t>
-        </is>
-      </c>
-      <c r="E29" s="8" t="inlineStr">
-        <is>
-          <t>Báo cáo được CBQL confirm</t>
-        </is>
-      </c>
-      <c r="F29" s="8" t="inlineStr">
-        <is>
-          <t>Mail</t>
-        </is>
-      </c>
+          <t>Trên môi trường stg Trung bình số bugs được report trong mỗi tính năng khi review code/ thực hiện dev &lt;= 5 và trên môi trường UAT critical/important issue &lt;= 1</t>
+        </is>
+      </c>
+      <c r="D29" s="8" t="n"/>
+      <c r="E29" s="8" t="n"/>
+      <c r="F29" s="8" t="n"/>
       <c r="G29" s="8" t="inlineStr">
         <is>
           <t>Tháng</t>
@@ -2386,7 +2122,7 @@
       </c>
       <c r="H29" s="8" t="inlineStr">
         <is>
-          <t>Đạt/Không đạt</t>
+          <t>%</t>
         </is>
       </c>
       <c r="I29" s="8" t="inlineStr">
@@ -2396,11 +2132,11 @@
       </c>
       <c r="J29" s="8" t="inlineStr">
         <is>
-          <t>Đạt</t>
+          <t>100%</t>
         </is>
       </c>
       <c r="K29" s="8" t="n">
-        <v>20</v>
+        <v>80</v>
       </c>
       <c r="L29" s="8" t="n">
         <v/>
@@ -2409,14 +2145,14 @@
         <v/>
       </c>
       <c r="N29" s="8" t="n">
-        <v>52</v>
+        <v>545</v>
       </c>
       <c r="O29" s="8" t="n">
-        <v>4</v>
+        <v/>
       </c>
       <c r="P29" s="8" t="inlineStr">
         <is>
-          <t>- Nghiên cứu, code tính năng</t>
+          <t>- Thời gian check - fix bugs:50h/tháng(từ 1.5 đến 2.5h/ngày)</t>
         </is>
       </c>
       <c r="Q29" s="8" t="n"/>
@@ -2457,7 +2193,7 @@
         <v>100</v>
       </c>
       <c r="L30" s="9" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="M30" s="9" t="n">
         <v>0</v>
@@ -2487,26 +2223,16 @@
       </c>
       <c r="C31" s="8" t="inlineStr">
         <is>
-          <t>Hoàn thành release các tính năng bản web v1.2, release các tính năng theo kế hoạch trong tháng 8</t>
+          <t>Hoàn thành xây dựng CheckMK theo kế hoạch trong tháng 8</t>
         </is>
       </c>
       <c r="D31" s="8" t="inlineStr">
         <is>
-          <t>Đảm bảo 100% các tính năng trong sprint được giao hoàn thành đúng thời hạn (dự án SOP)</t>
-        </is>
-      </c>
-      <c r="E31" s="8" t="inlineStr">
-        <is>
-          <t>100% US/ sprint hoàn thành thỏa cả 2 điều kiện:
-- Có bằng chứng dev intergration test/ unittest ở mt dev
-- Tester test pass các US trên mt stg</t>
-        </is>
-      </c>
-      <c r="F31" s="8" t="inlineStr">
-        <is>
-          <t>Taiga</t>
-        </is>
-      </c>
+          <t>Đảm bảo 100% các tính năng trong sprint được giao hoàn thành đúng thời hạn dự án CheckMK</t>
+        </is>
+      </c>
+      <c r="E31" s="8" t="n"/>
+      <c r="F31" s="8" t="n"/>
       <c r="G31" s="8" t="inlineStr">
         <is>
           <t>Tháng</t>
@@ -2531,42 +2257,26 @@
         <v>100</v>
       </c>
       <c r="L31" s="8" t="n">
-        <v>92</v>
+        <v/>
       </c>
       <c r="M31" s="8" t="n">
         <v/>
       </c>
       <c r="N31" s="8" t="n">
-        <v>112</v>
+        <v>122</v>
       </c>
       <c r="O31" s="8" t="n">
-        <v>138</v>
+        <v/>
       </c>
       <c r="P31" s="8" t="inlineStr">
         <is>
-          <t>- Daily SOP: 0.5h/ngày * 21 = 10.5h/tháng
-- Sprint planing - retro review: 8h/tháng
-- Báo cáo report tuần: 2h/tháng
-- Code tính năng: 4-5h/ngày * 21 = 80h/tháng</t>
-        </is>
-      </c>
-      <c r="Q31" s="8" t="inlineStr">
-        <is>
-          <r>
-            <rPr>
-              <rFont val="&lt;openpyxl.styles.fonts.Font object&gt;&#10;Parameters:&#10;name='Arial', charset=None, family=None, b=False, i=False, strike=False, outline=None, shadow=None, condense=None, color=&lt;openpyxl.styles.colors.Color object&gt;&#10;Parameters:&#10;rgb='00FF0000', indexed=None, auto=None, theme=None, tint=0.0, type='rgb', extend=None, sz=11.0, u=None, vertAlign=None, scheme=None"/>
-            </rPr>
-            <t xml:space="preserve">Tiến độ SOP - Sprint 20 : </t>
-          </r>
-          <r>
-            <rPr>
-              <rFont val="&lt;openpyxl.styles.fonts.Font object&gt;&#10;Parameters:&#10;name='Arial', charset=None, family=None, b=False, i=False, strike=False, outline=None, shadow=None, condense=None, color=&lt;openpyxl.styles.colors.Color object&gt;&#10;Parameters:&#10;rgb='006699CC', indexed=None, auto=None, theme=None, tint=0.0, type='rgb', extend=None, sz=11.0, u=None, vertAlign=None, scheme=None"/>
-            </rPr>
-            <t xml:space="preserve">https://docs.google.com/spreadsheets/d/1RhypsQkAzhg2KbmyNZK4cuOIm6D9OEHNzGXMOfb_1bY/edit#gid=0
-</t>
-          </r>
-        </is>
-      </c>
+          <t>- Code tính năng 4h/ngày * 23
+- Review + Update Code: 0.5h/ tuần (PoolIP)
+- Meeting daily,clear bug:  0.5h/ngày*23
+- Meeting retro, review, planning : 16h/tháng</t>
+        </is>
+      </c>
+      <c r="Q31" s="8" t="n"/>
       <c r="R31" s="8" t="inlineStr"/>
     </row>
     <row r="32">
@@ -2604,17 +2314,15 @@
         <v>100</v>
       </c>
       <c r="L32" s="9" t="n">
-        <v>92</v>
+        <v>0</v>
       </c>
       <c r="M32" s="9" t="n">
         <v>0</v>
       </c>
       <c r="N32" s="9" t="n">
-        <v>184</v>
-      </c>
-      <c r="O32" s="9" t="n">
-        <v>162</v>
-      </c>
+        <v>675</v>
+      </c>
+      <c r="O32" s="9" t="inlineStr"/>
       <c r="P32" s="8" t="n">
         <v/>
       </c>
@@ -2651,12 +2359,12 @@
       </c>
       <c r="B34" s="3" t="inlineStr">
         <is>
-          <t>Lê Mạnh Tài</t>
+          <t>Nguyễn Thành Nguyên</t>
         </is>
       </c>
       <c r="C34" s="3" t="inlineStr">
         <is>
-          <t>tailm10</t>
+          <t>nguyennt63</t>
         </is>
       </c>
       <c r="D34" s="3" t="inlineStr">
@@ -2788,7 +2496,7 @@
       </c>
       <c r="C36" s="8" t="inlineStr">
         <is>
-          <t>Đảm bảo chất lượng sản phẩm với số bug log trên các môi trường trong dự án ChecMK</t>
+          <t>Đảm bảo chất lượng sản phẩm với số bug log trên các môi trường trong dự án Dialo</t>
         </is>
       </c>
       <c r="D36" s="8" t="inlineStr">
@@ -2796,18 +2504,8 @@
           <t>Trên môi trường stg Trung bình số bugs được report trong mỗi tính năng khi review code/ thực hiện dev &lt;= 5 và trên môi trường UAT critical/important issue &lt;= 1</t>
         </is>
       </c>
-      <c r="E36" s="8" t="inlineStr">
-        <is>
-          <t>- STG: số bug/tính năng khi review code/ thực hiện dev &lt;= 5
-- UAT: critical/important issue &lt;= 1
-** Không tính issue do nguyên nhân enhancement, wishlist, support</t>
-        </is>
-      </c>
-      <c r="F36" s="8" t="inlineStr">
-        <is>
-          <t>Mail</t>
-        </is>
-      </c>
+      <c r="E36" s="8" t="n"/>
+      <c r="F36" s="8" t="n"/>
       <c r="G36" s="8" t="inlineStr">
         <is>
           <t>Tháng</t>
@@ -2832,39 +2530,23 @@
         <v>80</v>
       </c>
       <c r="L36" s="8" t="n">
-        <v>100</v>
+        <v/>
       </c>
       <c r="M36" s="8" t="n">
         <v/>
       </c>
       <c r="N36" s="8" t="n">
-        <v>54</v>
+        <v>57.5</v>
       </c>
       <c r="O36" s="8" t="n">
-        <v>0</v>
+        <v/>
       </c>
       <c r="P36" s="8" t="inlineStr">
         <is>
-          <t>- Thời gian check - fix bugs:50h/tháng(từ 1.5 đến 2.5h/ngày)</t>
-        </is>
-      </c>
-      <c r="Q36" s="8" t="inlineStr">
-        <is>
-          <r>
-            <rPr>
-              <rFont val="&lt;openpyxl.styles.fonts.Font object&gt;&#10;Parameters:&#10;name='Arial', charset=None, family=None, b=False, i=False, strike=False, outline=None, shadow=None, condense=None, color=&lt;openpyxl.styles.colors.Color object&gt;&#10;Parameters:&#10;rgb='00FF0000', indexed=None, auto=None, theme=None, tint=0.0, type='rgb', extend=None, sz=11.0, u=None, vertAlign=None, scheme=None"/>
-            </rPr>
-            <t xml:space="preserve">Bằng Chứng Bug : </t>
-          </r>
-          <r>
-            <rPr>
-              <rFont val="&lt;openpyxl.styles.fonts.Font object&gt;&#10;Parameters:&#10;name='Arial', charset=None, family=None, b=False, i=False, strike=False, outline=None, shadow=None, condense=None, color=&lt;openpyxl.styles.colors.Color object&gt;&#10;Parameters:&#10;rgb='006699CC', indexed=None, auto=None, theme=None, tint=0.0, type='rgb', extend=None, sz=11.0, u=None, vertAlign=None, scheme=None"/>
-            </rPr>
-            <t xml:space="preserve">https://docs.google.com/spreadsheets/d/17eBVsuHjK24RBxa2t94FtApqvEtEebLG04XAQvsHTFA/edit#gid=0
-</t>
-          </r>
-        </is>
-      </c>
+          <t>57.5/tháng</t>
+        </is>
+      </c>
+      <c r="Q36" s="8" t="n"/>
       <c r="R36" s="8" t="inlineStr"/>
     </row>
     <row r="37">
@@ -2884,16 +2566,8 @@
           <t>Có &gt;= 1 cải tiến để nâng cao chất lượng công việc trong dự án/ môi trường hoặc semninar/ công việc phát sinh được CBQL giao</t>
         </is>
       </c>
-      <c r="E37" s="8" t="inlineStr">
-        <is>
-          <t>CBQL/PM/SA confirm</t>
-        </is>
-      </c>
-      <c r="F37" s="8" t="inlineStr">
-        <is>
-          <t>Mail</t>
-        </is>
-      </c>
+      <c r="E37" s="8" t="n"/>
+      <c r="F37" s="8" t="n"/>
       <c r="G37" s="8" t="inlineStr">
         <is>
           <t>Tháng</t>
@@ -2901,7 +2575,7 @@
       </c>
       <c r="H37" s="8" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>Đạt/Không đạt</t>
         </is>
       </c>
       <c r="I37" s="8" t="inlineStr">
@@ -2911,27 +2585,27 @@
       </c>
       <c r="J37" s="8" t="inlineStr">
         <is>
-          <t>100%</t>
+          <t>Đạt</t>
         </is>
       </c>
       <c r="K37" s="8" t="n">
         <v>20</v>
       </c>
       <c r="L37" s="8" t="n">
-        <v>0</v>
+        <v/>
       </c>
       <c r="M37" s="8" t="n">
         <v/>
       </c>
       <c r="N37" s="8" t="n">
-        <v>8</v>
+        <v>11.5</v>
       </c>
       <c r="O37" s="8" t="n">
-        <v>0</v>
+        <v/>
       </c>
       <c r="P37" s="8" t="inlineStr">
         <is>
-          <t>2h trong 1 tuần</t>
+          <t>11.5/tháng</t>
         </is>
       </c>
       <c r="Q37" s="8" t="n"/>
@@ -2972,7 +2646,7 @@
         <v>100</v>
       </c>
       <c r="L38" s="9" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="M38" s="9" t="n">
         <v>0</v>
@@ -3002,26 +2676,16 @@
       </c>
       <c r="C39" s="8" t="inlineStr">
         <is>
-          <t>Hoàn thành xây dựng CheckMK theo kế hoạch trong tháng 8</t>
+          <t>Hoàn thành release các tính năng bản web và apps theo kế hoạch trong tháng 8</t>
         </is>
       </c>
       <c r="D39" s="8" t="inlineStr">
         <is>
-          <t>Đảm bảo 100% các tính năng trong sprint được giao hoàn thành đúng thời hạn dự án CheckMK</t>
-        </is>
-      </c>
-      <c r="E39" s="8" t="inlineStr">
-        <is>
-          <t>100% US/ sprint hoàn thành thỏa cả 2 điều kiện:
-- Có bằng chứng dev intergration test/ unittest ở mt dev
-- Tester test pass các US trên mt stg</t>
-        </is>
-      </c>
-      <c r="F39" s="8" t="inlineStr">
-        <is>
-          <t>Mail</t>
-        </is>
-      </c>
+          <t>Đảm bảo 100% các tính năng trong sprint được giao hoàn thành đúng thời hạn dự án SOP</t>
+        </is>
+      </c>
+      <c r="E39" s="8" t="n"/>
+      <c r="F39" s="8" t="n"/>
       <c r="G39" s="8" t="inlineStr">
         <is>
           <t>Tháng</t>
@@ -3046,42 +2710,23 @@
         <v>100</v>
       </c>
       <c r="L39" s="8" t="n">
-        <v>100</v>
+        <v/>
       </c>
       <c r="M39" s="8" t="n">
         <v/>
       </c>
       <c r="N39" s="8" t="n">
-        <v>122</v>
+        <v>115</v>
       </c>
       <c r="O39" s="8" t="n">
-        <v>128</v>
+        <v/>
       </c>
       <c r="P39" s="8" t="inlineStr">
         <is>
-          <t>- Code tính năng 4h/ngày * 23
-- Review + Update Code: 0.5h/ tuần (PoolIP)
-- Meeting daily,clear bug:  0.5h/ngày*23
-- Meeting retro, review, planning : 16h/tháng</t>
-        </is>
-      </c>
-      <c r="Q39" s="8" t="inlineStr">
-        <is>
-          <r>
-            <rPr>
-              <rFont val="&lt;openpyxl.styles.fonts.Font object&gt;&#10;Parameters:&#10;name='Arial', charset=None, family=None, b=False, i=False, strike=False, outline=None, shadow=None, condense=None, color=&lt;openpyxl.styles.colors.Color object&gt;&#10;Parameters:&#10;rgb='00FF0000', indexed=None, auto=None, theme=None, tint=0.0, type='rgb', extend=None, sz=11.0, u=None, vertAlign=None, scheme=None"/>
-            </rPr>
-            <t xml:space="preserve">Bằng Chứng Timeline : </t>
-          </r>
-          <r>
-            <rPr>
-              <rFont val="&lt;openpyxl.styles.fonts.Font object&gt;&#10;Parameters:&#10;name='Arial', charset=None, family=None, b=False, i=False, strike=False, outline=None, shadow=None, condense=None, color=&lt;openpyxl.styles.colors.Color object&gt;&#10;Parameters:&#10;rgb='006699CC', indexed=None, auto=None, theme=None, tint=0.0, type='rgb', extend=None, sz=11.0, u=None, vertAlign=None, scheme=None"/>
-            </rPr>
-            <t xml:space="preserve">https://docs.google.com/spreadsheets/d/1WPxs4Ii5gkDtp9GpnjsRl6_j19eP-wKmxDwgii1f5Y4/edit#gid=0
-</t>
-          </r>
-        </is>
-      </c>
+          <t xml:space="preserve">115/ tháng </t>
+        </is>
+      </c>
+      <c r="Q39" s="8" t="n"/>
       <c r="R39" s="8" t="inlineStr"/>
     </row>
     <row r="40">
@@ -3119,7 +2764,7 @@
         <v>100</v>
       </c>
       <c r="L40" s="9" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="M40" s="9" t="n">
         <v>0</v>
@@ -3127,9 +2772,7 @@
       <c r="N40" s="9" t="n">
         <v>184</v>
       </c>
-      <c r="O40" s="9" t="n">
-        <v>128</v>
-      </c>
+      <c r="O40" s="9" t="inlineStr"/>
       <c r="P40" s="8" t="n">
         <v/>
       </c>
@@ -3166,12 +2809,12 @@
       </c>
       <c r="B42" s="3" t="inlineStr">
         <is>
-          <t>Nguyễn Thành Nguyên</t>
+          <t>Huỳnh Quốc Huy</t>
         </is>
       </c>
       <c r="C42" s="3" t="inlineStr">
         <is>
-          <t>nguyennt63</t>
+          <t>huyhq29</t>
         </is>
       </c>
       <c r="D42" s="3" t="inlineStr">
@@ -3181,7 +2824,7 @@
       </c>
       <c r="E42" s="3" t="inlineStr">
         <is>
-          <t>Team Python</t>
+          <t>Team FE</t>
         </is>
       </c>
       <c r="F42" s="2" t="n"/>
@@ -3298,31 +2941,21 @@
       </c>
       <c r="B44" s="8" t="inlineStr">
         <is>
-          <t>Đảm bảo chất lượng sản phẩm với số bug log trên các môi trường trong dự án OnCX, SOP, HappyConnect, Dialo, CheckMK</t>
+          <t>Hoàn thành đúng tiến độ và chất lượng các Công việc phát sinh/ Seminar/ Cải tiến</t>
         </is>
       </c>
       <c r="C44" s="8" t="inlineStr">
         <is>
-          <t>Đảm bảo chất lượng sản phẩm với số bug log trên các môi trường trong dự án Dialo</t>
+          <t>Đảm bảo các công việc phát sinh hoàn thành đúng tiến độ và chất lượng</t>
         </is>
       </c>
       <c r="D44" s="8" t="inlineStr">
         <is>
-          <t>Trên môi trường stg Trung bình số bugs được report trong mỗi tính năng khi review code/ thực hiện dev &lt;= 5 và trên môi trường UAT critical/important issue &lt;= 1</t>
-        </is>
-      </c>
-      <c r="E44" s="8" t="inlineStr">
-        <is>
-          <t>- STG: số bug/tính năng khi review code/ thực hiện dev &lt;= 5
-- UAT: critical/important issue &lt;= 1
-** Không tính issue do nguyên nhân enhancement, wishlist, support</t>
-        </is>
-      </c>
-      <c r="F44" s="8" t="inlineStr">
-        <is>
-          <t>Taiga</t>
-        </is>
-      </c>
+          <t>Hoàn thành demo áp dụng tool Storybook và slide giới thiệu sản phẩm thi sáng tạo FTEL trước 23.8.2023</t>
+        </is>
+      </c>
+      <c r="E44" s="8" t="n"/>
+      <c r="F44" s="8" t="n"/>
       <c r="G44" s="8" t="inlineStr">
         <is>
           <t>Tháng</t>
@@ -3330,7 +2963,7 @@
       </c>
       <c r="H44" s="8" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>Đạt/Không đạt</t>
         </is>
       </c>
       <c r="I44" s="8" t="inlineStr">
@@ -3340,75 +2973,47 @@
       </c>
       <c r="J44" s="8" t="inlineStr">
         <is>
-          <t>100%</t>
+          <t>Đạt</t>
         </is>
       </c>
       <c r="K44" s="8" t="n">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="L44" s="8" t="n">
-        <v>100</v>
+        <v/>
       </c>
       <c r="M44" s="8" t="n">
         <v/>
       </c>
       <c r="N44" s="8" t="n">
-        <v>57.5</v>
+        <v>16</v>
       </c>
       <c r="O44" s="8" t="n">
-        <v>24</v>
-      </c>
-      <c r="P44" s="8" t="inlineStr">
-        <is>
-          <t>23 * 2,5 ( sấp xỉ 2h30p mỗi ngày fix bug / meeting clear bug )</t>
-        </is>
-      </c>
-      <c r="Q44" s="8" t="inlineStr">
-        <is>
-          <r>
-            <rPr>
-              <rFont val="&lt;openpyxl.styles.fonts.Font object&gt;&#10;Parameters:&#10;name='Arial', charset=None, family=None, b=False, i=False, strike=False, outline=None, shadow=None, condense=None, color=&lt;openpyxl.styles.colors.Color object&gt;&#10;Parameters:&#10;rgb='00FF0000', indexed=None, auto=None, theme=None, tint=0.0, type='rgb', extend=None, sz=11.0, u=None, vertAlign=None, scheme=None"/>
-            </rPr>
-            <t xml:space="preserve">Thống kê bug dự án SOP T8 : </t>
-          </r>
-          <r>
-            <rPr>
-              <rFont val="&lt;openpyxl.styles.fonts.Font object&gt;&#10;Parameters:&#10;name='Arial', charset=None, family=None, b=False, i=False, strike=False, outline=None, shadow=None, condense=None, color=&lt;openpyxl.styles.colors.Color object&gt;&#10;Parameters:&#10;rgb='006699CC', indexed=None, auto=None, theme=None, tint=0.0, type='rgb', extend=None, sz=11.0, u=None, vertAlign=None, scheme=None"/>
-            </rPr>
-            <t xml:space="preserve">https://docs.google.com/spreadsheets/d/1zYsbMX-Gft2b4pZZdDyLumB5I78fhNHAE3t62baPN6s/edit#gid=0
-</t>
-          </r>
-        </is>
-      </c>
+        <v/>
+      </c>
+      <c r="P44" s="8" t="n"/>
+      <c r="Q44" s="8" t="n"/>
       <c r="R44" s="8" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="2" t="n"/>
       <c r="B45" s="8" t="inlineStr">
         <is>
-          <t>Hoàn thành đúng tiến độ và chất lượng các Công việc phát sinh/ Seminar/ Cải tiến</t>
+          <t>Đảm bảo chất lượng sản phẩm với số bug log trên các môi trường trong dự án HappyConnect, Dialo</t>
         </is>
       </c>
       <c r="C45" s="8" t="inlineStr">
         <is>
-          <t>Hoàn thành đúng tiến độ và chất lượng các Công việc phát sinh</t>
+          <t>Đảm bảo chất lượng sản phẩm với số bug log trên các môi trường trong dự án Happy Connect, Dialo</t>
         </is>
       </c>
       <c r="D45" s="8" t="inlineStr">
         <is>
-          <t>Có &gt;= 1 cải tiến để nâng cao chất lượng công việc trong dự án/ môi trường hoặc semninar/ công việc phát sinh được CBQL giao</t>
-        </is>
-      </c>
-      <c r="E45" s="8" t="inlineStr">
-        <is>
-          <t>CBQL/PM/SA confirm</t>
-        </is>
-      </c>
-      <c r="F45" s="8" t="inlineStr">
-        <is>
-          <t>Mail</t>
-        </is>
-      </c>
+          <t>Trên môi trường stg Trung bình số bugs được report trong mỗi tính năng khi review code/ thực hiện dev &lt;= 5 và trên môi trường Prod critical/important issue &lt;= 1</t>
+        </is>
+      </c>
+      <c r="E45" s="8" t="n"/>
+      <c r="F45" s="8" t="n"/>
       <c r="G45" s="8" t="inlineStr">
         <is>
           <t>Tháng</t>
@@ -3416,7 +3021,7 @@
       </c>
       <c r="H45" s="8" t="inlineStr">
         <is>
-          <t>Đạt/Không đạt</t>
+          <t>%</t>
         </is>
       </c>
       <c r="I45" s="8" t="inlineStr">
@@ -3426,11 +3031,11 @@
       </c>
       <c r="J45" s="8" t="inlineStr">
         <is>
-          <t>Đạt</t>
+          <t>100%</t>
         </is>
       </c>
       <c r="K45" s="8" t="n">
-        <v>20</v>
+        <v>80</v>
       </c>
       <c r="L45" s="8" t="n">
         <v/>
@@ -3439,14 +3044,15 @@
         <v/>
       </c>
       <c r="N45" s="8" t="n">
-        <v>11.5</v>
+        <v>40</v>
       </c>
       <c r="O45" s="8" t="n">
-        <v>0</v>
+        <v/>
       </c>
       <c r="P45" s="8" t="inlineStr">
         <is>
-          <t>11.5h/tháng</t>
+          <t>- Dialo: Fix bug 16h
+- Happy Connect: Fix bug 24h</t>
         </is>
       </c>
       <c r="Q45" s="8" t="n"/>
@@ -3487,7 +3093,7 @@
         <v>100</v>
       </c>
       <c r="L46" s="9" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="M46" s="9" t="n">
         <v>0</v>
@@ -3512,31 +3118,21 @@
       </c>
       <c r="B47" s="8" t="inlineStr">
         <is>
-          <t>Nâng cao chất lượng hoàn thành phát triển và release 100% các tính năng trong dự án trung tâm OnCX, SOP, HappyConnect, Dialo, CheckMK đúng thời hạn cam kết</t>
+          <t>Nâng cao chất lượng hoàn thành phát triển và release 100% các tính năng trong dự án trung tâm HappyConnect, Dialo đúng thời hạn cam kết</t>
         </is>
       </c>
       <c r="C47" s="8" t="inlineStr">
         <is>
-          <t>Hoàn thành release các tính năng bản web và apps theo kế hoạch trong tháng 8</t>
+          <t>Hoàn thành release các tính năng bản theo kế hoạch trong tháng 8</t>
         </is>
       </c>
       <c r="D47" s="8" t="inlineStr">
         <is>
-          <t>Đảm bảo 100% các tính năng trong sprint được giao hoàn thành đúng thời hạn dự án SOP</t>
-        </is>
-      </c>
-      <c r="E47" s="8" t="inlineStr">
-        <is>
-          <t>100% US/ sprint hoàn thành thỏa cả 2 điều kiện:
-- Có bằng chứng dev intergration test/ unittest ở mt dev
-- Tester test pass các US trên mt stg</t>
-        </is>
-      </c>
-      <c r="F47" s="8" t="inlineStr">
-        <is>
-          <t>Taiga</t>
-        </is>
-      </c>
+          <t>Đảm bảo 100% các tính năng trong sprint được giao hoàn thành đúng thời hạn (dự án Happy Connect, Dialo)</t>
+        </is>
+      </c>
+      <c r="E47" s="8" t="n"/>
+      <c r="F47" s="8" t="n"/>
       <c r="G47" s="8" t="inlineStr">
         <is>
           <t>Tháng</t>
@@ -3561,39 +3157,24 @@
         <v>100</v>
       </c>
       <c r="L47" s="8" t="n">
-        <v>92</v>
+        <v/>
       </c>
       <c r="M47" s="8" t="n">
         <v/>
       </c>
       <c r="N47" s="8" t="n">
-        <v>115</v>
+        <v>128</v>
       </c>
       <c r="O47" s="8" t="n">
-        <v>160</v>
+        <v/>
       </c>
       <c r="P47" s="8" t="inlineStr">
         <is>
-          <t>23 * 5 ( 5h mỗi ngày làm task , khoảng 30 phút - 1 tiếng daily/ meeting test / retro / planning)</t>
-        </is>
-      </c>
-      <c r="Q47" s="8" t="inlineStr">
-        <is>
-          <r>
-            <rPr>
-              <rFont val="&lt;openpyxl.styles.fonts.Font object&gt;&#10;Parameters:&#10;name='Arial', charset=None, family=None, b=False, i=False, strike=False, outline=None, shadow=None, condense=None, color=&lt;openpyxl.styles.colors.Color object&gt;&#10;Parameters:&#10;rgb='00FF0000', indexed=None, auto=None, theme=None, tint=0.0, type='rgb', extend=None, sz=11.0, u=None, vertAlign=None, scheme=None"/>
-            </rPr>
-            <t xml:space="preserve">Tiến độ tính năng dự án SOP : </t>
-          </r>
-          <r>
-            <rPr>
-              <rFont val="&lt;openpyxl.styles.fonts.Font object&gt;&#10;Parameters:&#10;name='Arial', charset=None, family=None, b=False, i=False, strike=False, outline=None, shadow=None, condense=None, color=&lt;openpyxl.styles.colors.Color object&gt;&#10;Parameters:&#10;rgb='006699CC', indexed=None, auto=None, theme=None, tint=0.0, type='rgb', extend=None, sz=11.0, u=None, vertAlign=None, scheme=None"/>
-            </rPr>
-            <t xml:space="preserve">https://docs.google.com/spreadsheets/d/1JxytDSIKmv1RNPyIQ0Ocwn1-zJwOdqS4aWsx-ZNBl5o/edit#gid=0
-</t>
-          </r>
-        </is>
-      </c>
+          <t>- Dialo: làm tính năng + họp daily 24h
+- Happy Connect: làm tính năng + họp daily 72h</t>
+        </is>
+      </c>
+      <c r="Q47" s="8" t="n"/>
       <c r="R47" s="8" t="inlineStr"/>
     </row>
     <row r="48">
@@ -3631,7 +3212,7 @@
         <v>100</v>
       </c>
       <c r="L48" s="9" t="n">
-        <v>92</v>
+        <v>0</v>
       </c>
       <c r="M48" s="9" t="n">
         <v>0</v>
@@ -3639,9 +3220,7 @@
       <c r="N48" s="9" t="n">
         <v>184</v>
       </c>
-      <c r="O48" s="9" t="n">
-        <v>184</v>
-      </c>
+      <c r="O48" s="9" t="inlineStr"/>
       <c r="P48" s="8" t="n">
         <v/>
       </c>
@@ -3678,12 +3257,12 @@
       </c>
       <c r="B50" s="3" t="inlineStr">
         <is>
-          <t>Huỳnh Quốc Huy</t>
+          <t>Nguyễn Thanh Nguyên</t>
         </is>
       </c>
       <c r="C50" s="3" t="inlineStr">
         <is>
-          <t>huyhq29</t>
+          <t>nguyennt65</t>
         </is>
       </c>
       <c r="D50" s="3" t="inlineStr">
@@ -3693,7 +3272,7 @@
       </c>
       <c r="E50" s="3" t="inlineStr">
         <is>
-          <t>Team FE</t>
+          <t>Team Python</t>
         </is>
       </c>
       <c r="F50" s="2" t="n"/>
@@ -3808,31 +3387,15 @@
           <t>kpi</t>
         </is>
       </c>
-      <c r="B52" s="8" t="inlineStr">
-        <is>
-          <t>Hoàn thành đúng tiến độ và chất lượng các Công việc phát sinh/ Seminar/ Cải tiến</t>
-        </is>
-      </c>
+      <c r="B52" s="8" t="n"/>
       <c r="C52" s="8" t="inlineStr">
         <is>
-          <t>Đảm bảo các công việc phát sinh hoàn thành đúng tiến độ và chất lượng</t>
-        </is>
-      </c>
-      <c r="D52" s="8" t="inlineStr">
-        <is>
-          <t>Hoàn thành demo áp dụng tool Storybook và slide giới thiệu sản phẩm thi sáng tạo FTEL trước 23.8.2023</t>
-        </is>
-      </c>
-      <c r="E52" s="8" t="inlineStr">
-        <is>
-          <t>Báo cáo được CBQL confirm</t>
-        </is>
-      </c>
-      <c r="F52" s="8" t="inlineStr">
-        <is>
-          <t>Mail</t>
-        </is>
-      </c>
+          <t>Ứng dụng gRPC vào tối ưu &gt;= 1 module trong dự án Dialo được CBQL/PM/SA confirm trước 23.08.2023</t>
+        </is>
+      </c>
+      <c r="D52" s="8" t="n"/>
+      <c r="E52" s="8" t="n"/>
+      <c r="F52" s="8" t="n"/>
       <c r="G52" s="8" t="inlineStr">
         <is>
           <t>Tháng</t>
@@ -3863,10 +3426,10 @@
         <v/>
       </c>
       <c r="N52" s="8" t="n">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="O52" s="8" t="n">
-        <v>8</v>
+        <v/>
       </c>
       <c r="P52" s="8" t="n"/>
       <c r="Q52" s="8" t="n"/>
@@ -3874,33 +3437,15 @@
     </row>
     <row r="53">
       <c r="A53" s="2" t="n"/>
-      <c r="B53" s="8" t="inlineStr">
-        <is>
-          <t>Đảm bảo chất lượng sản phẩm với số bug log trên các môi trường trong dự án HappyConnect, Dialo</t>
-        </is>
-      </c>
+      <c r="B53" s="8" t="n"/>
       <c r="C53" s="8" t="inlineStr">
         <is>
-          <t>Đảm bảo chất lượng sản phẩm với số bug log trên các môi trường trong dự án Happy Connect, Dialo</t>
-        </is>
-      </c>
-      <c r="D53" s="8" t="inlineStr">
-        <is>
-          <t>Trên môi trường stg Trung bình số bugs được report trong mỗi tính năng khi review code/ thực hiện dev &lt;= 5 và trên môi trường Prod critical/important issue &lt;= 1</t>
-        </is>
-      </c>
-      <c r="E53" s="8" t="inlineStr">
-        <is>
-          <t>- STG: số bug/tính năng khi review code/ thực hiện dev &lt;= 5
-- UAT: critical/important issue &lt;= 1
-** Không tính issue do nguyên nhân enhancement, wishlist, support</t>
-        </is>
-      </c>
-      <c r="F53" s="8" t="inlineStr">
-        <is>
-          <t>Taiga</t>
-        </is>
-      </c>
+          <t>Trên môi trường stg Trung bình số bugs được report trong mỗi tính năng khi review code/ thực hiện dev &lt;= 5 và trên môi trường UAT critical/important issue &lt;= 1</t>
+        </is>
+      </c>
+      <c r="D53" s="8" t="n"/>
+      <c r="E53" s="8" t="n"/>
+      <c r="F53" s="8" t="n"/>
       <c r="G53" s="8" t="inlineStr">
         <is>
           <t>Tháng</t>
@@ -3908,7 +3453,7 @@
       </c>
       <c r="H53" s="8" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>Đạt/Không đạt</t>
         </is>
       </c>
       <c r="I53" s="8" t="inlineStr">
@@ -3918,60 +3463,26 @@
       </c>
       <c r="J53" s="8" t="inlineStr">
         <is>
-          <t>100%</t>
+          <t>Đạt</t>
         </is>
       </c>
       <c r="K53" s="8" t="n">
         <v>80</v>
       </c>
       <c r="L53" s="8" t="n">
-        <v>100</v>
+        <v/>
       </c>
       <c r="M53" s="8" t="n">
         <v/>
       </c>
       <c r="N53" s="8" t="n">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="O53" s="8" t="n">
-        <v>48</v>
-      </c>
-      <c r="P53" s="8" t="inlineStr">
-        <is>
-          <t>- Dialo: Fix bug 16h
-- Happy Connect: Fix bug 24h</t>
-        </is>
-      </c>
-      <c r="Q53" s="8" t="inlineStr">
-        <is>
-          <r>
-            <rPr>
-              <rFont val="&lt;openpyxl.styles.fonts.Font object&gt;&#10;Parameters:&#10;name='Arial', charset=None, family=None, b=False, i=False, strike=False, outline=None, shadow=None, condense=None, color=&lt;openpyxl.styles.colors.Color object&gt;&#10;Parameters:&#10;rgb='00FF0000', indexed=None, auto=None, theme=None, tint=0.0, type='rgb', extend=None, sz=11.0, u=None, vertAlign=None, scheme=None"/>
-            </rPr>
-            <t xml:space="preserve">Bug Dialo : </t>
-          </r>
-          <r>
-            <rPr>
-              <rFont val="&lt;openpyxl.styles.fonts.Font object&gt;&#10;Parameters:&#10;name='Arial', charset=None, family=None, b=False, i=False, strike=False, outline=None, shadow=None, condense=None, color=&lt;openpyxl.styles.colors.Color object&gt;&#10;Parameters:&#10;rgb='006699CC', indexed=None, auto=None, theme=None, tint=0.0, type='rgb', extend=None, sz=11.0, u=None, vertAlign=None, scheme=None"/>
-            </rPr>
-            <t xml:space="preserve">https://docs.google.com/spreadsheets/d/18AWs-XcmlK_jLArRDy4Ylcfo5qZNjfjy/edit#gid=1981640499
-</t>
-          </r>
-          <r>
-            <rPr>
-              <rFont val="&lt;openpyxl.styles.fonts.Font object&gt;&#10;Parameters:&#10;name='Arial', charset=None, family=None, b=False, i=False, strike=False, outline=None, shadow=None, condense=None, color=&lt;openpyxl.styles.colors.Color object&gt;&#10;Parameters:&#10;rgb='00FF0000', indexed=None, auto=None, theme=None, tint=0.0, type='rgb', extend=None, sz=11.0, u=None, vertAlign=None, scheme=None"/>
-            </rPr>
-            <t xml:space="preserve">Bug Happy Connect : </t>
-          </r>
-          <r>
-            <rPr>
-              <rFont val="&lt;openpyxl.styles.fonts.Font object&gt;&#10;Parameters:&#10;name='Arial', charset=None, family=None, b=False, i=False, strike=False, outline=None, shadow=None, condense=None, color=&lt;openpyxl.styles.colors.Color object&gt;&#10;Parameters:&#10;rgb='006699CC', indexed=None, auto=None, theme=None, tint=0.0, type='rgb', extend=None, sz=11.0, u=None, vertAlign=None, scheme=None"/>
-            </rPr>
-            <t xml:space="preserve">https://docs.google.com/spreadsheets/d/13xRiQniLrgAGfqB99ZV0Ihw5wJVlOBEs/edit#gid=1187315498
-</t>
-          </r>
-        </is>
-      </c>
+        <v/>
+      </c>
+      <c r="P53" s="8" t="n"/>
+      <c r="Q53" s="8" t="n"/>
       <c r="R53" s="8" t="inlineStr"/>
     </row>
     <row r="54">
@@ -4009,7 +3520,7 @@
         <v>100</v>
       </c>
       <c r="L54" s="9" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="M54" s="9" t="n">
         <v>0</v>
@@ -4034,31 +3545,21 @@
       </c>
       <c r="B55" s="8" t="inlineStr">
         <is>
-          <t>Nâng cao chất lượng hoàn thành phát triển và release 100% các tính năng trong dự án trung tâm HappyConnect, Dialo đúng thời hạn cam kết</t>
+          <t>Nâng cao chất lượng hoàn thành phát triển và release 100% các tính năng trong dự án trung tâm OnCX, SOP, HappyConnect, Dialo, CheckMK đúng thời hạn cam kết</t>
         </is>
       </c>
       <c r="C55" s="8" t="inlineStr">
         <is>
-          <t>Hoàn thành release các tính năng bản theo kế hoạch trong tháng 8</t>
+          <t>Đảm bảo đáp ứng 100% nhu cầu chạy chiến dịch và số lượng Agents của TLS và hoàn thành tính năng giám sát agent (nghe lén)</t>
         </is>
       </c>
       <c r="D55" s="8" t="inlineStr">
         <is>
-          <t>Đảm bảo 100% các tính năng trong sprint được giao hoàn thành đúng thời hạn (dự án Happy Connect, Dialo)</t>
-        </is>
-      </c>
-      <c r="E55" s="8" t="inlineStr">
-        <is>
-          <t>100% US/ sprint hoàn thành thỏa cả 2 điều kiện:
-- Có bằng chứng dev intergration test/ unittest ở mt dev
-- Tester test pass các US trên mt stg</t>
-        </is>
-      </c>
-      <c r="F55" s="8" t="inlineStr">
-        <is>
-          <t>Taiga</t>
-        </is>
-      </c>
+          <t>Đảm bảo 100% các tính năng trong sprint được giao hoàn thành đúng thời hạn dự án Dialo</t>
+        </is>
+      </c>
+      <c r="E55" s="8" t="n"/>
+      <c r="F55" s="8" t="n"/>
       <c r="G55" s="8" t="inlineStr">
         <is>
           <t>Tháng</t>
@@ -4083,53 +3584,23 @@
         <v>100</v>
       </c>
       <c r="L55" s="8" t="n">
-        <v>50</v>
+        <v/>
       </c>
       <c r="M55" s="8" t="n">
         <v/>
       </c>
       <c r="N55" s="8" t="n">
-        <v>128</v>
+        <v>115</v>
       </c>
       <c r="O55" s="8" t="n">
-        <v>128</v>
+        <v/>
       </c>
       <c r="P55" s="8" t="inlineStr">
         <is>
-          <t>- Dialo: làm tính năng + họp daily 24h
-- Happy Connect: làm tính năng + họp daily 72h</t>
-        </is>
-      </c>
-      <c r="Q55" s="8" t="inlineStr">
-        <is>
-          <r>
-            <rPr>
-              <rFont val="&lt;openpyxl.styles.fonts.Font object&gt;&#10;Parameters:&#10;name='Arial', charset=None, family=None, b=False, i=False, strike=False, outline=None, shadow=None, condense=None, color=&lt;openpyxl.styles.colors.Color object&gt;&#10;Parameters:&#10;rgb='00FF0000', indexed=None, auto=None, theme=None, tint=0.0, type='rgb', extend=None, sz=11.0, u=None, vertAlign=None, scheme=None"/>
-            </rPr>
-            <t xml:space="preserve">Dialo : </t>
-          </r>
-          <r>
-            <rPr>
-              <rFont val="&lt;openpyxl.styles.fonts.Font object&gt;&#10;Parameters:&#10;name='Arial', charset=None, family=None, b=False, i=False, strike=False, outline=None, shadow=None, condense=None, color=&lt;openpyxl.styles.colors.Color object&gt;&#10;Parameters:&#10;rgb='006699CC', indexed=None, auto=None, theme=None, tint=0.0, type='rgb', extend=None, sz=11.0, u=None, vertAlign=None, scheme=None"/>
-            </rPr>
-            <t xml:space="preserve">https://docs.google.com/spreadsheets/d/13xRiQniLrgAGfqB99ZV0Ihw5wJVlOBEs/edit#gid=167033470
-</t>
-          </r>
-          <r>
-            <rPr>
-              <rFont val="&lt;openpyxl.styles.fonts.Font object&gt;&#10;Parameters:&#10;name='Arial', charset=None, family=None, b=False, i=False, strike=False, outline=None, shadow=None, condense=None, color=&lt;openpyxl.styles.colors.Color object&gt;&#10;Parameters:&#10;rgb='00FF0000', indexed=None, auto=None, theme=None, tint=0.0, type='rgb', extend=None, sz=11.0, u=None, vertAlign=None, scheme=None"/>
-            </rPr>
-            <t xml:space="preserve">Happy Connect : </t>
-          </r>
-          <r>
-            <rPr>
-              <rFont val="&lt;openpyxl.styles.fonts.Font object&gt;&#10;Parameters:&#10;name='Arial', charset=None, family=None, b=False, i=False, strike=False, outline=None, shadow=None, condense=None, color=&lt;openpyxl.styles.colors.Color object&gt;&#10;Parameters:&#10;rgb='006699CC', indexed=None, auto=None, theme=None, tint=0.0, type='rgb', extend=None, sz=11.0, u=None, vertAlign=None, scheme=None"/>
-            </rPr>
-            <t xml:space="preserve">https://docs.google.com/spreadsheets/d/13xRiQniLrgAGfqB99ZV0Ihw5wJVlOBEs/edit#gid=167033470
-</t>
-          </r>
-        </is>
-      </c>
+          <t>23 * 5 ( 4h mỗi ngày làm task , khoảng 30 phút - 1 tiếng daily/ meeting test / retro / planning)</t>
+        </is>
+      </c>
+      <c r="Q55" s="8" t="n"/>
       <c r="R55" s="8" t="inlineStr"/>
     </row>
     <row r="56">
@@ -4167,7 +3638,7 @@
         <v>100</v>
       </c>
       <c r="L56" s="9" t="n">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="M56" s="9" t="n">
         <v>0</v>
@@ -4175,9 +3646,7 @@
       <c r="N56" s="9" t="n">
         <v>184</v>
       </c>
-      <c r="O56" s="9" t="n">
-        <v>184</v>
-      </c>
+      <c r="O56" s="9" t="inlineStr"/>
       <c r="P56" s="8" t="n">
         <v/>
       </c>
@@ -4214,12 +3683,12 @@
       </c>
       <c r="B58" s="3" t="inlineStr">
         <is>
-          <t>Nguyễn Thanh Nguyên</t>
+          <t>Nguyễn Đỗ Trọng</t>
         </is>
       </c>
       <c r="C58" s="3" t="inlineStr">
         <is>
-          <t>nguyennt65</t>
+          <t>trongnd33</t>
         </is>
       </c>
       <c r="D58" s="3" t="inlineStr">
@@ -4344,33 +3813,15 @@
           <t>kpi</t>
         </is>
       </c>
-      <c r="B60" s="8" t="inlineStr">
-        <is>
-          <t>Đảm bảo chất lượng sản phẩm với số bug log trên các môi trường trong dự án OnCX, SOP, HappyConnect, Dialo, CheckMK</t>
-        </is>
-      </c>
+      <c r="B60" s="8" t="n"/>
       <c r="C60" s="8" t="inlineStr">
         <is>
-          <t>Đảm bảo chất lượng sản phẩm với số bug log trên các môi trường trong dự án Dialo</t>
-        </is>
-      </c>
-      <c r="D60" s="8" t="inlineStr">
-        <is>
-          <t>Trên môi trường stg Trung bình số bugs được report trong mỗi tính năng khi review code/ thực hiện dev &lt;= 5 và trên môi trường UAT critical/important issue &lt;= 1</t>
-        </is>
-      </c>
-      <c r="E60" s="8" t="inlineStr">
-        <is>
-          <t>- STG: số bug/tính năng khi review code/ thực hiện dev &lt;= 5
-- UAT: critical/important issue &lt;= 1
-** Không tính issue do nguyên nhân enhancement, wishlist, support</t>
-        </is>
-      </c>
-      <c r="F60" s="8" t="inlineStr">
-        <is>
-          <t>Taiga</t>
-        </is>
-      </c>
+          <t>Hoàn thành triển khai tích hợp HVAC client vào source code dự án Happy Connect trong trước 23.08.2023</t>
+        </is>
+      </c>
+      <c r="D60" s="8" t="n"/>
+      <c r="E60" s="8" t="n"/>
+      <c r="F60" s="8" t="n"/>
       <c r="G60" s="8" t="inlineStr">
         <is>
           <t>Tháng</t>
@@ -4392,71 +3843,41 @@
         </is>
       </c>
       <c r="K60" s="8" t="n">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="L60" s="8" t="n">
-        <v>100</v>
+        <v/>
       </c>
       <c r="M60" s="8" t="n">
         <v/>
       </c>
       <c r="N60" s="8" t="n">
-        <v>46</v>
+        <v>16</v>
       </c>
       <c r="O60" s="8" t="n">
-        <v>37</v>
+        <v/>
       </c>
       <c r="P60" s="8" t="inlineStr">
         <is>
-          <t>23 * 2 ( 2h fix bug / meeting clear bug)</t>
-        </is>
-      </c>
-      <c r="Q60" s="8" t="inlineStr">
-        <is>
-          <r>
-            <rPr>
-              <rFont val="&lt;openpyxl.styles.fonts.Font object&gt;&#10;Parameters:&#10;name='Arial', charset=None, family=None, b=False, i=False, strike=False, outline=None, shadow=None, condense=None, color=&lt;openpyxl.styles.colors.Color object&gt;&#10;Parameters:&#10;rgb='00FF0000', indexed=None, auto=None, theme=None, tint=0.0, type='rgb', extend=None, sz=11.0, u=None, vertAlign=None, scheme=None"/>
-            </rPr>
-            <t xml:space="preserve">Link bằng chứng tiến độ Dialo : </t>
-          </r>
-          <r>
-            <rPr>
-              <rFont val="&lt;openpyxl.styles.fonts.Font object&gt;&#10;Parameters:&#10;name='Arial', charset=None, family=None, b=False, i=False, strike=False, outline=None, shadow=None, condense=None, color=&lt;openpyxl.styles.colors.Color object&gt;&#10;Parameters:&#10;rgb='006699CC', indexed=None, auto=None, theme=None, tint=0.0, type='rgb', extend=None, sz=11.0, u=None, vertAlign=None, scheme=None"/>
-            </rPr>
-            <t xml:space="preserve">https://docs.google.com/spreadsheets/d/1szpz8kekeCkkKAiEYem-xqp7zxYnCbDkbBjsgs5UXng/edit#gid=1959940647
-</t>
-          </r>
-        </is>
-      </c>
+          <t>"- Nghiên cứu HVAC: 8h 
+- Tích hợp thư viện vào source code và triển khai dev: 6h
+- Kiểm tra, điều chỉnh cấu hình cho các service: 2h"</t>
+        </is>
+      </c>
+      <c r="Q60" s="8" t="n"/>
       <c r="R60" s="8" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="2" t="n"/>
-      <c r="B61" s="8" t="inlineStr">
-        <is>
-          <t>Hoàn thành đúng tiến độ và chất lượng các Công việc phát sinh/ Seminar/ Cải tiến</t>
-        </is>
-      </c>
+      <c r="B61" s="8" t="n"/>
       <c r="C61" s="8" t="inlineStr">
         <is>
-          <t>Nâng cao tính chia sẻ, áp dụng khi đưa ra cải tiến trong dự án, môi trường làm việc</t>
-        </is>
-      </c>
-      <c r="D61" s="8" t="inlineStr">
-        <is>
-          <t>Ứng dụng gRPC vào tối ưu &gt;= 1 module trong dự án Dialo được CBQL/PM/SA confirm trước 23.08.2023</t>
-        </is>
-      </c>
-      <c r="E61" s="8" t="inlineStr">
-        <is>
-          <t>Báo cáo được CBQL/PM/SA confirm</t>
-        </is>
-      </c>
-      <c r="F61" s="8" t="inlineStr">
-        <is>
-          <t>Mail</t>
-        </is>
-      </c>
+          <t>Trên môi trường stg Trung bình số bugs được report trong mỗi tính năng khi review code/ thực hiện dev &lt;= 5 và trên môi trường UAT critical/important issue &lt;= 1</t>
+        </is>
+      </c>
+      <c r="D61" s="8" t="n"/>
+      <c r="E61" s="8" t="n"/>
+      <c r="F61" s="8" t="n"/>
       <c r="G61" s="8" t="inlineStr">
         <is>
           <t>Tháng</t>
@@ -4464,7 +3885,7 @@
       </c>
       <c r="H61" s="8" t="inlineStr">
         <is>
-          <t>Đạt/Không đạt</t>
+          <t>%</t>
         </is>
       </c>
       <c r="I61" s="8" t="inlineStr">
@@ -4474,11 +3895,11 @@
       </c>
       <c r="J61" s="8" t="inlineStr">
         <is>
-          <t>Đạt</t>
+          <t>100%</t>
         </is>
       </c>
       <c r="K61" s="8" t="n">
-        <v>20</v>
+        <v>80</v>
       </c>
       <c r="L61" s="8" t="n">
         <v/>
@@ -4487,33 +3908,17 @@
         <v/>
       </c>
       <c r="N61" s="8" t="n">
-        <v>23</v>
+        <v>46</v>
       </c>
       <c r="O61" s="8" t="n">
-        <v>17</v>
+        <v/>
       </c>
       <c r="P61" s="8" t="inlineStr">
         <is>
-          <t xml:space="preserve">khoảng 1h mỗi ngày nghiên cứu ứng dụng vào module dự án </t>
-        </is>
-      </c>
-      <c r="Q61" s="8" t="inlineStr">
-        <is>
-          <r>
-            <rPr>
-              <rFont val="&lt;openpyxl.styles.fonts.Font object&gt;&#10;Parameters:&#10;name='Arial', charset=None, family=None, b=False, i=False, strike=False, outline=None, shadow=None, condense=None, color=&lt;openpyxl.styles.colors.Color object&gt;&#10;Parameters:&#10;rgb='00FF0000', indexed=None, auto=None, theme=None, tint=0.0, type='rgb', extend=None, sz=11.0, u=None, vertAlign=None, scheme=None"/>
-            </rPr>
-            <t xml:space="preserve">Link bằng chứng : </t>
-          </r>
-          <r>
-            <rPr>
-              <rFont val="&lt;openpyxl.styles.fonts.Font object&gt;&#10;Parameters:&#10;name='Arial', charset=None, family=None, b=False, i=False, strike=False, outline=None, shadow=None, condense=None, color=&lt;openpyxl.styles.colors.Color object&gt;&#10;Parameters:&#10;rgb='006699CC', indexed=None, auto=None, theme=None, tint=0.0, type='rgb', extend=None, sz=11.0, u=None, vertAlign=None, scheme=None"/>
-            </rPr>
-            <t xml:space="preserve">https://docs.google.com/spreadsheets/d/1szpz8kekeCkkKAiEYem-xqp7zxYnCbDkbBjsgs5UXng/edit#gid=1959940647
-</t>
-          </r>
-        </is>
-      </c>
+          <t>- Fix bug: 2h/ngày*23 (Meeting trao đổi và xử lý Bug)</t>
+        </is>
+      </c>
+      <c r="Q61" s="8" t="n"/>
       <c r="R61" s="8" t="inlineStr"/>
     </row>
     <row r="62">
@@ -4551,7 +3956,7 @@
         <v>100</v>
       </c>
       <c r="L62" s="9" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="M62" s="9" t="n">
         <v>0</v>
@@ -4581,26 +3986,16 @@
       </c>
       <c r="C63" s="8" t="inlineStr">
         <is>
-          <t>Đảm bảo đáp ứng 100% nhu cầu chạy chiến dịch và số lượng Agents của TLS và hoàn thành tính năng giám sát agent (nghe lén)</t>
+          <t>Hoàn thành xây dựng dashboard đầu tư và đánh giá hạ tầng, IP Pool theo kế hoạch trong tháng 8</t>
         </is>
       </c>
       <c r="D63" s="8" t="inlineStr">
         <is>
-          <t>Đảm bảo 100% các tính năng trong sprint được giao hoàn thành đúng thời hạn dự án Dialo</t>
-        </is>
-      </c>
-      <c r="E63" s="8" t="inlineStr">
-        <is>
-          <t>100% US/ sprint hoàn thành thỏa cả 2 điều kiện:
-- Có bằng chứng dev intergration test/ unittest ở mt dev
-- Tester test pass các US trên mt stg</t>
-        </is>
-      </c>
-      <c r="F63" s="8" t="inlineStr">
-        <is>
-          <t>Taiga</t>
-        </is>
-      </c>
+          <t>Đảm bảo 100% các tính năng trong sprint được giao hoàn thành đúng thời hạn dự án PoolIP</t>
+        </is>
+      </c>
+      <c r="E63" s="8" t="n"/>
+      <c r="F63" s="8" t="n"/>
       <c r="G63" s="8" t="inlineStr">
         <is>
           <t>Tháng</t>
@@ -4625,39 +4020,28 @@
         <v>100</v>
       </c>
       <c r="L63" s="8" t="n">
-        <v>100</v>
+        <v/>
       </c>
       <c r="M63" s="8" t="n">
         <v/>
       </c>
       <c r="N63" s="8" t="n">
-        <v>115</v>
+        <v>122</v>
       </c>
       <c r="O63" s="8" t="n">
-        <v>83</v>
+        <v/>
       </c>
       <c r="P63" s="8" t="inlineStr">
         <is>
-          <t>23 * 5 ( 4h mỗi ngày làm task , khoảng 30 phút - 1 tiếng daily/ meeting test / retro / planning)</t>
-        </is>
-      </c>
-      <c r="Q63" s="8" t="inlineStr">
-        <is>
-          <r>
-            <rPr>
-              <rFont val="&lt;openpyxl.styles.fonts.Font object&gt;&#10;Parameters:&#10;name='Arial', charset=None, family=None, b=False, i=False, strike=False, outline=None, shadow=None, condense=None, color=&lt;openpyxl.styles.colors.Color object&gt;&#10;Parameters:&#10;rgb='00FF0000', indexed=None, auto=None, theme=None, tint=0.0, type='rgb', extend=None, sz=11.0, u=None, vertAlign=None, scheme=None"/>
-            </rPr>
-            <t xml:space="preserve">Link bằng chứng tiến độ Dialo : </t>
-          </r>
-          <r>
-            <rPr>
-              <rFont val="&lt;openpyxl.styles.fonts.Font object&gt;&#10;Parameters:&#10;name='Arial', charset=None, family=None, b=False, i=False, strike=False, outline=None, shadow=None, condense=None, color=&lt;openpyxl.styles.colors.Color object&gt;&#10;Parameters:&#10;rgb='006699CC', indexed=None, auto=None, theme=None, tint=0.0, type='rgb', extend=None, sz=11.0, u=None, vertAlign=None, scheme=None"/>
-            </rPr>
-            <t xml:space="preserve">https://docs.google.com/spreadsheets/d/1szpz8kekeCkkKAiEYem-xqp7zxYnCbDkbBjsgs5UXng/edit#gid=1959940647
-</t>
-          </r>
-        </is>
-      </c>
+          <t>"- Tổng = 80,5 + 8 + 11.5 + 8 + 3
+- 4*23 =  80.5(Code tính năng 4h/ngày)
+- 2h*4 = 12(Review + Update Code: 3h/ tuần)
+- 0.5*23 = 11,5 (Meeting daily,clear bug:  0.5h/ngày)
+- 16h (Meeting retro, review, planning : 8h/tháng)
+"</t>
+        </is>
+      </c>
+      <c r="Q63" s="8" t="n"/>
       <c r="R63" s="8" t="inlineStr"/>
     </row>
     <row r="64">
@@ -4695,7 +4079,7 @@
         <v>100</v>
       </c>
       <c r="L64" s="9" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="M64" s="9" t="n">
         <v>0</v>
@@ -4703,9 +4087,7 @@
       <c r="N64" s="9" t="n">
         <v>184</v>
       </c>
-      <c r="O64" s="9" t="n">
-        <v>137</v>
-      </c>
+      <c r="O64" s="9" t="inlineStr"/>
       <c r="P64" s="8" t="n">
         <v/>
       </c>
@@ -4742,12 +4124,12 @@
       </c>
       <c r="B66" s="3" t="inlineStr">
         <is>
-          <t>Nguyễn Đỗ Trọng</t>
+          <t>Lê Huy Nam</t>
         </is>
       </c>
       <c r="C66" s="3" t="inlineStr">
         <is>
-          <t>trongnd33</t>
+          <t>namlh44</t>
         </is>
       </c>
       <c r="D66" s="3" t="inlineStr">
@@ -4874,29 +4256,21 @@
       </c>
       <c r="B68" s="8" t="inlineStr">
         <is>
-          <t>Hoàn thành đúng tiến độ và chất lượng các Công việc phát sinh/ Seminar/ Cải tiến</t>
+          <t>Đảm bảo chất lượng sản phẩm với số bug log trên các môi trường trong dự án OnCX, SOP, HappyConnect, Dialo, CheckMK</t>
         </is>
       </c>
       <c r="C68" s="8" t="inlineStr">
         <is>
-          <t>Đảm bảo các công việc phát sinh hoàn thành đúng tiến độ và chất lượng</t>
+          <t>Đảm bảo chất lượng sản phẩm với số bug log trên các môi trường trong dự án HappyConnect</t>
         </is>
       </c>
       <c r="D68" s="8" t="inlineStr">
         <is>
-          <t>Hoàn thành triển khai tích hợp HVAC client vào source code dự án Happy Connect trong trước 23.08.2023</t>
-        </is>
-      </c>
-      <c r="E68" s="8" t="inlineStr">
-        <is>
-          <t>Báo cáo được CBQL/PM/SA confirm</t>
-        </is>
-      </c>
-      <c r="F68" s="8" t="inlineStr">
-        <is>
-          <t>Mail</t>
-        </is>
-      </c>
+          <t>Trên môi trường stg Trung bình số bugs được report trong mỗi tính năng khi review code/ thực hiện dev &lt;= 5 và trên môi trường UAT critical/important issue &lt;= 1</t>
+        </is>
+      </c>
+      <c r="E68" s="8" t="n"/>
+      <c r="F68" s="8" t="n"/>
       <c r="G68" s="8" t="inlineStr">
         <is>
           <t>Tháng</t>
@@ -4918,7 +4292,7 @@
         </is>
       </c>
       <c r="K68" s="8" t="n">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="L68" s="8" t="n">
         <v/>
@@ -4927,16 +4301,14 @@
         <v/>
       </c>
       <c r="N68" s="8" t="n">
-        <v>16</v>
+        <v>46</v>
       </c>
       <c r="O68" s="8" t="n">
-        <v>8</v>
+        <v/>
       </c>
       <c r="P68" s="8" t="inlineStr">
         <is>
-          <t>"- Nghiên cứu HVAC: 8h 
-- Tích hợp thư viện vào source code và triển khai dev: 6h
-- Kiểm tra, điều chỉnh cấu hình cho các service: 2h"</t>
+          <t>23 * 2 ( 2h fix bug / meeting clear bug)</t>
         </is>
       </c>
       <c r="Q68" s="8" t="n"/>
@@ -4946,829 +4318,492 @@
       <c r="A69" s="2" t="n"/>
       <c r="B69" s="8" t="inlineStr">
         <is>
+          <t>Nâng cao chất lượng hoàn thành phát triển và release 100% các tính năng trong dự án trung tâm OnCX, SOP, HappyConnect, Dialo, CheckMK đúng thời hạn cam kết</t>
+        </is>
+      </c>
+      <c r="C69" s="8" t="inlineStr">
+        <is>
+          <t>Hoàn thành xây dựng dashboard đầu tư và đánh giá hạ tầng, IP Pool theo kế hoạch trong tháng 8</t>
+        </is>
+      </c>
+      <c r="D69" s="8" t="inlineStr">
+        <is>
+          <t>Đảm bảo 100% các tính năng trong sprint được giao hoàn thành đúng thời hạn dự án PoolIP</t>
+        </is>
+      </c>
+      <c r="E69" s="8" t="n"/>
+      <c r="F69" s="8" t="n"/>
+      <c r="G69" s="8" t="inlineStr">
+        <is>
+          <t>Tháng</t>
+        </is>
+      </c>
+      <c r="H69" s="8" t="inlineStr">
+        <is>
+          <t>%</t>
+        </is>
+      </c>
+      <c r="I69" s="8" t="inlineStr">
+        <is>
+          <t>=</t>
+        </is>
+      </c>
+      <c r="J69" s="8" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="K69" s="8" t="n">
+        <v>100</v>
+      </c>
+      <c r="L69" s="8" t="n">
+        <v/>
+      </c>
+      <c r="M69" s="8" t="n">
+        <v/>
+      </c>
+      <c r="N69" s="8" t="n">
+        <v>123</v>
+      </c>
+      <c r="O69" s="8" t="n">
+        <v/>
+      </c>
+      <c r="P69" s="8" t="inlineStr">
+        <is>
+          <t>"23 * 5( 4h mỗi ngày làm task , khoảng 30 phút - 1 tiếng daily/ meeting)
+4h review, retro, planing 1 sprint"</t>
+        </is>
+      </c>
+      <c r="Q69" s="8" t="n"/>
+      <c r="R69" s="8" t="inlineStr"/>
+    </row>
+    <row r="70">
+      <c r="A70" s="2" t="n"/>
+      <c r="B70" s="8" t="inlineStr">
+        <is>
           <t>Hoàn thành đúng tiến độ và chất lượng các Công việc phát sinh/ Seminar/ Cải tiến</t>
         </is>
       </c>
-      <c r="C69" s="8" t="inlineStr">
-        <is>
-          <t>Đảm bảo chất lượng sản phẩm với số bug log trên các môi trường trong dự án HappyConnect</t>
-        </is>
-      </c>
-      <c r="D69" s="8" t="inlineStr">
-        <is>
-          <t>Trên môi trường stg Trung bình số bugs được report trong mỗi tính năng khi review code/ thực hiện dev &lt;= 5 và trên môi trường UAT critical/important issue &lt;= 1</t>
-        </is>
-      </c>
-      <c r="E69" s="8" t="inlineStr">
-        <is>
-          <t>- STG: số bug/tính năng khi review code/ thực hiện dev &lt;= 5
-- UAT: critical/important issue &lt;= 1
-** Không tính issue do nguyên nhân enhancement, wishlist, support</t>
-        </is>
-      </c>
-      <c r="F69" s="8" t="inlineStr">
-        <is>
-          <t>Taiga</t>
-        </is>
-      </c>
-      <c r="G69" s="8" t="inlineStr">
+      <c r="C70" s="8" t="inlineStr">
+        <is>
+          <t>Hoàn thành đúng tiến độ và chất lượng các Công việc phát sinh</t>
+        </is>
+      </c>
+      <c r="D70" s="8" t="inlineStr">
+        <is>
+          <t>Có &gt;= 1 cải tiến để nâng cao chất lượng công việc trong dự án/ môi trường hoặc semninar/ công việc phát sinh được CBQL giao</t>
+        </is>
+      </c>
+      <c r="E70" s="8" t="n"/>
+      <c r="F70" s="8" t="n"/>
+      <c r="G70" s="8" t="inlineStr">
         <is>
           <t>Tháng</t>
         </is>
       </c>
-      <c r="H69" s="8" t="inlineStr">
+      <c r="H70" s="8" t="inlineStr">
         <is>
           <t>%</t>
         </is>
       </c>
-      <c r="I69" s="8" t="inlineStr">
+      <c r="I70" s="8" t="inlineStr">
         <is>
           <t>=</t>
         </is>
       </c>
-      <c r="J69" s="8" t="inlineStr">
+      <c r="J70" s="8" t="inlineStr">
         <is>
           <t>100%</t>
         </is>
       </c>
-      <c r="K69" s="8" t="n">
-        <v>80</v>
-      </c>
-      <c r="L69" s="8" t="n">
+      <c r="K70" s="8" t="n">
         <v>100</v>
       </c>
-      <c r="M69" s="8" t="n">
-        <v/>
-      </c>
-      <c r="N69" s="8" t="n">
-        <v>46</v>
-      </c>
-      <c r="O69" s="8" t="n">
-        <v>30</v>
-      </c>
-      <c r="P69" s="8" t="inlineStr">
-        <is>
-          <t>- Fix bug: 2h/ngày*23 (Meeting trao đổi và xử lý Bug)</t>
-        </is>
-      </c>
-      <c r="Q69" s="8" t="inlineStr">
-        <is>
-          <r>
-            <rPr>
-              <rFont val="&lt;openpyxl.styles.fonts.Font object&gt;&#10;Parameters:&#10;name='Arial', charset=None, family=None, b=False, i=False, strike=False, outline=None, shadow=None, condense=None, color=&lt;openpyxl.styles.colors.Color object&gt;&#10;Parameters:&#10;rgb='00FF0000', indexed=None, auto=None, theme=None, tint=0.0, type='rgb', extend=None, sz=11.0, u=None, vertAlign=None, scheme=None"/>
-            </rPr>
-            <t xml:space="preserve">Link bằng chứng số bug : </t>
-          </r>
-          <r>
-            <rPr>
-              <rFont val="&lt;openpyxl.styles.fonts.Font object&gt;&#10;Parameters:&#10;name='Arial', charset=None, family=None, b=False, i=False, strike=False, outline=None, shadow=None, condense=None, color=&lt;openpyxl.styles.colors.Color object&gt;&#10;Parameters:&#10;rgb='006699CC', indexed=None, auto=None, theme=None, tint=0.0, type='rgb', extend=None, sz=11.0, u=None, vertAlign=None, scheme=None"/>
-            </rPr>
-            <t xml:space="preserve">https://docs.google.com/spreadsheets/d/1_tnT-wl7XPpycFYY5bSZyXZgFFMUZA8BvmnRSb4d8oI/edit?usp=sharing
+      <c r="L70" s="8" t="n">
+        <v/>
+      </c>
+      <c r="M70" s="8" t="n">
+        <v/>
+      </c>
+      <c r="N70" s="8" t="n">
+        <v>15</v>
+      </c>
+      <c r="O70" s="8" t="n">
+        <v/>
+      </c>
+      <c r="P70" s="8" t="inlineStr">
+        <is>
+          <t>3-4h * 4 (khoảng 3-4h mỗi tuần nghiên cứu dự án những phần nên tối ưu)</t>
+        </is>
+      </c>
+      <c r="Q70" s="8" t="n"/>
+      <c r="R70" s="8" t="inlineStr"/>
+    </row>
+    <row r="71">
+      <c r="A71" s="8" t="n">
+        <v/>
+      </c>
+      <c r="B71" s="8" t="n">
+        <v/>
+      </c>
+      <c r="C71" s="8" t="n">
+        <v/>
+      </c>
+      <c r="D71" s="8" t="n">
+        <v/>
+      </c>
+      <c r="E71" s="8" t="n">
+        <v/>
+      </c>
+      <c r="F71" s="8" t="n">
+        <v/>
+      </c>
+      <c r="G71" s="8" t="n">
+        <v/>
+      </c>
+      <c r="H71" s="8" t="n">
+        <v/>
+      </c>
+      <c r="I71" s="8" t="n">
+        <v/>
+      </c>
+      <c r="J71" s="8" t="n">
+        <v/>
+      </c>
+      <c r="K71" s="9" t="n">
+        <v>300</v>
+      </c>
+      <c r="L71" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="M71" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="N71" s="9" t="inlineStr"/>
+      <c r="O71" s="9" t="inlineStr"/>
+      <c r="P71" s="8" t="n">
+        <v/>
+      </c>
+      <c r="Q71" s="8" t="n">
+        <v/>
+      </c>
+      <c r="R71" s="8" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="8" t="inlineStr">
+        <is>
+          <t>okr</t>
+        </is>
+      </c>
+      <c r="B72" s="8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Phát triển chất lượng nguồn lực cho team và nâng cao năng lực cá nhân trong Q3.2023
 </t>
-          </r>
-        </is>
-      </c>
-      <c r="R69" s="8" t="inlineStr"/>
-    </row>
-    <row r="70">
-      <c r="A70" s="8" t="n">
-        <v/>
-      </c>
-      <c r="B70" s="8" t="n">
-        <v/>
-      </c>
-      <c r="C70" s="8" t="n">
-        <v/>
-      </c>
-      <c r="D70" s="8" t="n">
-        <v/>
-      </c>
-      <c r="E70" s="8" t="n">
-        <v/>
-      </c>
-      <c r="F70" s="8" t="n">
-        <v/>
-      </c>
-      <c r="G70" s="8" t="n">
-        <v/>
-      </c>
-      <c r="H70" s="8" t="n">
-        <v/>
-      </c>
-      <c r="I70" s="8" t="n">
-        <v/>
-      </c>
-      <c r="J70" s="8" t="n">
-        <v/>
-      </c>
-      <c r="K70" s="9" t="n">
+        </is>
+      </c>
+      <c r="C72" s="8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Phát triển chất lượng nguồn lực cho team và nâng cao năng lực cá nhân trong Q3.2023
+</t>
+        </is>
+      </c>
+      <c r="D72" s="8" t="inlineStr">
+        <is>
+          <t>Thi đạt chứng chỉ PCAP trong tháng 9.2023</t>
+        </is>
+      </c>
+      <c r="E72" s="8" t="n"/>
+      <c r="F72" s="8" t="n"/>
+      <c r="G72" s="8" t="inlineStr">
+        <is>
+          <t>Tháng</t>
+        </is>
+      </c>
+      <c r="H72" s="8" t="inlineStr">
+        <is>
+          <t>%</t>
+        </is>
+      </c>
+      <c r="I72" s="8" t="inlineStr">
+        <is>
+          <t>=</t>
+        </is>
+      </c>
+      <c r="J72" s="8" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="K72" s="8" t="n">
         <v>100</v>
       </c>
-      <c r="L70" s="9" t="n">
-        <v>100</v>
-      </c>
-      <c r="M70" s="9" t="n">
+      <c r="L72" s="8" t="n">
+        <v/>
+      </c>
+      <c r="M72" s="8" t="n">
+        <v/>
+      </c>
+      <c r="N72" s="8" t="n">
         <v>0</v>
       </c>
-      <c r="N70" s="9" t="inlineStr"/>
-      <c r="O70" s="9" t="inlineStr"/>
-      <c r="P70" s="8" t="n">
-        <v/>
-      </c>
-      <c r="Q70" s="8" t="n">
-        <v/>
-      </c>
-      <c r="R70" s="8" t="n">
-        <v/>
-      </c>
-    </row>
-    <row r="71">
-      <c r="A71" s="8" t="inlineStr">
-        <is>
-          <t>okr</t>
-        </is>
-      </c>
-      <c r="B71" s="8" t="inlineStr">
-        <is>
-          <t>Nâng cao chất lượng hoàn thành phát triển và release 100% các tính năng trong dự án trung tâm OnCX, SOP, HappyConnect, Dialo, CheckMK đúng thời hạn cam kết</t>
-        </is>
-      </c>
-      <c r="C71" s="8" t="inlineStr">
-        <is>
-          <t>Hoàn thành xây dựng dashboard đầu tư và đánh giá hạ tầng, IP Pool theo kế hoạch trong tháng 8</t>
-        </is>
-      </c>
-      <c r="D71" s="8" t="inlineStr">
-        <is>
-          <t>Đảm bảo 100% các tính năng trong sprint được giao hoàn thành đúng thời hạn dự án PoolIP</t>
-        </is>
-      </c>
-      <c r="E71" s="8" t="inlineStr">
-        <is>
-          <t>100% US/ sprint hoàn thành thỏa cả 2 điều kiện:
-- Có bằng chứng dev intergration test/ unittest ở mt dev
-- Tester test pass các US trên mt stg"</t>
-        </is>
-      </c>
-      <c r="F71" s="8" t="inlineStr">
-        <is>
-          <t>Taiga</t>
-        </is>
-      </c>
-      <c r="G71" s="8" t="inlineStr">
-        <is>
-          <t>Tháng</t>
-        </is>
-      </c>
-      <c r="H71" s="8" t="inlineStr">
-        <is>
-          <t>%</t>
-        </is>
-      </c>
-      <c r="I71" s="8" t="inlineStr">
-        <is>
-          <t>=</t>
-        </is>
-      </c>
-      <c r="J71" s="8" t="inlineStr">
-        <is>
-          <t>100%</t>
-        </is>
-      </c>
-      <c r="K71" s="8" t="n">
-        <v>100</v>
-      </c>
-      <c r="L71" s="8" t="n">
-        <v>95</v>
-      </c>
-      <c r="M71" s="8" t="n">
-        <v/>
-      </c>
-      <c r="N71" s="8" t="n">
-        <v>122</v>
-      </c>
-      <c r="O71" s="8" t="n">
-        <v>132</v>
-      </c>
-      <c r="P71" s="8" t="inlineStr">
-        <is>
-          <t>- Tổng = 80,5 + 8 + 11.5 + 8 + 3
-- 4*23 =  80.5(Code tính năng 4h/ngày)
-- 2h*4 = 12(Review + Update Code: 3h/ tuần)
-- 0.5*23 = 11,5 (Meeting daily,clear bug:  0.5h/ngày)
-- 16h (Meeting retro, review, planning : 8h/tháng)
-"</t>
-        </is>
-      </c>
-      <c r="Q71" s="8" t="inlineStr">
-        <is>
-          <r>
-            <rPr>
-              <rFont val="&lt;openpyxl.styles.fonts.Font object&gt;&#10;Parameters:&#10;name='Arial', charset=None, family=None, b=False, i=False, strike=False, outline=None, shadow=None, condense=None, color=&lt;openpyxl.styles.colors.Color object&gt;&#10;Parameters:&#10;rgb='00FF0000', indexed=None, auto=None, theme=None, tint=0.0, type='rgb', extend=None, sz=11.0, u=None, vertAlign=None, scheme=None"/>
-            </rPr>
-            <t xml:space="preserve">Link bằng chứng tiến độ : </t>
-          </r>
-          <r>
-            <rPr>
-              <rFont val="&lt;openpyxl.styles.fonts.Font object&gt;&#10;Parameters:&#10;name='Arial', charset=None, family=None, b=False, i=False, strike=False, outline=None, shadow=None, condense=None, color=&lt;openpyxl.styles.colors.Color object&gt;&#10;Parameters:&#10;rgb='006699CC', indexed=None, auto=None, theme=None, tint=0.0, type='rgb', extend=None, sz=11.0, u=None, vertAlign=None, scheme=None"/>
-            </rPr>
-            <t xml:space="preserve">https://docs.google.com/spreadsheets/d/169S8Tj_QKcR8cMRlgrF2b2gnVkYBRcyL/edit?usp=sharing&amp;ouid=111160206982098379432&amp;rtpof=true&amp;sd=true
-</t>
-          </r>
-        </is>
-      </c>
-      <c r="R71" s="8" t="inlineStr"/>
-    </row>
-    <row r="72">
-      <c r="A72" s="8" t="n">
-        <v/>
-      </c>
-      <c r="B72" s="8" t="n">
-        <v/>
-      </c>
-      <c r="C72" s="8" t="n">
-        <v/>
-      </c>
-      <c r="D72" s="8" t="n">
-        <v/>
-      </c>
-      <c r="E72" s="8" t="n">
-        <v/>
-      </c>
-      <c r="F72" s="8" t="n">
-        <v/>
-      </c>
-      <c r="G72" s="8" t="n">
-        <v/>
-      </c>
-      <c r="H72" s="8" t="n">
-        <v/>
-      </c>
-      <c r="I72" s="8" t="n">
-        <v/>
-      </c>
-      <c r="J72" s="8" t="n">
-        <v/>
-      </c>
-      <c r="K72" s="9" t="n">
-        <v>100</v>
-      </c>
-      <c r="L72" s="9" t="n">
-        <v>95</v>
-      </c>
-      <c r="M72" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="N72" s="9" t="n">
-        <v>184</v>
-      </c>
-      <c r="O72" s="9" t="n">
-        <v>170</v>
-      </c>
-      <c r="P72" s="8" t="n">
-        <v/>
-      </c>
-      <c r="Q72" s="8" t="n">
-        <v/>
-      </c>
-      <c r="R72" s="8" t="n">
-        <v/>
-      </c>
+      <c r="O72" s="8" t="n">
+        <v/>
+      </c>
+      <c r="P72" s="8" t="n"/>
+      <c r="Q72" s="8" t="n"/>
+      <c r="R72" s="8" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="2" t="n"/>
-      <c r="B73" s="2" t="n"/>
-      <c r="C73" s="2" t="n"/>
-      <c r="D73" s="2" t="n"/>
-      <c r="E73" s="2" t="n"/>
-      <c r="F73" s="2" t="n"/>
-      <c r="G73" s="2" t="n"/>
-      <c r="H73" s="2" t="n"/>
-      <c r="I73" s="2" t="n"/>
-      <c r="J73" s="2" t="n"/>
-      <c r="K73" s="2" t="n"/>
-      <c r="L73" s="2" t="n"/>
-      <c r="M73" s="2" t="n"/>
-      <c r="N73" s="2" t="n"/>
-      <c r="O73" s="2" t="n"/>
-      <c r="P73" s="2" t="n"/>
-      <c r="Q73" s="2" t="n"/>
-      <c r="R73" s="2" t="n"/>
+      <c r="B73" s="8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Phát triển chất lượng nguồn lực cho team và nâng cao năng lực cá nhân trong Q3.2023
+</t>
+        </is>
+      </c>
+      <c r="C73" s="8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Phát triển chất lượng nguồn lực cho team và nâng cao năng lực cá nhân trong Q3.2023
+</t>
+        </is>
+      </c>
+      <c r="D73" s="8" t="inlineStr">
+        <is>
+          <t>Hoàn thành nghiên cứu, xây dựng kế hoạch và triển khai một công nghệ mới trong dự án Happy Connect trong tháng 08.2023</t>
+        </is>
+      </c>
+      <c r="E73" s="8" t="n"/>
+      <c r="F73" s="8" t="n"/>
+      <c r="G73" s="8" t="inlineStr">
+        <is>
+          <t>Tháng</t>
+        </is>
+      </c>
+      <c r="H73" s="8" t="inlineStr">
+        <is>
+          <t>%</t>
+        </is>
+      </c>
+      <c r="I73" s="8" t="inlineStr">
+        <is>
+          <t>=</t>
+        </is>
+      </c>
+      <c r="J73" s="8" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="K73" s="8" t="n">
+        <v>100</v>
+      </c>
+      <c r="L73" s="8" t="n">
+        <v/>
+      </c>
+      <c r="M73" s="8" t="n">
+        <v/>
+      </c>
+      <c r="N73" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="O73" s="8" t="n">
+        <v/>
+      </c>
+      <c r="P73" s="8" t="n"/>
+      <c r="Q73" s="8" t="n"/>
+      <c r="R73" s="8" t="inlineStr"/>
     </row>
     <row r="74">
-      <c r="A74" s="3" t="n">
-        <v>10</v>
-      </c>
-      <c r="B74" s="3" t="inlineStr">
-        <is>
-          <t>Lê Huy Nam</t>
-        </is>
-      </c>
-      <c r="C74" s="3" t="inlineStr">
-        <is>
-          <t>namlh44</t>
-        </is>
-      </c>
-      <c r="D74" s="3" t="inlineStr">
-        <is>
-          <t>L1</t>
-        </is>
-      </c>
-      <c r="E74" s="3" t="inlineStr">
-        <is>
-          <t>Team Python</t>
-        </is>
-      </c>
-      <c r="F74" s="2" t="n"/>
-      <c r="G74" s="2" t="n"/>
-      <c r="H74" s="2" t="n"/>
-      <c r="I74" s="2" t="n"/>
-      <c r="J74" s="2" t="n"/>
-      <c r="K74" s="2" t="n"/>
-      <c r="L74" s="2" t="n"/>
-      <c r="M74" s="2" t="n"/>
-      <c r="N74" s="2" t="n"/>
-      <c r="O74" s="2" t="n"/>
-      <c r="P74" s="2" t="n"/>
-      <c r="Q74" s="2" t="n"/>
-      <c r="R74" s="2" t="n"/>
+      <c r="A74" s="2" t="n"/>
+      <c r="B74" s="8" t="inlineStr">
+        <is>
+          <t>Hoàn thành phát triển các tính năng cho dự án Happy connect  trong Q3.2023</t>
+        </is>
+      </c>
+      <c r="C74" s="8" t="inlineStr">
+        <is>
+          <t>Hoàn thành phát triển các tính năng cho dự án Happy connect  trong Q3.2023</t>
+        </is>
+      </c>
+      <c r="D74" s="8" t="inlineStr">
+        <is>
+          <t>Hoàn thành xây dựng dashboard đầu tư và đánh giá hạ tầng, IP Pool</t>
+        </is>
+      </c>
+      <c r="E74" s="8" t="n"/>
+      <c r="F74" s="8" t="n"/>
+      <c r="G74" s="8" t="inlineStr">
+        <is>
+          <t>Tháng</t>
+        </is>
+      </c>
+      <c r="H74" s="8" t="inlineStr">
+        <is>
+          <t>%</t>
+        </is>
+      </c>
+      <c r="I74" s="8" t="inlineStr">
+        <is>
+          <t>=</t>
+        </is>
+      </c>
+      <c r="J74" s="8" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="K74" s="8" t="n">
+        <v>100</v>
+      </c>
+      <c r="L74" s="8" t="n">
+        <v/>
+      </c>
+      <c r="M74" s="8" t="n">
+        <v/>
+      </c>
+      <c r="N74" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="O74" s="8" t="n">
+        <v/>
+      </c>
+      <c r="P74" s="8" t="n"/>
+      <c r="Q74" s="8" t="n"/>
+      <c r="R74" s="8" t="inlineStr"/>
     </row>
     <row r="75">
-      <c r="A75" s="4" t="inlineStr">
-        <is>
-          <t>Loại</t>
-        </is>
-      </c>
-      <c r="B75" s="5" t="inlineStr">
-        <is>
-          <t>KR phòng</t>
-        </is>
-      </c>
-      <c r="C75" s="5" t="inlineStr">
-        <is>
-          <t>KR team</t>
-        </is>
-      </c>
-      <c r="D75" s="5" t="inlineStr">
-        <is>
-          <t>KR cá nhân</t>
-        </is>
-      </c>
-      <c r="E75" s="5" t="inlineStr">
-        <is>
-          <t>Công thức tính</t>
-        </is>
-      </c>
-      <c r="F75" s="5" t="inlineStr">
-        <is>
-          <t>Nguồn dữ liệu</t>
-        </is>
-      </c>
-      <c r="G75" s="5" t="inlineStr">
-        <is>
-          <t>Định kỳ tính</t>
-        </is>
-      </c>
-      <c r="H75" s="5" t="inlineStr">
-        <is>
-          <t>Đơn vị tính</t>
-        </is>
-      </c>
-      <c r="I75" s="5" t="inlineStr">
-        <is>
-          <t>Điều kiện</t>
-        </is>
-      </c>
-      <c r="J75" s="5" t="inlineStr">
-        <is>
-          <t>Norm</t>
-        </is>
-      </c>
-      <c r="K75" s="6" t="inlineStr">
-        <is>
-          <t>% Trọng số chỉ tiêu</t>
-        </is>
-      </c>
-      <c r="L75" s="6" t="inlineStr">
-        <is>
-          <t>Kết quả</t>
-        </is>
-      </c>
-      <c r="M75" s="6" t="inlineStr">
-        <is>
-          <t>Tỷ lệ</t>
-        </is>
-      </c>
-      <c r="N75" s="6" t="inlineStr">
-        <is>
-          <t>Tổng thời gian dự kiến/ ước tính công việc (giờ)</t>
-        </is>
-      </c>
-      <c r="O75" s="4" t="inlineStr">
-        <is>
-          <t>Tổng thời gian thực hiện công việc thực tế (giờ)</t>
-        </is>
-      </c>
-      <c r="P75" s="6" t="inlineStr">
-        <is>
-          <t>Note dự kiến</t>
-        </is>
-      </c>
-      <c r="Q75" s="4" t="inlineStr">
-        <is>
-          <t>Note bằng chứng thực tế</t>
-        </is>
-      </c>
-      <c r="R75" s="7" t="inlineStr">
-        <is>
-          <t>QA</t>
-        </is>
-      </c>
+      <c r="A75" s="2" t="n"/>
+      <c r="B75" s="8" t="inlineStr">
+        <is>
+          <t>Hoàn thành phát triển các tính năng cho dự án Happy connect  trong Q3.2023</t>
+        </is>
+      </c>
+      <c r="C75" s="8" t="inlineStr">
+        <is>
+          <t>Hoàn thành phát triển các tính năng cho dự án Happy connect  trong Q3.2023</t>
+        </is>
+      </c>
+      <c r="D75" s="8" t="inlineStr">
+        <is>
+          <t>Hoàn thành release các tính năng theo kế hoạch dự án HappyConnect trong quý 3</t>
+        </is>
+      </c>
+      <c r="E75" s="8" t="n"/>
+      <c r="F75" s="8" t="n"/>
+      <c r="G75" s="8" t="inlineStr">
+        <is>
+          <t>Tháng</t>
+        </is>
+      </c>
+      <c r="H75" s="8" t="inlineStr">
+        <is>
+          <t>%</t>
+        </is>
+      </c>
+      <c r="I75" s="8" t="inlineStr">
+        <is>
+          <t>=</t>
+        </is>
+      </c>
+      <c r="J75" s="8" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="K75" s="8" t="n">
+        <v>100</v>
+      </c>
+      <c r="L75" s="8" t="n">
+        <v/>
+      </c>
+      <c r="M75" s="8" t="n">
+        <v/>
+      </c>
+      <c r="N75" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="O75" s="8" t="n">
+        <v/>
+      </c>
+      <c r="P75" s="8" t="n"/>
+      <c r="Q75" s="8" t="n"/>
+      <c r="R75" s="8" t="inlineStr"/>
     </row>
     <row r="76">
-      <c r="A76" s="8" t="inlineStr">
-        <is>
-          <t>kpi</t>
-        </is>
-      </c>
-      <c r="B76" s="8" t="inlineStr">
-        <is>
-          <t>Đảm bảo chất lượng sản phẩm với số bug log trên các môi trường trong dự án OnCX, SOP, HappyConnect, Dialo, CheckMK</t>
-        </is>
-      </c>
-      <c r="C76" s="8" t="inlineStr">
-        <is>
-          <t>Đảm bảo chất lượng sản phẩm với số bug log trên các môi trường trong dự án HappyConnect</t>
-        </is>
-      </c>
-      <c r="D76" s="8" t="inlineStr">
-        <is>
-          <t>Trên môi trường stg Trung bình số bugs được report trong mỗi tính năng khi review code/ thực hiện dev &lt;= 5 và trên môi trường UAT critical/important issue &lt;= 1</t>
-        </is>
-      </c>
-      <c r="E76" s="8" t="inlineStr">
-        <is>
-          <t>"- STG: số bug/tính năng khi review code/ thực hiện dev &lt;= 5
-- UAT: critical/important issue &lt;= 1
-** Không tính issue do nguyên nhân enhancement, wishlist, support"</t>
-        </is>
-      </c>
-      <c r="F76" s="8" t="inlineStr">
-        <is>
-          <t>Taiga</t>
-        </is>
-      </c>
-      <c r="G76" s="8" t="inlineStr">
-        <is>
-          <t>Tháng</t>
-        </is>
-      </c>
-      <c r="H76" s="8" t="inlineStr">
-        <is>
-          <t>%</t>
-        </is>
-      </c>
-      <c r="I76" s="8" t="inlineStr">
-        <is>
-          <t>=</t>
-        </is>
-      </c>
-      <c r="J76" s="8" t="inlineStr">
-        <is>
-          <t>100%</t>
-        </is>
-      </c>
-      <c r="K76" s="8" t="n">
-        <v>80</v>
-      </c>
-      <c r="L76" s="8" t="n">
-        <v>100</v>
-      </c>
-      <c r="M76" s="8" t="n">
-        <v/>
-      </c>
-      <c r="N76" s="8" t="n">
-        <v>46</v>
-      </c>
-      <c r="O76" s="8" t="n">
-        <v>18</v>
-      </c>
-      <c r="P76" s="8" t="inlineStr">
-        <is>
-          <t>23 * 2 ( 2h fix bug / meeting clear bug)</t>
-        </is>
-      </c>
-      <c r="Q76" s="8" t="inlineStr">
-        <is>
-          <r>
-            <rPr>
-              <rFont val="&lt;openpyxl.styles.fonts.Font object&gt;&#10;Parameters:&#10;name='Arial', charset=None, family=None, b=False, i=False, strike=False, outline=None, shadow=None, condense=None, color=&lt;openpyxl.styles.colors.Color object&gt;&#10;Parameters:&#10;rgb='00FF0000', indexed=None, auto=None, theme=None, tint=0.0, type='rgb', extend=None, sz=11.0, u=None, vertAlign=None, scheme=None"/>
-            </rPr>
-            <t xml:space="preserve">bằng chứng bug : </t>
-          </r>
-          <r>
-            <rPr>
-              <rFont val="&lt;openpyxl.styles.fonts.Font object&gt;&#10;Parameters:&#10;name='Arial', charset=None, family=None, b=False, i=False, strike=False, outline=None, shadow=None, condense=None, color=&lt;openpyxl.styles.colors.Color object&gt;&#10;Parameters:&#10;rgb='006699CC', indexed=None, auto=None, theme=None, tint=0.0, type='rgb', extend=None, sz=11.0, u=None, vertAlign=None, scheme=None"/>
-            </rPr>
-            <t xml:space="preserve">https://docs.google.com/spreadsheets/d/1_tnT-wl7XPpycFYY5bSZyXZgFFMUZA8BvmnRSb4d8oI/edit#gid=0
-</t>
-          </r>
-        </is>
-      </c>
-      <c r="R76" s="8" t="inlineStr"/>
-    </row>
-    <row r="77">
-      <c r="A77" s="2" t="n"/>
-      <c r="B77" s="8" t="inlineStr">
-        <is>
-          <t>Hoàn thành đúng tiến độ và chất lượng các Công việc phát sinh/ Seminar/ Cải tiến</t>
-        </is>
-      </c>
-      <c r="C77" s="8" t="inlineStr">
-        <is>
-          <t>Hoàn thành đúng tiến độ và chất lượng các Công việc phát sinh</t>
-        </is>
-      </c>
-      <c r="D77" s="8" t="inlineStr">
-        <is>
-          <t>Có &gt;= 1 cải tiến để nâng cao chất lượng công việc trong dự án/ môi trường hoặc semninar/ công việc phát sinh được CBQL giao</t>
-        </is>
-      </c>
-      <c r="E77" s="8" t="inlineStr">
-        <is>
-          <t>CBQL/PM/SA confirm</t>
-        </is>
-      </c>
-      <c r="F77" s="8" t="inlineStr">
-        <is>
-          <t>Taiga</t>
-        </is>
-      </c>
-      <c r="G77" s="8" t="inlineStr">
-        <is>
-          <t>Tháng</t>
-        </is>
-      </c>
-      <c r="H77" s="8" t="inlineStr">
-        <is>
-          <t>%</t>
-        </is>
-      </c>
-      <c r="I77" s="8" t="inlineStr">
-        <is>
-          <t>=</t>
-        </is>
-      </c>
-      <c r="J77" s="8" t="inlineStr">
-        <is>
-          <t>100%</t>
-        </is>
-      </c>
-      <c r="K77" s="8" t="n">
-        <v>20</v>
-      </c>
-      <c r="L77" s="8" t="n">
+      <c r="A76" s="8" t="n">
+        <v/>
+      </c>
+      <c r="B76" s="8" t="n">
+        <v/>
+      </c>
+      <c r="C76" s="8" t="n">
+        <v/>
+      </c>
+      <c r="D76" s="8" t="n">
+        <v/>
+      </c>
+      <c r="E76" s="8" t="n">
+        <v/>
+      </c>
+      <c r="F76" s="8" t="n">
+        <v/>
+      </c>
+      <c r="G76" s="8" t="n">
+        <v/>
+      </c>
+      <c r="H76" s="8" t="n">
+        <v/>
+      </c>
+      <c r="I76" s="8" t="n">
+        <v/>
+      </c>
+      <c r="J76" s="8" t="n">
+        <v/>
+      </c>
+      <c r="K76" s="9" t="n">
+        <v>400</v>
+      </c>
+      <c r="L76" s="9" t="n">
         <v>0</v>
       </c>
-      <c r="M77" s="8" t="n">
-        <v/>
-      </c>
-      <c r="N77" s="8" t="n">
-        <v>15</v>
-      </c>
-      <c r="O77" s="8" t="n">
-        <v>22</v>
-      </c>
-      <c r="P77" s="8" t="inlineStr">
-        <is>
-          <t>3-4h * 4 (khoảng 3-4h mỗi tuần nghiên cứu dự án những phần nên tối ưu)</t>
-        </is>
-      </c>
-      <c r="Q77" s="8" t="n"/>
-      <c r="R77" s="8" t="inlineStr"/>
-    </row>
-    <row r="78">
-      <c r="A78" s="8" t="n">
-        <v/>
-      </c>
-      <c r="B78" s="8" t="n">
-        <v/>
-      </c>
-      <c r="C78" s="8" t="n">
-        <v/>
-      </c>
-      <c r="D78" s="8" t="n">
-        <v/>
-      </c>
-      <c r="E78" s="8" t="n">
-        <v/>
-      </c>
-      <c r="F78" s="8" t="n">
-        <v/>
-      </c>
-      <c r="G78" s="8" t="n">
-        <v/>
-      </c>
-      <c r="H78" s="8" t="n">
-        <v/>
-      </c>
-      <c r="I78" s="8" t="n">
-        <v/>
-      </c>
-      <c r="J78" s="8" t="n">
-        <v/>
-      </c>
-      <c r="K78" s="9" t="n">
-        <v>100</v>
-      </c>
-      <c r="L78" s="9" t="n">
-        <v>100</v>
-      </c>
-      <c r="M78" s="9" t="n">
+      <c r="M76" s="9" t="n">
         <v>0</v>
       </c>
-      <c r="N78" s="9" t="inlineStr"/>
-      <c r="O78" s="9" t="inlineStr"/>
-      <c r="P78" s="8" t="n">
-        <v/>
-      </c>
-      <c r="Q78" s="8" t="n">
-        <v/>
-      </c>
-      <c r="R78" s="8" t="n">
-        <v/>
-      </c>
-    </row>
-    <row r="79">
-      <c r="A79" s="8" t="inlineStr">
-        <is>
-          <t>okr</t>
-        </is>
-      </c>
-      <c r="B79" s="8" t="inlineStr">
-        <is>
-          <t>Nâng cao chất lượng hoàn thành phát triển và release 100% các tính năng trong dự án trung tâm OnCX, SOP, HappyConnect, Dialo, CheckMK đúng thời hạn cam kết</t>
-        </is>
-      </c>
-      <c r="C79" s="8" t="inlineStr">
-        <is>
-          <t>Hoàn thành xây dựng dashboard đầu tư và đánh giá hạ tầng, IP Pool theo kế hoạch trong tháng 8</t>
-        </is>
-      </c>
-      <c r="D79" s="8" t="inlineStr">
-        <is>
-          <t>Đảm bảo 100% các tính năng trong sprint được giao hoàn thành đúng thời hạn dự án PoolIP</t>
-        </is>
-      </c>
-      <c r="E79" s="8" t="inlineStr">
-        <is>
-          <t>"100% US/ sprint hoàn thành thỏa cả 2 điều kiện:
-- Có bằng chứng dev intergration test/ unittest ở mt dev
-- Tester test pass các US trên mt stg"</t>
-        </is>
-      </c>
-      <c r="F79" s="8" t="inlineStr">
-        <is>
-          <t>Taiga</t>
-        </is>
-      </c>
-      <c r="G79" s="8" t="inlineStr">
-        <is>
-          <t>Tháng</t>
-        </is>
-      </c>
-      <c r="H79" s="8" t="inlineStr">
-        <is>
-          <t>%</t>
-        </is>
-      </c>
-      <c r="I79" s="8" t="inlineStr">
-        <is>
-          <t>=</t>
-        </is>
-      </c>
-      <c r="J79" s="8" t="inlineStr">
-        <is>
-          <t>100%</t>
-        </is>
-      </c>
-      <c r="K79" s="8" t="n">
-        <v>100</v>
-      </c>
-      <c r="L79" s="8" t="n">
-        <v>91</v>
-      </c>
-      <c r="M79" s="8" t="n">
-        <v/>
-      </c>
-      <c r="N79" s="8" t="n">
-        <v>123</v>
-      </c>
-      <c r="O79" s="8" t="n">
-        <v>107</v>
-      </c>
-      <c r="P79" s="8" t="inlineStr">
-        <is>
-          <t>"23 * 5( 4h mỗi ngày làm task , khoảng 30 phút - 1 tiếng daily/meeting)
-4h review, retro, planing 1 sprint"</t>
-        </is>
-      </c>
-      <c r="Q79" s="8" t="inlineStr">
-        <is>
-          <r>
-            <rPr>
-              <rFont val="&lt;openpyxl.styles.fonts.Font object&gt;&#10;Parameters:&#10;name='Arial', charset=None, family=None, b=False, i=False, strike=False, outline=None, shadow=None, condense=None, color=&lt;openpyxl.styles.colors.Color object&gt;&#10;Parameters:&#10;rgb='00FF0000', indexed=None, auto=None, theme=None, tint=0.0, type='rgb', extend=None, sz=11.0, u=None, vertAlign=None, scheme=None"/>
-            </rPr>
-            <t xml:space="preserve">bằng chứng tiến độ : </t>
-          </r>
-          <r>
-            <rPr>
-              <rFont val="&lt;openpyxl.styles.fonts.Font object&gt;&#10;Parameters:&#10;name='Arial', charset=None, family=None, b=False, i=False, strike=False, outline=None, shadow=None, condense=None, color=&lt;openpyxl.styles.colors.Color object&gt;&#10;Parameters:&#10;rgb='006699CC', indexed=None, auto=None, theme=None, tint=0.0, type='rgb', extend=None, sz=11.0, u=None, vertAlign=None, scheme=None"/>
-            </rPr>
-            <t xml:space="preserve">https://docs.google.com/spreadsheets/d/169S8Tj_QKcR8cMRlgrF2b2gnVkYBRcyL/edit#gid=1816014955
-</t>
-          </r>
-        </is>
-      </c>
-      <c r="R79" s="8" t="inlineStr"/>
-    </row>
-    <row r="80">
-      <c r="A80" s="8" t="n">
-        <v/>
-      </c>
-      <c r="B80" s="8" t="n">
-        <v/>
-      </c>
-      <c r="C80" s="8" t="n">
-        <v/>
-      </c>
-      <c r="D80" s="8" t="n">
-        <v/>
-      </c>
-      <c r="E80" s="8" t="n">
-        <v/>
-      </c>
-      <c r="F80" s="8" t="n">
-        <v/>
-      </c>
-      <c r="G80" s="8" t="n">
-        <v/>
-      </c>
-      <c r="H80" s="8" t="n">
-        <v/>
-      </c>
-      <c r="I80" s="8" t="n">
-        <v/>
-      </c>
-      <c r="J80" s="8" t="n">
-        <v/>
-      </c>
-      <c r="K80" s="9" t="n">
-        <v>100</v>
-      </c>
-      <c r="L80" s="9" t="n">
-        <v>91</v>
-      </c>
-      <c r="M80" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="N80" s="9" t="n">
+      <c r="N76" s="9" t="n">
         <v>184</v>
       </c>
-      <c r="O80" s="9" t="n">
-        <v>147</v>
-      </c>
-      <c r="P80" s="8" t="n">
-        <v/>
-      </c>
-      <c r="Q80" s="8" t="n">
-        <v/>
-      </c>
-      <c r="R80" s="8" t="n">
+      <c r="O76" s="9" t="inlineStr"/>
+      <c r="P76" s="8" t="n">
+        <v/>
+      </c>
+      <c r="Q76" s="8" t="n">
+        <v/>
+      </c>
+      <c r="R76" s="8" t="n">
         <v/>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="21">
+  <mergeCells count="19">
     <mergeCell ref="A60:A61"/>
     <mergeCell ref="A63"/>
     <mergeCell ref="A36:A37"/>
+    <mergeCell ref="A68:A70"/>
     <mergeCell ref="A1:T1"/>
     <mergeCell ref="A31"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="A39"/>
     <mergeCell ref="A15"/>
-    <mergeCell ref="A76:A77"/>
-    <mergeCell ref="A79"/>
     <mergeCell ref="A4:A5"/>
     <mergeCell ref="A7"/>
     <mergeCell ref="A20:A21"/>
-    <mergeCell ref="A68:A69"/>
+    <mergeCell ref="A72:A75"/>
     <mergeCell ref="A44:A45"/>
     <mergeCell ref="A52:A53"/>
     <mergeCell ref="A28:A29"/>
     <mergeCell ref="A55"/>
-    <mergeCell ref="A71"/>
     <mergeCell ref="A47"/>
     <mergeCell ref="A23"/>
   </mergeCells>

--- a/kpiExcelSheet/nhóm L1.xlsx
+++ b/kpiExcelSheet/nhóm L1.xlsx
@@ -511,7 +511,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R76"/>
+  <dimension ref="A1:R72"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -706,8 +706,16 @@
           <t>Hoàn thành triển khai tích hợp HVAC client vào source code dự án SOP trước 23.08.2023</t>
         </is>
       </c>
-      <c r="E4" s="8" t="n"/>
-      <c r="F4" s="8" t="n"/>
+      <c r="E4" s="8" t="inlineStr">
+        <is>
+          <t>Báo cáo được CBQL confirm</t>
+        </is>
+      </c>
+      <c r="F4" s="8" t="inlineStr">
+        <is>
+          <t>Mail</t>
+        </is>
+      </c>
       <c r="G4" s="8" t="inlineStr">
         <is>
           <t>Tháng</t>
@@ -732,7 +740,7 @@
         <v>20</v>
       </c>
       <c r="L4" s="8" t="n">
-        <v/>
+        <v>0</v>
       </c>
       <c r="M4" s="8" t="n">
         <v/>
@@ -741,7 +749,7 @@
         <v>13</v>
       </c>
       <c r="O4" s="8" t="n">
-        <v/>
+        <v>8</v>
       </c>
       <c r="P4" s="8" t="inlineStr">
         <is>
@@ -750,7 +758,23 @@
 - Kiểm tra, điều chỉnh cấu hình cho các service: 1h</t>
         </is>
       </c>
-      <c r="Q4" s="8" t="n"/>
+      <c r="Q4" s="8" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+              <rFont val="&lt;openpyxl.styles.fonts.Font object&gt;&#10;Parameters:&#10;name='Arial', charset=None, family=None, b=False, i=False, strike=False, outline=None, shadow=None, condense=None, color=&lt;openpyxl.styles.colors.Color object&gt;&#10;Parameters:&#10;rgb='00FF0000', indexed=None, auto=None, theme=None, tint=0.0, type='rgb', extend=None, sz=11.0, u=None, vertAlign=None, scheme=None"/>
+            </rPr>
+            <t xml:space="preserve">Xin xác nhân kết quả thực hiện - Hoàn thành triển khai tích hợp HVAC client vào source code dự án SOP : </t>
+          </r>
+          <r>
+            <rPr>
+              <rFont val="&lt;openpyxl.styles.fonts.Font object&gt;&#10;Parameters:&#10;name='Arial', charset=None, family=None, b=False, i=False, strike=False, outline=None, shadow=None, condense=None, color=&lt;openpyxl.styles.colors.Color object&gt;&#10;Parameters:&#10;rgb='006699CC', indexed=None, auto=None, theme=None, tint=0.0, type='rgb', extend=None, sz=11.0, u=None, vertAlign=None, scheme=None"/>
+            </rPr>
+            <t xml:space="preserve">https://drive.google.com/file/d/1df790NLF5dCua4CjSRZ1jjx1JA3VCXmp/view?usp=drive_link
+</t>
+          </r>
+        </is>
+      </c>
       <c r="R4" s="8" t="inlineStr"/>
     </row>
     <row r="5">
@@ -770,8 +794,18 @@
           <t>Trên môi trường stg Trung bình số bugs được report trong mỗi tính năng khi review code/ thực hiện dev &lt;= 5 và trên môi trường UAT critical/important issue &lt;= 1</t>
         </is>
       </c>
-      <c r="E5" s="8" t="n"/>
-      <c r="F5" s="8" t="n"/>
+      <c r="E5" s="8" t="inlineStr">
+        <is>
+          <t>- STG: số bug/tính năng khi review code/ thực hiện dev &lt;= 5
+- UAT: critical/important issue &lt;= 1
+** Không tính issue do nguyên nhân enhancement, wishlist, support</t>
+        </is>
+      </c>
+      <c r="F5" s="8" t="inlineStr">
+        <is>
+          <t>Taiga</t>
+        </is>
+      </c>
       <c r="G5" s="8" t="inlineStr">
         <is>
           <t>Tháng</t>
@@ -796,7 +830,7 @@
         <v>80</v>
       </c>
       <c r="L5" s="8" t="n">
-        <v/>
+        <v>100</v>
       </c>
       <c r="M5" s="8" t="n">
         <v/>
@@ -805,14 +839,30 @@
         <v>23</v>
       </c>
       <c r="O5" s="8" t="n">
-        <v/>
+        <v>21</v>
       </c>
       <c r="P5" s="8" t="inlineStr">
         <is>
           <t>- Thời gian check - fix bugs: 23h/tháng</t>
         </is>
       </c>
-      <c r="Q5" s="8" t="n"/>
+      <c r="Q5" s="8" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+              <rFont val="&lt;openpyxl.styles.fonts.Font object&gt;&#10;Parameters:&#10;name='Arial', charset=None, family=None, b=False, i=False, strike=False, outline=None, shadow=None, condense=None, color=&lt;openpyxl.styles.colors.Color object&gt;&#10;Parameters:&#10;rgb='00FF0000', indexed=None, auto=None, theme=None, tint=0.0, type='rgb', extend=None, sz=11.0, u=None, vertAlign=None, scheme=None"/>
+            </rPr>
+            <t xml:space="preserve">Thống Kê Bugs : </t>
+          </r>
+          <r>
+            <rPr>
+              <rFont val="&lt;openpyxl.styles.fonts.Font object&gt;&#10;Parameters:&#10;name='Arial', charset=None, family=None, b=False, i=False, strike=False, outline=None, shadow=None, condense=None, color=&lt;openpyxl.styles.colors.Color object&gt;&#10;Parameters:&#10;rgb='006699CC', indexed=None, auto=None, theme=None, tint=0.0, type='rgb', extend=None, sz=11.0, u=None, vertAlign=None, scheme=None"/>
+            </rPr>
+            <t xml:space="preserve">https://docs.google.com/spreadsheets/d/1zYsbMX-Gft2b4pZZdDyLumB5I78fhNHAE3t62baPN6s/edit#gid=0
+</t>
+          </r>
+        </is>
+      </c>
       <c r="R5" s="8" t="inlineStr"/>
     </row>
     <row r="6">
@@ -850,7 +900,7 @@
         <v>100</v>
       </c>
       <c r="L6" s="9" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M6" s="9" t="n">
         <v>0</v>
@@ -888,8 +938,18 @@
           <t>Đảm bảo 100% các tính năng trong sprint được giao hoàn thành đúng thời hạn dự án SOP</t>
         </is>
       </c>
-      <c r="E7" s="8" t="n"/>
-      <c r="F7" s="8" t="n"/>
+      <c r="E7" s="8" t="inlineStr">
+        <is>
+          <t>100% US/ sprint hoàn thành thỏa cả 2 điều kiện:
+- Có bằng chứng dev intergration test/ unittest ở mt dev
+- Tester test pass các US trên mt stg</t>
+        </is>
+      </c>
+      <c r="F7" s="8" t="inlineStr">
+        <is>
+          <t>Taiga</t>
+        </is>
+      </c>
       <c r="G7" s="8" t="inlineStr">
         <is>
           <t>Tháng</t>
@@ -914,7 +974,7 @@
         <v>100</v>
       </c>
       <c r="L7" s="8" t="n">
-        <v/>
+        <v>92</v>
       </c>
       <c r="M7" s="8" t="n">
         <v/>
@@ -923,7 +983,7 @@
         <v>148</v>
       </c>
       <c r="O7" s="8" t="n">
-        <v/>
+        <v>135</v>
       </c>
       <c r="P7" s="8" t="inlineStr">
         <is>
@@ -933,7 +993,23 @@
 - Code tính năng: 5.5h/ngày * 23 = 126.5h/tháng</t>
         </is>
       </c>
-      <c r="Q7" s="8" t="n"/>
+      <c r="Q7" s="8" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+              <rFont val="&lt;openpyxl.styles.fonts.Font object&gt;&#10;Parameters:&#10;name='Arial', charset=None, family=None, b=False, i=False, strike=False, outline=None, shadow=None, condense=None, color=&lt;openpyxl.styles.colors.Color object&gt;&#10;Parameters:&#10;rgb='00FF0000', indexed=None, auto=None, theme=None, tint=0.0, type='rgb', extend=None, sz=11.0, u=None, vertAlign=None, scheme=None"/>
+            </rPr>
+            <t xml:space="preserve">Tiến độ SOP SP20 : </t>
+          </r>
+          <r>
+            <rPr>
+              <rFont val="&lt;openpyxl.styles.fonts.Font object&gt;&#10;Parameters:&#10;name='Arial', charset=None, family=None, b=False, i=False, strike=False, outline=None, shadow=None, condense=None, color=&lt;openpyxl.styles.colors.Color object&gt;&#10;Parameters:&#10;rgb='006699CC', indexed=None, auto=None, theme=None, tint=0.0, type='rgb', extend=None, sz=11.0, u=None, vertAlign=None, scheme=None"/>
+            </rPr>
+            <t xml:space="preserve">https://docs.google.com/spreadsheets/d/1JxytDSIKmv1RNPyIQ0Ocwn1-zJwOdqS4aWsx-ZNBl5o/edit#gid=0
+</t>
+          </r>
+        </is>
+      </c>
       <c r="R7" s="8" t="inlineStr"/>
     </row>
     <row r="8">
@@ -971,7 +1047,7 @@
         <v>100</v>
       </c>
       <c r="L8" s="9" t="n">
-        <v>0</v>
+        <v>92</v>
       </c>
       <c r="M8" s="9" t="n">
         <v>0</v>
@@ -979,7 +1055,9 @@
       <c r="N8" s="9" t="n">
         <v>184</v>
       </c>
-      <c r="O8" s="9" t="inlineStr"/>
+      <c r="O8" s="9" t="n">
+        <v>164</v>
+      </c>
       <c r="P8" s="8" t="n">
         <v/>
       </c>
@@ -1161,8 +1239,16 @@
           <t>Nghiên cứu model AI Falcon-40b và demo trước 23.08.2023; Tham dự thi sáng tạo FTEL</t>
         </is>
       </c>
-      <c r="E12" s="8" t="n"/>
-      <c r="F12" s="8" t="n"/>
+      <c r="E12" s="8" t="inlineStr">
+        <is>
+          <t>Báo cáo được CBQL confirm</t>
+        </is>
+      </c>
+      <c r="F12" s="8" t="inlineStr">
+        <is>
+          <t>Mail</t>
+        </is>
+      </c>
       <c r="G12" s="8" t="inlineStr">
         <is>
           <t>Tháng</t>
@@ -1187,7 +1273,7 @@
         <v>20</v>
       </c>
       <c r="L12" s="8" t="n">
-        <v/>
+        <v>50</v>
       </c>
       <c r="M12" s="8" t="n">
         <v/>
@@ -1196,7 +1282,7 @@
         <v>52</v>
       </c>
       <c r="O12" s="8" t="n">
-        <v/>
+        <v>20</v>
       </c>
       <c r="P12" s="8" t="inlineStr">
         <is>
@@ -1223,8 +1309,18 @@
           <t>Trên môi trường stg Trung bình số bugs được report trong mỗi tính năng khi review code/ thực hiện dev &lt;= 5 và trên môi trường UAT critical/important issue &lt;= 1</t>
         </is>
       </c>
-      <c r="E13" s="8" t="n"/>
-      <c r="F13" s="8" t="n"/>
+      <c r="E13" s="8" t="inlineStr">
+        <is>
+          <t>- STG: số bug/tính năng khi review code/ thực hiện dev &lt;= 5
+- UAT: critical/important issue &lt;= 1
+** Không tính issue do nguyên nhân enhancement, wishlist, support</t>
+        </is>
+      </c>
+      <c r="F13" s="8" t="inlineStr">
+        <is>
+          <t>Taiga</t>
+        </is>
+      </c>
       <c r="G13" s="8" t="inlineStr">
         <is>
           <t>Tháng</t>
@@ -1249,7 +1345,7 @@
         <v>80</v>
       </c>
       <c r="L13" s="8" t="n">
-        <v/>
+        <v>100</v>
       </c>
       <c r="M13" s="8" t="n">
         <v/>
@@ -1258,14 +1354,30 @@
         <v>20</v>
       </c>
       <c r="O13" s="8" t="n">
-        <v/>
+        <v>12</v>
       </c>
       <c r="P13" s="8" t="inlineStr">
         <is>
           <t>- Thời gian check - fix bugs: 20h/tháng</t>
         </is>
       </c>
-      <c r="Q13" s="8" t="n"/>
+      <c r="Q13" s="8" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+              <rFont val="&lt;openpyxl.styles.fonts.Font object&gt;&#10;Parameters:&#10;name='Arial', charset=None, family=None, b=False, i=False, strike=False, outline=None, shadow=None, condense=None, color=&lt;openpyxl.styles.colors.Color object&gt;&#10;Parameters:&#10;rgb='00FF0000', indexed=None, auto=None, theme=None, tint=0.0, type='rgb', extend=None, sz=11.0, u=None, vertAlign=None, scheme=None"/>
+            </rPr>
+            <t xml:space="preserve">SOP-T8 : </t>
+          </r>
+          <r>
+            <rPr>
+              <rFont val="&lt;openpyxl.styles.fonts.Font object&gt;&#10;Parameters:&#10;name='Arial', charset=None, family=None, b=False, i=False, strike=False, outline=None, shadow=None, condense=None, color=&lt;openpyxl.styles.colors.Color object&gt;&#10;Parameters:&#10;rgb='006699CC', indexed=None, auto=None, theme=None, tint=0.0, type='rgb', extend=None, sz=11.0, u=None, vertAlign=None, scheme=None"/>
+            </rPr>
+            <t xml:space="preserve">https://docs.google.com/spreadsheets/d/1RhypsQkAzhg2KbmyNZK4cuOIm6D9OEHNzGXMOfb_1bY/edit?usp=sharing
+</t>
+          </r>
+        </is>
+      </c>
       <c r="R13" s="8" t="inlineStr"/>
     </row>
     <row r="14">
@@ -1303,7 +1415,7 @@
         <v>100</v>
       </c>
       <c r="L14" s="9" t="n">
-        <v>0</v>
+        <v>150</v>
       </c>
       <c r="M14" s="9" t="n">
         <v>0</v>
@@ -1341,8 +1453,18 @@
           <t>Đảm bảo 100% các tính năng trong sprint được giao hoàn thành đúng thời hạn (dự án SOP)</t>
         </is>
       </c>
-      <c r="E15" s="8" t="n"/>
-      <c r="F15" s="8" t="n"/>
+      <c r="E15" s="8" t="inlineStr">
+        <is>
+          <t>100% US/ sprint hoàn thành thỏa cả 2 điều kiện:
+- Có bằng chứng dev intergration test/ unittest ở mt dev
+- Tester test pass các US trên mt stg</t>
+        </is>
+      </c>
+      <c r="F15" s="8" t="inlineStr">
+        <is>
+          <t>Taiga</t>
+        </is>
+      </c>
       <c r="G15" s="8" t="inlineStr">
         <is>
           <t>Tháng</t>
@@ -1367,7 +1489,7 @@
         <v>100</v>
       </c>
       <c r="L15" s="8" t="n">
-        <v/>
+        <v>91</v>
       </c>
       <c r="M15" s="8" t="n">
         <v/>
@@ -1376,7 +1498,7 @@
         <v>112</v>
       </c>
       <c r="O15" s="8" t="n">
-        <v/>
+        <v>145</v>
       </c>
       <c r="P15" s="8" t="inlineStr">
         <is>
@@ -1386,7 +1508,23 @@
 - Code tính năng: 4-5h/ngày * 23 = 90h/tháng</t>
         </is>
       </c>
-      <c r="Q15" s="8" t="n"/>
+      <c r="Q15" s="8" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+              <rFont val="&lt;openpyxl.styles.fonts.Font object&gt;&#10;Parameters:&#10;name='Arial', charset=None, family=None, b=False, i=False, strike=False, outline=None, shadow=None, condense=None, color=&lt;openpyxl.styles.colors.Color object&gt;&#10;Parameters:&#10;rgb='00FF0000', indexed=None, auto=None, theme=None, tint=0.0, type='rgb', extend=None, sz=11.0, u=None, vertAlign=None, scheme=None"/>
+            </rPr>
+            <t xml:space="preserve">SOP-T8 : </t>
+          </r>
+          <r>
+            <rPr>
+              <rFont val="&lt;openpyxl.styles.fonts.Font object&gt;&#10;Parameters:&#10;name='Arial', charset=None, family=None, b=False, i=False, strike=False, outline=None, shadow=None, condense=None, color=&lt;openpyxl.styles.colors.Color object&gt;&#10;Parameters:&#10;rgb='006699CC', indexed=None, auto=None, theme=None, tint=0.0, type='rgb', extend=None, sz=11.0, u=None, vertAlign=None, scheme=None"/>
+            </rPr>
+            <t xml:space="preserve">https://docs.google.com/spreadsheets/d/1RhypsQkAzhg2KbmyNZK4cuOIm6D9OEHNzGXMOfb_1bY/edit?usp=sharing
+</t>
+          </r>
+        </is>
+      </c>
       <c r="R15" s="8" t="inlineStr"/>
     </row>
     <row r="16">
@@ -1424,7 +1562,7 @@
         <v>100</v>
       </c>
       <c r="L16" s="9" t="n">
-        <v>0</v>
+        <v>91</v>
       </c>
       <c r="M16" s="9" t="n">
         <v>0</v>
@@ -1432,7 +1570,9 @@
       <c r="N16" s="9" t="n">
         <v>184</v>
       </c>
-      <c r="O16" s="9" t="inlineStr"/>
+      <c r="O16" s="9" t="n">
+        <v>177</v>
+      </c>
       <c r="P16" s="8" t="n">
         <v/>
       </c>
@@ -1601,21 +1741,31 @@
       </c>
       <c r="B20" s="8" t="inlineStr">
         <is>
-          <t>Hoàn thành đúng tiến độ và chất lượng các Công việc phát sinh/ Seminar/ Cải tiến</t>
+          <t>Đảm bảo chất lượng sản phẩm với số bug log trên các môi trường trong dự án OnCX, SOP, HappyConnect, Dialo, CheckMK</t>
         </is>
       </c>
       <c r="C20" s="8" t="inlineStr">
         <is>
-          <t>Đảm bảo các công việc phát sinh hoàn thành đúng tiến độ và chất lượng</t>
+          <t>Đảm bảo chất lượng sản phẩm với số bug log trên các môi trường trong dự án SOP</t>
         </is>
       </c>
       <c r="D20" s="8" t="inlineStr">
         <is>
-          <t>Hoàn thành demo áp dụng tool Storybook và slide giới thiệu sản phẩm thi sáng tạo FTEL trước 23.8.2023</t>
-        </is>
-      </c>
-      <c r="E20" s="8" t="n"/>
-      <c r="F20" s="8" t="n"/>
+          <t>Trên môi trường stg Trung bình số bugs được report trong mỗi tính năng khi review code/ thực hiện dev &lt;= 5 và trên môi trường UAT critical/important issue &lt;= 1</t>
+        </is>
+      </c>
+      <c r="E20" s="8" t="inlineStr">
+        <is>
+          <t>- STG: số bug/tính năng khi review code/ thực hiện dev &lt;= 5
+- UAT: critical/important issue &lt;= 1
+** Không tính issue do nguyên nhân enhancement, wishlist, support</t>
+        </is>
+      </c>
+      <c r="F20" s="8" t="inlineStr">
+        <is>
+          <t>Taiga</t>
+        </is>
+      </c>
       <c r="G20" s="8" t="inlineStr">
         <is>
           <t>Tháng</t>
@@ -1623,7 +1773,7 @@
       </c>
       <c r="H20" s="8" t="inlineStr">
         <is>
-          <t>Đạt/Không đạt</t>
+          <t>%</t>
         </is>
       </c>
       <c r="I20" s="8" t="inlineStr">
@@ -1633,51 +1783,75 @@
       </c>
       <c r="J20" s="8" t="inlineStr">
         <is>
-          <t>Đạt</t>
+          <t>100%</t>
         </is>
       </c>
       <c r="K20" s="8" t="n">
+        <v>80</v>
+      </c>
+      <c r="L20" s="8" t="n">
+        <v>100</v>
+      </c>
+      <c r="M20" s="8" t="n">
+        <v/>
+      </c>
+      <c r="N20" s="8" t="n">
         <v>20</v>
       </c>
-      <c r="L20" s="8" t="n">
-        <v/>
-      </c>
-      <c r="M20" s="8" t="n">
-        <v/>
-      </c>
-      <c r="N20" s="8" t="n">
-        <v>52</v>
-      </c>
       <c r="O20" s="8" t="n">
-        <v/>
+        <v>20</v>
       </c>
       <c r="P20" s="8" t="inlineStr">
         <is>
-          <t>- Nghiên cứu, code tính năng</t>
-        </is>
-      </c>
-      <c r="Q20" s="8" t="n"/>
+          <t>- Thời gian check - fix bugs: 20h/tháng</t>
+        </is>
+      </c>
+      <c r="Q20" s="8" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+              <rFont val="&lt;openpyxl.styles.fonts.Font object&gt;&#10;Parameters:&#10;name='Arial', charset=None, family=None, b=False, i=False, strike=False, outline=None, shadow=None, condense=None, color=&lt;openpyxl.styles.colors.Color object&gt;&#10;Parameters:&#10;rgb='00FF0000', indexed=None, auto=None, theme=None, tint=0.0, type='rgb', extend=None, sz=11.0, u=None, vertAlign=None, scheme=None"/>
+            </rPr>
+            <t xml:space="preserve">Tổng số Bug - Sprint 20 : </t>
+          </r>
+          <r>
+            <rPr>
+              <rFont val="&lt;openpyxl.styles.fonts.Font object&gt;&#10;Parameters:&#10;name='Arial', charset=None, family=None, b=False, i=False, strike=False, outline=None, shadow=None, condense=None, color=&lt;openpyxl.styles.colors.Color object&gt;&#10;Parameters:&#10;rgb='006699CC', indexed=None, auto=None, theme=None, tint=0.0, type='rgb', extend=None, sz=11.0, u=None, vertAlign=None, scheme=None"/>
+            </rPr>
+            <t xml:space="preserve">https://docs.google.com/spreadsheets/d/1RhypsQkAzhg2KbmyNZK4cuOIm6D9OEHNzGXMOfb_1bY/edit#gid=994381865
+</t>
+          </r>
+        </is>
+      </c>
       <c r="R20" s="8" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="2" t="n"/>
       <c r="B21" s="8" t="inlineStr">
         <is>
-          <t>Đảm bảo chất lượng sản phẩm với số bug log trên các môi trường trong dự án OnCX, SOP, HappyConnect, Dialo, CheckMK</t>
+          <t>Hoàn thành đúng tiến độ và chất lượng các Công việc phát sinh/ Seminar/ Cải tiến</t>
         </is>
       </c>
       <c r="C21" s="8" t="inlineStr">
         <is>
-          <t>Đảm bảo chất lượng sản phẩm với số bug log trên các môi trường trong dự án SOP</t>
+          <t>Đảm bảo các công việc phát sinh hoàn thành đúng tiến độ và chất lượng</t>
         </is>
       </c>
       <c r="D21" s="8" t="inlineStr">
         <is>
-          <t>Trên môi trường stg Trung bình số bugs được report trong mỗi tính năng khi review code/ thực hiện dev &lt;= 5 và trên môi trường UAT critical/important issue &lt;= 1</t>
-        </is>
-      </c>
-      <c r="E21" s="8" t="n"/>
-      <c r="F21" s="8" t="n"/>
+          <t>Hoàn thành demo áp dụng tool Storybook và slide giới thiệu sản phẩm thi sáng tạo FTEL trước 23.8.2023</t>
+        </is>
+      </c>
+      <c r="E21" s="8" t="inlineStr">
+        <is>
+          <t>Báo cáo được CBQL confirm</t>
+        </is>
+      </c>
+      <c r="F21" s="8" t="inlineStr">
+        <is>
+          <t>Mail</t>
+        </is>
+      </c>
       <c r="G21" s="8" t="inlineStr">
         <is>
           <t>Tháng</t>
@@ -1685,7 +1859,7 @@
       </c>
       <c r="H21" s="8" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>Đạt/Không đạt</t>
         </is>
       </c>
       <c r="I21" s="8" t="inlineStr">
@@ -1695,11 +1869,11 @@
       </c>
       <c r="J21" s="8" t="inlineStr">
         <is>
-          <t>100%</t>
+          <t>Đạt</t>
         </is>
       </c>
       <c r="K21" s="8" t="n">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="L21" s="8" t="n">
         <v/>
@@ -1708,14 +1882,14 @@
         <v/>
       </c>
       <c r="N21" s="8" t="n">
-        <v>20</v>
+        <v>52</v>
       </c>
       <c r="O21" s="8" t="n">
-        <v/>
+        <v>4</v>
       </c>
       <c r="P21" s="8" t="inlineStr">
         <is>
-          <t>- Thời gian check - fix bugs: 20h/tháng</t>
+          <t>- Nghiên cứu, code tính năng</t>
         </is>
       </c>
       <c r="Q21" s="8" t="n"/>
@@ -1756,7 +1930,7 @@
         <v>100</v>
       </c>
       <c r="L22" s="9" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M22" s="9" t="n">
         <v>0</v>
@@ -1794,8 +1968,18 @@
           <t>Đảm bảo 100% các tính năng trong sprint được giao hoàn thành đúng thời hạn (dự án SOP)</t>
         </is>
       </c>
-      <c r="E23" s="8" t="n"/>
-      <c r="F23" s="8" t="n"/>
+      <c r="E23" s="8" t="inlineStr">
+        <is>
+          <t>100% US/ sprint hoàn thành thỏa cả 2 điều kiện:
+- Có bằng chứng dev intergration test/ unittest ở mt dev
+- Tester test pass các US trên mt stg</t>
+        </is>
+      </c>
+      <c r="F23" s="8" t="inlineStr">
+        <is>
+          <t>Taiga</t>
+        </is>
+      </c>
       <c r="G23" s="8" t="inlineStr">
         <is>
           <t>Tháng</t>
@@ -1820,7 +2004,7 @@
         <v>100</v>
       </c>
       <c r="L23" s="8" t="n">
-        <v/>
+        <v>92</v>
       </c>
       <c r="M23" s="8" t="n">
         <v/>
@@ -1829,7 +2013,7 @@
         <v>112</v>
       </c>
       <c r="O23" s="8" t="n">
-        <v/>
+        <v>138</v>
       </c>
       <c r="P23" s="8" t="inlineStr">
         <is>
@@ -1839,7 +2023,23 @@
 - Code tính năng: 4-5h/ngày * 21 = 80h/tháng</t>
         </is>
       </c>
-      <c r="Q23" s="8" t="n"/>
+      <c r="Q23" s="8" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+              <rFont val="&lt;openpyxl.styles.fonts.Font object&gt;&#10;Parameters:&#10;name='Arial', charset=None, family=None, b=False, i=False, strike=False, outline=None, shadow=None, condense=None, color=&lt;openpyxl.styles.colors.Color object&gt;&#10;Parameters:&#10;rgb='00FF0000', indexed=None, auto=None, theme=None, tint=0.0, type='rgb', extend=None, sz=11.0, u=None, vertAlign=None, scheme=None"/>
+            </rPr>
+            <t xml:space="preserve">Tiến độ SOP - Sprint 20 : </t>
+          </r>
+          <r>
+            <rPr>
+              <rFont val="&lt;openpyxl.styles.fonts.Font object&gt;&#10;Parameters:&#10;name='Arial', charset=None, family=None, b=False, i=False, strike=False, outline=None, shadow=None, condense=None, color=&lt;openpyxl.styles.colors.Color object&gt;&#10;Parameters:&#10;rgb='006699CC', indexed=None, auto=None, theme=None, tint=0.0, type='rgb', extend=None, sz=11.0, u=None, vertAlign=None, scheme=None"/>
+            </rPr>
+            <t xml:space="preserve">https://docs.google.com/spreadsheets/d/1RhypsQkAzhg2KbmyNZK4cuOIm6D9OEHNzGXMOfb_1bY/edit#gid=0
+</t>
+          </r>
+        </is>
+      </c>
       <c r="R23" s="8" t="inlineStr"/>
     </row>
     <row r="24">
@@ -1877,7 +2077,7 @@
         <v>100</v>
       </c>
       <c r="L24" s="9" t="n">
-        <v>0</v>
+        <v>92</v>
       </c>
       <c r="M24" s="9" t="n">
         <v>0</v>
@@ -1885,7 +2085,9 @@
       <c r="N24" s="9" t="n">
         <v>184</v>
       </c>
-      <c r="O24" s="9" t="inlineStr"/>
+      <c r="O24" s="9" t="n">
+        <v>162</v>
+      </c>
       <c r="P24" s="8" t="n">
         <v/>
       </c>
@@ -2052,15 +2254,31 @@
           <t>kpi</t>
         </is>
       </c>
-      <c r="B28" s="8" t="n"/>
+      <c r="B28" s="8" t="inlineStr">
+        <is>
+          <t>Hoàn thành đúng tiến độ và chất lượng các Công việc phát sinh/ Seminar/ Cải tiến</t>
+        </is>
+      </c>
       <c r="C28" s="8" t="inlineStr">
         <is>
+          <t>Hoàn thành đúng tiến độ và chất lượng các Công việc phát sinh</t>
+        </is>
+      </c>
+      <c r="D28" s="8" t="inlineStr">
+        <is>
           <t>Có &gt;= 1 cải tiến để nâng cao chất lượng công việc trong dự án/ môi trường hoặc semninar/ công việc phát sinh được CBQL giao</t>
         </is>
       </c>
-      <c r="D28" s="8" t="n"/>
-      <c r="E28" s="8" t="n"/>
-      <c r="F28" s="8" t="n"/>
+      <c r="E28" s="8" t="inlineStr">
+        <is>
+          <t>CBQL/PM/SA confirm</t>
+        </is>
+      </c>
+      <c r="F28" s="8" t="inlineStr">
+        <is>
+          <t>Mail</t>
+        </is>
+      </c>
       <c r="G28" s="8" t="inlineStr">
         <is>
           <t>Tháng</t>
@@ -2085,7 +2303,7 @@
         <v>20</v>
       </c>
       <c r="L28" s="8" t="n">
-        <v/>
+        <v>0</v>
       </c>
       <c r="M28" s="8" t="n">
         <v/>
@@ -2094,7 +2312,7 @@
         <v>8</v>
       </c>
       <c r="O28" s="8" t="n">
-        <v/>
+        <v>0</v>
       </c>
       <c r="P28" s="8" t="inlineStr">
         <is>
@@ -2106,15 +2324,33 @@
     </row>
     <row r="29">
       <c r="A29" s="2" t="n"/>
-      <c r="B29" s="8" t="n"/>
+      <c r="B29" s="8" t="inlineStr">
+        <is>
+          <t>Đảm bảo chất lượng sản phẩm với số bug log trên các môi trường trong dự án OnCX, SOP, HappyConnect, Dialo, CheckMK</t>
+        </is>
+      </c>
       <c r="C29" s="8" t="inlineStr">
         <is>
+          <t>Đảm bảo chất lượng sản phẩm với số bug log trên các môi trường trong dự án ChecMK</t>
+        </is>
+      </c>
+      <c r="D29" s="8" t="inlineStr">
+        <is>
           <t>Trên môi trường stg Trung bình số bugs được report trong mỗi tính năng khi review code/ thực hiện dev &lt;= 5 và trên môi trường UAT critical/important issue &lt;= 1</t>
         </is>
       </c>
-      <c r="D29" s="8" t="n"/>
-      <c r="E29" s="8" t="n"/>
-      <c r="F29" s="8" t="n"/>
+      <c r="E29" s="8" t="inlineStr">
+        <is>
+          <t>- STG: số bug/tính năng khi review code/ thực hiện dev &lt;= 5
+- UAT: critical/important issue &lt;= 1
+** Không tính issue do nguyên nhân enhancement, wishlist, support</t>
+        </is>
+      </c>
+      <c r="F29" s="8" t="inlineStr">
+        <is>
+          <t>Mail</t>
+        </is>
+      </c>
       <c r="G29" s="8" t="inlineStr">
         <is>
           <t>Tháng</t>
@@ -2139,23 +2375,39 @@
         <v>80</v>
       </c>
       <c r="L29" s="8" t="n">
-        <v/>
+        <v>100</v>
       </c>
       <c r="M29" s="8" t="n">
         <v/>
       </c>
       <c r="N29" s="8" t="n">
-        <v>545</v>
+        <v>54</v>
       </c>
       <c r="O29" s="8" t="n">
-        <v/>
+        <v>0</v>
       </c>
       <c r="P29" s="8" t="inlineStr">
         <is>
           <t>- Thời gian check - fix bugs:50h/tháng(từ 1.5 đến 2.5h/ngày)</t>
         </is>
       </c>
-      <c r="Q29" s="8" t="n"/>
+      <c r="Q29" s="8" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+              <rFont val="&lt;openpyxl.styles.fonts.Font object&gt;&#10;Parameters:&#10;name='Arial', charset=None, family=None, b=False, i=False, strike=False, outline=None, shadow=None, condense=None, color=&lt;openpyxl.styles.colors.Color object&gt;&#10;Parameters:&#10;rgb='00FF0000', indexed=None, auto=None, theme=None, tint=0.0, type='rgb', extend=None, sz=11.0, u=None, vertAlign=None, scheme=None"/>
+            </rPr>
+            <t xml:space="preserve">Bằng Chứng Bug : </t>
+          </r>
+          <r>
+            <rPr>
+              <rFont val="&lt;openpyxl.styles.fonts.Font object&gt;&#10;Parameters:&#10;name='Arial', charset=None, family=None, b=False, i=False, strike=False, outline=None, shadow=None, condense=None, color=&lt;openpyxl.styles.colors.Color object&gt;&#10;Parameters:&#10;rgb='006699CC', indexed=None, auto=None, theme=None, tint=0.0, type='rgb', extend=None, sz=11.0, u=None, vertAlign=None, scheme=None"/>
+            </rPr>
+            <t xml:space="preserve">https://docs.google.com/spreadsheets/d/17eBVsuHjK24RBxa2t94FtApqvEtEebLG04XAQvsHTFA/edit#gid=0
+</t>
+          </r>
+        </is>
+      </c>
       <c r="R29" s="8" t="inlineStr"/>
     </row>
     <row r="30">
@@ -2193,7 +2445,7 @@
         <v>100</v>
       </c>
       <c r="L30" s="9" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M30" s="9" t="n">
         <v>0</v>
@@ -2231,8 +2483,18 @@
           <t>Đảm bảo 100% các tính năng trong sprint được giao hoàn thành đúng thời hạn dự án CheckMK</t>
         </is>
       </c>
-      <c r="E31" s="8" t="n"/>
-      <c r="F31" s="8" t="n"/>
+      <c r="E31" s="8" t="inlineStr">
+        <is>
+          <t>100% US/ sprint hoàn thành thỏa cả 2 điều kiện:
+- Có bằng chứng dev intergration test/ unittest ở mt dev
+- Tester test pass các US trên mt stg</t>
+        </is>
+      </c>
+      <c r="F31" s="8" t="inlineStr">
+        <is>
+          <t>Mail</t>
+        </is>
+      </c>
       <c r="G31" s="8" t="inlineStr">
         <is>
           <t>Tháng</t>
@@ -2257,7 +2519,7 @@
         <v>100</v>
       </c>
       <c r="L31" s="8" t="n">
-        <v/>
+        <v>100</v>
       </c>
       <c r="M31" s="8" t="n">
         <v/>
@@ -2266,7 +2528,7 @@
         <v>122</v>
       </c>
       <c r="O31" s="8" t="n">
-        <v/>
+        <v>128</v>
       </c>
       <c r="P31" s="8" t="inlineStr">
         <is>
@@ -2276,7 +2538,23 @@
 - Meeting retro, review, planning : 16h/tháng</t>
         </is>
       </c>
-      <c r="Q31" s="8" t="n"/>
+      <c r="Q31" s="8" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+              <rFont val="&lt;openpyxl.styles.fonts.Font object&gt;&#10;Parameters:&#10;name='Arial', charset=None, family=None, b=False, i=False, strike=False, outline=None, shadow=None, condense=None, color=&lt;openpyxl.styles.colors.Color object&gt;&#10;Parameters:&#10;rgb='00FF0000', indexed=None, auto=None, theme=None, tint=0.0, type='rgb', extend=None, sz=11.0, u=None, vertAlign=None, scheme=None"/>
+            </rPr>
+            <t xml:space="preserve">Bằng Chứng Timeline : </t>
+          </r>
+          <r>
+            <rPr>
+              <rFont val="&lt;openpyxl.styles.fonts.Font object&gt;&#10;Parameters:&#10;name='Arial', charset=None, family=None, b=False, i=False, strike=False, outline=None, shadow=None, condense=None, color=&lt;openpyxl.styles.colors.Color object&gt;&#10;Parameters:&#10;rgb='006699CC', indexed=None, auto=None, theme=None, tint=0.0, type='rgb', extend=None, sz=11.0, u=None, vertAlign=None, scheme=None"/>
+            </rPr>
+            <t xml:space="preserve">https://docs.google.com/spreadsheets/d/1WPxs4Ii5gkDtp9GpnjsRl6_j19eP-wKmxDwgii1f5Y4/edit#gid=0
+</t>
+          </r>
+        </is>
+      </c>
       <c r="R31" s="8" t="inlineStr"/>
     </row>
     <row r="32">
@@ -2314,15 +2592,17 @@
         <v>100</v>
       </c>
       <c r="L32" s="9" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M32" s="9" t="n">
         <v>0</v>
       </c>
       <c r="N32" s="9" t="n">
-        <v>675</v>
-      </c>
-      <c r="O32" s="9" t="inlineStr"/>
+        <v>184</v>
+      </c>
+      <c r="O32" s="9" t="n">
+        <v>128</v>
+      </c>
       <c r="P32" s="8" t="n">
         <v/>
       </c>
@@ -2504,8 +2784,18 @@
           <t>Trên môi trường stg Trung bình số bugs được report trong mỗi tính năng khi review code/ thực hiện dev &lt;= 5 và trên môi trường UAT critical/important issue &lt;= 1</t>
         </is>
       </c>
-      <c r="E36" s="8" t="n"/>
-      <c r="F36" s="8" t="n"/>
+      <c r="E36" s="8" t="inlineStr">
+        <is>
+          <t>- STG: số bug/tính năng khi review code/ thực hiện dev &lt;= 5
+- UAT: critical/important issue &lt;= 1
+** Không tính issue do nguyên nhân enhancement, wishlist, support</t>
+        </is>
+      </c>
+      <c r="F36" s="8" t="inlineStr">
+        <is>
+          <t>Taiga</t>
+        </is>
+      </c>
       <c r="G36" s="8" t="inlineStr">
         <is>
           <t>Tháng</t>
@@ -2530,7 +2820,7 @@
         <v>80</v>
       </c>
       <c r="L36" s="8" t="n">
-        <v/>
+        <v>100</v>
       </c>
       <c r="M36" s="8" t="n">
         <v/>
@@ -2539,14 +2829,30 @@
         <v>57.5</v>
       </c>
       <c r="O36" s="8" t="n">
-        <v/>
+        <v>24</v>
       </c>
       <c r="P36" s="8" t="inlineStr">
         <is>
-          <t>57.5/tháng</t>
-        </is>
-      </c>
-      <c r="Q36" s="8" t="n"/>
+          <t>23 * 2,5 ( sấp xỉ 2h30p mỗi ngày fix bug / meeting clear bug )</t>
+        </is>
+      </c>
+      <c r="Q36" s="8" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+              <rFont val="&lt;openpyxl.styles.fonts.Font object&gt;&#10;Parameters:&#10;name='Arial', charset=None, family=None, b=False, i=False, strike=False, outline=None, shadow=None, condense=None, color=&lt;openpyxl.styles.colors.Color object&gt;&#10;Parameters:&#10;rgb='00FF0000', indexed=None, auto=None, theme=None, tint=0.0, type='rgb', extend=None, sz=11.0, u=None, vertAlign=None, scheme=None"/>
+            </rPr>
+            <t xml:space="preserve">Thống kê bug dự án SOP T8 : </t>
+          </r>
+          <r>
+            <rPr>
+              <rFont val="&lt;openpyxl.styles.fonts.Font object&gt;&#10;Parameters:&#10;name='Arial', charset=None, family=None, b=False, i=False, strike=False, outline=None, shadow=None, condense=None, color=&lt;openpyxl.styles.colors.Color object&gt;&#10;Parameters:&#10;rgb='006699CC', indexed=None, auto=None, theme=None, tint=0.0, type='rgb', extend=None, sz=11.0, u=None, vertAlign=None, scheme=None"/>
+            </rPr>
+            <t xml:space="preserve">https://docs.google.com/spreadsheets/d/1zYsbMX-Gft2b4pZZdDyLumB5I78fhNHAE3t62baPN6s/edit#gid=0
+</t>
+          </r>
+        </is>
+      </c>
       <c r="R36" s="8" t="inlineStr"/>
     </row>
     <row r="37">
@@ -2566,8 +2872,16 @@
           <t>Có &gt;= 1 cải tiến để nâng cao chất lượng công việc trong dự án/ môi trường hoặc semninar/ công việc phát sinh được CBQL giao</t>
         </is>
       </c>
-      <c r="E37" s="8" t="n"/>
-      <c r="F37" s="8" t="n"/>
+      <c r="E37" s="8" t="inlineStr">
+        <is>
+          <t>CBQL/PM/SA confirm</t>
+        </is>
+      </c>
+      <c r="F37" s="8" t="inlineStr">
+        <is>
+          <t>Mail</t>
+        </is>
+      </c>
       <c r="G37" s="8" t="inlineStr">
         <is>
           <t>Tháng</t>
@@ -2601,11 +2915,11 @@
         <v>11.5</v>
       </c>
       <c r="O37" s="8" t="n">
-        <v/>
+        <v>0</v>
       </c>
       <c r="P37" s="8" t="inlineStr">
         <is>
-          <t>11.5/tháng</t>
+          <t>11.5h/tháng</t>
         </is>
       </c>
       <c r="Q37" s="8" t="n"/>
@@ -2646,7 +2960,7 @@
         <v>100</v>
       </c>
       <c r="L38" s="9" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M38" s="9" t="n">
         <v>0</v>
@@ -2684,8 +2998,18 @@
           <t>Đảm bảo 100% các tính năng trong sprint được giao hoàn thành đúng thời hạn dự án SOP</t>
         </is>
       </c>
-      <c r="E39" s="8" t="n"/>
-      <c r="F39" s="8" t="n"/>
+      <c r="E39" s="8" t="inlineStr">
+        <is>
+          <t>100% US/ sprint hoàn thành thỏa cả 2 điều kiện:
+- Có bằng chứng dev intergration test/ unittest ở mt dev
+- Tester test pass các US trên mt stg</t>
+        </is>
+      </c>
+      <c r="F39" s="8" t="inlineStr">
+        <is>
+          <t>Taiga</t>
+        </is>
+      </c>
       <c r="G39" s="8" t="inlineStr">
         <is>
           <t>Tháng</t>
@@ -2710,7 +3034,7 @@
         <v>100</v>
       </c>
       <c r="L39" s="8" t="n">
-        <v/>
+        <v>92</v>
       </c>
       <c r="M39" s="8" t="n">
         <v/>
@@ -2719,14 +3043,30 @@
         <v>115</v>
       </c>
       <c r="O39" s="8" t="n">
-        <v/>
+        <v>160</v>
       </c>
       <c r="P39" s="8" t="inlineStr">
         <is>
-          <t xml:space="preserve">115/ tháng </t>
-        </is>
-      </c>
-      <c r="Q39" s="8" t="n"/>
+          <t>23 * 5 ( 5h mỗi ngày làm task , khoảng 30 phút - 1 tiếng daily/ meeting test / retro / planning)</t>
+        </is>
+      </c>
+      <c r="Q39" s="8" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+              <rFont val="&lt;openpyxl.styles.fonts.Font object&gt;&#10;Parameters:&#10;name='Arial', charset=None, family=None, b=False, i=False, strike=False, outline=None, shadow=None, condense=None, color=&lt;openpyxl.styles.colors.Color object&gt;&#10;Parameters:&#10;rgb='00FF0000', indexed=None, auto=None, theme=None, tint=0.0, type='rgb', extend=None, sz=11.0, u=None, vertAlign=None, scheme=None"/>
+            </rPr>
+            <t xml:space="preserve">Tiến độ tính năng dự án SOP : </t>
+          </r>
+          <r>
+            <rPr>
+              <rFont val="&lt;openpyxl.styles.fonts.Font object&gt;&#10;Parameters:&#10;name='Arial', charset=None, family=None, b=False, i=False, strike=False, outline=None, shadow=None, condense=None, color=&lt;openpyxl.styles.colors.Color object&gt;&#10;Parameters:&#10;rgb='006699CC', indexed=None, auto=None, theme=None, tint=0.0, type='rgb', extend=None, sz=11.0, u=None, vertAlign=None, scheme=None"/>
+            </rPr>
+            <t xml:space="preserve">https://docs.google.com/spreadsheets/d/1JxytDSIKmv1RNPyIQ0Ocwn1-zJwOdqS4aWsx-ZNBl5o/edit#gid=0
+</t>
+          </r>
+        </is>
+      </c>
       <c r="R39" s="8" t="inlineStr"/>
     </row>
     <row r="40">
@@ -2764,7 +3104,7 @@
         <v>100</v>
       </c>
       <c r="L40" s="9" t="n">
-        <v>0</v>
+        <v>92</v>
       </c>
       <c r="M40" s="9" t="n">
         <v>0</v>
@@ -2772,7 +3112,9 @@
       <c r="N40" s="9" t="n">
         <v>184</v>
       </c>
-      <c r="O40" s="9" t="inlineStr"/>
+      <c r="O40" s="9" t="n">
+        <v>184</v>
+      </c>
       <c r="P40" s="8" t="n">
         <v/>
       </c>
@@ -2954,8 +3296,16 @@
           <t>Hoàn thành demo áp dụng tool Storybook và slide giới thiệu sản phẩm thi sáng tạo FTEL trước 23.8.2023</t>
         </is>
       </c>
-      <c r="E44" s="8" t="n"/>
-      <c r="F44" s="8" t="n"/>
+      <c r="E44" s="8" t="inlineStr">
+        <is>
+          <t>Báo cáo được CBQL confirm</t>
+        </is>
+      </c>
+      <c r="F44" s="8" t="inlineStr">
+        <is>
+          <t>Mail</t>
+        </is>
+      </c>
       <c r="G44" s="8" t="inlineStr">
         <is>
           <t>Tháng</t>
@@ -2989,7 +3339,7 @@
         <v>16</v>
       </c>
       <c r="O44" s="8" t="n">
-        <v/>
+        <v>8</v>
       </c>
       <c r="P44" s="8" t="n"/>
       <c r="Q44" s="8" t="n"/>
@@ -3012,8 +3362,18 @@
           <t>Trên môi trường stg Trung bình số bugs được report trong mỗi tính năng khi review code/ thực hiện dev &lt;= 5 và trên môi trường Prod critical/important issue &lt;= 1</t>
         </is>
       </c>
-      <c r="E45" s="8" t="n"/>
-      <c r="F45" s="8" t="n"/>
+      <c r="E45" s="8" t="inlineStr">
+        <is>
+          <t>- STG: số bug/tính năng khi review code/ thực hiện dev &lt;= 5
+- UAT: critical/important issue &lt;= 1
+** Không tính issue do nguyên nhân enhancement, wishlist, support</t>
+        </is>
+      </c>
+      <c r="F45" s="8" t="inlineStr">
+        <is>
+          <t>Taiga</t>
+        </is>
+      </c>
       <c r="G45" s="8" t="inlineStr">
         <is>
           <t>Tháng</t>
@@ -3038,7 +3398,7 @@
         <v>80</v>
       </c>
       <c r="L45" s="8" t="n">
-        <v/>
+        <v>100</v>
       </c>
       <c r="M45" s="8" t="n">
         <v/>
@@ -3047,7 +3407,7 @@
         <v>40</v>
       </c>
       <c r="O45" s="8" t="n">
-        <v/>
+        <v>48</v>
       </c>
       <c r="P45" s="8" t="inlineStr">
         <is>
@@ -3055,7 +3415,36 @@
 - Happy Connect: Fix bug 24h</t>
         </is>
       </c>
-      <c r="Q45" s="8" t="n"/>
+      <c r="Q45" s="8" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+              <rFont val="&lt;openpyxl.styles.fonts.Font object&gt;&#10;Parameters:&#10;name='Arial', charset=None, family=None, b=False, i=False, strike=False, outline=None, shadow=None, condense=None, color=&lt;openpyxl.styles.colors.Color object&gt;&#10;Parameters:&#10;rgb='00FF0000', indexed=None, auto=None, theme=None, tint=0.0, type='rgb', extend=None, sz=11.0, u=None, vertAlign=None, scheme=None"/>
+            </rPr>
+            <t xml:space="preserve">Bug Dialo : </t>
+          </r>
+          <r>
+            <rPr>
+              <rFont val="&lt;openpyxl.styles.fonts.Font object&gt;&#10;Parameters:&#10;name='Arial', charset=None, family=None, b=False, i=False, strike=False, outline=None, shadow=None, condense=None, color=&lt;openpyxl.styles.colors.Color object&gt;&#10;Parameters:&#10;rgb='006699CC', indexed=None, auto=None, theme=None, tint=0.0, type='rgb', extend=None, sz=11.0, u=None, vertAlign=None, scheme=None"/>
+            </rPr>
+            <t xml:space="preserve">https://docs.google.com/spreadsheets/d/18AWs-XcmlK_jLArRDy4Ylcfo5qZNjfjy/edit#gid=1981640499
+</t>
+          </r>
+          <r>
+            <rPr>
+              <rFont val="&lt;openpyxl.styles.fonts.Font object&gt;&#10;Parameters:&#10;name='Arial', charset=None, family=None, b=False, i=False, strike=False, outline=None, shadow=None, condense=None, color=&lt;openpyxl.styles.colors.Color object&gt;&#10;Parameters:&#10;rgb='00FF0000', indexed=None, auto=None, theme=None, tint=0.0, type='rgb', extend=None, sz=11.0, u=None, vertAlign=None, scheme=None"/>
+            </rPr>
+            <t xml:space="preserve">Bug Happy Connect : </t>
+          </r>
+          <r>
+            <rPr>
+              <rFont val="&lt;openpyxl.styles.fonts.Font object&gt;&#10;Parameters:&#10;name='Arial', charset=None, family=None, b=False, i=False, strike=False, outline=None, shadow=None, condense=None, color=&lt;openpyxl.styles.colors.Color object&gt;&#10;Parameters:&#10;rgb='006699CC', indexed=None, auto=None, theme=None, tint=0.0, type='rgb', extend=None, sz=11.0, u=None, vertAlign=None, scheme=None"/>
+            </rPr>
+            <t xml:space="preserve">https://docs.google.com/spreadsheets/d/13xRiQniLrgAGfqB99ZV0Ihw5wJVlOBEs/edit#gid=1187315498
+</t>
+          </r>
+        </is>
+      </c>
       <c r="R45" s="8" t="inlineStr"/>
     </row>
     <row r="46">
@@ -3093,7 +3482,7 @@
         <v>100</v>
       </c>
       <c r="L46" s="9" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M46" s="9" t="n">
         <v>0</v>
@@ -3131,8 +3520,18 @@
           <t>Đảm bảo 100% các tính năng trong sprint được giao hoàn thành đúng thời hạn (dự án Happy Connect, Dialo)</t>
         </is>
       </c>
-      <c r="E47" s="8" t="n"/>
-      <c r="F47" s="8" t="n"/>
+      <c r="E47" s="8" t="inlineStr">
+        <is>
+          <t>100% US/ sprint hoàn thành thỏa cả 2 điều kiện:
+- Có bằng chứng dev intergration test/ unittest ở mt dev
+- Tester test pass các US trên mt stg</t>
+        </is>
+      </c>
+      <c r="F47" s="8" t="inlineStr">
+        <is>
+          <t>Taiga</t>
+        </is>
+      </c>
       <c r="G47" s="8" t="inlineStr">
         <is>
           <t>Tháng</t>
@@ -3157,7 +3556,7 @@
         <v>100</v>
       </c>
       <c r="L47" s="8" t="n">
-        <v/>
+        <v>50</v>
       </c>
       <c r="M47" s="8" t="n">
         <v/>
@@ -3166,7 +3565,7 @@
         <v>128</v>
       </c>
       <c r="O47" s="8" t="n">
-        <v/>
+        <v>128</v>
       </c>
       <c r="P47" s="8" t="inlineStr">
         <is>
@@ -3174,7 +3573,36 @@
 - Happy Connect: làm tính năng + họp daily 72h</t>
         </is>
       </c>
-      <c r="Q47" s="8" t="n"/>
+      <c r="Q47" s="8" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+              <rFont val="&lt;openpyxl.styles.fonts.Font object&gt;&#10;Parameters:&#10;name='Arial', charset=None, family=None, b=False, i=False, strike=False, outline=None, shadow=None, condense=None, color=&lt;openpyxl.styles.colors.Color object&gt;&#10;Parameters:&#10;rgb='00FF0000', indexed=None, auto=None, theme=None, tint=0.0, type='rgb', extend=None, sz=11.0, u=None, vertAlign=None, scheme=None"/>
+            </rPr>
+            <t xml:space="preserve">Happy Connect : </t>
+          </r>
+          <r>
+            <rPr>
+              <rFont val="&lt;openpyxl.styles.fonts.Font object&gt;&#10;Parameters:&#10;name='Arial', charset=None, family=None, b=False, i=False, strike=False, outline=None, shadow=None, condense=None, color=&lt;openpyxl.styles.colors.Color object&gt;&#10;Parameters:&#10;rgb='006699CC', indexed=None, auto=None, theme=None, tint=0.0, type='rgb', extend=None, sz=11.0, u=None, vertAlign=None, scheme=None"/>
+            </rPr>
+            <t xml:space="preserve">https://docs.google.com/spreadsheets/d/13xRiQniLrgAGfqB99ZV0Ihw5wJVlOBEs/edit#gid=167033470
+</t>
+          </r>
+          <r>
+            <rPr>
+              <rFont val="&lt;openpyxl.styles.fonts.Font object&gt;&#10;Parameters:&#10;name='Arial', charset=None, family=None, b=False, i=False, strike=False, outline=None, shadow=None, condense=None, color=&lt;openpyxl.styles.colors.Color object&gt;&#10;Parameters:&#10;rgb='00FF0000', indexed=None, auto=None, theme=None, tint=0.0, type='rgb', extend=None, sz=11.0, u=None, vertAlign=None, scheme=None"/>
+            </rPr>
+            <t xml:space="preserve">Dialo : </t>
+          </r>
+          <r>
+            <rPr>
+              <rFont val="&lt;openpyxl.styles.fonts.Font object&gt;&#10;Parameters:&#10;name='Arial', charset=None, family=None, b=False, i=False, strike=False, outline=None, shadow=None, condense=None, color=&lt;openpyxl.styles.colors.Color object&gt;&#10;Parameters:&#10;rgb='006699CC', indexed=None, auto=None, theme=None, tint=0.0, type='rgb', extend=None, sz=11.0, u=None, vertAlign=None, scheme=None"/>
+            </rPr>
+            <t xml:space="preserve">https://docs.google.com/spreadsheets/d/13xRiQniLrgAGfqB99ZV0Ihw5wJVlOBEs/edit#gid=167033470
+</t>
+          </r>
+        </is>
+      </c>
       <c r="R47" s="8" t="inlineStr"/>
     </row>
     <row r="48">
@@ -3212,7 +3640,7 @@
         <v>100</v>
       </c>
       <c r="L48" s="9" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="M48" s="9" t="n">
         <v>0</v>
@@ -3220,7 +3648,9 @@
       <c r="N48" s="9" t="n">
         <v>184</v>
       </c>
-      <c r="O48" s="9" t="inlineStr"/>
+      <c r="O48" s="9" t="n">
+        <v>184</v>
+      </c>
       <c r="P48" s="8" t="n">
         <v/>
       </c>
@@ -3387,15 +3817,31 @@
           <t>kpi</t>
         </is>
       </c>
-      <c r="B52" s="8" t="n"/>
+      <c r="B52" s="8" t="inlineStr">
+        <is>
+          <t>Hoàn thành đúng tiến độ và chất lượng các Công việc phát sinh/ Seminar/ Cải tiến</t>
+        </is>
+      </c>
       <c r="C52" s="8" t="inlineStr">
         <is>
+          <t>Nâng cao tính chia sẻ, áp dụng khi đưa ra cải tiến trong dự án, môi trường làm việc</t>
+        </is>
+      </c>
+      <c r="D52" s="8" t="inlineStr">
+        <is>
           <t>Ứng dụng gRPC vào tối ưu &gt;= 1 module trong dự án Dialo được CBQL/PM/SA confirm trước 23.08.2023</t>
         </is>
       </c>
-      <c r="D52" s="8" t="n"/>
-      <c r="E52" s="8" t="n"/>
-      <c r="F52" s="8" t="n"/>
+      <c r="E52" s="8" t="inlineStr">
+        <is>
+          <t>Báo cáo được CBQL/PM/SA confirm</t>
+        </is>
+      </c>
+      <c r="F52" s="8" t="inlineStr">
+        <is>
+          <t>Mail</t>
+        </is>
+      </c>
       <c r="G52" s="8" t="inlineStr">
         <is>
           <t>Tháng</t>
@@ -3429,23 +3875,61 @@
         <v>23</v>
       </c>
       <c r="O52" s="8" t="n">
-        <v/>
-      </c>
-      <c r="P52" s="8" t="n"/>
-      <c r="Q52" s="8" t="n"/>
+        <v>17</v>
+      </c>
+      <c r="P52" s="8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">khoảng 1h mỗi ngày nghiên cứu ứng dụng vào module dự án </t>
+        </is>
+      </c>
+      <c r="Q52" s="8" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+              <rFont val="&lt;openpyxl.styles.fonts.Font object&gt;&#10;Parameters:&#10;name='Arial', charset=None, family=None, b=False, i=False, strike=False, outline=None, shadow=None, condense=None, color=&lt;openpyxl.styles.colors.Color object&gt;&#10;Parameters:&#10;rgb='00FF0000', indexed=None, auto=None, theme=None, tint=0.0, type='rgb', extend=None, sz=11.0, u=None, vertAlign=None, scheme=None"/>
+            </rPr>
+            <t xml:space="preserve">Link bằng chứng : </t>
+          </r>
+          <r>
+            <rPr>
+              <rFont val="&lt;openpyxl.styles.fonts.Font object&gt;&#10;Parameters:&#10;name='Arial', charset=None, family=None, b=False, i=False, strike=False, outline=None, shadow=None, condense=None, color=&lt;openpyxl.styles.colors.Color object&gt;&#10;Parameters:&#10;rgb='006699CC', indexed=None, auto=None, theme=None, tint=0.0, type='rgb', extend=None, sz=11.0, u=None, vertAlign=None, scheme=None"/>
+            </rPr>
+            <t xml:space="preserve">https://docs.google.com/spreadsheets/d/1szpz8kekeCkkKAiEYem-xqp7zxYnCbDkbBjsgs5UXng/edit#gid=1959940647
+</t>
+          </r>
+        </is>
+      </c>
       <c r="R52" s="8" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="2" t="n"/>
-      <c r="B53" s="8" t="n"/>
+      <c r="B53" s="8" t="inlineStr">
+        <is>
+          <t>Đảm bảo chất lượng sản phẩm với số bug log trên các môi trường trong dự án OnCX, SOP, HappyConnect, Dialo, CheckMK</t>
+        </is>
+      </c>
       <c r="C53" s="8" t="inlineStr">
         <is>
+          <t>Đảm bảo chất lượng sản phẩm với số bug log trên các môi trường trong dự án Dialo</t>
+        </is>
+      </c>
+      <c r="D53" s="8" t="inlineStr">
+        <is>
           <t>Trên môi trường stg Trung bình số bugs được report trong mỗi tính năng khi review code/ thực hiện dev &lt;= 5 và trên môi trường UAT critical/important issue &lt;= 1</t>
         </is>
       </c>
-      <c r="D53" s="8" t="n"/>
-      <c r="E53" s="8" t="n"/>
-      <c r="F53" s="8" t="n"/>
+      <c r="E53" s="8" t="inlineStr">
+        <is>
+          <t>- STG: số bug/tính năng khi review code/ thực hiện dev &lt;= 5
+- UAT: critical/important issue &lt;= 1
+** Không tính issue do nguyên nhân enhancement, wishlist, support</t>
+        </is>
+      </c>
+      <c r="F53" s="8" t="inlineStr">
+        <is>
+          <t>Taiga</t>
+        </is>
+      </c>
       <c r="G53" s="8" t="inlineStr">
         <is>
           <t>Tháng</t>
@@ -3453,7 +3937,7 @@
       </c>
       <c r="H53" s="8" t="inlineStr">
         <is>
-          <t>Đạt/Không đạt</t>
+          <t>%</t>
         </is>
       </c>
       <c r="I53" s="8" t="inlineStr">
@@ -3463,14 +3947,14 @@
       </c>
       <c r="J53" s="8" t="inlineStr">
         <is>
-          <t>Đạt</t>
+          <t>100%</t>
         </is>
       </c>
       <c r="K53" s="8" t="n">
         <v>80</v>
       </c>
       <c r="L53" s="8" t="n">
-        <v/>
+        <v>100</v>
       </c>
       <c r="M53" s="8" t="n">
         <v/>
@@ -3479,10 +3963,30 @@
         <v>46</v>
       </c>
       <c r="O53" s="8" t="n">
-        <v/>
-      </c>
-      <c r="P53" s="8" t="n"/>
-      <c r="Q53" s="8" t="n"/>
+        <v>37</v>
+      </c>
+      <c r="P53" s="8" t="inlineStr">
+        <is>
+          <t>23 * 2 ( 2h fix bug / meeting clear bug)</t>
+        </is>
+      </c>
+      <c r="Q53" s="8" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+              <rFont val="&lt;openpyxl.styles.fonts.Font object&gt;&#10;Parameters:&#10;name='Arial', charset=None, family=None, b=False, i=False, strike=False, outline=None, shadow=None, condense=None, color=&lt;openpyxl.styles.colors.Color object&gt;&#10;Parameters:&#10;rgb='00FF0000', indexed=None, auto=None, theme=None, tint=0.0, type='rgb', extend=None, sz=11.0, u=None, vertAlign=None, scheme=None"/>
+            </rPr>
+            <t xml:space="preserve">Link bằng chứng tiến độ Dialo : </t>
+          </r>
+          <r>
+            <rPr>
+              <rFont val="&lt;openpyxl.styles.fonts.Font object&gt;&#10;Parameters:&#10;name='Arial', charset=None, family=None, b=False, i=False, strike=False, outline=None, shadow=None, condense=None, color=&lt;openpyxl.styles.colors.Color object&gt;&#10;Parameters:&#10;rgb='006699CC', indexed=None, auto=None, theme=None, tint=0.0, type='rgb', extend=None, sz=11.0, u=None, vertAlign=None, scheme=None"/>
+            </rPr>
+            <t xml:space="preserve">https://docs.google.com/spreadsheets/d/1szpz8kekeCkkKAiEYem-xqp7zxYnCbDkbBjsgs5UXng/edit#gid=1959940647
+</t>
+          </r>
+        </is>
+      </c>
       <c r="R53" s="8" t="inlineStr"/>
     </row>
     <row r="54">
@@ -3520,7 +4024,7 @@
         <v>100</v>
       </c>
       <c r="L54" s="9" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M54" s="9" t="n">
         <v>0</v>
@@ -3558,8 +4062,18 @@
           <t>Đảm bảo 100% các tính năng trong sprint được giao hoàn thành đúng thời hạn dự án Dialo</t>
         </is>
       </c>
-      <c r="E55" s="8" t="n"/>
-      <c r="F55" s="8" t="n"/>
+      <c r="E55" s="8" t="inlineStr">
+        <is>
+          <t>100% US/ sprint hoàn thành thỏa cả 2 điều kiện:
+- Có bằng chứng dev intergration test/ unittest ở mt dev
+- Tester test pass các US trên mt stg</t>
+        </is>
+      </c>
+      <c r="F55" s="8" t="inlineStr">
+        <is>
+          <t>Taiga</t>
+        </is>
+      </c>
       <c r="G55" s="8" t="inlineStr">
         <is>
           <t>Tháng</t>
@@ -3584,7 +4098,7 @@
         <v>100</v>
       </c>
       <c r="L55" s="8" t="n">
-        <v/>
+        <v>100</v>
       </c>
       <c r="M55" s="8" t="n">
         <v/>
@@ -3593,14 +4107,30 @@
         <v>115</v>
       </c>
       <c r="O55" s="8" t="n">
-        <v/>
+        <v>83</v>
       </c>
       <c r="P55" s="8" t="inlineStr">
         <is>
           <t>23 * 5 ( 4h mỗi ngày làm task , khoảng 30 phút - 1 tiếng daily/ meeting test / retro / planning)</t>
         </is>
       </c>
-      <c r="Q55" s="8" t="n"/>
+      <c r="Q55" s="8" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+              <rFont val="&lt;openpyxl.styles.fonts.Font object&gt;&#10;Parameters:&#10;name='Arial', charset=None, family=None, b=False, i=False, strike=False, outline=None, shadow=None, condense=None, color=&lt;openpyxl.styles.colors.Color object&gt;&#10;Parameters:&#10;rgb='00FF0000', indexed=None, auto=None, theme=None, tint=0.0, type='rgb', extend=None, sz=11.0, u=None, vertAlign=None, scheme=None"/>
+            </rPr>
+            <t xml:space="preserve">Link bằng chứng tiến độ Dialo : </t>
+          </r>
+          <r>
+            <rPr>
+              <rFont val="&lt;openpyxl.styles.fonts.Font object&gt;&#10;Parameters:&#10;name='Arial', charset=None, family=None, b=False, i=False, strike=False, outline=None, shadow=None, condense=None, color=&lt;openpyxl.styles.colors.Color object&gt;&#10;Parameters:&#10;rgb='006699CC', indexed=None, auto=None, theme=None, tint=0.0, type='rgb', extend=None, sz=11.0, u=None, vertAlign=None, scheme=None"/>
+            </rPr>
+            <t xml:space="preserve">https://docs.google.com/spreadsheets/d/1szpz8kekeCkkKAiEYem-xqp7zxYnCbDkbBjsgs5UXng/edit#gid=1959940647
+</t>
+          </r>
+        </is>
+      </c>
       <c r="R55" s="8" t="inlineStr"/>
     </row>
     <row r="56">
@@ -3638,7 +4168,7 @@
         <v>100</v>
       </c>
       <c r="L56" s="9" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M56" s="9" t="n">
         <v>0</v>
@@ -3646,7 +4176,9 @@
       <c r="N56" s="9" t="n">
         <v>184</v>
       </c>
-      <c r="O56" s="9" t="inlineStr"/>
+      <c r="O56" s="9" t="n">
+        <v>137</v>
+      </c>
       <c r="P56" s="8" t="n">
         <v/>
       </c>
@@ -3813,111 +4345,161 @@
           <t>kpi</t>
         </is>
       </c>
-      <c r="B60" s="8" t="n"/>
+      <c r="B60" s="8" t="inlineStr">
+        <is>
+          <t>Hoàn thành đúng tiến độ và chất lượng các Công việc phát sinh/ Seminar/ Cải tiến</t>
+        </is>
+      </c>
       <c r="C60" s="8" t="inlineStr">
         <is>
+          <t>Đảm bảo chất lượng sản phẩm với số bug log trên các môi trường trong dự án HappyConnect</t>
+        </is>
+      </c>
+      <c r="D60" s="8" t="inlineStr">
+        <is>
+          <t>Trên môi trường stg Trung bình số bugs được report trong mỗi tính năng khi review code/ thực hiện dev &lt;= 5 và trên môi trường UAT critical/important issue &lt;= 1</t>
+        </is>
+      </c>
+      <c r="E60" s="8" t="inlineStr">
+        <is>
+          <t>- STG: số bug/tính năng khi review code/ thực hiện dev &lt;= 5
+- UAT: critical/important issue &lt;= 1
+** Không tính issue do nguyên nhân enhancement, wishlist, support</t>
+        </is>
+      </c>
+      <c r="F60" s="8" t="inlineStr">
+        <is>
+          <t>Taiga</t>
+        </is>
+      </c>
+      <c r="G60" s="8" t="inlineStr">
+        <is>
+          <t>Tháng</t>
+        </is>
+      </c>
+      <c r="H60" s="8" t="inlineStr">
+        <is>
+          <t>%</t>
+        </is>
+      </c>
+      <c r="I60" s="8" t="inlineStr">
+        <is>
+          <t>=</t>
+        </is>
+      </c>
+      <c r="J60" s="8" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="K60" s="8" t="n">
+        <v>80</v>
+      </c>
+      <c r="L60" s="8" t="n">
+        <v>100</v>
+      </c>
+      <c r="M60" s="8" t="n">
+        <v/>
+      </c>
+      <c r="N60" s="8" t="n">
+        <v>46</v>
+      </c>
+      <c r="O60" s="8" t="n">
+        <v>30</v>
+      </c>
+      <c r="P60" s="8" t="inlineStr">
+        <is>
+          <t>- Fix bug: 2h/ngày*23 (Meeting trao đổi và xử lý Bug)</t>
+        </is>
+      </c>
+      <c r="Q60" s="8" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+              <rFont val="&lt;openpyxl.styles.fonts.Font object&gt;&#10;Parameters:&#10;name='Arial', charset=None, family=None, b=False, i=False, strike=False, outline=None, shadow=None, condense=None, color=&lt;openpyxl.styles.colors.Color object&gt;&#10;Parameters:&#10;rgb='00FF0000', indexed=None, auto=None, theme=None, tint=0.0, type='rgb', extend=None, sz=11.0, u=None, vertAlign=None, scheme=None"/>
+            </rPr>
+            <t xml:space="preserve">Link bằng chứng số bug : </t>
+          </r>
+          <r>
+            <rPr>
+              <rFont val="&lt;openpyxl.styles.fonts.Font object&gt;&#10;Parameters:&#10;name='Arial', charset=None, family=None, b=False, i=False, strike=False, outline=None, shadow=None, condense=None, color=&lt;openpyxl.styles.colors.Color object&gt;&#10;Parameters:&#10;rgb='006699CC', indexed=None, auto=None, theme=None, tint=0.0, type='rgb', extend=None, sz=11.0, u=None, vertAlign=None, scheme=None"/>
+            </rPr>
+            <t xml:space="preserve">https://docs.google.com/spreadsheets/d/1_tnT-wl7XPpycFYY5bSZyXZgFFMUZA8BvmnRSb4d8oI/edit?usp=sharing
+</t>
+          </r>
+        </is>
+      </c>
+      <c r="R60" s="8" t="inlineStr"/>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n"/>
+      <c r="B61" s="8" t="inlineStr">
+        <is>
+          <t>Hoàn thành đúng tiến độ và chất lượng các Công việc phát sinh/ Seminar/ Cải tiến</t>
+        </is>
+      </c>
+      <c r="C61" s="8" t="inlineStr">
+        <is>
+          <t>Đảm bảo các công việc phát sinh hoàn thành đúng tiến độ và chất lượng</t>
+        </is>
+      </c>
+      <c r="D61" s="8" t="inlineStr">
+        <is>
           <t>Hoàn thành triển khai tích hợp HVAC client vào source code dự án Happy Connect trong trước 23.08.2023</t>
         </is>
       </c>
-      <c r="D60" s="8" t="n"/>
-      <c r="E60" s="8" t="n"/>
-      <c r="F60" s="8" t="n"/>
-      <c r="G60" s="8" t="inlineStr">
+      <c r="E61" s="8" t="inlineStr">
+        <is>
+          <t>Báo cáo được CBQL/PM/SA confirm</t>
+        </is>
+      </c>
+      <c r="F61" s="8" t="inlineStr">
+        <is>
+          <t>Mail</t>
+        </is>
+      </c>
+      <c r="G61" s="8" t="inlineStr">
         <is>
           <t>Tháng</t>
         </is>
       </c>
-      <c r="H60" s="8" t="inlineStr">
+      <c r="H61" s="8" t="inlineStr">
         <is>
           <t>%</t>
         </is>
       </c>
-      <c r="I60" s="8" t="inlineStr">
+      <c r="I61" s="8" t="inlineStr">
         <is>
           <t>=</t>
         </is>
       </c>
-      <c r="J60" s="8" t="inlineStr">
+      <c r="J61" s="8" t="inlineStr">
         <is>
           <t>100%</t>
         </is>
       </c>
-      <c r="K60" s="8" t="n">
+      <c r="K61" s="8" t="n">
         <v>20</v>
       </c>
-      <c r="L60" s="8" t="n">
-        <v/>
-      </c>
-      <c r="M60" s="8" t="n">
-        <v/>
-      </c>
-      <c r="N60" s="8" t="n">
+      <c r="L61" s="8" t="n">
+        <v/>
+      </c>
+      <c r="M61" s="8" t="n">
+        <v/>
+      </c>
+      <c r="N61" s="8" t="n">
         <v>16</v>
       </c>
-      <c r="O60" s="8" t="n">
-        <v/>
-      </c>
-      <c r="P60" s="8" t="inlineStr">
+      <c r="O61" s="8" t="n">
+        <v>8</v>
+      </c>
+      <c r="P61" s="8" t="inlineStr">
         <is>
           <t>"- Nghiên cứu HVAC: 8h 
 - Tích hợp thư viện vào source code và triển khai dev: 6h
 - Kiểm tra, điều chỉnh cấu hình cho các service: 2h"</t>
         </is>
       </c>
-      <c r="Q60" s="8" t="n"/>
-      <c r="R60" s="8" t="inlineStr"/>
-    </row>
-    <row r="61">
-      <c r="A61" s="2" t="n"/>
-      <c r="B61" s="8" t="n"/>
-      <c r="C61" s="8" t="inlineStr">
-        <is>
-          <t>Trên môi trường stg Trung bình số bugs được report trong mỗi tính năng khi review code/ thực hiện dev &lt;= 5 và trên môi trường UAT critical/important issue &lt;= 1</t>
-        </is>
-      </c>
-      <c r="D61" s="8" t="n"/>
-      <c r="E61" s="8" t="n"/>
-      <c r="F61" s="8" t="n"/>
-      <c r="G61" s="8" t="inlineStr">
-        <is>
-          <t>Tháng</t>
-        </is>
-      </c>
-      <c r="H61" s="8" t="inlineStr">
-        <is>
-          <t>%</t>
-        </is>
-      </c>
-      <c r="I61" s="8" t="inlineStr">
-        <is>
-          <t>=</t>
-        </is>
-      </c>
-      <c r="J61" s="8" t="inlineStr">
-        <is>
-          <t>100%</t>
-        </is>
-      </c>
-      <c r="K61" s="8" t="n">
-        <v>80</v>
-      </c>
-      <c r="L61" s="8" t="n">
-        <v/>
-      </c>
-      <c r="M61" s="8" t="n">
-        <v/>
-      </c>
-      <c r="N61" s="8" t="n">
-        <v>46</v>
-      </c>
-      <c r="O61" s="8" t="n">
-        <v/>
-      </c>
-      <c r="P61" s="8" t="inlineStr">
-        <is>
-          <t>- Fix bug: 2h/ngày*23 (Meeting trao đổi và xử lý Bug)</t>
-        </is>
-      </c>
       <c r="Q61" s="8" t="n"/>
       <c r="R61" s="8" t="inlineStr"/>
     </row>
@@ -3956,7 +4538,7 @@
         <v>100</v>
       </c>
       <c r="L62" s="9" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M62" s="9" t="n">
         <v>0</v>
@@ -3994,8 +4576,18 @@
           <t>Đảm bảo 100% các tính năng trong sprint được giao hoàn thành đúng thời hạn dự án PoolIP</t>
         </is>
       </c>
-      <c r="E63" s="8" t="n"/>
-      <c r="F63" s="8" t="n"/>
+      <c r="E63" s="8" t="inlineStr">
+        <is>
+          <t>100% US/ sprint hoàn thành thỏa cả 2 điều kiện:
+- Có bằng chứng dev intergration test/ unittest ở mt dev
+- Tester test pass các US trên mt stg"</t>
+        </is>
+      </c>
+      <c r="F63" s="8" t="inlineStr">
+        <is>
+          <t>Taiga</t>
+        </is>
+      </c>
       <c r="G63" s="8" t="inlineStr">
         <is>
           <t>Tháng</t>
@@ -4020,7 +4612,7 @@
         <v>100</v>
       </c>
       <c r="L63" s="8" t="n">
-        <v/>
+        <v>95</v>
       </c>
       <c r="M63" s="8" t="n">
         <v/>
@@ -4029,11 +4621,11 @@
         <v>122</v>
       </c>
       <c r="O63" s="8" t="n">
-        <v/>
+        <v>132</v>
       </c>
       <c r="P63" s="8" t="inlineStr">
         <is>
-          <t>"- Tổng = 80,5 + 8 + 11.5 + 8 + 3
+          <t>- Tổng = 80,5 + 8 + 11.5 + 8 + 3
 - 4*23 =  80.5(Code tính năng 4h/ngày)
 - 2h*4 = 12(Review + Update Code: 3h/ tuần)
 - 0.5*23 = 11,5 (Meeting daily,clear bug:  0.5h/ngày)
@@ -4041,7 +4633,23 @@
 "</t>
         </is>
       </c>
-      <c r="Q63" s="8" t="n"/>
+      <c r="Q63" s="8" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+              <rFont val="&lt;openpyxl.styles.fonts.Font object&gt;&#10;Parameters:&#10;name='Arial', charset=None, family=None, b=False, i=False, strike=False, outline=None, shadow=None, condense=None, color=&lt;openpyxl.styles.colors.Color object&gt;&#10;Parameters:&#10;rgb='00FF0000', indexed=None, auto=None, theme=None, tint=0.0, type='rgb', extend=None, sz=11.0, u=None, vertAlign=None, scheme=None"/>
+            </rPr>
+            <t xml:space="preserve">Link bằng chứng tiến độ : </t>
+          </r>
+          <r>
+            <rPr>
+              <rFont val="&lt;openpyxl.styles.fonts.Font object&gt;&#10;Parameters:&#10;name='Arial', charset=None, family=None, b=False, i=False, strike=False, outline=None, shadow=None, condense=None, color=&lt;openpyxl.styles.colors.Color object&gt;&#10;Parameters:&#10;rgb='006699CC', indexed=None, auto=None, theme=None, tint=0.0, type='rgb', extend=None, sz=11.0, u=None, vertAlign=None, scheme=None"/>
+            </rPr>
+            <t xml:space="preserve">https://docs.google.com/spreadsheets/d/169S8Tj_QKcR8cMRlgrF2b2gnVkYBRcyL/edit?usp=sharing&amp;ouid=111160206982098379432&amp;rtpof=true&amp;sd=true
+</t>
+          </r>
+        </is>
+      </c>
       <c r="R63" s="8" t="inlineStr"/>
     </row>
     <row r="64">
@@ -4079,7 +4687,7 @@
         <v>100</v>
       </c>
       <c r="L64" s="9" t="n">
-        <v>0</v>
+        <v>95</v>
       </c>
       <c r="M64" s="9" t="n">
         <v>0</v>
@@ -4087,7 +4695,9 @@
       <c r="N64" s="9" t="n">
         <v>184</v>
       </c>
-      <c r="O64" s="9" t="inlineStr"/>
+      <c r="O64" s="9" t="n">
+        <v>170</v>
+      </c>
       <c r="P64" s="8" t="n">
         <v/>
       </c>
@@ -4256,21 +4866,29 @@
       </c>
       <c r="B68" s="8" t="inlineStr">
         <is>
-          <t>Đảm bảo chất lượng sản phẩm với số bug log trên các môi trường trong dự án OnCX, SOP, HappyConnect, Dialo, CheckMK</t>
+          <t>Hoàn thành đúng tiến độ và chất lượng các Công việc phát sinh/ Seminar/ Cải tiến</t>
         </is>
       </c>
       <c r="C68" s="8" t="inlineStr">
         <is>
-          <t>Đảm bảo chất lượng sản phẩm với số bug log trên các môi trường trong dự án HappyConnect</t>
+          <t>Hoàn thành đúng tiến độ và chất lượng các Công việc phát sinh</t>
         </is>
       </c>
       <c r="D68" s="8" t="inlineStr">
         <is>
-          <t>Trên môi trường stg Trung bình số bugs được report trong mỗi tính năng khi review code/ thực hiện dev &lt;= 5 và trên môi trường UAT critical/important issue &lt;= 1</t>
-        </is>
-      </c>
-      <c r="E68" s="8" t="n"/>
-      <c r="F68" s="8" t="n"/>
+          <t>Có &gt;= 1 cải tiến để nâng cao chất lượng công việc trong dự án/ môi trường hoặc semninar/ công việc phát sinh được CBQL giao</t>
+        </is>
+      </c>
+      <c r="E68" s="8" t="inlineStr">
+        <is>
+          <t>CBQL/PM/SA confirm</t>
+        </is>
+      </c>
+      <c r="F68" s="8" t="inlineStr">
+        <is>
+          <t>Taiga</t>
+        </is>
+      </c>
       <c r="G68" s="8" t="inlineStr">
         <is>
           <t>Tháng</t>
@@ -4292,23 +4910,23 @@
         </is>
       </c>
       <c r="K68" s="8" t="n">
-        <v>100</v>
+        <v>20</v>
       </c>
       <c r="L68" s="8" t="n">
-        <v/>
+        <v>0</v>
       </c>
       <c r="M68" s="8" t="n">
         <v/>
       </c>
       <c r="N68" s="8" t="n">
-        <v>46</v>
+        <v>15</v>
       </c>
       <c r="O68" s="8" t="n">
-        <v/>
+        <v>22</v>
       </c>
       <c r="P68" s="8" t="inlineStr">
         <is>
-          <t>23 * 2 ( 2h fix bug / meeting clear bug)</t>
+          <t>3-4h * 4 (khoảng 3-4h mỗi tuần nghiên cứu dự án những phần nên tối ưu)</t>
         </is>
       </c>
       <c r="Q68" s="8" t="n"/>
@@ -4318,470 +4936,288 @@
       <c r="A69" s="2" t="n"/>
       <c r="B69" s="8" t="inlineStr">
         <is>
+          <t>Đảm bảo chất lượng sản phẩm với số bug log trên các môi trường trong dự án OnCX, SOP, HappyConnect, Dialo, CheckMK</t>
+        </is>
+      </c>
+      <c r="C69" s="8" t="inlineStr">
+        <is>
+          <t>Đảm bảo chất lượng sản phẩm với số bug log trên các môi trường trong dự án HappyConnect</t>
+        </is>
+      </c>
+      <c r="D69" s="8" t="inlineStr">
+        <is>
+          <t>Trên môi trường stg Trung bình số bugs được report trong mỗi tính năng khi review code/ thực hiện dev &lt;= 5 và trên môi trường UAT critical/important issue &lt;= 1</t>
+        </is>
+      </c>
+      <c r="E69" s="8" t="inlineStr">
+        <is>
+          <t>"- STG: số bug/tính năng khi review code/ thực hiện dev &lt;= 5
+- UAT: critical/important issue &lt;= 1
+** Không tính issue do nguyên nhân enhancement, wishlist, support"</t>
+        </is>
+      </c>
+      <c r="F69" s="8" t="inlineStr">
+        <is>
+          <t>Taiga</t>
+        </is>
+      </c>
+      <c r="G69" s="8" t="inlineStr">
+        <is>
+          <t>Tháng</t>
+        </is>
+      </c>
+      <c r="H69" s="8" t="inlineStr">
+        <is>
+          <t>%</t>
+        </is>
+      </c>
+      <c r="I69" s="8" t="inlineStr">
+        <is>
+          <t>=</t>
+        </is>
+      </c>
+      <c r="J69" s="8" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="K69" s="8" t="n">
+        <v>80</v>
+      </c>
+      <c r="L69" s="8" t="n">
+        <v>100</v>
+      </c>
+      <c r="M69" s="8" t="n">
+        <v/>
+      </c>
+      <c r="N69" s="8" t="n">
+        <v>46</v>
+      </c>
+      <c r="O69" s="8" t="n">
+        <v>18</v>
+      </c>
+      <c r="P69" s="8" t="inlineStr">
+        <is>
+          <t>23 * 2 ( 2h fix bug / meeting clear bug)</t>
+        </is>
+      </c>
+      <c r="Q69" s="8" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+              <rFont val="&lt;openpyxl.styles.fonts.Font object&gt;&#10;Parameters:&#10;name='Arial', charset=None, family=None, b=False, i=False, strike=False, outline=None, shadow=None, condense=None, color=&lt;openpyxl.styles.colors.Color object&gt;&#10;Parameters:&#10;rgb='00FF0000', indexed=None, auto=None, theme=None, tint=0.0, type='rgb', extend=None, sz=11.0, u=None, vertAlign=None, scheme=None"/>
+            </rPr>
+            <t xml:space="preserve">bằng chứng bug : </t>
+          </r>
+          <r>
+            <rPr>
+              <rFont val="&lt;openpyxl.styles.fonts.Font object&gt;&#10;Parameters:&#10;name='Arial', charset=None, family=None, b=False, i=False, strike=False, outline=None, shadow=None, condense=None, color=&lt;openpyxl.styles.colors.Color object&gt;&#10;Parameters:&#10;rgb='006699CC', indexed=None, auto=None, theme=None, tint=0.0, type='rgb', extend=None, sz=11.0, u=None, vertAlign=None, scheme=None"/>
+            </rPr>
+            <t xml:space="preserve">https://docs.google.com/spreadsheets/d/1_tnT-wl7XPpycFYY5bSZyXZgFFMUZA8BvmnRSb4d8oI/edit#gid=0
+</t>
+          </r>
+        </is>
+      </c>
+      <c r="R69" s="8" t="inlineStr"/>
+    </row>
+    <row r="70">
+      <c r="A70" s="8" t="n">
+        <v/>
+      </c>
+      <c r="B70" s="8" t="n">
+        <v/>
+      </c>
+      <c r="C70" s="8" t="n">
+        <v/>
+      </c>
+      <c r="D70" s="8" t="n">
+        <v/>
+      </c>
+      <c r="E70" s="8" t="n">
+        <v/>
+      </c>
+      <c r="F70" s="8" t="n">
+        <v/>
+      </c>
+      <c r="G70" s="8" t="n">
+        <v/>
+      </c>
+      <c r="H70" s="8" t="n">
+        <v/>
+      </c>
+      <c r="I70" s="8" t="n">
+        <v/>
+      </c>
+      <c r="J70" s="8" t="n">
+        <v/>
+      </c>
+      <c r="K70" s="9" t="n">
+        <v>100</v>
+      </c>
+      <c r="L70" s="9" t="n">
+        <v>100</v>
+      </c>
+      <c r="M70" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="N70" s="9" t="inlineStr"/>
+      <c r="O70" s="9" t="inlineStr"/>
+      <c r="P70" s="8" t="n">
+        <v/>
+      </c>
+      <c r="Q70" s="8" t="n">
+        <v/>
+      </c>
+      <c r="R70" s="8" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="8" t="inlineStr">
+        <is>
+          <t>okr</t>
+        </is>
+      </c>
+      <c r="B71" s="8" t="inlineStr">
+        <is>
           <t>Nâng cao chất lượng hoàn thành phát triển và release 100% các tính năng trong dự án trung tâm OnCX, SOP, HappyConnect, Dialo, CheckMK đúng thời hạn cam kết</t>
         </is>
       </c>
-      <c r="C69" s="8" t="inlineStr">
+      <c r="C71" s="8" t="inlineStr">
         <is>
           <t>Hoàn thành xây dựng dashboard đầu tư và đánh giá hạ tầng, IP Pool theo kế hoạch trong tháng 8</t>
         </is>
       </c>
-      <c r="D69" s="8" t="inlineStr">
+      <c r="D71" s="8" t="inlineStr">
         <is>
           <t>Đảm bảo 100% các tính năng trong sprint được giao hoàn thành đúng thời hạn dự án PoolIP</t>
         </is>
       </c>
-      <c r="E69" s="8" t="n"/>
-      <c r="F69" s="8" t="n"/>
-      <c r="G69" s="8" t="inlineStr">
+      <c r="E71" s="8" t="inlineStr">
+        <is>
+          <t>"100% US/ sprint hoàn thành thỏa cả 2 điều kiện:
+- Có bằng chứng dev intergration test/ unittest ở mt dev
+- Tester test pass các US trên mt stg"</t>
+        </is>
+      </c>
+      <c r="F71" s="8" t="inlineStr">
+        <is>
+          <t>Taiga</t>
+        </is>
+      </c>
+      <c r="G71" s="8" t="inlineStr">
         <is>
           <t>Tháng</t>
         </is>
       </c>
-      <c r="H69" s="8" t="inlineStr">
+      <c r="H71" s="8" t="inlineStr">
         <is>
           <t>%</t>
         </is>
       </c>
-      <c r="I69" s="8" t="inlineStr">
+      <c r="I71" s="8" t="inlineStr">
         <is>
           <t>=</t>
         </is>
       </c>
-      <c r="J69" s="8" t="inlineStr">
+      <c r="J71" s="8" t="inlineStr">
         <is>
           <t>100%</t>
         </is>
       </c>
-      <c r="K69" s="8" t="n">
+      <c r="K71" s="8" t="n">
         <v>100</v>
       </c>
-      <c r="L69" s="8" t="n">
-        <v/>
-      </c>
-      <c r="M69" s="8" t="n">
-        <v/>
-      </c>
-      <c r="N69" s="8" t="n">
+      <c r="L71" s="8" t="n">
+        <v>91</v>
+      </c>
+      <c r="M71" s="8" t="n">
+        <v/>
+      </c>
+      <c r="N71" s="8" t="n">
         <v>123</v>
       </c>
-      <c r="O69" s="8" t="n">
-        <v/>
-      </c>
-      <c r="P69" s="8" t="inlineStr">
-        <is>
-          <t>"23 * 5( 4h mỗi ngày làm task , khoảng 30 phút - 1 tiếng daily/ meeting)
+      <c r="O71" s="8" t="n">
+        <v>107</v>
+      </c>
+      <c r="P71" s="8" t="inlineStr">
+        <is>
+          <t>"23 * 5( 4h mỗi ngày làm task , khoảng 30 phút - 1 tiếng daily/meeting)
 4h review, retro, planing 1 sprint"</t>
         </is>
       </c>
-      <c r="Q69" s="8" t="n"/>
-      <c r="R69" s="8" t="inlineStr"/>
-    </row>
-    <row r="70">
-      <c r="A70" s="2" t="n"/>
-      <c r="B70" s="8" t="inlineStr">
-        <is>
-          <t>Hoàn thành đúng tiến độ và chất lượng các Công việc phát sinh/ Seminar/ Cải tiến</t>
-        </is>
-      </c>
-      <c r="C70" s="8" t="inlineStr">
-        <is>
-          <t>Hoàn thành đúng tiến độ và chất lượng các Công việc phát sinh</t>
-        </is>
-      </c>
-      <c r="D70" s="8" t="inlineStr">
-        <is>
-          <t>Có &gt;= 1 cải tiến để nâng cao chất lượng công việc trong dự án/ môi trường hoặc semninar/ công việc phát sinh được CBQL giao</t>
-        </is>
-      </c>
-      <c r="E70" s="8" t="n"/>
-      <c r="F70" s="8" t="n"/>
-      <c r="G70" s="8" t="inlineStr">
-        <is>
-          <t>Tháng</t>
-        </is>
-      </c>
-      <c r="H70" s="8" t="inlineStr">
-        <is>
-          <t>%</t>
-        </is>
-      </c>
-      <c r="I70" s="8" t="inlineStr">
-        <is>
-          <t>=</t>
-        </is>
-      </c>
-      <c r="J70" s="8" t="inlineStr">
-        <is>
-          <t>100%</t>
-        </is>
-      </c>
-      <c r="K70" s="8" t="n">
+      <c r="Q71" s="8" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+              <rFont val="&lt;openpyxl.styles.fonts.Font object&gt;&#10;Parameters:&#10;name='Arial', charset=None, family=None, b=False, i=False, strike=False, outline=None, shadow=None, condense=None, color=&lt;openpyxl.styles.colors.Color object&gt;&#10;Parameters:&#10;rgb='00FF0000', indexed=None, auto=None, theme=None, tint=0.0, type='rgb', extend=None, sz=11.0, u=None, vertAlign=None, scheme=None"/>
+            </rPr>
+            <t xml:space="preserve">bằng chứng tiến độ : </t>
+          </r>
+          <r>
+            <rPr>
+              <rFont val="&lt;openpyxl.styles.fonts.Font object&gt;&#10;Parameters:&#10;name='Arial', charset=None, family=None, b=False, i=False, strike=False, outline=None, shadow=None, condense=None, color=&lt;openpyxl.styles.colors.Color object&gt;&#10;Parameters:&#10;rgb='006699CC', indexed=None, auto=None, theme=None, tint=0.0, type='rgb', extend=None, sz=11.0, u=None, vertAlign=None, scheme=None"/>
+            </rPr>
+            <t xml:space="preserve">https://docs.google.com/spreadsheets/d/169S8Tj_QKcR8cMRlgrF2b2gnVkYBRcyL/edit#gid=1816014955
+</t>
+          </r>
+        </is>
+      </c>
+      <c r="R71" s="8" t="inlineStr"/>
+    </row>
+    <row r="72">
+      <c r="A72" s="8" t="n">
+        <v/>
+      </c>
+      <c r="B72" s="8" t="n">
+        <v/>
+      </c>
+      <c r="C72" s="8" t="n">
+        <v/>
+      </c>
+      <c r="D72" s="8" t="n">
+        <v/>
+      </c>
+      <c r="E72" s="8" t="n">
+        <v/>
+      </c>
+      <c r="F72" s="8" t="n">
+        <v/>
+      </c>
+      <c r="G72" s="8" t="n">
+        <v/>
+      </c>
+      <c r="H72" s="8" t="n">
+        <v/>
+      </c>
+      <c r="I72" s="8" t="n">
+        <v/>
+      </c>
+      <c r="J72" s="8" t="n">
+        <v/>
+      </c>
+      <c r="K72" s="9" t="n">
         <v>100</v>
       </c>
-      <c r="L70" s="8" t="n">
-        <v/>
-      </c>
-      <c r="M70" s="8" t="n">
-        <v/>
-      </c>
-      <c r="N70" s="8" t="n">
-        <v>15</v>
-      </c>
-      <c r="O70" s="8" t="n">
-        <v/>
-      </c>
-      <c r="P70" s="8" t="inlineStr">
-        <is>
-          <t>3-4h * 4 (khoảng 3-4h mỗi tuần nghiên cứu dự án những phần nên tối ưu)</t>
-        </is>
-      </c>
-      <c r="Q70" s="8" t="n"/>
-      <c r="R70" s="8" t="inlineStr"/>
-    </row>
-    <row r="71">
-      <c r="A71" s="8" t="n">
-        <v/>
-      </c>
-      <c r="B71" s="8" t="n">
-        <v/>
-      </c>
-      <c r="C71" s="8" t="n">
-        <v/>
-      </c>
-      <c r="D71" s="8" t="n">
-        <v/>
-      </c>
-      <c r="E71" s="8" t="n">
-        <v/>
-      </c>
-      <c r="F71" s="8" t="n">
-        <v/>
-      </c>
-      <c r="G71" s="8" t="n">
-        <v/>
-      </c>
-      <c r="H71" s="8" t="n">
-        <v/>
-      </c>
-      <c r="I71" s="8" t="n">
-        <v/>
-      </c>
-      <c r="J71" s="8" t="n">
-        <v/>
-      </c>
-      <c r="K71" s="9" t="n">
-        <v>300</v>
-      </c>
-      <c r="L71" s="9" t="n">
+      <c r="L72" s="9" t="n">
+        <v>91</v>
+      </c>
+      <c r="M72" s="9" t="n">
         <v>0</v>
       </c>
-      <c r="M71" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="N71" s="9" t="inlineStr"/>
-      <c r="O71" s="9" t="inlineStr"/>
-      <c r="P71" s="8" t="n">
-        <v/>
-      </c>
-      <c r="Q71" s="8" t="n">
-        <v/>
-      </c>
-      <c r="R71" s="8" t="n">
-        <v/>
-      </c>
-    </row>
-    <row r="72">
-      <c r="A72" s="8" t="inlineStr">
-        <is>
-          <t>okr</t>
-        </is>
-      </c>
-      <c r="B72" s="8" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Phát triển chất lượng nguồn lực cho team và nâng cao năng lực cá nhân trong Q3.2023
-</t>
-        </is>
-      </c>
-      <c r="C72" s="8" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Phát triển chất lượng nguồn lực cho team và nâng cao năng lực cá nhân trong Q3.2023
-</t>
-        </is>
-      </c>
-      <c r="D72" s="8" t="inlineStr">
-        <is>
-          <t>Thi đạt chứng chỉ PCAP trong tháng 9.2023</t>
-        </is>
-      </c>
-      <c r="E72" s="8" t="n"/>
-      <c r="F72" s="8" t="n"/>
-      <c r="G72" s="8" t="inlineStr">
-        <is>
-          <t>Tháng</t>
-        </is>
-      </c>
-      <c r="H72" s="8" t="inlineStr">
-        <is>
-          <t>%</t>
-        </is>
-      </c>
-      <c r="I72" s="8" t="inlineStr">
-        <is>
-          <t>=</t>
-        </is>
-      </c>
-      <c r="J72" s="8" t="inlineStr">
-        <is>
-          <t>100%</t>
-        </is>
-      </c>
-      <c r="K72" s="8" t="n">
-        <v>100</v>
-      </c>
-      <c r="L72" s="8" t="n">
-        <v/>
-      </c>
-      <c r="M72" s="8" t="n">
-        <v/>
-      </c>
-      <c r="N72" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="O72" s="8" t="n">
-        <v/>
-      </c>
-      <c r="P72" s="8" t="n"/>
-      <c r="Q72" s="8" t="n"/>
-      <c r="R72" s="8" t="inlineStr"/>
-    </row>
-    <row r="73">
-      <c r="A73" s="2" t="n"/>
-      <c r="B73" s="8" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Phát triển chất lượng nguồn lực cho team và nâng cao năng lực cá nhân trong Q3.2023
-</t>
-        </is>
-      </c>
-      <c r="C73" s="8" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Phát triển chất lượng nguồn lực cho team và nâng cao năng lực cá nhân trong Q3.2023
-</t>
-        </is>
-      </c>
-      <c r="D73" s="8" t="inlineStr">
-        <is>
-          <t>Hoàn thành nghiên cứu, xây dựng kế hoạch và triển khai một công nghệ mới trong dự án Happy Connect trong tháng 08.2023</t>
-        </is>
-      </c>
-      <c r="E73" s="8" t="n"/>
-      <c r="F73" s="8" t="n"/>
-      <c r="G73" s="8" t="inlineStr">
-        <is>
-          <t>Tháng</t>
-        </is>
-      </c>
-      <c r="H73" s="8" t="inlineStr">
-        <is>
-          <t>%</t>
-        </is>
-      </c>
-      <c r="I73" s="8" t="inlineStr">
-        <is>
-          <t>=</t>
-        </is>
-      </c>
-      <c r="J73" s="8" t="inlineStr">
-        <is>
-          <t>100%</t>
-        </is>
-      </c>
-      <c r="K73" s="8" t="n">
-        <v>100</v>
-      </c>
-      <c r="L73" s="8" t="n">
-        <v/>
-      </c>
-      <c r="M73" s="8" t="n">
-        <v/>
-      </c>
-      <c r="N73" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="O73" s="8" t="n">
-        <v/>
-      </c>
-      <c r="P73" s="8" t="n"/>
-      <c r="Q73" s="8" t="n"/>
-      <c r="R73" s="8" t="inlineStr"/>
-    </row>
-    <row r="74">
-      <c r="A74" s="2" t="n"/>
-      <c r="B74" s="8" t="inlineStr">
-        <is>
-          <t>Hoàn thành phát triển các tính năng cho dự án Happy connect  trong Q3.2023</t>
-        </is>
-      </c>
-      <c r="C74" s="8" t="inlineStr">
-        <is>
-          <t>Hoàn thành phát triển các tính năng cho dự án Happy connect  trong Q3.2023</t>
-        </is>
-      </c>
-      <c r="D74" s="8" t="inlineStr">
-        <is>
-          <t>Hoàn thành xây dựng dashboard đầu tư và đánh giá hạ tầng, IP Pool</t>
-        </is>
-      </c>
-      <c r="E74" s="8" t="n"/>
-      <c r="F74" s="8" t="n"/>
-      <c r="G74" s="8" t="inlineStr">
-        <is>
-          <t>Tháng</t>
-        </is>
-      </c>
-      <c r="H74" s="8" t="inlineStr">
-        <is>
-          <t>%</t>
-        </is>
-      </c>
-      <c r="I74" s="8" t="inlineStr">
-        <is>
-          <t>=</t>
-        </is>
-      </c>
-      <c r="J74" s="8" t="inlineStr">
-        <is>
-          <t>100%</t>
-        </is>
-      </c>
-      <c r="K74" s="8" t="n">
-        <v>100</v>
-      </c>
-      <c r="L74" s="8" t="n">
-        <v/>
-      </c>
-      <c r="M74" s="8" t="n">
-        <v/>
-      </c>
-      <c r="N74" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="O74" s="8" t="n">
-        <v/>
-      </c>
-      <c r="P74" s="8" t="n"/>
-      <c r="Q74" s="8" t="n"/>
-      <c r="R74" s="8" t="inlineStr"/>
-    </row>
-    <row r="75">
-      <c r="A75" s="2" t="n"/>
-      <c r="B75" s="8" t="inlineStr">
-        <is>
-          <t>Hoàn thành phát triển các tính năng cho dự án Happy connect  trong Q3.2023</t>
-        </is>
-      </c>
-      <c r="C75" s="8" t="inlineStr">
-        <is>
-          <t>Hoàn thành phát triển các tính năng cho dự án Happy connect  trong Q3.2023</t>
-        </is>
-      </c>
-      <c r="D75" s="8" t="inlineStr">
-        <is>
-          <t>Hoàn thành release các tính năng theo kế hoạch dự án HappyConnect trong quý 3</t>
-        </is>
-      </c>
-      <c r="E75" s="8" t="n"/>
-      <c r="F75" s="8" t="n"/>
-      <c r="G75" s="8" t="inlineStr">
-        <is>
-          <t>Tháng</t>
-        </is>
-      </c>
-      <c r="H75" s="8" t="inlineStr">
-        <is>
-          <t>%</t>
-        </is>
-      </c>
-      <c r="I75" s="8" t="inlineStr">
-        <is>
-          <t>=</t>
-        </is>
-      </c>
-      <c r="J75" s="8" t="inlineStr">
-        <is>
-          <t>100%</t>
-        </is>
-      </c>
-      <c r="K75" s="8" t="n">
-        <v>100</v>
-      </c>
-      <c r="L75" s="8" t="n">
-        <v/>
-      </c>
-      <c r="M75" s="8" t="n">
-        <v/>
-      </c>
-      <c r="N75" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="O75" s="8" t="n">
-        <v/>
-      </c>
-      <c r="P75" s="8" t="n"/>
-      <c r="Q75" s="8" t="n"/>
-      <c r="R75" s="8" t="inlineStr"/>
-    </row>
-    <row r="76">
-      <c r="A76" s="8" t="n">
-        <v/>
-      </c>
-      <c r="B76" s="8" t="n">
-        <v/>
-      </c>
-      <c r="C76" s="8" t="n">
-        <v/>
-      </c>
-      <c r="D76" s="8" t="n">
-        <v/>
-      </c>
-      <c r="E76" s="8" t="n">
-        <v/>
-      </c>
-      <c r="F76" s="8" t="n">
-        <v/>
-      </c>
-      <c r="G76" s="8" t="n">
-        <v/>
-      </c>
-      <c r="H76" s="8" t="n">
-        <v/>
-      </c>
-      <c r="I76" s="8" t="n">
-        <v/>
-      </c>
-      <c r="J76" s="8" t="n">
-        <v/>
-      </c>
-      <c r="K76" s="9" t="n">
-        <v>400</v>
-      </c>
-      <c r="L76" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="M76" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="N76" s="9" t="n">
+      <c r="N72" s="9" t="n">
         <v>184</v>
       </c>
-      <c r="O76" s="9" t="inlineStr"/>
-      <c r="P76" s="8" t="n">
-        <v/>
-      </c>
-      <c r="Q76" s="8" t="n">
-        <v/>
-      </c>
-      <c r="R76" s="8" t="n">
+      <c r="O72" s="9" t="n">
+        <v>147</v>
+      </c>
+      <c r="P72" s="8" t="n">
+        <v/>
+      </c>
+      <c r="Q72" s="8" t="n">
+        <v/>
+      </c>
+      <c r="R72" s="8" t="n">
         <v/>
       </c>
     </row>
@@ -4790,7 +5226,6 @@
     <mergeCell ref="A60:A61"/>
     <mergeCell ref="A63"/>
     <mergeCell ref="A36:A37"/>
-    <mergeCell ref="A68:A70"/>
     <mergeCell ref="A1:T1"/>
     <mergeCell ref="A31"/>
     <mergeCell ref="A12:A13"/>
@@ -4799,11 +5234,12 @@
     <mergeCell ref="A4:A5"/>
     <mergeCell ref="A7"/>
     <mergeCell ref="A20:A21"/>
-    <mergeCell ref="A72:A75"/>
+    <mergeCell ref="A68:A69"/>
     <mergeCell ref="A44:A45"/>
     <mergeCell ref="A52:A53"/>
     <mergeCell ref="A28:A29"/>
     <mergeCell ref="A55"/>
+    <mergeCell ref="A71"/>
     <mergeCell ref="A47"/>
     <mergeCell ref="A23"/>
   </mergeCells>

--- a/kpiExcelSheet/nhóm L1.xlsx
+++ b/kpiExcelSheet/nhóm L1.xlsx
@@ -511,7 +511,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R73"/>
+  <dimension ref="A1:R72"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -698,22 +698,24 @@
       </c>
       <c r="C4" s="8" t="inlineStr">
         <is>
-          <t>Tỷ lệ cam kết thời gian khắc phục lỗi từ lúc phát hiện đến khi xử lý xong &gt;= 90%</t>
+          <t>Đảm bảo chất lượng sản phẩm với số bug log trên các môi trường trong dự án OnCX, SOP, HappyConnect, Dialo, CheckMK, SmartRouting</t>
         </is>
       </c>
       <c r="D4" s="8" t="inlineStr">
         <is>
-          <t>Tỷ lệ hoàn thành xử lý lỗi vận hành đúng hạn &gt;= 90%</t>
+          <t>- Trên môi trường stg số bugs được report trong mỗi tính năng khi review code/ thực hiện dev &lt;= 5  Và - Trên môi trường UAT/ production có critical/important issue &lt;= 1 và lỗi lặp = 0</t>
         </is>
       </c>
       <c r="E4" s="8" t="inlineStr">
         <is>
-          <t>Tổng số ticket đúng hạn trong tháng/ Tổng số ticket nhận trong tháng</t>
+          <t>"- STG: số bug/tính năng khi review code/ thực hiện dev &lt;= 5
+- UAT/PROD: critical/important issue &lt;= 1 và lỗi lặp = 0
+** Không tính issue do nguyên nhân enhancement, wishlist, support"</t>
         </is>
       </c>
       <c r="F4" s="8" t="inlineStr">
         <is>
-          <t>Mail</t>
+          <t>Taiga</t>
         </is>
       </c>
       <c r="G4" s="8" t="inlineStr">
@@ -737,49 +739,69 @@
         </is>
       </c>
       <c r="K4" s="8" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="L4" s="8" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M4" s="8" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="N4" s="8" t="n">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="O4" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="P4" s="8" t="n"/>
-      <c r="Q4" s="8" t="n"/>
+        <v>16</v>
+      </c>
+      <c r="P4" s="8" t="inlineStr">
+        <is>
+          <t>- Thời gian check - fix bugs: 19h/tháng</t>
+        </is>
+      </c>
+      <c r="Q4" s="8" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+              <rFont val="&lt;openpyxl.styles.fonts.Font object&gt;&#10;Parameters:&#10;name='Arial', charset=None, family=None, b=False, i=False, strike=False, outline=None, shadow=None, condense=None, color=&lt;openpyxl.styles.colors.Color object&gt;&#10;Parameters:&#10;rgb='00FF0000', indexed=None, auto=None, theme=None, tint=0.0, type='rgb', extend=None, sz=11.0, u=None, vertAlign=None, scheme=None"/>
+            </rPr>
+            <t xml:space="preserve">Bằng chứng report bug SOP t9 : </t>
+          </r>
+          <r>
+            <rPr>
+              <rFont val="&lt;openpyxl.styles.fonts.Font object&gt;&#10;Parameters:&#10;name='Arial', charset=None, family=None, b=False, i=False, strike=False, outline=None, shadow=None, condense=None, color=&lt;openpyxl.styles.colors.Color object&gt;&#10;Parameters:&#10;rgb='006699CC', indexed=None, auto=None, theme=None, tint=0.0, type='rgb', extend=None, sz=11.0, u=None, vertAlign=None, scheme=None"/>
+            </rPr>
+            <t xml:space="preserve">https://docs.google.com/spreadsheets/d/12xRR9qnXMPQwbbMVJNh_tgojw_33x8ItlEbBmNyfmlI/edit?usp=sharing
+</t>
+          </r>
+        </is>
+      </c>
       <c r="R4" s="8" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n"/>
       <c r="B5" s="8" t="inlineStr">
         <is>
-          <t>Hoàn thành đúng tiến độ và chất lượng các Công việc phát sinh/ Seminar/ Cải tiến</t>
+          <t>Đảm bảo chất lượng sản phẩm  1. PTSP: với số bug log trên các môi trường trong dự án OnCX, SOP, HappyConnect, Dialo, CheckMK, SmartRouting 2. Vận hành: Đảm bảo cam kết thời gian khắc phục lỗi từ lúc phát hiện đến khi xử lý xong</t>
         </is>
       </c>
       <c r="C5" s="8" t="inlineStr">
         <is>
-          <t>Hoàn thành đúng tiến độ và chất lượng các Công việc phát sinh</t>
+          <t>Tỷ lệ cam kết thời gian khắc phục lỗi từ lúc phát hiện đến khi xử lý xong &gt;= 90%</t>
         </is>
       </c>
       <c r="D5" s="8" t="inlineStr">
         <is>
-          <t>Có &gt;= 1 cải tiến để nâng cao chất lượng công việc trong dự án/ môi trường hoặc semninar/ công việc phát sinh được CBQL giao</t>
+          <t>Tỷ lệ hoàn thành xử lý lỗi vận hành đúng hạn &gt;= 90%</t>
         </is>
       </c>
       <c r="E5" s="8" t="inlineStr">
         <is>
-          <t>CBQL/PM/SA confirm</t>
+          <t>Tổng số ticket đúng hạn trong tháng/ Tổng số ticket nhận trong tháng</t>
         </is>
       </c>
       <c r="F5" s="8" t="inlineStr">
         <is>
-          <t>Taiga</t>
+          <t>Mail</t>
         </is>
       </c>
       <c r="G5" s="8" t="inlineStr">
@@ -803,7 +825,7 @@
         </is>
       </c>
       <c r="K5" s="8" t="n">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="L5" s="8" t="n">
         <v>0</v>
@@ -812,16 +834,12 @@
         <v>0</v>
       </c>
       <c r="N5" s="8" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="O5" s="8" t="n">
         <v>0</v>
       </c>
-      <c r="P5" s="8" t="inlineStr">
-        <is>
-          <t>8h/tháng</t>
-        </is>
-      </c>
+      <c r="P5" s="8" t="n"/>
       <c r="Q5" s="8" t="n"/>
       <c r="R5" s="8" t="inlineStr"/>
     </row>
@@ -829,24 +847,22 @@
       <c r="A6" s="2" t="n"/>
       <c r="B6" s="8" t="inlineStr">
         <is>
-          <t>Đảm bảo chất lượng sản phẩm  1. PTSP: với số bug log trên các môi trường trong dự án OnCX, SOP, HappyConnect, Dialo, CheckMK, SmartRouting 2. Vận hành: Đảm bảo cam kết thời gian khắc phục lỗi từ lúc phát hiện đến khi xử lý xong</t>
+          <t>Hoàn thành đúng tiến độ và chất lượng các Công việc phát sinh/ Seminar/ Cải tiến</t>
         </is>
       </c>
       <c r="C6" s="8" t="inlineStr">
         <is>
-          <t>Đảm bảo chất lượng sản phẩm với số bug log trên các môi trường trong dự án OnCX, SOP, HappyConnect, Dialo, CheckMK, SmartRouting</t>
+          <t>Hoàn thành đúng tiến độ và chất lượng các Công việc phát sinh</t>
         </is>
       </c>
       <c r="D6" s="8" t="inlineStr">
         <is>
-          <t>- Trên môi trường stg số bugs được report trong mỗi tính năng khi review code/ thực hiện dev &lt;= 5  Và - Trên môi trường UAT/ production có critical/important issue &lt;= 1 và lỗi lặp = 0</t>
+          <t>Có &gt;= 1 cải tiến để nâng cao chất lượng công việc trong dự án/ môi trường hoặc semninar/ công việc phát sinh được CBQL giao</t>
         </is>
       </c>
       <c r="E6" s="8" t="inlineStr">
         <is>
-          <t>"- STG: số bug/tính năng khi review code/ thực hiện dev &lt;= 5
-- UAT/PROD: critical/important issue &lt;= 1 và lỗi lặp = 0
-** Không tính issue do nguyên nhân enhancement, wishlist, support"</t>
+          <t>CBQL/PM/SA confirm</t>
         </is>
       </c>
       <c r="F6" s="8" t="inlineStr">
@@ -875,42 +891,26 @@
         </is>
       </c>
       <c r="K6" s="8" t="n">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="L6" s="8" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="M6" s="8" t="n">
         <v>0</v>
       </c>
       <c r="N6" s="8" t="n">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="O6" s="8" t="n">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="P6" s="8" t="inlineStr">
         <is>
-          <t>- Thời gian check - fix bugs: 19h/tháng</t>
-        </is>
-      </c>
-      <c r="Q6" s="8" t="inlineStr">
-        <is>
-          <r>
-            <rPr>
-              <rFont val="&lt;openpyxl.styles.fonts.Font object&gt;&#10;Parameters:&#10;name='Arial', charset=None, family=None, b=False, i=False, strike=False, outline=None, shadow=None, condense=None, color=&lt;openpyxl.styles.colors.Color object&gt;&#10;Parameters:&#10;rgb='00FF0000', indexed=None, auto=None, theme=None, tint=0.0, type='rgb', extend=None, sz=11.0, u=None, vertAlign=None, scheme=None"/>
-            </rPr>
-            <t xml:space="preserve">Bằng chứng report bug SOP t9 : </t>
-          </r>
-          <r>
-            <rPr>
-              <rFont val="&lt;openpyxl.styles.fonts.Font object&gt;&#10;Parameters:&#10;name='Arial', charset=None, family=None, b=False, i=False, strike=False, outline=None, shadow=None, condense=None, color=&lt;openpyxl.styles.colors.Color object&gt;&#10;Parameters:&#10;rgb='006699CC', indexed=None, auto=None, theme=None, tint=0.0, type='rgb', extend=None, sz=11.0, u=None, vertAlign=None, scheme=None"/>
-            </rPr>
-            <t xml:space="preserve">https://docs.google.com/spreadsheets/d/12xRR9qnXMPQwbbMVJNh_tgojw_33x8ItlEbBmNyfmlI/edit?usp=sharing
-</t>
-          </r>
-        </is>
-      </c>
+          <t>8h/tháng</t>
+        </is>
+      </c>
+      <c r="Q6" s="8" t="n"/>
       <c r="R6" s="8" t="inlineStr"/>
     </row>
     <row r="7">
@@ -951,7 +951,7 @@
         <v>100</v>
       </c>
       <c r="M7" s="9" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="N7" s="9" t="inlineStr"/>
       <c r="O7" s="9" t="inlineStr"/>
@@ -1025,7 +1025,7 @@
         <v>81</v>
       </c>
       <c r="M8" s="8" t="n">
-        <v>0</v>
+        <v>81</v>
       </c>
       <c r="N8" s="8" t="n">
         <v>125</v>
@@ -1098,7 +1098,7 @@
         <v>81</v>
       </c>
       <c r="M9" s="9" t="n">
-        <v>0</v>
+        <v>81</v>
       </c>
       <c r="N9" s="9" t="n">
         <v>152</v>
@@ -1274,69 +1274,137 @@
       </c>
       <c r="B13" s="8" t="inlineStr">
         <is>
+          <t>Hoàn thành đúng tiến độ và chất lượng các Công việc phát sinh/ Seminar/ Cải tiến</t>
+        </is>
+      </c>
+      <c r="C13" s="8" t="inlineStr">
+        <is>
+          <t>Đảm bảo các công việc phát sinh hoàn thành đúng tiến độ và chất lượng</t>
+        </is>
+      </c>
+      <c r="D13" s="8" t="inlineStr">
+        <is>
+          <t>"- Triển khai Chatbot tra cứu thông tin dự án quản lý trên taiga tại SCC trước ngày 15.9.2023 
+- Hoàn thành POC hoặc MVP chatbot tra cứu cho mảng vận hành được BGĐ/CBQL confirm trước ngày 23.9.2023"</t>
+        </is>
+      </c>
+      <c r="E13" s="8" t="inlineStr">
+        <is>
+          <t>"- Kết quả đánh giá (metrics, survey độ hài lòng) về chatbot dự án (theo kịch bản + dùng openAI) được BGĐ confirm
+- Kế hoạch/ bài toán + metrics chatbot cho VH được BGĐ confirm"</t>
+        </is>
+      </c>
+      <c r="F13" s="8" t="inlineStr">
+        <is>
+          <t>Mail</t>
+        </is>
+      </c>
+      <c r="G13" s="8" t="inlineStr">
+        <is>
+          <t>Tháng</t>
+        </is>
+      </c>
+      <c r="H13" s="8" t="inlineStr">
+        <is>
+          <t>%</t>
+        </is>
+      </c>
+      <c r="I13" s="8" t="inlineStr">
+        <is>
+          <t>=</t>
+        </is>
+      </c>
+      <c r="J13" s="8" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="K13" s="8" t="n">
+        <v>20</v>
+      </c>
+      <c r="L13" s="8" t="n">
+        <v>50</v>
+      </c>
+      <c r="M13" s="8" t="n">
+        <v>10</v>
+      </c>
+      <c r="N13" s="8" t="n">
+        <v>27</v>
+      </c>
+      <c r="O13" s="8" t="n">
+        <v>27</v>
+      </c>
+      <c r="P13" s="8" t="n"/>
+      <c r="Q13" s="8" t="n"/>
+      <c r="R13" s="8" t="inlineStr"/>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n"/>
+      <c r="B14" s="8" t="inlineStr">
+        <is>
           <t xml:space="preserve">"Đảm bảo chất lượng sản phẩm 
 1. PTSP: với số bug log trên các môi trường trong dự án OnCX, SOP, HappyConnect, Dialo, CheckMK, SmartRouting
 2. Vận hành: Đảm bảo cam kết thời gian khắc phục lỗi từ lúc phát hiện đến khi xử lý xong"
 </t>
         </is>
       </c>
-      <c r="C13" s="8" t="inlineStr">
+      <c r="C14" s="8" t="inlineStr">
         <is>
           <t>Tỷ lệ cam kết thời gian khắc phục lỗi từ lúc phát hiện đến khi xử lý xong &gt;= 90%</t>
         </is>
       </c>
-      <c r="D13" s="8" t="inlineStr">
+      <c r="D14" s="8" t="inlineStr">
         <is>
           <t>Tỷ lệ hoàn thành xử lý lỗi vận hành đúng hạn &gt;= 90%</t>
         </is>
       </c>
-      <c r="E13" s="8" t="inlineStr">
+      <c r="E14" s="8" t="inlineStr">
         <is>
           <t>Tổng số ticket đúng hạn trong tháng/ Tổng số ticket nhận trong tháng</t>
         </is>
       </c>
-      <c r="F13" s="8" t="inlineStr">
+      <c r="F14" s="8" t="inlineStr">
         <is>
           <t>Taiga</t>
         </is>
       </c>
-      <c r="G13" s="8" t="inlineStr">
+      <c r="G14" s="8" t="inlineStr">
         <is>
           <t>Tháng</t>
         </is>
       </c>
-      <c r="H13" s="8" t="inlineStr">
+      <c r="H14" s="8" t="inlineStr">
         <is>
           <t>%</t>
         </is>
       </c>
-      <c r="I13" s="8" t="inlineStr">
+      <c r="I14" s="8" t="inlineStr">
         <is>
           <t>=</t>
         </is>
       </c>
-      <c r="J13" s="8" t="inlineStr">
+      <c r="J14" s="8" t="inlineStr">
         <is>
           <t>100%</t>
         </is>
       </c>
-      <c r="K13" s="8" t="n">
+      <c r="K14" s="8" t="n">
         <v>30</v>
       </c>
-      <c r="L13" s="8" t="n">
-        <v>100</v>
-      </c>
-      <c r="M13" s="8" t="n">
+      <c r="L14" s="8" t="n">
+        <v>100</v>
+      </c>
+      <c r="M14" s="8" t="n">
+        <v>30</v>
+      </c>
+      <c r="N14" s="8" t="n">
         <v>0</v>
       </c>
-      <c r="N13" s="8" t="n">
+      <c r="O14" s="8" t="n">
         <v>0</v>
       </c>
-      <c r="O13" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="P13" s="8" t="n"/>
-      <c r="Q13" s="8" t="inlineStr">
+      <c r="P14" s="8" t="n"/>
+      <c r="Q14" s="8" t="inlineStr">
         <is>
           <r>
             <rPr>
@@ -1353,11 +1421,11 @@
           </r>
         </is>
       </c>
-      <c r="R13" s="8" t="inlineStr"/>
-    </row>
-    <row r="14">
-      <c r="A14" s="2" t="n"/>
-      <c r="B14" s="8" t="inlineStr">
+      <c r="R14" s="8" t="inlineStr"/>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n"/>
+      <c r="B15" s="8" t="inlineStr">
         <is>
           <t xml:space="preserve">"Đảm bảo chất lượng sản phẩm 
 1. PTSP: với số bug log trên các môi trường trong dự án OnCX, SOP, HappyConnect, Dialo, CheckMK, SmartRouting
@@ -1365,67 +1433,67 @@
 </t>
         </is>
       </c>
-      <c r="C14" s="8" t="inlineStr">
+      <c r="C15" s="8" t="inlineStr">
         <is>
           <t>Đảm bảo chất lượng sản phẩm với số bug log trên các môi trường trong dự án OnCX, SOP, HappyConnect, Dialo, CheckMK, SmartRouting</t>
         </is>
       </c>
-      <c r="D14" s="8" t="inlineStr">
+      <c r="D15" s="8" t="inlineStr">
         <is>
           <t>"- Trên môi trường stg số bugs được report trong mỗi tính năng khi review code/ thực hiện dev &lt;= 5 
 Và
 - Trên môi trường UAT/ production có critical/important issue &lt;= 1 và lỗi lặp = 0"</t>
         </is>
       </c>
-      <c r="E14" s="8" t="inlineStr">
+      <c r="E15" s="8" t="inlineStr">
         <is>
           <t>"- STG: số bug/tính năng khi review code/ thực hiện dev &lt;= 5
 - UAT/PROD: critical/important issue &lt;= 1 và lỗi lặp = 0
 ** Không tính issue do nguyên nhân enhancement, wishlist, support"</t>
         </is>
       </c>
-      <c r="F14" s="8" t="inlineStr">
+      <c r="F15" s="8" t="inlineStr">
         <is>
           <t>Taiga</t>
         </is>
       </c>
-      <c r="G14" s="8" t="inlineStr">
+      <c r="G15" s="8" t="inlineStr">
         <is>
           <t>Tháng</t>
         </is>
       </c>
-      <c r="H14" s="8" t="inlineStr">
+      <c r="H15" s="8" t="inlineStr">
         <is>
           <t>%</t>
         </is>
       </c>
-      <c r="I14" s="8" t="inlineStr">
+      <c r="I15" s="8" t="inlineStr">
         <is>
           <t>=</t>
         </is>
       </c>
-      <c r="J14" s="8" t="inlineStr">
+      <c r="J15" s="8" t="inlineStr">
         <is>
           <t>100%</t>
         </is>
       </c>
-      <c r="K14" s="8" t="n">
+      <c r="K15" s="8" t="n">
         <v>50</v>
       </c>
-      <c r="L14" s="8" t="n">
-        <v>100</v>
-      </c>
-      <c r="M14" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="N14" s="8" t="n">
+      <c r="L15" s="8" t="n">
+        <v>100</v>
+      </c>
+      <c r="M15" s="8" t="n">
+        <v>50</v>
+      </c>
+      <c r="N15" s="8" t="n">
         <v>20</v>
       </c>
-      <c r="O14" s="8" t="n">
+      <c r="O15" s="8" t="n">
         <v>20</v>
       </c>
-      <c r="P14" s="8" t="n"/>
-      <c r="Q14" s="8" t="inlineStr">
+      <c r="P15" s="8" t="n"/>
+      <c r="Q15" s="8" t="inlineStr">
         <is>
           <r>
             <rPr>
@@ -1442,74 +1510,6 @@
           </r>
         </is>
       </c>
-      <c r="R14" s="8" t="inlineStr"/>
-    </row>
-    <row r="15">
-      <c r="A15" s="2" t="n"/>
-      <c r="B15" s="8" t="inlineStr">
-        <is>
-          <t>Hoàn thành đúng tiến độ và chất lượng các Công việc phát sinh/ Seminar/ Cải tiến</t>
-        </is>
-      </c>
-      <c r="C15" s="8" t="inlineStr">
-        <is>
-          <t>Đảm bảo các công việc phát sinh hoàn thành đúng tiến độ và chất lượng</t>
-        </is>
-      </c>
-      <c r="D15" s="8" t="inlineStr">
-        <is>
-          <t>"- Triển khai Chatbot tra cứu thông tin dự án quản lý trên taiga tại SCC trước ngày 15.9.2023 
-- Hoàn thành POC hoặc MVP chatbot tra cứu cho mảng vận hành được BGĐ/CBQL confirm trước ngày 23.9.2023"</t>
-        </is>
-      </c>
-      <c r="E15" s="8" t="inlineStr">
-        <is>
-          <t>"- Kết quả đánh giá (metrics, survey độ hài lòng) về chatbot dự án (theo kịch bản + dùng openAI) được BGĐ confirm
-- Kế hoạch/ bài toán + metrics chatbot cho VH được BGĐ confirm"</t>
-        </is>
-      </c>
-      <c r="F15" s="8" t="inlineStr">
-        <is>
-          <t>Mail</t>
-        </is>
-      </c>
-      <c r="G15" s="8" t="inlineStr">
-        <is>
-          <t>Tháng</t>
-        </is>
-      </c>
-      <c r="H15" s="8" t="inlineStr">
-        <is>
-          <t>%</t>
-        </is>
-      </c>
-      <c r="I15" s="8" t="inlineStr">
-        <is>
-          <t>=</t>
-        </is>
-      </c>
-      <c r="J15" s="8" t="inlineStr">
-        <is>
-          <t>100%</t>
-        </is>
-      </c>
-      <c r="K15" s="8" t="n">
-        <v>20</v>
-      </c>
-      <c r="L15" s="8" t="n">
-        <v>50</v>
-      </c>
-      <c r="M15" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="N15" s="8" t="n">
-        <v>27</v>
-      </c>
-      <c r="O15" s="8" t="n">
-        <v>27</v>
-      </c>
-      <c r="P15" s="8" t="n"/>
-      <c r="Q15" s="8" t="n"/>
       <c r="R15" s="8" t="inlineStr"/>
     </row>
     <row r="16">
@@ -1550,7 +1550,7 @@
         <v>250</v>
       </c>
       <c r="M16" s="9" t="n">
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="N16" s="9" t="inlineStr"/>
       <c r="O16" s="9" t="inlineStr"/>
@@ -1628,7 +1628,7 @@
         <v>100</v>
       </c>
       <c r="M17" s="8" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N17" s="8" t="n">
         <v>105</v>
@@ -1694,7 +1694,7 @@
         <v>100</v>
       </c>
       <c r="M18" s="9" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N18" s="9" t="n">
         <v>152</v>
@@ -1919,10 +1919,10 @@
         <v>30</v>
       </c>
       <c r="L22" s="8" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M22" s="8" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="N22" s="8" t="n">
         <v>0</v>
@@ -1931,7 +1931,23 @@
         <v>0</v>
       </c>
       <c r="P22" s="8" t="n"/>
-      <c r="Q22" s="8" t="n"/>
+      <c r="Q22" s="8" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+              <rFont val="&lt;openpyxl.styles.fonts.Font object&gt;&#10;Parameters:&#10;name='Arial', charset=None, family=None, b=False, i=False, strike=False, outline=None, shadow=None, condense=None, color=&lt;openpyxl.styles.colors.Color object&gt;&#10;Parameters:&#10;rgb='00FF0000', indexed=None, auto=None, theme=None, tint=0.0, type='rgb', extend=None, sz=11.0, u=None, vertAlign=None, scheme=None"/>
+            </rPr>
+            <t xml:space="preserve">OKR_KPI-Khối-RnD-Q3 T9_2023 v2.1 : </t>
+          </r>
+          <r>
+            <rPr>
+              <rFont val="&lt;openpyxl.styles.fonts.Font object&gt;&#10;Parameters:&#10;name='Arial', charset=None, family=None, b=False, i=False, strike=False, outline=None, shadow=None, condense=None, color=&lt;openpyxl.styles.colors.Color object&gt;&#10;Parameters:&#10;rgb='006699CC', indexed=None, auto=None, theme=None, tint=0.0, type='rgb', extend=None, sz=11.0, u=None, vertAlign=None, scheme=None"/>
+            </rPr>
+            <t xml:space="preserve">https://docs.google.com/spreadsheets/d/1wEPQxr2J6592aMIVkW9k_YaoqMfNFFmS/edit#gid=70879363
+</t>
+          </r>
+        </is>
+      </c>
       <c r="R22" s="8" t="inlineStr"/>
     </row>
     <row r="23">
@@ -1985,19 +2001,35 @@
         <v>20</v>
       </c>
       <c r="L23" s="8" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M23" s="8" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="N23" s="8" t="n">
         <v>32</v>
       </c>
       <c r="O23" s="8" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="P23" s="8" t="n"/>
-      <c r="Q23" s="8" t="n"/>
+      <c r="Q23" s="8" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+              <rFont val="&lt;openpyxl.styles.fonts.Font object&gt;&#10;Parameters:&#10;name='Arial', charset=None, family=None, b=False, i=False, strike=False, outline=None, shadow=None, condense=None, color=&lt;openpyxl.styles.colors.Color object&gt;&#10;Parameters:&#10;rgb='00FF0000', indexed=None, auto=None, theme=None, tint=0.0, type='rgb', extend=None, sz=11.0, u=None, vertAlign=None, scheme=None"/>
+            </rPr>
+            <t xml:space="preserve">Bằng chứng mail xác nhận : </t>
+          </r>
+          <r>
+            <rPr>
+              <rFont val="&lt;openpyxl.styles.fonts.Font object&gt;&#10;Parameters:&#10;name='Arial', charset=None, family=None, b=False, i=False, strike=False, outline=None, shadow=None, condense=None, color=&lt;openpyxl.styles.colors.Color object&gt;&#10;Parameters:&#10;rgb='006699CC', indexed=None, auto=None, theme=None, tint=0.0, type='rgb', extend=None, sz=11.0, u=None, vertAlign=None, scheme=None"/>
+            </rPr>
+            <t xml:space="preserve">https://drive.google.com/drive/folders/1P30Iow4xiShEvEFgfIfZvFFqjQeIllH3?usp=drive_link
+</t>
+          </r>
+        </is>
+      </c>
       <c r="R23" s="8" t="inlineStr"/>
     </row>
     <row r="24">
@@ -2057,23 +2089,39 @@
         <v>50</v>
       </c>
       <c r="L24" s="8" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M24" s="8" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="N24" s="8" t="n">
         <v>20</v>
       </c>
       <c r="O24" s="8" t="n">
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="P24" s="8" t="inlineStr">
         <is>
           <t>Thời gian check - fix bugs: 20h/tháng</t>
         </is>
       </c>
-      <c r="Q24" s="8" t="n"/>
+      <c r="Q24" s="8" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+              <rFont val="&lt;openpyxl.styles.fonts.Font object&gt;&#10;Parameters:&#10;name='Arial', charset=None, family=None, b=False, i=False, strike=False, outline=None, shadow=None, condense=None, color=&lt;openpyxl.styles.colors.Color object&gt;&#10;Parameters:&#10;rgb='00FF0000', indexed=None, auto=None, theme=None, tint=0.0, type='rgb', extend=None, sz=11.0, u=None, vertAlign=None, scheme=None"/>
+            </rPr>
+            <t xml:space="preserve">Bằng chứng SOP Tháng 9 : </t>
+          </r>
+          <r>
+            <rPr>
+              <rFont val="&lt;openpyxl.styles.fonts.Font object&gt;&#10;Parameters:&#10;name='Arial', charset=None, family=None, b=False, i=False, strike=False, outline=None, shadow=None, condense=None, color=&lt;openpyxl.styles.colors.Color object&gt;&#10;Parameters:&#10;rgb='006699CC', indexed=None, auto=None, theme=None, tint=0.0, type='rgb', extend=None, sz=11.0, u=None, vertAlign=None, scheme=None"/>
+            </rPr>
+            <t xml:space="preserve">https://docs.google.com/spreadsheets/d/12xRR9qnXMPQwbbMVJNh_tgojw_33x8ItlEbBmNyfmlI/edit?usp=drive_link
+</t>
+          </r>
+        </is>
+      </c>
       <c r="R24" s="8" t="inlineStr"/>
     </row>
     <row r="25">
@@ -2111,10 +2159,10 @@
         <v>100</v>
       </c>
       <c r="L25" s="9" t="n">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="M25" s="9" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N25" s="9" t="inlineStr"/>
       <c r="O25" s="9" t="inlineStr"/>
@@ -2189,16 +2237,16 @@
         <v>100</v>
       </c>
       <c r="L26" s="8" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M26" s="8" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N26" s="8" t="n">
         <v>100</v>
       </c>
       <c r="O26" s="8" t="n">
-        <v>0</v>
+        <v>104</v>
       </c>
       <c r="P26" s="8" t="inlineStr">
         <is>
@@ -2208,7 +2256,23 @@
 - Code tính năng: 4-5h/ngày * 19 = 80h/tháng"</t>
         </is>
       </c>
-      <c r="Q26" s="8" t="n"/>
+      <c r="Q26" s="8" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+              <rFont val="&lt;openpyxl.styles.fonts.Font object&gt;&#10;Parameters:&#10;name='Arial', charset=None, family=None, b=False, i=False, strike=False, outline=None, shadow=None, condense=None, color=&lt;openpyxl.styles.colors.Color object&gt;&#10;Parameters:&#10;rgb='00FF0000', indexed=None, auto=None, theme=None, tint=0.0, type='rgb', extend=None, sz=11.0, u=None, vertAlign=None, scheme=None"/>
+            </rPr>
+            <t xml:space="preserve">Bằng chứng SOP Tháng 9 : </t>
+          </r>
+          <r>
+            <rPr>
+              <rFont val="&lt;openpyxl.styles.fonts.Font object&gt;&#10;Parameters:&#10;name='Arial', charset=None, family=None, b=False, i=False, strike=False, outline=None, shadow=None, condense=None, color=&lt;openpyxl.styles.colors.Color object&gt;&#10;Parameters:&#10;rgb='006699CC', indexed=None, auto=None, theme=None, tint=0.0, type='rgb', extend=None, sz=11.0, u=None, vertAlign=None, scheme=None"/>
+            </rPr>
+            <t xml:space="preserve">https://docs.google.com/spreadsheets/d/12xRR9qnXMPQwbbMVJNh_tgojw_33x8ItlEbBmNyfmlI/edit?usp=drive_link
+</t>
+          </r>
+        </is>
+      </c>
       <c r="R26" s="8" t="inlineStr"/>
     </row>
     <row r="27">
@@ -2246,15 +2310,17 @@
         <v>100</v>
       </c>
       <c r="L27" s="9" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M27" s="9" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N27" s="9" t="n">
         <v>152</v>
       </c>
-      <c r="O27" s="9" t="inlineStr"/>
+      <c r="O27" s="9" t="n">
+        <v>166</v>
+      </c>
       <c r="P27" s="8" t="n">
         <v/>
       </c>
@@ -2423,22 +2489,22 @@
       </c>
       <c r="B31" s="8" t="inlineStr">
         <is>
-          <t>Hoàn thành đúng tiến độ và chất lượng các Công việc phát sinh/ Seminar/ Cải tiến</t>
+          <t>Đảm bảo chất lượng sản phẩm  1. PTSP: với số bug log trên các môi trường trong dự án OnCX, SOP, HappyConnect, Dialo, CheckMK, SmartRouting 2. Vận hành: Đảm bảo cam kết thời gian khắc phục lỗi từ lúc phát hiện đến khi xử lý xong</t>
         </is>
       </c>
       <c r="C31" s="8" t="inlineStr">
         <is>
-          <t>Hoàn thành đúng tiến độ và chất lượng các Công việc phát sinh</t>
+          <t>Tỷ lệ cam kết thời gian khắc phục lỗi từ lúc phát hiện đến khi xử lý xong &gt;= 90%</t>
         </is>
       </c>
       <c r="D31" s="8" t="inlineStr">
         <is>
-          <t>Có &gt;= 1 cải tiến để nâng cao chất lượng công việc trong dự án/ môi trường hoặc semninar/ công việc phát sinh được CBQL giao</t>
+          <t>Tỷ lệ hoàn thành xử lý lỗi vận hành đúng hạn &gt;= 90%</t>
         </is>
       </c>
       <c r="E31" s="8" t="inlineStr">
         <is>
-          <t>CBQL/PM/SA confirm</t>
+          <t>Tổng số ticket đúng hạn trong tháng/ Tổng số ticket nhận trong tháng</t>
         </is>
       </c>
       <c r="F31" s="8" t="inlineStr">
@@ -2453,7 +2519,7 @@
       </c>
       <c r="H31" s="8" t="inlineStr">
         <is>
-          <t>Đạt/Không đạt</t>
+          <t>%</t>
         </is>
       </c>
       <c r="I31" s="8" t="inlineStr">
@@ -2463,55 +2529,26 @@
       </c>
       <c r="J31" s="8" t="inlineStr">
         <is>
-          <t>Đạt</t>
+          <t>100%</t>
         </is>
       </c>
       <c r="K31" s="8" t="n">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="L31" s="8" t="n">
         <v>100</v>
       </c>
       <c r="M31" s="8" t="n">
+        <v>30</v>
+      </c>
+      <c r="N31" s="8" t="n">
         <v>0</v>
       </c>
-      <c r="N31" s="8" t="n">
-        <v>8</v>
-      </c>
       <c r="O31" s="8" t="n">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="P31" s="8" t="n"/>
-      <c r="Q31" s="8" t="inlineStr">
-        <is>
-          <r>
-            <rPr>
-              <rFont val="&lt;openpyxl.styles.fonts.Font object&gt;&#10;Parameters:&#10;name='Arial', charset=None, family=None, b=False, i=False, strike=False, outline=None, shadow=None, condense=None, color=&lt;openpyxl.styles.colors.Color object&gt;&#10;Parameters:&#10;rgb='00FF0000', indexed=None, auto=None, theme=None, tint=0.0, type='rgb', extend=None, sz=11.0, u=None, vertAlign=None, scheme=None"/>
-            </rPr>
-            <t xml:space="preserve">Bằng chứng : </t>
-          </r>
-          <r>
-            <rPr>
-              <rFont val="&lt;openpyxl.styles.fonts.Font object&gt;&#10;Parameters:&#10;name='Arial', charset=None, family=None, b=False, i=False, strike=False, outline=None, shadow=None, condense=None, color=&lt;openpyxl.styles.colors.Color object&gt;&#10;Parameters:&#10;rgb='006699CC', indexed=None, auto=None, theme=None, tint=0.0, type='rgb', extend=None, sz=11.0, u=None, vertAlign=None, scheme=None"/>
-            </rPr>
-            <t xml:space="preserve">https://docs.google.com/spreadsheets/d/170ONkFWbrq8_zJ3w127CT6IihJr19tmr5KyMpAQMw5A/edit#gid=0
-</t>
-          </r>
-          <r>
-            <rPr>
-              <rFont val="&lt;openpyxl.styles.fonts.Font object&gt;&#10;Parameters:&#10;name='Arial', charset=None, family=None, b=False, i=False, strike=False, outline=None, shadow=None, condense=None, color=&lt;openpyxl.styles.colors.Color object&gt;&#10;Parameters:&#10;rgb='00FF0000', indexed=None, auto=None, theme=None, tint=0.0, type='rgb', extend=None, sz=11.0, u=None, vertAlign=None, scheme=None"/>
-            </rPr>
-            <t xml:space="preserve">Bằng chứng task : </t>
-          </r>
-          <r>
-            <rPr>
-              <rFont val="&lt;openpyxl.styles.fonts.Font object&gt;&#10;Parameters:&#10;name='Arial', charset=None, family=None, b=False, i=False, strike=False, outline=None, shadow=None, condense=None, color=&lt;openpyxl.styles.colors.Color object&gt;&#10;Parameters:&#10;rgb='006699CC', indexed=None, auto=None, theme=None, tint=0.0, type='rgb', extend=None, sz=11.0, u=None, vertAlign=None, scheme=None"/>
-            </rPr>
-            <t xml:space="preserve">https://docs.google.com/spreadsheets/d/1itq3wm3wMFZwx8TMOOhmL5yflVTO8ThmgrynaDTCzw8/edit#gid=313670827
-</t>
-          </r>
-        </is>
-      </c>
+      <c r="Q31" s="8" t="n"/>
       <c r="R31" s="8" t="inlineStr"/>
     </row>
     <row r="32">
@@ -2523,22 +2560,24 @@
       </c>
       <c r="C32" s="8" t="inlineStr">
         <is>
-          <t>Tỷ lệ cam kết thời gian khắc phục lỗi từ lúc phát hiện đến khi xử lý xong &gt;= 90%</t>
+          <t>Đảm bảo chất lượng sản phẩm với số bug log trên các môi trường trong dự án OnCX, SOP, HappyConnect, Dialo, CheckMK, SmartRouting</t>
         </is>
       </c>
       <c r="D32" s="8" t="inlineStr">
         <is>
-          <t>Tỷ lệ hoàn thành xử lý lỗi vận hành đúng hạn &gt;= 90%</t>
+          <t>- Trên môi trường stg số bugs được report trong mỗi tính năng khi review code/ thực hiện dev &lt;= 5  Và - Trên môi trường UAT/ production có critical/important issue &lt;= 1 và lỗi lặp = 0</t>
         </is>
       </c>
       <c r="E32" s="8" t="inlineStr">
         <is>
-          <t>Tổng số ticket đúng hạn trong tháng/ Tổng số ticket nhận trong tháng</t>
+          <t>- STG: số bug/tính năng khi review code/ thực hiện dev &lt;= 5
+- UAT/PROD: critical/important issue &lt;= 1 và lỗi lặp = 0
+** Không tính issue do nguyên nhân enhancement, wishlist, support</t>
         </is>
       </c>
       <c r="F32" s="8" t="inlineStr">
         <is>
-          <t>Mail</t>
+          <t>Taiga</t>
         </is>
       </c>
       <c r="G32" s="8" t="inlineStr">
@@ -2562,51 +2601,65 @@
         </is>
       </c>
       <c r="K32" s="8" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="L32" s="8" t="n">
         <v>100</v>
       </c>
       <c r="M32" s="8" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="N32" s="8" t="n">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="O32" s="8" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="P32" s="8" t="n"/>
-      <c r="Q32" s="8" t="n"/>
+      <c r="Q32" s="8" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+              <rFont val="&lt;openpyxl.styles.fonts.Font object&gt;&#10;Parameters:&#10;name='Arial', charset=None, family=None, b=False, i=False, strike=False, outline=None, shadow=None, condense=None, color=&lt;openpyxl.styles.colors.Color object&gt;&#10;Parameters:&#10;rgb='00FF0000', indexed=None, auto=None, theme=None, tint=0.0, type='rgb', extend=None, sz=11.0, u=None, vertAlign=None, scheme=None"/>
+            </rPr>
+            <t xml:space="preserve">Bằng chứng : </t>
+          </r>
+          <r>
+            <rPr>
+              <rFont val="&lt;openpyxl.styles.fonts.Font object&gt;&#10;Parameters:&#10;name='Arial', charset=None, family=None, b=False, i=False, strike=False, outline=None, shadow=None, condense=None, color=&lt;openpyxl.styles.colors.Color object&gt;&#10;Parameters:&#10;rgb='006699CC', indexed=None, auto=None, theme=None, tint=0.0, type='rgb', extend=None, sz=11.0, u=None, vertAlign=None, scheme=None"/>
+            </rPr>
+            <t xml:space="preserve">https://docs.google.com/spreadsheets/d/170ONkFWbrq8_zJ3w127CT6IihJr19tmr5KyMpAQMw5A/edit#gid=0
+</t>
+          </r>
+        </is>
+      </c>
       <c r="R32" s="8" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="2" t="n"/>
       <c r="B33" s="8" t="inlineStr">
         <is>
-          <t>Đảm bảo chất lượng sản phẩm  1. PTSP: với số bug log trên các môi trường trong dự án OnCX, SOP, HappyConnect, Dialo, CheckMK, SmartRouting 2. Vận hành: Đảm bảo cam kết thời gian khắc phục lỗi từ lúc phát hiện đến khi xử lý xong</t>
+          <t>Hoàn thành đúng tiến độ và chất lượng các Công việc phát sinh/ Seminar/ Cải tiến</t>
         </is>
       </c>
       <c r="C33" s="8" t="inlineStr">
         <is>
-          <t>Đảm bảo chất lượng sản phẩm với số bug log trên các môi trường trong dự án OnCX, SOP, HappyConnect, Dialo, CheckMK, SmartRouting</t>
+          <t>Hoàn thành đúng tiến độ và chất lượng các Công việc phát sinh</t>
         </is>
       </c>
       <c r="D33" s="8" t="inlineStr">
         <is>
-          <t>- Trên môi trường stg số bugs được report trong mỗi tính năng khi review code/ thực hiện dev &lt;= 5  Và - Trên môi trường UAT/ production có critical/important issue &lt;= 1 và lỗi lặp = 0</t>
+          <t>Có &gt;= 1 cải tiến để nâng cao chất lượng công việc trong dự án/ môi trường hoặc semninar/ công việc phát sinh được CBQL giao</t>
         </is>
       </c>
       <c r="E33" s="8" t="inlineStr">
         <is>
-          <t>- STG: số bug/tính năng khi review code/ thực hiện dev &lt;= 5
-- UAT/PROD: critical/important issue &lt;= 1 và lỗi lặp = 0
-** Không tính issue do nguyên nhân enhancement, wishlist, support</t>
+          <t>CBQL/PM/SA confirm</t>
         </is>
       </c>
       <c r="F33" s="8" t="inlineStr">
         <is>
-          <t>Taiga</t>
+          <t>Mail</t>
         </is>
       </c>
       <c r="G33" s="8" t="inlineStr">
@@ -2616,7 +2669,7 @@
       </c>
       <c r="H33" s="8" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>Đạt/Không đạt</t>
         </is>
       </c>
       <c r="I33" s="8" t="inlineStr">
@@ -2626,23 +2679,23 @@
       </c>
       <c r="J33" s="8" t="inlineStr">
         <is>
-          <t>100%</t>
+          <t>Đạt</t>
         </is>
       </c>
       <c r="K33" s="8" t="n">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="L33" s="8" t="n">
         <v>100</v>
       </c>
       <c r="M33" s="8" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="N33" s="8" t="n">
-        <v>40</v>
+        <v>8</v>
       </c>
       <c r="O33" s="8" t="n">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="P33" s="8" t="n"/>
       <c r="Q33" s="8" t="inlineStr">
@@ -2660,6 +2713,19 @@
             <t xml:space="preserve">https://docs.google.com/spreadsheets/d/170ONkFWbrq8_zJ3w127CT6IihJr19tmr5KyMpAQMw5A/edit#gid=0
 </t>
           </r>
+          <r>
+            <rPr>
+              <rFont val="&lt;openpyxl.styles.fonts.Font object&gt;&#10;Parameters:&#10;name='Arial', charset=None, family=None, b=False, i=False, strike=False, outline=None, shadow=None, condense=None, color=&lt;openpyxl.styles.colors.Color object&gt;&#10;Parameters:&#10;rgb='00FF0000', indexed=None, auto=None, theme=None, tint=0.0, type='rgb', extend=None, sz=11.0, u=None, vertAlign=None, scheme=None"/>
+            </rPr>
+            <t xml:space="preserve">Bằng chứng task : </t>
+          </r>
+          <r>
+            <rPr>
+              <rFont val="&lt;openpyxl.styles.fonts.Font object&gt;&#10;Parameters:&#10;name='Arial', charset=None, family=None, b=False, i=False, strike=False, outline=None, shadow=None, condense=None, color=&lt;openpyxl.styles.colors.Color object&gt;&#10;Parameters:&#10;rgb='006699CC', indexed=None, auto=None, theme=None, tint=0.0, type='rgb', extend=None, sz=11.0, u=None, vertAlign=None, scheme=None"/>
+            </rPr>
+            <t xml:space="preserve">https://docs.google.com/spreadsheets/d/1itq3wm3wMFZwx8TMOOhmL5yflVTO8ThmgrynaDTCzw8/edit#gid=313670827
+</t>
+          </r>
         </is>
       </c>
       <c r="R33" s="8" t="inlineStr"/>
@@ -2702,7 +2768,7 @@
         <v>300</v>
       </c>
       <c r="M34" s="9" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N34" s="9" t="inlineStr"/>
       <c r="O34" s="9" t="inlineStr"/>
@@ -2739,121 +2805,53 @@
       </c>
       <c r="E35" s="8" t="inlineStr">
         <is>
-          <t>"100% US/ sprint hoàn thành thỏa cả 2 điều kiện:
-- Có bằng chứng dev intergration test/ unittest ở mt dev
-- Tester test pass các US trên mt stg"</t>
-        </is>
-      </c>
-      <c r="F35" s="8" t="inlineStr">
-        <is>
-          <t>Taiga</t>
-        </is>
-      </c>
-      <c r="G35" s="8" t="inlineStr">
-        <is>
-          <t>quarter</t>
-        </is>
-      </c>
-      <c r="H35" s="8" t="inlineStr">
-        <is>
-          <t>%</t>
-        </is>
-      </c>
-      <c r="I35" s="8" t="inlineStr">
-        <is>
-          <t>=</t>
-        </is>
-      </c>
-      <c r="J35" s="8" t="inlineStr">
-        <is>
-          <t>100%</t>
-        </is>
-      </c>
-      <c r="K35" s="8" t="n">
-        <v>100</v>
-      </c>
-      <c r="L35" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="M35" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="N35" s="8" t="n">
-        <v>104</v>
-      </c>
-      <c r="O35" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="P35" s="8" t="n"/>
-      <c r="Q35" s="8" t="n"/>
-      <c r="R35" s="8" t="inlineStr"/>
-    </row>
-    <row r="36">
-      <c r="A36" s="2" t="n"/>
-      <c r="B36" s="8" t="inlineStr">
-        <is>
-          <t>Nâng cao chất lượng hoàn thành phát triển và release 100% các tính năng trong dự án trung tâm OnCX, SOP, HappyConnect, Dialo, CheckMK đúng thời hạn cam kết</t>
-        </is>
-      </c>
-      <c r="C36" s="8" t="inlineStr">
-        <is>
-          <t>Hoàn thành xây dựng dashboard đầu tư và đánh giá hạ tầng, IP Pool theo kế hoạch trong tháng 9</t>
-        </is>
-      </c>
-      <c r="D36" s="8" t="inlineStr">
-        <is>
-          <t>Đảm bảo 100% các tính năng trong sprint được giao hoàn thành đúng thời hạn dự án PoolIP - #981 Dashboard IP pool- chi tiết - #982 Tích hợp với hệ thống MPOP- cải thiện độ chính xác data</t>
-        </is>
-      </c>
-      <c r="E36" s="8" t="inlineStr">
-        <is>
           <t>100% US/ sprint hoàn thành thỏa cả 2 điều kiện:
 - Có bằng chứng dev intergration test/ unittest ở mt dev
 - Tester test pass các US trên mt stg</t>
         </is>
       </c>
-      <c r="F36" s="8" t="inlineStr">
+      <c r="F35" s="8" t="inlineStr">
         <is>
           <t>Taiga</t>
         </is>
       </c>
-      <c r="G36" s="8" t="inlineStr">
+      <c r="G35" s="8" t="inlineStr">
         <is>
           <t>Tháng</t>
         </is>
       </c>
-      <c r="H36" s="8" t="inlineStr">
+      <c r="H35" s="8" t="inlineStr">
         <is>
           <t>%</t>
         </is>
       </c>
-      <c r="I36" s="8" t="inlineStr">
+      <c r="I35" s="8" t="inlineStr">
         <is>
           <t>=</t>
         </is>
       </c>
-      <c r="J36" s="8" t="inlineStr">
+      <c r="J35" s="8" t="inlineStr">
         <is>
           <t>100%</t>
         </is>
       </c>
-      <c r="K36" s="8" t="n">
-        <v>100</v>
-      </c>
-      <c r="L36" s="8" t="n">
-        <v>100</v>
-      </c>
-      <c r="M36" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="N36" s="8" t="n">
+      <c r="K35" s="8" t="n">
+        <v>100</v>
+      </c>
+      <c r="L35" s="8" t="n">
+        <v>100</v>
+      </c>
+      <c r="M35" s="8" t="n">
+        <v>100</v>
+      </c>
+      <c r="N35" s="8" t="n">
         <v>104</v>
       </c>
-      <c r="O36" s="8" t="n">
+      <c r="O35" s="8" t="n">
         <v>114</v>
       </c>
-      <c r="P36" s="8" t="n"/>
-      <c r="Q36" s="8" t="inlineStr">
+      <c r="P35" s="8" t="n"/>
+      <c r="Q35" s="8" t="inlineStr">
         <is>
           <r>
             <rPr>
@@ -2883,70 +2881,108 @@
           </r>
         </is>
       </c>
-      <c r="R36" s="8" t="inlineStr"/>
+      <c r="R35" s="8" t="inlineStr"/>
+    </row>
+    <row r="36">
+      <c r="A36" s="8" t="n">
+        <v/>
+      </c>
+      <c r="B36" s="8" t="n">
+        <v/>
+      </c>
+      <c r="C36" s="8" t="n">
+        <v/>
+      </c>
+      <c r="D36" s="8" t="n">
+        <v/>
+      </c>
+      <c r="E36" s="8" t="n">
+        <v/>
+      </c>
+      <c r="F36" s="8" t="n">
+        <v/>
+      </c>
+      <c r="G36" s="8" t="n">
+        <v/>
+      </c>
+      <c r="H36" s="8" t="n">
+        <v/>
+      </c>
+      <c r="I36" s="8" t="n">
+        <v/>
+      </c>
+      <c r="J36" s="8" t="n">
+        <v/>
+      </c>
+      <c r="K36" s="9" t="n">
+        <v>100</v>
+      </c>
+      <c r="L36" s="9" t="n">
+        <v>100</v>
+      </c>
+      <c r="M36" s="9" t="n">
+        <v>100</v>
+      </c>
+      <c r="N36" s="9" t="n">
+        <v>152</v>
+      </c>
+      <c r="O36" s="9" t="n">
+        <v>144</v>
+      </c>
+      <c r="P36" s="8" t="n">
+        <v/>
+      </c>
+      <c r="Q36" s="8" t="n">
+        <v/>
+      </c>
+      <c r="R36" s="8" t="n">
+        <v/>
+      </c>
     </row>
     <row r="37">
-      <c r="A37" s="8" t="n">
-        <v/>
-      </c>
-      <c r="B37" s="8" t="n">
-        <v/>
-      </c>
-      <c r="C37" s="8" t="n">
-        <v/>
-      </c>
-      <c r="D37" s="8" t="n">
-        <v/>
-      </c>
-      <c r="E37" s="8" t="n">
-        <v/>
-      </c>
-      <c r="F37" s="8" t="n">
-        <v/>
-      </c>
-      <c r="G37" s="8" t="n">
-        <v/>
-      </c>
-      <c r="H37" s="8" t="n">
-        <v/>
-      </c>
-      <c r="I37" s="8" t="n">
-        <v/>
-      </c>
-      <c r="J37" s="8" t="n">
-        <v/>
-      </c>
-      <c r="K37" s="9" t="n">
-        <v>200</v>
-      </c>
-      <c r="L37" s="9" t="n">
-        <v>100</v>
-      </c>
-      <c r="M37" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="N37" s="9" t="n">
-        <v>256</v>
-      </c>
-      <c r="O37" s="9" t="n">
-        <v>144</v>
-      </c>
-      <c r="P37" s="8" t="n">
-        <v/>
-      </c>
-      <c r="Q37" s="8" t="n">
-        <v/>
-      </c>
-      <c r="R37" s="8" t="n">
-        <v/>
-      </c>
+      <c r="A37" s="2" t="n"/>
+      <c r="B37" s="2" t="n"/>
+      <c r="C37" s="2" t="n"/>
+      <c r="D37" s="2" t="n"/>
+      <c r="E37" s="2" t="n"/>
+      <c r="F37" s="2" t="n"/>
+      <c r="G37" s="2" t="n"/>
+      <c r="H37" s="2" t="n"/>
+      <c r="I37" s="2" t="n"/>
+      <c r="J37" s="2" t="n"/>
+      <c r="K37" s="2" t="n"/>
+      <c r="L37" s="2" t="n"/>
+      <c r="M37" s="2" t="n"/>
+      <c r="N37" s="2" t="n"/>
+      <c r="O37" s="2" t="n"/>
+      <c r="P37" s="2" t="n"/>
+      <c r="Q37" s="2" t="n"/>
+      <c r="R37" s="2" t="n"/>
     </row>
     <row r="38">
-      <c r="A38" s="2" t="n"/>
-      <c r="B38" s="2" t="n"/>
-      <c r="C38" s="2" t="n"/>
-      <c r="D38" s="2" t="n"/>
-      <c r="E38" s="2" t="n"/>
+      <c r="A38" s="3" t="n">
+        <v>5</v>
+      </c>
+      <c r="B38" s="3" t="inlineStr">
+        <is>
+          <t>Nguyễn Thành Nguyên</t>
+        </is>
+      </c>
+      <c r="C38" s="3" t="inlineStr">
+        <is>
+          <t>nguyennt63</t>
+        </is>
+      </c>
+      <c r="D38" s="3" t="inlineStr">
+        <is>
+          <t>L1</t>
+        </is>
+      </c>
+      <c r="E38" s="3" t="inlineStr">
+        <is>
+          <t>Team Python</t>
+        </is>
+      </c>
       <c r="F38" s="2" t="n"/>
       <c r="G38" s="2" t="n"/>
       <c r="H38" s="2" t="n"/>
@@ -2962,166 +2998,214 @@
       <c r="R38" s="2" t="n"/>
     </row>
     <row r="39">
-      <c r="A39" s="3" t="n">
-        <v>5</v>
-      </c>
-      <c r="B39" s="3" t="inlineStr">
-        <is>
-          <t>Nguyễn Thành Nguyên</t>
-        </is>
-      </c>
-      <c r="C39" s="3" t="inlineStr">
-        <is>
-          <t>nguyennt63</t>
-        </is>
-      </c>
-      <c r="D39" s="3" t="inlineStr">
-        <is>
-          <t>L1</t>
-        </is>
-      </c>
-      <c r="E39" s="3" t="inlineStr">
-        <is>
-          <t>Team Python</t>
-        </is>
-      </c>
-      <c r="F39" s="2" t="n"/>
-      <c r="G39" s="2" t="n"/>
-      <c r="H39" s="2" t="n"/>
-      <c r="I39" s="2" t="n"/>
-      <c r="J39" s="2" t="n"/>
-      <c r="K39" s="2" t="n"/>
-      <c r="L39" s="2" t="n"/>
-      <c r="M39" s="2" t="n"/>
-      <c r="N39" s="2" t="n"/>
-      <c r="O39" s="2" t="n"/>
-      <c r="P39" s="2" t="n"/>
-      <c r="Q39" s="2" t="n"/>
-      <c r="R39" s="2" t="n"/>
+      <c r="A39" s="4" t="inlineStr">
+        <is>
+          <t>Loại</t>
+        </is>
+      </c>
+      <c r="B39" s="5" t="inlineStr">
+        <is>
+          <t>KR phòng</t>
+        </is>
+      </c>
+      <c r="C39" s="5" t="inlineStr">
+        <is>
+          <t>KR team</t>
+        </is>
+      </c>
+      <c r="D39" s="5" t="inlineStr">
+        <is>
+          <t>KR cá nhân</t>
+        </is>
+      </c>
+      <c r="E39" s="5" t="inlineStr">
+        <is>
+          <t>Công thức tính</t>
+        </is>
+      </c>
+      <c r="F39" s="5" t="inlineStr">
+        <is>
+          <t>Nguồn dữ liệu</t>
+        </is>
+      </c>
+      <c r="G39" s="5" t="inlineStr">
+        <is>
+          <t>Định kỳ tính</t>
+        </is>
+      </c>
+      <c r="H39" s="5" t="inlineStr">
+        <is>
+          <t>Đơn vị tính</t>
+        </is>
+      </c>
+      <c r="I39" s="5" t="inlineStr">
+        <is>
+          <t>Điều kiện</t>
+        </is>
+      </c>
+      <c r="J39" s="5" t="inlineStr">
+        <is>
+          <t>Norm</t>
+        </is>
+      </c>
+      <c r="K39" s="6" t="inlineStr">
+        <is>
+          <t>% Trọng số chỉ tiêu</t>
+        </is>
+      </c>
+      <c r="L39" s="6" t="inlineStr">
+        <is>
+          <t>Kết quả</t>
+        </is>
+      </c>
+      <c r="M39" s="6" t="inlineStr">
+        <is>
+          <t>Tỷ lệ</t>
+        </is>
+      </c>
+      <c r="N39" s="6" t="inlineStr">
+        <is>
+          <t>Tổng thời gian dự kiến/ ước tính công việc (giờ)</t>
+        </is>
+      </c>
+      <c r="O39" s="4" t="inlineStr">
+        <is>
+          <t>Tổng thời gian thực hiện công việc thực tế (giờ)</t>
+        </is>
+      </c>
+      <c r="P39" s="6" t="inlineStr">
+        <is>
+          <t>Note dự kiến</t>
+        </is>
+      </c>
+      <c r="Q39" s="4" t="inlineStr">
+        <is>
+          <t>Note bằng chứng thực tế</t>
+        </is>
+      </c>
+      <c r="R39" s="7" t="inlineStr">
+        <is>
+          <t>QA</t>
+        </is>
+      </c>
     </row>
     <row r="40">
-      <c r="A40" s="4" t="inlineStr">
-        <is>
-          <t>Loại</t>
-        </is>
-      </c>
-      <c r="B40" s="5" t="inlineStr">
-        <is>
-          <t>KR phòng</t>
-        </is>
-      </c>
-      <c r="C40" s="5" t="inlineStr">
-        <is>
-          <t>KR team</t>
-        </is>
-      </c>
-      <c r="D40" s="5" t="inlineStr">
-        <is>
-          <t>KR cá nhân</t>
-        </is>
-      </c>
-      <c r="E40" s="5" t="inlineStr">
-        <is>
-          <t>Công thức tính</t>
-        </is>
-      </c>
-      <c r="F40" s="5" t="inlineStr">
-        <is>
-          <t>Nguồn dữ liệu</t>
-        </is>
-      </c>
-      <c r="G40" s="5" t="inlineStr">
-        <is>
-          <t>Định kỳ tính</t>
-        </is>
-      </c>
-      <c r="H40" s="5" t="inlineStr">
-        <is>
-          <t>Đơn vị tính</t>
-        </is>
-      </c>
-      <c r="I40" s="5" t="inlineStr">
-        <is>
-          <t>Điều kiện</t>
-        </is>
-      </c>
-      <c r="J40" s="5" t="inlineStr">
-        <is>
-          <t>Norm</t>
-        </is>
-      </c>
-      <c r="K40" s="6" t="inlineStr">
-        <is>
-          <t>% Trọng số chỉ tiêu</t>
-        </is>
-      </c>
-      <c r="L40" s="6" t="inlineStr">
-        <is>
-          <t>Kết quả</t>
-        </is>
-      </c>
-      <c r="M40" s="6" t="inlineStr">
-        <is>
-          <t>Tỷ lệ</t>
-        </is>
-      </c>
-      <c r="N40" s="6" t="inlineStr">
-        <is>
-          <t>Tổng thời gian dự kiến/ ước tính công việc (giờ)</t>
-        </is>
-      </c>
-      <c r="O40" s="4" t="inlineStr">
-        <is>
-          <t>Tổng thời gian thực hiện công việc thực tế (giờ)</t>
-        </is>
-      </c>
-      <c r="P40" s="6" t="inlineStr">
-        <is>
-          <t>Note dự kiến</t>
-        </is>
-      </c>
-      <c r="Q40" s="4" t="inlineStr">
-        <is>
-          <t>Note bằng chứng thực tế</t>
-        </is>
-      </c>
-      <c r="R40" s="7" t="inlineStr">
-        <is>
-          <t>QA</t>
-        </is>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" s="8" t="inlineStr">
+      <c r="A40" s="8" t="inlineStr">
         <is>
           <t>kpi</t>
         </is>
       </c>
-      <c r="B41" s="8" t="inlineStr">
+      <c r="B40" s="8" t="inlineStr">
         <is>
           <t>"Đảm bảo chất lượng sản phẩm  1. PTSP: với số bug log trên các môi trường trong dự án OnCX, SOP, HappyConnect, Dialo, CheckMK, SmartRouting 2. Vận hành: Đảm bảo cam kết thời gian khắc phục lỗi từ lúc phát hiện đến khi xử lý xong"</t>
         </is>
       </c>
-      <c r="C41" s="8" t="inlineStr">
+      <c r="C40" s="8" t="inlineStr">
         <is>
           <t>Đảm bảo chất lượng sản phẩm với số bug log trên các môi trường trong dự án OnCX, SOP, HappyConnect, Dialo, CheckMK, SmartRouting</t>
         </is>
       </c>
-      <c r="D41" s="8" t="inlineStr">
+      <c r="D40" s="8" t="inlineStr">
         <is>
           <t>"- Trên môi trường stg số bugs được report trong mỗi tính năng khi review code/ thực hiện dev &lt;= 5  Và - Trên môi trường UAT/ production có critical/important issue &lt;= 1 và lỗi lặp = 0"</t>
         </is>
       </c>
-      <c r="E41" s="8" t="inlineStr">
+      <c r="E40" s="8" t="inlineStr">
         <is>
           <t>"- STG: số bug/tính năng khi review code/ thực hiện dev &lt;= 5
 - UAT/PROD: critical/important issue &lt;= 1 và lỗi lặp = 0
 ** Không tính issue do nguyên nhân enhancement, wishlist, support"</t>
         </is>
       </c>
+      <c r="F40" s="8" t="inlineStr">
+        <is>
+          <t>Taiga</t>
+        </is>
+      </c>
+      <c r="G40" s="8" t="inlineStr">
+        <is>
+          <t>Tháng</t>
+        </is>
+      </c>
+      <c r="H40" s="8" t="inlineStr">
+        <is>
+          <t>%</t>
+        </is>
+      </c>
+      <c r="I40" s="8" t="inlineStr">
+        <is>
+          <t>=</t>
+        </is>
+      </c>
+      <c r="J40" s="8" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="K40" s="8" t="n">
+        <v>50</v>
+      </c>
+      <c r="L40" s="8" t="n">
+        <v>100</v>
+      </c>
+      <c r="M40" s="8" t="n">
+        <v>50</v>
+      </c>
+      <c r="N40" s="8" t="n">
+        <v>47</v>
+      </c>
+      <c r="O40" s="8" t="n">
+        <v>20</v>
+      </c>
+      <c r="P40" s="8" t="inlineStr">
+        <is>
+          <t>19 * 2,5 ( sấp xỉ 2h30p mỗi ngày fix bug / meeting clear bug )</t>
+        </is>
+      </c>
+      <c r="Q40" s="8" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+              <rFont val="&lt;openpyxl.styles.fonts.Font object&gt;&#10;Parameters:&#10;name='Arial', charset=None, family=None, b=False, i=False, strike=False, outline=None, shadow=None, condense=None, color=&lt;openpyxl.styles.colors.Color object&gt;&#10;Parameters:&#10;rgb='00FF0000', indexed=None, auto=None, theme=None, tint=0.0, type='rgb', extend=None, sz=11.0, u=None, vertAlign=None, scheme=None"/>
+            </rPr>
+            <t xml:space="preserve">Bằng chứng : </t>
+          </r>
+          <r>
+            <rPr>
+              <rFont val="&lt;openpyxl.styles.fonts.Font object&gt;&#10;Parameters:&#10;name='Arial', charset=None, family=None, b=False, i=False, strike=False, outline=None, shadow=None, condense=None, color=&lt;openpyxl.styles.colors.Color object&gt;&#10;Parameters:&#10;rgb='006699CC', indexed=None, auto=None, theme=None, tint=0.0, type='rgb', extend=None, sz=11.0, u=None, vertAlign=None, scheme=None"/>
+            </rPr>
+            <t xml:space="preserve">https://docs.google.com/spreadsheets/d/12xRR9qnXMPQwbbMVJNh_tgojw_33x8ItlEbBmNyfmlI/edit#gid=1481875160
+</t>
+          </r>
+        </is>
+      </c>
+      <c r="R40" s="8" t="inlineStr"/>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n"/>
+      <c r="B41" s="8" t="inlineStr">
+        <is>
+          <t>"Đảm bảo chất lượng sản phẩm  1. PTSP: với số bug log trên các môi trường trong dự án OnCX, SOP, HappyConnect, Dialo, CheckMK, SmartRouting 2. Vận hành: Đảm bảo cam kết thời gian khắc phục lỗi từ lúc phát hiện đến khi xử lý xong"</t>
+        </is>
+      </c>
+      <c r="C41" s="8" t="inlineStr">
+        <is>
+          <t>Tỷ lệ cam kết thời gian khắc phục lỗi từ lúc phát hiện đến khi xử lý xong &gt;= 90%</t>
+        </is>
+      </c>
+      <c r="D41" s="8" t="inlineStr">
+        <is>
+          <t>Tỷ lệ hoàn thành xử lý lỗi vận hành đúng hạn &gt;= 90%</t>
+        </is>
+      </c>
+      <c r="E41" s="8" t="inlineStr">
+        <is>
+          <t>Tổng số ticket đúng hạn trong tháng/ Tổng số ticket nhận trong tháng</t>
+        </is>
+      </c>
       <c r="F41" s="8" t="inlineStr">
         <is>
-          <t>Taiga</t>
+          <t>Mail</t>
         </is>
       </c>
       <c r="G41" s="8" t="inlineStr">
@@ -3145,32 +3229,28 @@
         </is>
       </c>
       <c r="K41" s="8" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="L41" s="8" t="n">
         <v>100</v>
       </c>
       <c r="M41" s="8" t="n">
+        <v>30</v>
+      </c>
+      <c r="N41" s="8" t="n">
         <v>0</v>
       </c>
-      <c r="N41" s="8" t="n">
-        <v>47</v>
-      </c>
       <c r="O41" s="8" t="n">
-        <v>20</v>
-      </c>
-      <c r="P41" s="8" t="inlineStr">
-        <is>
-          <t>19 * 2,5 ( sấp xỉ 2h30p mỗi ngày fix bug / meeting clear bug )</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="P41" s="8" t="n"/>
       <c r="Q41" s="8" t="inlineStr">
         <is>
           <r>
             <rPr>
               <rFont val="&lt;openpyxl.styles.fonts.Font object&gt;&#10;Parameters:&#10;name='Arial', charset=None, family=None, b=False, i=False, strike=False, outline=None, shadow=None, condense=None, color=&lt;openpyxl.styles.colors.Color object&gt;&#10;Parameters:&#10;rgb='00FF0000', indexed=None, auto=None, theme=None, tint=0.0, type='rgb', extend=None, sz=11.0, u=None, vertAlign=None, scheme=None"/>
             </rPr>
-            <t xml:space="preserve">Bằng chứng : </t>
+            <t xml:space="preserve">Bắng chứng : </t>
           </r>
           <r>
             <rPr>
@@ -3237,7 +3317,7 @@
         <v>100</v>
       </c>
       <c r="M42" s="8" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="N42" s="8" t="n">
         <v>10</v>
@@ -3270,213 +3350,131 @@
       <c r="R42" s="8" t="inlineStr"/>
     </row>
     <row r="43">
-      <c r="A43" s="2" t="n"/>
-      <c r="B43" s="8" t="inlineStr">
-        <is>
-          <t>"Đảm bảo chất lượng sản phẩm  1. PTSP: với số bug log trên các môi trường trong dự án OnCX, SOP, HappyConnect, Dialo, CheckMK, SmartRouting 2. Vận hành: Đảm bảo cam kết thời gian khắc phục lỗi từ lúc phát hiện đến khi xử lý xong"</t>
-        </is>
-      </c>
-      <c r="C43" s="8" t="inlineStr">
-        <is>
-          <t>Tỷ lệ cam kết thời gian khắc phục lỗi từ lúc phát hiện đến khi xử lý xong &gt;= 90%</t>
-        </is>
-      </c>
-      <c r="D43" s="8" t="inlineStr">
-        <is>
-          <t>Tỷ lệ hoàn thành xử lý lỗi vận hành đúng hạn &gt;= 90%</t>
-        </is>
-      </c>
-      <c r="E43" s="8" t="inlineStr">
-        <is>
-          <t>Tổng số ticket đúng hạn trong tháng/ Tổng số ticket nhận trong tháng</t>
-        </is>
-      </c>
-      <c r="F43" s="8" t="inlineStr">
-        <is>
-          <t>Mail</t>
-        </is>
-      </c>
-      <c r="G43" s="8" t="inlineStr">
-        <is>
-          <t>Tháng</t>
-        </is>
-      </c>
-      <c r="H43" s="8" t="inlineStr">
-        <is>
-          <t>%</t>
-        </is>
-      </c>
-      <c r="I43" s="8" t="inlineStr">
-        <is>
-          <t>=</t>
-        </is>
-      </c>
-      <c r="J43" s="8" t="inlineStr">
-        <is>
-          <t>100%</t>
-        </is>
-      </c>
-      <c r="K43" s="8" t="n">
-        <v>30</v>
-      </c>
-      <c r="L43" s="8" t="n">
-        <v>100</v>
-      </c>
-      <c r="M43" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="N43" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="O43" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="P43" s="8" t="n"/>
-      <c r="Q43" s="8" t="inlineStr">
-        <is>
-          <r>
-            <rPr>
-              <rFont val="&lt;openpyxl.styles.fonts.Font object&gt;&#10;Parameters:&#10;name='Arial', charset=None, family=None, b=False, i=False, strike=False, outline=None, shadow=None, condense=None, color=&lt;openpyxl.styles.colors.Color object&gt;&#10;Parameters:&#10;rgb='00FF0000', indexed=None, auto=None, theme=None, tint=0.0, type='rgb', extend=None, sz=11.0, u=None, vertAlign=None, scheme=None"/>
-            </rPr>
-            <t xml:space="preserve">Bắng chứng : </t>
-          </r>
-          <r>
-            <rPr>
-              <rFont val="&lt;openpyxl.styles.fonts.Font object&gt;&#10;Parameters:&#10;name='Arial', charset=None, family=None, b=False, i=False, strike=False, outline=None, shadow=None, condense=None, color=&lt;openpyxl.styles.colors.Color object&gt;&#10;Parameters:&#10;rgb='006699CC', indexed=None, auto=None, theme=None, tint=0.0, type='rgb', extend=None, sz=11.0, u=None, vertAlign=None, scheme=None"/>
-            </rPr>
-            <t xml:space="preserve">https://docs.google.com/spreadsheets/d/12xRR9qnXMPQwbbMVJNh_tgojw_33x8ItlEbBmNyfmlI/edit#gid=1481875160
-</t>
-          </r>
-        </is>
-      </c>
-      <c r="R43" s="8" t="inlineStr"/>
+      <c r="A43" s="8" t="n">
+        <v/>
+      </c>
+      <c r="B43" s="8" t="n">
+        <v/>
+      </c>
+      <c r="C43" s="8" t="n">
+        <v/>
+      </c>
+      <c r="D43" s="8" t="n">
+        <v/>
+      </c>
+      <c r="E43" s="8" t="n">
+        <v/>
+      </c>
+      <c r="F43" s="8" t="n">
+        <v/>
+      </c>
+      <c r="G43" s="8" t="n">
+        <v/>
+      </c>
+      <c r="H43" s="8" t="n">
+        <v/>
+      </c>
+      <c r="I43" s="8" t="n">
+        <v/>
+      </c>
+      <c r="J43" s="8" t="n">
+        <v/>
+      </c>
+      <c r="K43" s="9" t="n">
+        <v>100</v>
+      </c>
+      <c r="L43" s="9" t="n">
+        <v>300</v>
+      </c>
+      <c r="M43" s="9" t="n">
+        <v>100</v>
+      </c>
+      <c r="N43" s="9" t="inlineStr"/>
+      <c r="O43" s="9" t="inlineStr"/>
+      <c r="P43" s="8" t="n">
+        <v/>
+      </c>
+      <c r="Q43" s="8" t="n">
+        <v/>
+      </c>
+      <c r="R43" s="8" t="n">
+        <v/>
+      </c>
     </row>
     <row r="44">
-      <c r="A44" s="8" t="n">
-        <v/>
-      </c>
-      <c r="B44" s="8" t="n">
-        <v/>
-      </c>
-      <c r="C44" s="8" t="n">
-        <v/>
-      </c>
-      <c r="D44" s="8" t="n">
-        <v/>
-      </c>
-      <c r="E44" s="8" t="n">
-        <v/>
-      </c>
-      <c r="F44" s="8" t="n">
-        <v/>
-      </c>
-      <c r="G44" s="8" t="n">
-        <v/>
-      </c>
-      <c r="H44" s="8" t="n">
-        <v/>
-      </c>
-      <c r="I44" s="8" t="n">
-        <v/>
-      </c>
-      <c r="J44" s="8" t="n">
-        <v/>
-      </c>
-      <c r="K44" s="9" t="n">
-        <v>100</v>
-      </c>
-      <c r="L44" s="9" t="n">
-        <v>300</v>
-      </c>
-      <c r="M44" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="N44" s="9" t="inlineStr"/>
-      <c r="O44" s="9" t="inlineStr"/>
-      <c r="P44" s="8" t="n">
-        <v/>
-      </c>
-      <c r="Q44" s="8" t="n">
-        <v/>
-      </c>
-      <c r="R44" s="8" t="n">
-        <v/>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" s="8" t="inlineStr">
+      <c r="A44" s="8" t="inlineStr">
         <is>
           <t>okr</t>
         </is>
       </c>
-      <c r="B45" s="8" t="inlineStr">
+      <c r="B44" s="8" t="inlineStr">
         <is>
           <t>Nâng cao chất lượng hoàn thành phát triển và release 100% các tính năng trong dự án trung tâm OnCX, SOP, HappyConnect, Dialo, CheckMK đúng thời hạn cam kết</t>
         </is>
       </c>
-      <c r="C45" s="8" t="inlineStr">
+      <c r="C44" s="8" t="inlineStr">
         <is>
           <t>Hoàn thành release các tính năng bản web và apps theo kế hoạch trong tháng 9</t>
         </is>
       </c>
-      <c r="D45" s="8" t="inlineStr">
+      <c r="D44" s="8" t="inlineStr">
         <is>
           <t>"Đảm bảo 100% các tính năng trong sprint được giao hoàn thành đúng thời hạn dự án SOP - #3026M3 - [CHAT] - Tự động convert đuôi file - #3036M3 - [mCHAT] - Tự động convert đuôi file"</t>
         </is>
       </c>
-      <c r="E45" s="8" t="inlineStr">
+      <c r="E44" s="8" t="inlineStr">
         <is>
           <t>"100% US/ sprint hoàn thành thỏa cả 2 điều kiện:
 - Có bằng chứng dev intergration test/ unittest ở mt dev
 - Tester test pass các US trên mt stg"</t>
         </is>
       </c>
-      <c r="F45" s="8" t="inlineStr">
+      <c r="F44" s="8" t="inlineStr">
         <is>
           <t>Taiga</t>
         </is>
       </c>
-      <c r="G45" s="8" t="inlineStr">
+      <c r="G44" s="8" t="inlineStr">
         <is>
           <t>Tháng</t>
         </is>
       </c>
-      <c r="H45" s="8" t="inlineStr">
+      <c r="H44" s="8" t="inlineStr">
         <is>
           <t>%</t>
         </is>
       </c>
-      <c r="I45" s="8" t="inlineStr">
+      <c r="I44" s="8" t="inlineStr">
         <is>
           <t>=</t>
         </is>
       </c>
-      <c r="J45" s="8" t="inlineStr">
+      <c r="J44" s="8" t="inlineStr">
         <is>
           <t>100%</t>
         </is>
       </c>
-      <c r="K45" s="8" t="n">
-        <v>100</v>
-      </c>
-      <c r="L45" s="8" t="n">
+      <c r="K44" s="8" t="n">
+        <v>100</v>
+      </c>
+      <c r="L44" s="8" t="n">
         <v>81</v>
       </c>
-      <c r="M45" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="N45" s="8" t="n">
+      <c r="M44" s="8" t="n">
+        <v>81</v>
+      </c>
+      <c r="N44" s="8" t="n">
         <v>95</v>
       </c>
-      <c r="O45" s="8" t="n">
+      <c r="O44" s="8" t="n">
         <v>72</v>
       </c>
-      <c r="P45" s="8" t="inlineStr">
+      <c r="P44" s="8" t="inlineStr">
         <is>
           <t>19 * 5 ( 5h mỗi ngày làm task , khoảng 30 phút - 1 tiếng daily/ meeting test / retro / planning)</t>
         </is>
       </c>
-      <c r="Q45" s="8" t="inlineStr">
+      <c r="Q44" s="8" t="inlineStr">
         <is>
           <r>
             <rPr>
@@ -3493,70 +3491,108 @@
           </r>
         </is>
       </c>
-      <c r="R45" s="8" t="inlineStr"/>
+      <c r="R44" s="8" t="inlineStr"/>
+    </row>
+    <row r="45">
+      <c r="A45" s="8" t="n">
+        <v/>
+      </c>
+      <c r="B45" s="8" t="n">
+        <v/>
+      </c>
+      <c r="C45" s="8" t="n">
+        <v/>
+      </c>
+      <c r="D45" s="8" t="n">
+        <v/>
+      </c>
+      <c r="E45" s="8" t="n">
+        <v/>
+      </c>
+      <c r="F45" s="8" t="n">
+        <v/>
+      </c>
+      <c r="G45" s="8" t="n">
+        <v/>
+      </c>
+      <c r="H45" s="8" t="n">
+        <v/>
+      </c>
+      <c r="I45" s="8" t="n">
+        <v/>
+      </c>
+      <c r="J45" s="8" t="n">
+        <v/>
+      </c>
+      <c r="K45" s="9" t="n">
+        <v>100</v>
+      </c>
+      <c r="L45" s="9" t="n">
+        <v>81</v>
+      </c>
+      <c r="M45" s="9" t="n">
+        <v>81</v>
+      </c>
+      <c r="N45" s="9" t="n">
+        <v>152</v>
+      </c>
+      <c r="O45" s="9" t="n">
+        <v>104</v>
+      </c>
+      <c r="P45" s="8" t="n">
+        <v/>
+      </c>
+      <c r="Q45" s="8" t="n">
+        <v/>
+      </c>
+      <c r="R45" s="8" t="n">
+        <v/>
+      </c>
     </row>
     <row r="46">
-      <c r="A46" s="8" t="n">
-        <v/>
-      </c>
-      <c r="B46" s="8" t="n">
-        <v/>
-      </c>
-      <c r="C46" s="8" t="n">
-        <v/>
-      </c>
-      <c r="D46" s="8" t="n">
-        <v/>
-      </c>
-      <c r="E46" s="8" t="n">
-        <v/>
-      </c>
-      <c r="F46" s="8" t="n">
-        <v/>
-      </c>
-      <c r="G46" s="8" t="n">
-        <v/>
-      </c>
-      <c r="H46" s="8" t="n">
-        <v/>
-      </c>
-      <c r="I46" s="8" t="n">
-        <v/>
-      </c>
-      <c r="J46" s="8" t="n">
-        <v/>
-      </c>
-      <c r="K46" s="9" t="n">
-        <v>100</v>
-      </c>
-      <c r="L46" s="9" t="n">
-        <v>81</v>
-      </c>
-      <c r="M46" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="N46" s="9" t="n">
-        <v>152</v>
-      </c>
-      <c r="O46" s="9" t="n">
-        <v>104</v>
-      </c>
-      <c r="P46" s="8" t="n">
-        <v/>
-      </c>
-      <c r="Q46" s="8" t="n">
-        <v/>
-      </c>
-      <c r="R46" s="8" t="n">
-        <v/>
-      </c>
+      <c r="A46" s="2" t="n"/>
+      <c r="B46" s="2" t="n"/>
+      <c r="C46" s="2" t="n"/>
+      <c r="D46" s="2" t="n"/>
+      <c r="E46" s="2" t="n"/>
+      <c r="F46" s="2" t="n"/>
+      <c r="G46" s="2" t="n"/>
+      <c r="H46" s="2" t="n"/>
+      <c r="I46" s="2" t="n"/>
+      <c r="J46" s="2" t="n"/>
+      <c r="K46" s="2" t="n"/>
+      <c r="L46" s="2" t="n"/>
+      <c r="M46" s="2" t="n"/>
+      <c r="N46" s="2" t="n"/>
+      <c r="O46" s="2" t="n"/>
+      <c r="P46" s="2" t="n"/>
+      <c r="Q46" s="2" t="n"/>
+      <c r="R46" s="2" t="n"/>
     </row>
     <row r="47">
-      <c r="A47" s="2" t="n"/>
-      <c r="B47" s="2" t="n"/>
-      <c r="C47" s="2" t="n"/>
-      <c r="D47" s="2" t="n"/>
-      <c r="E47" s="2" t="n"/>
+      <c r="A47" s="3" t="n">
+        <v>6</v>
+      </c>
+      <c r="B47" s="3" t="inlineStr">
+        <is>
+          <t>Huỳnh Quốc Huy</t>
+        </is>
+      </c>
+      <c r="C47" s="3" t="inlineStr">
+        <is>
+          <t>huyhq29</t>
+        </is>
+      </c>
+      <c r="D47" s="3" t="inlineStr">
+        <is>
+          <t>L1</t>
+        </is>
+      </c>
+      <c r="E47" s="3" t="inlineStr">
+        <is>
+          <t>Team FE</t>
+        </is>
+      </c>
       <c r="F47" s="2" t="n"/>
       <c r="G47" s="2" t="n"/>
       <c r="H47" s="2" t="n"/>
@@ -3572,159 +3608,195 @@
       <c r="R47" s="2" t="n"/>
     </row>
     <row r="48">
-      <c r="A48" s="3" t="n">
-        <v>6</v>
-      </c>
-      <c r="B48" s="3" t="inlineStr">
-        <is>
-          <t>Huỳnh Quốc Huy</t>
-        </is>
-      </c>
-      <c r="C48" s="3" t="inlineStr">
-        <is>
-          <t>huyhq29</t>
-        </is>
-      </c>
-      <c r="D48" s="3" t="inlineStr">
-        <is>
-          <t>L1</t>
-        </is>
-      </c>
-      <c r="E48" s="3" t="inlineStr">
-        <is>
-          <t>Team FE</t>
-        </is>
-      </c>
-      <c r="F48" s="2" t="n"/>
-      <c r="G48" s="2" t="n"/>
-      <c r="H48" s="2" t="n"/>
-      <c r="I48" s="2" t="n"/>
-      <c r="J48" s="2" t="n"/>
-      <c r="K48" s="2" t="n"/>
-      <c r="L48" s="2" t="n"/>
-      <c r="M48" s="2" t="n"/>
-      <c r="N48" s="2" t="n"/>
-      <c r="O48" s="2" t="n"/>
-      <c r="P48" s="2" t="n"/>
-      <c r="Q48" s="2" t="n"/>
-      <c r="R48" s="2" t="n"/>
+      <c r="A48" s="4" t="inlineStr">
+        <is>
+          <t>Loại</t>
+        </is>
+      </c>
+      <c r="B48" s="5" t="inlineStr">
+        <is>
+          <t>KR phòng</t>
+        </is>
+      </c>
+      <c r="C48" s="5" t="inlineStr">
+        <is>
+          <t>KR team</t>
+        </is>
+      </c>
+      <c r="D48" s="5" t="inlineStr">
+        <is>
+          <t>KR cá nhân</t>
+        </is>
+      </c>
+      <c r="E48" s="5" t="inlineStr">
+        <is>
+          <t>Công thức tính</t>
+        </is>
+      </c>
+      <c r="F48" s="5" t="inlineStr">
+        <is>
+          <t>Nguồn dữ liệu</t>
+        </is>
+      </c>
+      <c r="G48" s="5" t="inlineStr">
+        <is>
+          <t>Định kỳ tính</t>
+        </is>
+      </c>
+      <c r="H48" s="5" t="inlineStr">
+        <is>
+          <t>Đơn vị tính</t>
+        </is>
+      </c>
+      <c r="I48" s="5" t="inlineStr">
+        <is>
+          <t>Điều kiện</t>
+        </is>
+      </c>
+      <c r="J48" s="5" t="inlineStr">
+        <is>
+          <t>Norm</t>
+        </is>
+      </c>
+      <c r="K48" s="6" t="inlineStr">
+        <is>
+          <t>% Trọng số chỉ tiêu</t>
+        </is>
+      </c>
+      <c r="L48" s="6" t="inlineStr">
+        <is>
+          <t>Kết quả</t>
+        </is>
+      </c>
+      <c r="M48" s="6" t="inlineStr">
+        <is>
+          <t>Tỷ lệ</t>
+        </is>
+      </c>
+      <c r="N48" s="6" t="inlineStr">
+        <is>
+          <t>Tổng thời gian dự kiến/ ước tính công việc (giờ)</t>
+        </is>
+      </c>
+      <c r="O48" s="4" t="inlineStr">
+        <is>
+          <t>Tổng thời gian thực hiện công việc thực tế (giờ)</t>
+        </is>
+      </c>
+      <c r="P48" s="6" t="inlineStr">
+        <is>
+          <t>Note dự kiến</t>
+        </is>
+      </c>
+      <c r="Q48" s="4" t="inlineStr">
+        <is>
+          <t>Note bằng chứng thực tế</t>
+        </is>
+      </c>
+      <c r="R48" s="7" t="inlineStr">
+        <is>
+          <t>QA</t>
+        </is>
+      </c>
     </row>
     <row r="49">
-      <c r="A49" s="4" t="inlineStr">
-        <is>
-          <t>Loại</t>
-        </is>
-      </c>
-      <c r="B49" s="5" t="inlineStr">
-        <is>
-          <t>KR phòng</t>
-        </is>
-      </c>
-      <c r="C49" s="5" t="inlineStr">
-        <is>
-          <t>KR team</t>
-        </is>
-      </c>
-      <c r="D49" s="5" t="inlineStr">
-        <is>
-          <t>KR cá nhân</t>
-        </is>
-      </c>
-      <c r="E49" s="5" t="inlineStr">
-        <is>
-          <t>Công thức tính</t>
-        </is>
-      </c>
-      <c r="F49" s="5" t="inlineStr">
-        <is>
-          <t>Nguồn dữ liệu</t>
-        </is>
-      </c>
-      <c r="G49" s="5" t="inlineStr">
-        <is>
-          <t>Định kỳ tính</t>
-        </is>
-      </c>
-      <c r="H49" s="5" t="inlineStr">
-        <is>
-          <t>Đơn vị tính</t>
-        </is>
-      </c>
-      <c r="I49" s="5" t="inlineStr">
-        <is>
-          <t>Điều kiện</t>
-        </is>
-      </c>
-      <c r="J49" s="5" t="inlineStr">
-        <is>
-          <t>Norm</t>
-        </is>
-      </c>
-      <c r="K49" s="6" t="inlineStr">
-        <is>
-          <t>% Trọng số chỉ tiêu</t>
-        </is>
-      </c>
-      <c r="L49" s="6" t="inlineStr">
-        <is>
-          <t>Kết quả</t>
-        </is>
-      </c>
-      <c r="M49" s="6" t="inlineStr">
-        <is>
-          <t>Tỷ lệ</t>
-        </is>
-      </c>
-      <c r="N49" s="6" t="inlineStr">
-        <is>
-          <t>Tổng thời gian dự kiến/ ước tính công việc (giờ)</t>
-        </is>
-      </c>
-      <c r="O49" s="4" t="inlineStr">
-        <is>
-          <t>Tổng thời gian thực hiện công việc thực tế (giờ)</t>
-        </is>
-      </c>
-      <c r="P49" s="6" t="inlineStr">
-        <is>
-          <t>Note dự kiến</t>
-        </is>
-      </c>
-      <c r="Q49" s="4" t="inlineStr">
-        <is>
-          <t>Note bằng chứng thực tế</t>
-        </is>
-      </c>
-      <c r="R49" s="7" t="inlineStr">
-        <is>
-          <t>QA</t>
-        </is>
-      </c>
+      <c r="A49" s="8" t="inlineStr">
+        <is>
+          <t>kpi</t>
+        </is>
+      </c>
+      <c r="B49" s="8" t="inlineStr">
+        <is>
+          <t>Đảm bảo chất lượng sản phẩm 
+1. PTSP: với số bug log trên các môi trường trong dự án OnCX, SOP, HappyConnect, Dialo, CheckMK, SmartRouting
+2. Vận hành: Đảm bảo cam kết thời gian khắc phục lỗi từ lúc phát hiện đến khi xử lý xong</t>
+        </is>
+      </c>
+      <c r="C49" s="8" t="inlineStr">
+        <is>
+          <t>Tỷ lệ cam kết thời gian khắc phục lỗi từ lúc phát hiện đến khi xử lý xong &gt;= 90%</t>
+        </is>
+      </c>
+      <c r="D49" s="8" t="inlineStr">
+        <is>
+          <t>Tỷ lệ hoàn thành xử lý lỗi vận hành đúng hạn &gt;= 90%</t>
+        </is>
+      </c>
+      <c r="E49" s="8" t="inlineStr">
+        <is>
+          <t>Tổng số ticket đúng hạn trong tháng/ Tổng số ticket nhận trong tháng</t>
+        </is>
+      </c>
+      <c r="F49" s="8" t="inlineStr">
+        <is>
+          <t>Taiga</t>
+        </is>
+      </c>
+      <c r="G49" s="8" t="inlineStr">
+        <is>
+          <t>Tháng</t>
+        </is>
+      </c>
+      <c r="H49" s="8" t="inlineStr">
+        <is>
+          <t>%</t>
+        </is>
+      </c>
+      <c r="I49" s="8" t="inlineStr">
+        <is>
+          <t>=</t>
+        </is>
+      </c>
+      <c r="J49" s="8" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="K49" s="8" t="n">
+        <v>30</v>
+      </c>
+      <c r="L49" s="8" t="n">
+        <v>100</v>
+      </c>
+      <c r="M49" s="8" t="n">
+        <v>30</v>
+      </c>
+      <c r="N49" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="O49" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="P49" s="8" t="n"/>
+      <c r="Q49" s="8" t="n"/>
+      <c r="R49" s="8" t="inlineStr"/>
     </row>
     <row r="50">
-      <c r="A50" s="8" t="inlineStr">
-        <is>
-          <t>kpi</t>
-        </is>
-      </c>
+      <c r="A50" s="2" t="n"/>
       <c r="B50" s="8" t="inlineStr">
         <is>
-          <t>Hoàn thành đúng tiến độ và chất lượng các Công việc phát sinh/ Seminar/ Cải tiến</t>
+          <t>Đảm bảo chất lượng sản phẩm 
+1. PTSP: với số bug log trên các môi trường trong dự án OnCX, SOP, HappyConnect, Dialo, CheckMK, SmartRouting
+2. Vận hành: Đảm bảo cam kết thời gian khắc phục lỗi từ lúc phát hiện đến khi xử lý xong</t>
         </is>
       </c>
       <c r="C50" s="8" t="inlineStr">
         <is>
-          <t>Đảm bảo các công việc phát sinh hoàn thành đúng tiến độ và chất lượng</t>
+          <t>Đảm bảo chất lượng sản phẩm với số bug log trên các môi trường trong dự án OnCX, SOP, HappyConnect, Dialo, CheckMK, SmartRouting</t>
         </is>
       </c>
       <c r="D50" s="8" t="inlineStr">
         <is>
-          <t>Hoàn thành chuyển đổi tối ưu gửi mail từ fpt.com.vn sang fpt.com cho tool KHĐ trước 13/09/2023</t>
+          <t>- Trên môi trường stg số bugs được report trong mỗi tính năng khi review code/ thực hiện dev &lt;= 5 
+Và
+- Trên môi trường UAT/ production có critical/important issue &lt;= 1 và lỗi lặp = 0</t>
         </is>
       </c>
       <c r="E50" s="8" t="inlineStr">
         <is>
-          <t>Báo cáo được CBQL confirm</t>
+          <t>- STG: số bug/tính năng khi review code/ thực hiện dev &lt;= 5
+- UAT/PROD: critical/important issue &lt;= 1 và lỗi lặp = 0
+** Không tính issue do nguyên nhân enhancement, wishlist, support</t>
         </is>
       </c>
       <c r="F50" s="8" t="inlineStr">
@@ -3753,50 +3825,73 @@
         </is>
       </c>
       <c r="K50" s="8" t="n">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="L50" s="8" t="n">
         <v>100</v>
       </c>
       <c r="M50" s="8" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="N50" s="8" t="n">
-        <v>16</v>
+        <v>40</v>
       </c>
       <c r="O50" s="8" t="n">
-        <v>16</v>
+        <v>40</v>
       </c>
       <c r="P50" s="8" t="n"/>
-      <c r="Q50" s="8" t="n"/>
+      <c r="Q50" s="8" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+              <rFont val="&lt;openpyxl.styles.fonts.Font object&gt;&#10;Parameters:&#10;name='Arial', charset=None, family=None, b=False, i=False, strike=False, outline=None, shadow=None, condense=None, color=&lt;openpyxl.styles.colors.Color object&gt;&#10;Parameters:&#10;rgb='00FF0000', indexed=None, auto=None, theme=None, tint=0.0, type='rgb', extend=None, sz=11.0, u=None, vertAlign=None, scheme=None"/>
+            </rPr>
+            <t xml:space="preserve">Dialo : </t>
+          </r>
+          <r>
+            <rPr>
+              <rFont val="&lt;openpyxl.styles.fonts.Font object&gt;&#10;Parameters:&#10;name='Arial', charset=None, family=None, b=False, i=False, strike=False, outline=None, shadow=None, condense=None, color=&lt;openpyxl.styles.colors.Color object&gt;&#10;Parameters:&#10;rgb='006699CC', indexed=None, auto=None, theme=None, tint=0.0, type='rgb', extend=None, sz=11.0, u=None, vertAlign=None, scheme=None"/>
+            </rPr>
+            <t xml:space="preserve">https://docs.google.com/spreadsheets/d/1naKeBF6sKWSJWrCzss2tMaR5G4Rwp1-S/edit#gid=357167935
+</t>
+          </r>
+          <r>
+            <rPr>
+              <rFont val="&lt;openpyxl.styles.fonts.Font object&gt;&#10;Parameters:&#10;name='Arial', charset=None, family=None, b=False, i=False, strike=False, outline=None, shadow=None, condense=None, color=&lt;openpyxl.styles.colors.Color object&gt;&#10;Parameters:&#10;rgb='00FF0000', indexed=None, auto=None, theme=None, tint=0.0, type='rgb', extend=None, sz=11.0, u=None, vertAlign=None, scheme=None"/>
+            </rPr>
+            <t xml:space="preserve">Happy Connect : </t>
+          </r>
+          <r>
+            <rPr>
+              <rFont val="&lt;openpyxl.styles.fonts.Font object&gt;&#10;Parameters:&#10;name='Arial', charset=None, family=None, b=False, i=False, strike=False, outline=None, shadow=None, condense=None, color=&lt;openpyxl.styles.colors.Color object&gt;&#10;Parameters:&#10;rgb='006699CC', indexed=None, auto=None, theme=None, tint=0.0, type='rgb', extend=None, sz=11.0, u=None, vertAlign=None, scheme=None"/>
+            </rPr>
+            <t xml:space="preserve">https://docs.google.com/spreadsheets/d/1DhuH-R5bhZsOXwSuTBgLR92b_SDoFTZV/edit#gid=175178646
+</t>
+          </r>
+        </is>
+      </c>
       <c r="R50" s="8" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="2" t="n"/>
       <c r="B51" s="8" t="inlineStr">
         <is>
-          <t>Đảm bảo chất lượng sản phẩm 
-1. PTSP: với số bug log trên các môi trường trong dự án OnCX, SOP, HappyConnect, Dialo, CheckMK, SmartRouting
-2. Vận hành: Đảm bảo cam kết thời gian khắc phục lỗi từ lúc phát hiện đến khi xử lý xong</t>
+          <t>Hoàn thành đúng tiến độ và chất lượng các Công việc phát sinh/ Seminar/ Cải tiến</t>
         </is>
       </c>
       <c r="C51" s="8" t="inlineStr">
         <is>
-          <t>Đảm bảo chất lượng sản phẩm với số bug log trên các môi trường trong dự án OnCX, SOP, HappyConnect, Dialo, CheckMK, SmartRouting</t>
+          <t>Đảm bảo các công việc phát sinh hoàn thành đúng tiến độ và chất lượng</t>
         </is>
       </c>
       <c r="D51" s="8" t="inlineStr">
         <is>
-          <t>- Trên môi trường stg số bugs được report trong mỗi tính năng khi review code/ thực hiện dev &lt;= 5 
-Và
-- Trên môi trường UAT/ production có critical/important issue &lt;= 1 và lỗi lặp = 0</t>
+          <t>Hoàn thành chuyển đổi tối ưu gửi mail từ fpt.com.vn sang fpt.com cho tool KHĐ trước 13/09/2023</t>
         </is>
       </c>
       <c r="E51" s="8" t="inlineStr">
         <is>
-          <t>- STG: số bug/tính năng khi review code/ thực hiện dev &lt;= 5
-- UAT/PROD: critical/important issue &lt;= 1 và lỗi lặp = 0
-** Không tính issue do nguyên nhân enhancement, wishlist, support</t>
+          <t>Báo cáo được CBQL confirm</t>
         </is>
       </c>
       <c r="F51" s="8" t="inlineStr">
@@ -3825,161 +3920,93 @@
         </is>
       </c>
       <c r="K51" s="8" t="n">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="L51" s="8" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M51" s="8" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="N51" s="8" t="n">
-        <v>40</v>
+        <v>16</v>
       </c>
       <c r="O51" s="8" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="P51" s="8" t="n"/>
       <c r="Q51" s="8" t="n"/>
       <c r="R51" s="8" t="inlineStr"/>
     </row>
     <row r="52">
-      <c r="A52" s="2" t="n"/>
-      <c r="B52" s="8" t="inlineStr">
-        <is>
-          <t>Đảm bảo chất lượng sản phẩm 
-1. PTSP: với số bug log trên các môi trường trong dự án OnCX, SOP, HappyConnect, Dialo, CheckMK, SmartRouting
-2. Vận hành: Đảm bảo cam kết thời gian khắc phục lỗi từ lúc phát hiện đến khi xử lý xong</t>
-        </is>
-      </c>
-      <c r="C52" s="8" t="inlineStr">
-        <is>
-          <t>Tỷ lệ cam kết thời gian khắc phục lỗi từ lúc phát hiện đến khi xử lý xong &gt;= 90%</t>
-        </is>
-      </c>
-      <c r="D52" s="8" t="inlineStr">
-        <is>
-          <t>Tỷ lệ hoàn thành xử lý lỗi vận hành đúng hạn &gt;= 90%</t>
-        </is>
-      </c>
-      <c r="E52" s="8" t="inlineStr">
-        <is>
-          <t>Tổng số ticket đúng hạn trong tháng/ Tổng số ticket nhận trong tháng</t>
-        </is>
-      </c>
-      <c r="F52" s="8" t="inlineStr">
-        <is>
-          <t>Taiga</t>
-        </is>
-      </c>
-      <c r="G52" s="8" t="inlineStr">
-        <is>
-          <t>Tháng</t>
-        </is>
-      </c>
-      <c r="H52" s="8" t="inlineStr">
-        <is>
-          <t>%</t>
-        </is>
-      </c>
-      <c r="I52" s="8" t="inlineStr">
-        <is>
-          <t>=</t>
-        </is>
-      </c>
-      <c r="J52" s="8" t="inlineStr">
-        <is>
-          <t>100%</t>
-        </is>
-      </c>
-      <c r="K52" s="8" t="n">
-        <v>30</v>
-      </c>
-      <c r="L52" s="8" t="n">
-        <v>100</v>
-      </c>
-      <c r="M52" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="N52" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="O52" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="P52" s="8" t="n"/>
-      <c r="Q52" s="8" t="n"/>
-      <c r="R52" s="8" t="inlineStr"/>
+      <c r="A52" s="8" t="n">
+        <v/>
+      </c>
+      <c r="B52" s="8" t="n">
+        <v/>
+      </c>
+      <c r="C52" s="8" t="n">
+        <v/>
+      </c>
+      <c r="D52" s="8" t="n">
+        <v/>
+      </c>
+      <c r="E52" s="8" t="n">
+        <v/>
+      </c>
+      <c r="F52" s="8" t="n">
+        <v/>
+      </c>
+      <c r="G52" s="8" t="n">
+        <v/>
+      </c>
+      <c r="H52" s="8" t="n">
+        <v/>
+      </c>
+      <c r="I52" s="8" t="n">
+        <v/>
+      </c>
+      <c r="J52" s="8" t="n">
+        <v/>
+      </c>
+      <c r="K52" s="9" t="n">
+        <v>100</v>
+      </c>
+      <c r="L52" s="9" t="n">
+        <v>300</v>
+      </c>
+      <c r="M52" s="9" t="n">
+        <v>100</v>
+      </c>
+      <c r="N52" s="9" t="inlineStr"/>
+      <c r="O52" s="9" t="inlineStr"/>
+      <c r="P52" s="8" t="n">
+        <v/>
+      </c>
+      <c r="Q52" s="8" t="n">
+        <v/>
+      </c>
+      <c r="R52" s="8" t="n">
+        <v/>
+      </c>
     </row>
     <row r="53">
-      <c r="A53" s="8" t="n">
-        <v/>
-      </c>
-      <c r="B53" s="8" t="n">
-        <v/>
-      </c>
-      <c r="C53" s="8" t="n">
-        <v/>
-      </c>
-      <c r="D53" s="8" t="n">
-        <v/>
-      </c>
-      <c r="E53" s="8" t="n">
-        <v/>
-      </c>
-      <c r="F53" s="8" t="n">
-        <v/>
-      </c>
-      <c r="G53" s="8" t="n">
-        <v/>
-      </c>
-      <c r="H53" s="8" t="n">
-        <v/>
-      </c>
-      <c r="I53" s="8" t="n">
-        <v/>
-      </c>
-      <c r="J53" s="8" t="n">
-        <v/>
-      </c>
-      <c r="K53" s="9" t="n">
-        <v>100</v>
-      </c>
-      <c r="L53" s="9" t="n">
-        <v>200</v>
-      </c>
-      <c r="M53" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="N53" s="9" t="inlineStr"/>
-      <c r="O53" s="9" t="inlineStr"/>
-      <c r="P53" s="8" t="n">
-        <v/>
-      </c>
-      <c r="Q53" s="8" t="n">
-        <v/>
-      </c>
-      <c r="R53" s="8" t="n">
-        <v/>
-      </c>
-    </row>
-    <row r="54">
-      <c r="A54" s="8" t="inlineStr">
+      <c r="A53" s="8" t="inlineStr">
         <is>
           <t>okr</t>
         </is>
       </c>
-      <c r="B54" s="8" t="inlineStr">
+      <c r="B53" s="8" t="inlineStr">
         <is>
           <t>Nâng cao chất lượng hoàn thành phát triển và release 100% các tính năng trong dự án trung tâm HappyConnect, Dialo đúng thời hạn cam kết</t>
         </is>
       </c>
-      <c r="C54" s="8" t="inlineStr">
+      <c r="C53" s="8" t="inlineStr">
         <is>
           <t>Hoàn thành release các tính năng bản theo kế hoạch trong tháng 9</t>
         </is>
       </c>
-      <c r="D54" s="8" t="inlineStr">
+      <c r="D53" s="8" t="inlineStr">
         <is>
           <t>Đảm bảo 100% các tính năng trong sprint được giao hoàn thành đúng thời hạn (dự án Happy Connect, Dialo)
 Happy Connect
@@ -3996,56 +4023,69 @@
 #1739 Update bảng quy định phân quyền</t>
         </is>
       </c>
-      <c r="E54" s="8" t="inlineStr">
+      <c r="E53" s="8" t="inlineStr">
         <is>
           <t>100% US/ sprint hoàn thành thỏa cả 2 điều kiện:
 - Có bằng chứng dev intergration test/ unittest ở mt dev
 - Tester test pass các US trên mt stg</t>
         </is>
       </c>
-      <c r="F54" s="8" t="inlineStr">
+      <c r="F53" s="8" t="inlineStr">
         <is>
           <t>Taiga</t>
         </is>
       </c>
-      <c r="G54" s="8" t="inlineStr">
+      <c r="G53" s="8" t="inlineStr">
         <is>
           <t>Tháng</t>
         </is>
       </c>
-      <c r="H54" s="8" t="inlineStr">
+      <c r="H53" s="8" t="inlineStr">
         <is>
           <t>%</t>
         </is>
       </c>
-      <c r="I54" s="8" t="inlineStr">
+      <c r="I53" s="8" t="inlineStr">
         <is>
           <t>=</t>
         </is>
       </c>
-      <c r="J54" s="8" t="inlineStr">
+      <c r="J53" s="8" t="inlineStr">
         <is>
           <t>100%</t>
         </is>
       </c>
-      <c r="K54" s="8" t="n">
-        <v>100</v>
-      </c>
-      <c r="L54" s="8" t="n">
-        <v>100</v>
-      </c>
-      <c r="M54" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="N54" s="8" t="n">
+      <c r="K53" s="8" t="n">
+        <v>100</v>
+      </c>
+      <c r="L53" s="8" t="n">
+        <v>100</v>
+      </c>
+      <c r="M53" s="8" t="n">
+        <v>100</v>
+      </c>
+      <c r="N53" s="8" t="n">
         <v>96</v>
       </c>
-      <c r="O54" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="P54" s="8" t="n"/>
-      <c r="Q54" s="8" t="inlineStr">
-        <is>
+      <c r="O53" s="8" t="n">
+        <v>104</v>
+      </c>
+      <c r="P53" s="8" t="n"/>
+      <c r="Q53" s="8" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+              <rFont val="&lt;openpyxl.styles.fonts.Font object&gt;&#10;Parameters:&#10;name='Arial', charset=None, family=None, b=False, i=False, strike=False, outline=None, shadow=None, condense=None, color=&lt;openpyxl.styles.colors.Color object&gt;&#10;Parameters:&#10;rgb='00FF0000', indexed=None, auto=None, theme=None, tint=0.0, type='rgb', extend=None, sz=11.0, u=None, vertAlign=None, scheme=None"/>
+            </rPr>
+            <t xml:space="preserve">Happy Connect : </t>
+          </r>
+          <r>
+            <rPr>
+              <rFont val="&lt;openpyxl.styles.fonts.Font object&gt;&#10;Parameters:&#10;name='Arial', charset=None, family=None, b=False, i=False, strike=False, outline=None, shadow=None, condense=None, color=&lt;openpyxl.styles.colors.Color object&gt;&#10;Parameters:&#10;rgb='006699CC', indexed=None, auto=None, theme=None, tint=0.0, type='rgb', extend=None, sz=11.0, u=None, vertAlign=None, scheme=None"/>
+            </rPr>
+            <t xml:space="preserve">https://docs.google.com/spreadsheets/d/1DhuH-R5bhZsOXwSuTBgLR92b_SDoFTZV/edit?usp=sharing&amp;ouid=110563220787781684006&amp;rtpof=true&amp;sd=true
+</t>
+          </r>
           <r>
             <rPr>
               <rFont val="&lt;openpyxl.styles.fonts.Font object&gt;&#10;Parameters:&#10;name='Arial', charset=None, family=None, b=False, i=False, strike=False, outline=None, shadow=None, condense=None, color=&lt;openpyxl.styles.colors.Color object&gt;&#10;Parameters:&#10;rgb='00FF0000', indexed=None, auto=None, theme=None, tint=0.0, type='rgb', extend=None, sz=11.0, u=None, vertAlign=None, scheme=None"/>
@@ -4059,85 +4099,110 @@
             <t xml:space="preserve">https://docs.google.com/spreadsheets/d/1naKeBF6sKWSJWrCzss2tMaR5G4Rwp1-S/edit#gid=1129289238
 </t>
           </r>
-          <r>
-            <rPr>
-              <rFont val="&lt;openpyxl.styles.fonts.Font object&gt;&#10;Parameters:&#10;name='Arial', charset=None, family=None, b=False, i=False, strike=False, outline=None, shadow=None, condense=None, color=&lt;openpyxl.styles.colors.Color object&gt;&#10;Parameters:&#10;rgb='00FF0000', indexed=None, auto=None, theme=None, tint=0.0, type='rgb', extend=None, sz=11.0, u=None, vertAlign=None, scheme=None"/>
-            </rPr>
-            <t xml:space="preserve">Happy Connect : </t>
-          </r>
-          <r>
-            <rPr>
-              <rFont val="&lt;openpyxl.styles.fonts.Font object&gt;&#10;Parameters:&#10;name='Arial', charset=None, family=None, b=False, i=False, strike=False, outline=None, shadow=None, condense=None, color=&lt;openpyxl.styles.colors.Color object&gt;&#10;Parameters:&#10;rgb='006699CC', indexed=None, auto=None, theme=None, tint=0.0, type='rgb', extend=None, sz=11.0, u=None, vertAlign=None, scheme=None"/>
-            </rPr>
-            <t xml:space="preserve">https://docs.google.com/spreadsheets/d/1DhuH-R5bhZsOXwSuTBgLR92b_SDoFTZV/edit?usp=sharing&amp;ouid=110563220787781684006&amp;rtpof=true&amp;sd=true
-</t>
-          </r>
-        </is>
-      </c>
-      <c r="R54" s="8" t="inlineStr"/>
+        </is>
+      </c>
+      <c r="R53" s="8" t="inlineStr"/>
+    </row>
+    <row r="54">
+      <c r="A54" s="8" t="n">
+        <v/>
+      </c>
+      <c r="B54" s="8" t="n">
+        <v/>
+      </c>
+      <c r="C54" s="8" t="n">
+        <v/>
+      </c>
+      <c r="D54" s="8" t="n">
+        <v/>
+      </c>
+      <c r="E54" s="8" t="n">
+        <v/>
+      </c>
+      <c r="F54" s="8" t="n">
+        <v/>
+      </c>
+      <c r="G54" s="8" t="n">
+        <v/>
+      </c>
+      <c r="H54" s="8" t="n">
+        <v/>
+      </c>
+      <c r="I54" s="8" t="n">
+        <v/>
+      </c>
+      <c r="J54" s="8" t="n">
+        <v/>
+      </c>
+      <c r="K54" s="9" t="n">
+        <v>100</v>
+      </c>
+      <c r="L54" s="9" t="n">
+        <v>100</v>
+      </c>
+      <c r="M54" s="9" t="n">
+        <v>100</v>
+      </c>
+      <c r="N54" s="9" t="n">
+        <v>152</v>
+      </c>
+      <c r="O54" s="9" t="n">
+        <v>152</v>
+      </c>
+      <c r="P54" s="8" t="n">
+        <v/>
+      </c>
+      <c r="Q54" s="8" t="n">
+        <v/>
+      </c>
+      <c r="R54" s="8" t="n">
+        <v/>
+      </c>
     </row>
     <row r="55">
-      <c r="A55" s="8" t="n">
-        <v/>
-      </c>
-      <c r="B55" s="8" t="n">
-        <v/>
-      </c>
-      <c r="C55" s="8" t="n">
-        <v/>
-      </c>
-      <c r="D55" s="8" t="n">
-        <v/>
-      </c>
-      <c r="E55" s="8" t="n">
-        <v/>
-      </c>
-      <c r="F55" s="8" t="n">
-        <v/>
-      </c>
-      <c r="G55" s="8" t="n">
-        <v/>
-      </c>
-      <c r="H55" s="8" t="n">
-        <v/>
-      </c>
-      <c r="I55" s="8" t="n">
-        <v/>
-      </c>
-      <c r="J55" s="8" t="n">
-        <v/>
-      </c>
-      <c r="K55" s="9" t="n">
-        <v>100</v>
-      </c>
-      <c r="L55" s="9" t="n">
-        <v>100</v>
-      </c>
-      <c r="M55" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="N55" s="9" t="n">
-        <v>152</v>
-      </c>
-      <c r="O55" s="9" t="n">
-        <v>16</v>
-      </c>
-      <c r="P55" s="8" t="n">
-        <v/>
-      </c>
-      <c r="Q55" s="8" t="n">
-        <v/>
-      </c>
-      <c r="R55" s="8" t="n">
-        <v/>
-      </c>
+      <c r="A55" s="2" t="n"/>
+      <c r="B55" s="2" t="n"/>
+      <c r="C55" s="2" t="n"/>
+      <c r="D55" s="2" t="n"/>
+      <c r="E55" s="2" t="n"/>
+      <c r="F55" s="2" t="n"/>
+      <c r="G55" s="2" t="n"/>
+      <c r="H55" s="2" t="n"/>
+      <c r="I55" s="2" t="n"/>
+      <c r="J55" s="2" t="n"/>
+      <c r="K55" s="2" t="n"/>
+      <c r="L55" s="2" t="n"/>
+      <c r="M55" s="2" t="n"/>
+      <c r="N55" s="2" t="n"/>
+      <c r="O55" s="2" t="n"/>
+      <c r="P55" s="2" t="n"/>
+      <c r="Q55" s="2" t="n"/>
+      <c r="R55" s="2" t="n"/>
     </row>
     <row r="56">
-      <c r="A56" s="2" t="n"/>
-      <c r="B56" s="2" t="n"/>
-      <c r="C56" s="2" t="n"/>
-      <c r="D56" s="2" t="n"/>
-      <c r="E56" s="2" t="n"/>
+      <c r="A56" s="3" t="n">
+        <v>7</v>
+      </c>
+      <c r="B56" s="3" t="inlineStr">
+        <is>
+          <t>Nguyễn Đỗ Trọng</t>
+        </is>
+      </c>
+      <c r="C56" s="3" t="inlineStr">
+        <is>
+          <t>trongnd33</t>
+        </is>
+      </c>
+      <c r="D56" s="3" t="inlineStr">
+        <is>
+          <t>L1</t>
+        </is>
+      </c>
+      <c r="E56" s="3" t="inlineStr">
+        <is>
+          <t>Team Python</t>
+        </is>
+      </c>
       <c r="F56" s="2" t="n"/>
       <c r="G56" s="2" t="n"/>
       <c r="H56" s="2" t="n"/>
@@ -4153,141 +4218,169 @@
       <c r="R56" s="2" t="n"/>
     </row>
     <row r="57">
-      <c r="A57" s="3" t="n">
-        <v>7</v>
-      </c>
-      <c r="B57" s="3" t="inlineStr">
-        <is>
-          <t>Nguyễn Đỗ Trọng</t>
-        </is>
-      </c>
-      <c r="C57" s="3" t="inlineStr">
-        <is>
-          <t>trongnd33</t>
-        </is>
-      </c>
-      <c r="D57" s="3" t="inlineStr">
-        <is>
-          <t>L1</t>
-        </is>
-      </c>
-      <c r="E57" s="3" t="inlineStr">
-        <is>
-          <t>Team Python</t>
-        </is>
-      </c>
-      <c r="F57" s="2" t="n"/>
-      <c r="G57" s="2" t="n"/>
-      <c r="H57" s="2" t="n"/>
-      <c r="I57" s="2" t="n"/>
-      <c r="J57" s="2" t="n"/>
-      <c r="K57" s="2" t="n"/>
-      <c r="L57" s="2" t="n"/>
-      <c r="M57" s="2" t="n"/>
-      <c r="N57" s="2" t="n"/>
-      <c r="O57" s="2" t="n"/>
-      <c r="P57" s="2" t="n"/>
-      <c r="Q57" s="2" t="n"/>
-      <c r="R57" s="2" t="n"/>
+      <c r="A57" s="4" t="inlineStr">
+        <is>
+          <t>Loại</t>
+        </is>
+      </c>
+      <c r="B57" s="5" t="inlineStr">
+        <is>
+          <t>KR phòng</t>
+        </is>
+      </c>
+      <c r="C57" s="5" t="inlineStr">
+        <is>
+          <t>KR team</t>
+        </is>
+      </c>
+      <c r="D57" s="5" t="inlineStr">
+        <is>
+          <t>KR cá nhân</t>
+        </is>
+      </c>
+      <c r="E57" s="5" t="inlineStr">
+        <is>
+          <t>Công thức tính</t>
+        </is>
+      </c>
+      <c r="F57" s="5" t="inlineStr">
+        <is>
+          <t>Nguồn dữ liệu</t>
+        </is>
+      </c>
+      <c r="G57" s="5" t="inlineStr">
+        <is>
+          <t>Định kỳ tính</t>
+        </is>
+      </c>
+      <c r="H57" s="5" t="inlineStr">
+        <is>
+          <t>Đơn vị tính</t>
+        </is>
+      </c>
+      <c r="I57" s="5" t="inlineStr">
+        <is>
+          <t>Điều kiện</t>
+        </is>
+      </c>
+      <c r="J57" s="5" t="inlineStr">
+        <is>
+          <t>Norm</t>
+        </is>
+      </c>
+      <c r="K57" s="6" t="inlineStr">
+        <is>
+          <t>% Trọng số chỉ tiêu</t>
+        </is>
+      </c>
+      <c r="L57" s="6" t="inlineStr">
+        <is>
+          <t>Kết quả</t>
+        </is>
+      </c>
+      <c r="M57" s="6" t="inlineStr">
+        <is>
+          <t>Tỷ lệ</t>
+        </is>
+      </c>
+      <c r="N57" s="6" t="inlineStr">
+        <is>
+          <t>Tổng thời gian dự kiến/ ước tính công việc (giờ)</t>
+        </is>
+      </c>
+      <c r="O57" s="4" t="inlineStr">
+        <is>
+          <t>Tổng thời gian thực hiện công việc thực tế (giờ)</t>
+        </is>
+      </c>
+      <c r="P57" s="6" t="inlineStr">
+        <is>
+          <t>Note dự kiến</t>
+        </is>
+      </c>
+      <c r="Q57" s="4" t="inlineStr">
+        <is>
+          <t>Note bằng chứng thực tế</t>
+        </is>
+      </c>
+      <c r="R57" s="7" t="inlineStr">
+        <is>
+          <t>QA</t>
+        </is>
+      </c>
     </row>
     <row r="58">
-      <c r="A58" s="4" t="inlineStr">
-        <is>
-          <t>Loại</t>
-        </is>
-      </c>
-      <c r="B58" s="5" t="inlineStr">
-        <is>
-          <t>KR phòng</t>
-        </is>
-      </c>
-      <c r="C58" s="5" t="inlineStr">
-        <is>
-          <t>KR team</t>
-        </is>
-      </c>
-      <c r="D58" s="5" t="inlineStr">
-        <is>
-          <t>KR cá nhân</t>
-        </is>
-      </c>
-      <c r="E58" s="5" t="inlineStr">
-        <is>
-          <t>Công thức tính</t>
-        </is>
-      </c>
-      <c r="F58" s="5" t="inlineStr">
-        <is>
-          <t>Nguồn dữ liệu</t>
-        </is>
-      </c>
-      <c r="G58" s="5" t="inlineStr">
-        <is>
-          <t>Định kỳ tính</t>
-        </is>
-      </c>
-      <c r="H58" s="5" t="inlineStr">
-        <is>
-          <t>Đơn vị tính</t>
-        </is>
-      </c>
-      <c r="I58" s="5" t="inlineStr">
-        <is>
-          <t>Điều kiện</t>
-        </is>
-      </c>
-      <c r="J58" s="5" t="inlineStr">
-        <is>
-          <t>Norm</t>
-        </is>
-      </c>
-      <c r="K58" s="6" t="inlineStr">
-        <is>
-          <t>% Trọng số chỉ tiêu</t>
-        </is>
-      </c>
-      <c r="L58" s="6" t="inlineStr">
-        <is>
-          <t>Kết quả</t>
-        </is>
-      </c>
-      <c r="M58" s="6" t="inlineStr">
-        <is>
-          <t>Tỷ lệ</t>
-        </is>
-      </c>
-      <c r="N58" s="6" t="inlineStr">
-        <is>
-          <t>Tổng thời gian dự kiến/ ước tính công việc (giờ)</t>
-        </is>
-      </c>
-      <c r="O58" s="4" t="inlineStr">
-        <is>
-          <t>Tổng thời gian thực hiện công việc thực tế (giờ)</t>
-        </is>
-      </c>
-      <c r="P58" s="6" t="inlineStr">
-        <is>
-          <t>Note dự kiến</t>
-        </is>
-      </c>
-      <c r="Q58" s="4" t="inlineStr">
-        <is>
-          <t>Note bằng chứng thực tế</t>
-        </is>
-      </c>
-      <c r="R58" s="7" t="inlineStr">
-        <is>
-          <t>QA</t>
-        </is>
-      </c>
+      <c r="A58" s="8" t="inlineStr">
+        <is>
+          <t>kpi</t>
+        </is>
+      </c>
+      <c r="B58" s="8" t="inlineStr">
+        <is>
+          <t>Hoàn thành đúng tiến độ và chất lượng các Công việc phát sinh/ Seminar/ Cải tiến</t>
+        </is>
+      </c>
+      <c r="C58" s="8" t="inlineStr">
+        <is>
+          <t>Hoàn thành đúng tiến độ và chất lượng các Công việc phát sinh/ Seminar/ Cải tiến</t>
+        </is>
+      </c>
+      <c r="D58" s="8" t="inlineStr">
+        <is>
+          <t>Hoàn thành Thi chứng chỉ AWS Certified Developer 23.09.2023</t>
+        </is>
+      </c>
+      <c r="E58" s="8" t="inlineStr">
+        <is>
+          <t>Được CBQL confirm</t>
+        </is>
+      </c>
+      <c r="F58" s="8" t="inlineStr">
+        <is>
+          <t>File tài liệu</t>
+        </is>
+      </c>
+      <c r="G58" s="8" t="inlineStr">
+        <is>
+          <t>Tháng</t>
+        </is>
+      </c>
+      <c r="H58" s="8" t="inlineStr">
+        <is>
+          <t>Đạt/Không đạt</t>
+        </is>
+      </c>
+      <c r="I58" s="8" t="inlineStr">
+        <is>
+          <t>=</t>
+        </is>
+      </c>
+      <c r="J58" s="8" t="inlineStr">
+        <is>
+          <t>Đạt</t>
+        </is>
+      </c>
+      <c r="K58" s="8" t="n">
+        <v>20</v>
+      </c>
+      <c r="L58" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="M58" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="N58" s="8" t="n">
+        <v>16</v>
+      </c>
+      <c r="O58" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="P58" s="8" t="n"/>
+      <c r="Q58" s="8" t="n"/>
+      <c r="R58" s="8" t="inlineStr"/>
     </row>
     <row r="59">
-      <c r="A59" s="8" t="inlineStr">
-        <is>
-          <t>kpi</t>
-        </is>
-      </c>
+      <c r="A59" s="2" t="n"/>
       <c r="B59" s="8" t="inlineStr">
         <is>
           <t>Đảm bảo chất lượng sản phẩm  1. PTSP: với số bug log trên các môi trường trong dự án OnCX, SOP, HappyConnect, Dialo, CheckMK, SmartRouting 2. Vận hành: Đảm bảo cam kết thời gian khắc phục lỗi từ lúc phát hiện đến khi xử lý xong"</t>
@@ -4340,7 +4433,7 @@
         <v>100</v>
       </c>
       <c r="M59" s="8" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="N59" s="8" t="n">
         <v>30</v>
@@ -4372,138 +4465,72 @@
       <c r="A60" s="2" t="n"/>
       <c r="B60" s="8" t="inlineStr">
         <is>
-          <t>Hoàn thành đúng tiến độ và chất lượng các Công việc phát sinh/ Seminar/ Cải tiến</t>
+          <t>"Đảm bảo chất lượng sản phẩm  1. PTSP: với số bug log trên các môi trường trong dự án OnCX, SOP, HappyConnect, Dialo, CheckMK, SmartRouting 2. Vận hành: Đảm bảo cam kết thời gian khắc phục lỗi từ lúc phát hiện đến khi xử lý xong"</t>
         </is>
       </c>
       <c r="C60" s="8" t="inlineStr">
         <is>
-          <t>Hoàn thành đúng tiến độ và chất lượng các Công việc phát sinh/ Seminar/ Cải tiến</t>
+          <t>Đảm bảo chất lượng sản phẩm với số bug log trên các môi trường trong dự án OnCX, SOP, HappyConnect, Dialo, CheckMK, SmartRouting</t>
         </is>
       </c>
       <c r="D60" s="8" t="inlineStr">
         <is>
-          <t>Hoàn thành Thi chứng chỉ AWS Certified Developer 23.09.2023</t>
+          <t>"- Trên môi trường stg số bugs được report trong mỗi tính năng khi review code/ thực hiện dev &lt;= 5  Và - Trên môi trường UAT/ production có critical/important issue &lt;= 1 và lỗi lặp = 0"</t>
         </is>
       </c>
       <c r="E60" s="8" t="inlineStr">
-        <is>
-          <t>Được CBQL confirm</t>
-        </is>
-      </c>
-      <c r="F60" s="8" t="inlineStr">
-        <is>
-          <t>File tài liệu</t>
-        </is>
-      </c>
-      <c r="G60" s="8" t="inlineStr">
-        <is>
-          <t>Tháng</t>
-        </is>
-      </c>
-      <c r="H60" s="8" t="inlineStr">
-        <is>
-          <t>Đạt/Không đạt</t>
-        </is>
-      </c>
-      <c r="I60" s="8" t="inlineStr">
-        <is>
-          <t>=</t>
-        </is>
-      </c>
-      <c r="J60" s="8" t="inlineStr">
-        <is>
-          <t>Đạt</t>
-        </is>
-      </c>
-      <c r="K60" s="8" t="n">
-        <v>20</v>
-      </c>
-      <c r="L60" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="M60" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="N60" s="8" t="n">
-        <v>16</v>
-      </c>
-      <c r="O60" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="P60" s="8" t="n"/>
-      <c r="Q60" s="8" t="n"/>
-      <c r="R60" s="8" t="inlineStr"/>
-    </row>
-    <row r="61">
-      <c r="A61" s="2" t="n"/>
-      <c r="B61" s="8" t="inlineStr">
-        <is>
-          <t>"Đảm bảo chất lượng sản phẩm  1. PTSP: với số bug log trên các môi trường trong dự án OnCX, SOP, HappyConnect, Dialo, CheckMK, SmartRouting 2. Vận hành: Đảm bảo cam kết thời gian khắc phục lỗi từ lúc phát hiện đến khi xử lý xong"</t>
-        </is>
-      </c>
-      <c r="C61" s="8" t="inlineStr">
-        <is>
-          <t>Đảm bảo chất lượng sản phẩm với số bug log trên các môi trường trong dự án OnCX, SOP, HappyConnect, Dialo, CheckMK, SmartRouting</t>
-        </is>
-      </c>
-      <c r="D61" s="8" t="inlineStr">
-        <is>
-          <t>"- Trên môi trường stg số bugs được report trong mỗi tính năng khi review code/ thực hiện dev &lt;= 5  Và - Trên môi trường UAT/ production có critical/important issue &lt;= 1 và lỗi lặp = 0"</t>
-        </is>
-      </c>
-      <c r="E61" s="8" t="inlineStr">
         <is>
           <t>"- STG: số bug/tính năng khi review code/ thực hiện dev &lt;= 5
 - UAT/PROD: critical/important issue &lt;= 1 và lỗi lặp = 0
 ** Không tính issue do nguyên nhân enhancement, wishlist, support"</t>
         </is>
       </c>
-      <c r="F61" s="8" t="inlineStr">
+      <c r="F60" s="8" t="inlineStr">
         <is>
           <t>Taiga</t>
         </is>
       </c>
-      <c r="G61" s="8" t="inlineStr">
+      <c r="G60" s="8" t="inlineStr">
         <is>
           <t>Tháng</t>
         </is>
       </c>
-      <c r="H61" s="8" t="inlineStr">
+      <c r="H60" s="8" t="inlineStr">
         <is>
           <t>%</t>
         </is>
       </c>
-      <c r="I61" s="8" t="inlineStr">
+      <c r="I60" s="8" t="inlineStr">
         <is>
           <t>=</t>
         </is>
       </c>
-      <c r="J61" s="8" t="inlineStr">
+      <c r="J60" s="8" t="inlineStr">
         <is>
           <t>100%</t>
         </is>
       </c>
-      <c r="K61" s="8" t="n">
+      <c r="K60" s="8" t="n">
         <v>50</v>
       </c>
-      <c r="L61" s="8" t="n">
-        <v>100</v>
-      </c>
-      <c r="M61" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="N61" s="8" t="n">
+      <c r="L60" s="8" t="n">
+        <v>100</v>
+      </c>
+      <c r="M60" s="8" t="n">
+        <v>50</v>
+      </c>
+      <c r="N60" s="8" t="n">
         <v>38</v>
       </c>
-      <c r="O61" s="8" t="n">
+      <c r="O60" s="8" t="n">
         <v>15</v>
       </c>
-      <c r="P61" s="8" t="inlineStr">
+      <c r="P60" s="8" t="inlineStr">
         <is>
           <t>- Fix bug: 2h/ngày*19 (Meeting trao đổi và xử lý Bug)</t>
         </is>
       </c>
-      <c r="Q61" s="8" t="inlineStr">
+      <c r="Q60" s="8" t="inlineStr">
         <is>
           <r>
             <rPr>
@@ -4520,129 +4547,129 @@
           </r>
         </is>
       </c>
-      <c r="R61" s="8" t="inlineStr"/>
+      <c r="R60" s="8" t="inlineStr"/>
+    </row>
+    <row r="61">
+      <c r="A61" s="8" t="n">
+        <v/>
+      </c>
+      <c r="B61" s="8" t="n">
+        <v/>
+      </c>
+      <c r="C61" s="8" t="n">
+        <v/>
+      </c>
+      <c r="D61" s="8" t="n">
+        <v/>
+      </c>
+      <c r="E61" s="8" t="n">
+        <v/>
+      </c>
+      <c r="F61" s="8" t="n">
+        <v/>
+      </c>
+      <c r="G61" s="8" t="n">
+        <v/>
+      </c>
+      <c r="H61" s="8" t="n">
+        <v/>
+      </c>
+      <c r="I61" s="8" t="n">
+        <v/>
+      </c>
+      <c r="J61" s="8" t="n">
+        <v/>
+      </c>
+      <c r="K61" s="9" t="n">
+        <v>100</v>
+      </c>
+      <c r="L61" s="9" t="n">
+        <v>200</v>
+      </c>
+      <c r="M61" s="9" t="n">
+        <v>80</v>
+      </c>
+      <c r="N61" s="9" t="inlineStr"/>
+      <c r="O61" s="9" t="inlineStr"/>
+      <c r="P61" s="8" t="n">
+        <v/>
+      </c>
+      <c r="Q61" s="8" t="n">
+        <v/>
+      </c>
+      <c r="R61" s="8" t="n">
+        <v/>
+      </c>
     </row>
     <row r="62">
-      <c r="A62" s="8" t="n">
-        <v/>
-      </c>
-      <c r="B62" s="8" t="n">
-        <v/>
-      </c>
-      <c r="C62" s="8" t="n">
-        <v/>
-      </c>
-      <c r="D62" s="8" t="n">
-        <v/>
-      </c>
-      <c r="E62" s="8" t="n">
-        <v/>
-      </c>
-      <c r="F62" s="8" t="n">
-        <v/>
-      </c>
-      <c r="G62" s="8" t="n">
-        <v/>
-      </c>
-      <c r="H62" s="8" t="n">
-        <v/>
-      </c>
-      <c r="I62" s="8" t="n">
-        <v/>
-      </c>
-      <c r="J62" s="8" t="n">
-        <v/>
-      </c>
-      <c r="K62" s="9" t="n">
-        <v>100</v>
-      </c>
-      <c r="L62" s="9" t="n">
-        <v>200</v>
-      </c>
-      <c r="M62" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="N62" s="9" t="inlineStr"/>
-      <c r="O62" s="9" t="inlineStr"/>
-      <c r="P62" s="8" t="n">
-        <v/>
-      </c>
-      <c r="Q62" s="8" t="n">
-        <v/>
-      </c>
-      <c r="R62" s="8" t="n">
-        <v/>
-      </c>
-    </row>
-    <row r="63">
-      <c r="A63" s="8" t="inlineStr">
+      <c r="A62" s="8" t="inlineStr">
         <is>
           <t>okr</t>
         </is>
       </c>
-      <c r="B63" s="8" t="inlineStr">
+      <c r="B62" s="8" t="inlineStr">
         <is>
           <t>Hoàn thành xây dựng dashboard đầu tư và đánh giá hạ tầng, IP Pool theo kế hoạch trong tháng 9</t>
         </is>
       </c>
-      <c r="C63" s="8" t="inlineStr">
+      <c r="C62" s="8" t="inlineStr">
         <is>
           <t>Đảm bảo 100% các tính năng trong sprint được giao hoàn thành đúng thời hạn dự án PoolIP - #662 7. Mô tả các job IP Pool -&gt; Thực hiện khai báo IP Pool - #983 Phân quyền module IP pool"</t>
         </is>
       </c>
-      <c r="D63" s="8" t="inlineStr">
+      <c r="D62" s="8" t="inlineStr">
         <is>
           <t>100% US/ sprint hoàn thành thỏa cả 2 điều kiện: - Có bằng chứng dev intergration test/ unittest ở mt dev - Tester test pass các US trên mt stg"</t>
         </is>
       </c>
-      <c r="E63" s="8" t="inlineStr">
+      <c r="E62" s="8" t="inlineStr">
         <is>
           <t>"100% US/ sprint hoàn thành thỏa cả 2 điều kiện:
 - Có bằng chứng dev intergration test/ unittest ở mt dev
 - Tester test pass các US trên mt stg"</t>
         </is>
       </c>
-      <c r="F63" s="8" t="inlineStr">
+      <c r="F62" s="8" t="inlineStr">
         <is>
           <t>Taiga</t>
         </is>
       </c>
-      <c r="G63" s="8" t="inlineStr">
+      <c r="G62" s="8" t="inlineStr">
         <is>
           <t>Tháng</t>
         </is>
       </c>
-      <c r="H63" s="8" t="inlineStr">
+      <c r="H62" s="8" t="inlineStr">
         <is>
           <t>%</t>
         </is>
       </c>
-      <c r="I63" s="8" t="inlineStr">
+      <c r="I62" s="8" t="inlineStr">
         <is>
           <t>=</t>
         </is>
       </c>
-      <c r="J63" s="8" t="inlineStr">
+      <c r="J62" s="8" t="inlineStr">
         <is>
           <t>100%</t>
         </is>
       </c>
-      <c r="K63" s="8" t="n">
-        <v>100</v>
-      </c>
-      <c r="L63" s="8" t="n">
-        <v>100</v>
-      </c>
-      <c r="M63" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="N63" s="8" t="n">
+      <c r="K62" s="8" t="n">
+        <v>100</v>
+      </c>
+      <c r="L62" s="8" t="n">
+        <v>100</v>
+      </c>
+      <c r="M62" s="8" t="n">
+        <v>100</v>
+      </c>
+      <c r="N62" s="8" t="n">
         <v>98</v>
       </c>
-      <c r="O63" s="8" t="n">
+      <c r="O62" s="8" t="n">
         <v>153</v>
       </c>
-      <c r="P63" s="8" t="inlineStr">
+      <c r="P62" s="8" t="inlineStr">
         <is>
           <t xml:space="preserve">- 4*19 =  76(Code tính năng 4h/ngày)
 - 2h*4 = 12(Review + Update Code: 2h/ tuần)
@@ -4651,7 +4678,7 @@
 </t>
         </is>
       </c>
-      <c r="Q63" s="8" t="inlineStr">
+      <c r="Q62" s="8" t="inlineStr">
         <is>
           <r>
             <rPr>
@@ -4668,70 +4695,108 @@
           </r>
         </is>
       </c>
-      <c r="R63" s="8" t="inlineStr"/>
+      <c r="R62" s="8" t="inlineStr"/>
+    </row>
+    <row r="63">
+      <c r="A63" s="8" t="n">
+        <v/>
+      </c>
+      <c r="B63" s="8" t="n">
+        <v/>
+      </c>
+      <c r="C63" s="8" t="n">
+        <v/>
+      </c>
+      <c r="D63" s="8" t="n">
+        <v/>
+      </c>
+      <c r="E63" s="8" t="n">
+        <v/>
+      </c>
+      <c r="F63" s="8" t="n">
+        <v/>
+      </c>
+      <c r="G63" s="8" t="n">
+        <v/>
+      </c>
+      <c r="H63" s="8" t="n">
+        <v/>
+      </c>
+      <c r="I63" s="8" t="n">
+        <v/>
+      </c>
+      <c r="J63" s="8" t="n">
+        <v/>
+      </c>
+      <c r="K63" s="9" t="n">
+        <v>100</v>
+      </c>
+      <c r="L63" s="9" t="n">
+        <v>100</v>
+      </c>
+      <c r="M63" s="9" t="n">
+        <v>100</v>
+      </c>
+      <c r="N63" s="9" t="n">
+        <v>182</v>
+      </c>
+      <c r="O63" s="9" t="n">
+        <v>168</v>
+      </c>
+      <c r="P63" s="8" t="n">
+        <v/>
+      </c>
+      <c r="Q63" s="8" t="n">
+        <v/>
+      </c>
+      <c r="R63" s="8" t="n">
+        <v/>
+      </c>
     </row>
     <row r="64">
-      <c r="A64" s="8" t="n">
-        <v/>
-      </c>
-      <c r="B64" s="8" t="n">
-        <v/>
-      </c>
-      <c r="C64" s="8" t="n">
-        <v/>
-      </c>
-      <c r="D64" s="8" t="n">
-        <v/>
-      </c>
-      <c r="E64" s="8" t="n">
-        <v/>
-      </c>
-      <c r="F64" s="8" t="n">
-        <v/>
-      </c>
-      <c r="G64" s="8" t="n">
-        <v/>
-      </c>
-      <c r="H64" s="8" t="n">
-        <v/>
-      </c>
-      <c r="I64" s="8" t="n">
-        <v/>
-      </c>
-      <c r="J64" s="8" t="n">
-        <v/>
-      </c>
-      <c r="K64" s="9" t="n">
-        <v>100</v>
-      </c>
-      <c r="L64" s="9" t="n">
-        <v>100</v>
-      </c>
-      <c r="M64" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="N64" s="9" t="n">
-        <v>182</v>
-      </c>
-      <c r="O64" s="9" t="n">
-        <v>168</v>
-      </c>
-      <c r="P64" s="8" t="n">
-        <v/>
-      </c>
-      <c r="Q64" s="8" t="n">
-        <v/>
-      </c>
-      <c r="R64" s="8" t="n">
-        <v/>
-      </c>
+      <c r="A64" s="2" t="n"/>
+      <c r="B64" s="2" t="n"/>
+      <c r="C64" s="2" t="n"/>
+      <c r="D64" s="2" t="n"/>
+      <c r="E64" s="2" t="n"/>
+      <c r="F64" s="2" t="n"/>
+      <c r="G64" s="2" t="n"/>
+      <c r="H64" s="2" t="n"/>
+      <c r="I64" s="2" t="n"/>
+      <c r="J64" s="2" t="n"/>
+      <c r="K64" s="2" t="n"/>
+      <c r="L64" s="2" t="n"/>
+      <c r="M64" s="2" t="n"/>
+      <c r="N64" s="2" t="n"/>
+      <c r="O64" s="2" t="n"/>
+      <c r="P64" s="2" t="n"/>
+      <c r="Q64" s="2" t="n"/>
+      <c r="R64" s="2" t="n"/>
     </row>
     <row r="65">
-      <c r="A65" s="2" t="n"/>
-      <c r="B65" s="2" t="n"/>
-      <c r="C65" s="2" t="n"/>
-      <c r="D65" s="2" t="n"/>
-      <c r="E65" s="2" t="n"/>
+      <c r="A65" s="3" t="n">
+        <v>8</v>
+      </c>
+      <c r="B65" s="3" t="inlineStr">
+        <is>
+          <t>Lê Huy Nam</t>
+        </is>
+      </c>
+      <c r="C65" s="3" t="inlineStr">
+        <is>
+          <t>namlh44</t>
+        </is>
+      </c>
+      <c r="D65" s="3" t="inlineStr">
+        <is>
+          <t>L1</t>
+        </is>
+      </c>
+      <c r="E65" s="3" t="inlineStr">
+        <is>
+          <t>Team Python</t>
+        </is>
+      </c>
       <c r="F65" s="2" t="n"/>
       <c r="G65" s="2" t="n"/>
       <c r="H65" s="2" t="n"/>
@@ -4747,159 +4812,191 @@
       <c r="R65" s="2" t="n"/>
     </row>
     <row r="66">
-      <c r="A66" s="3" t="n">
+      <c r="A66" s="4" t="inlineStr">
+        <is>
+          <t>Loại</t>
+        </is>
+      </c>
+      <c r="B66" s="5" t="inlineStr">
+        <is>
+          <t>KR phòng</t>
+        </is>
+      </c>
+      <c r="C66" s="5" t="inlineStr">
+        <is>
+          <t>KR team</t>
+        </is>
+      </c>
+      <c r="D66" s="5" t="inlineStr">
+        <is>
+          <t>KR cá nhân</t>
+        </is>
+      </c>
+      <c r="E66" s="5" t="inlineStr">
+        <is>
+          <t>Công thức tính</t>
+        </is>
+      </c>
+      <c r="F66" s="5" t="inlineStr">
+        <is>
+          <t>Nguồn dữ liệu</t>
+        </is>
+      </c>
+      <c r="G66" s="5" t="inlineStr">
+        <is>
+          <t>Định kỳ tính</t>
+        </is>
+      </c>
+      <c r="H66" s="5" t="inlineStr">
+        <is>
+          <t>Đơn vị tính</t>
+        </is>
+      </c>
+      <c r="I66" s="5" t="inlineStr">
+        <is>
+          <t>Điều kiện</t>
+        </is>
+      </c>
+      <c r="J66" s="5" t="inlineStr">
+        <is>
+          <t>Norm</t>
+        </is>
+      </c>
+      <c r="K66" s="6" t="inlineStr">
+        <is>
+          <t>% Trọng số chỉ tiêu</t>
+        </is>
+      </c>
+      <c r="L66" s="6" t="inlineStr">
+        <is>
+          <t>Kết quả</t>
+        </is>
+      </c>
+      <c r="M66" s="6" t="inlineStr">
+        <is>
+          <t>Tỷ lệ</t>
+        </is>
+      </c>
+      <c r="N66" s="6" t="inlineStr">
+        <is>
+          <t>Tổng thời gian dự kiến/ ước tính công việc (giờ)</t>
+        </is>
+      </c>
+      <c r="O66" s="4" t="inlineStr">
+        <is>
+          <t>Tổng thời gian thực hiện công việc thực tế (giờ)</t>
+        </is>
+      </c>
+      <c r="P66" s="6" t="inlineStr">
+        <is>
+          <t>Note dự kiến</t>
+        </is>
+      </c>
+      <c r="Q66" s="4" t="inlineStr">
+        <is>
+          <t>Note bằng chứng thực tế</t>
+        </is>
+      </c>
+      <c r="R66" s="7" t="inlineStr">
+        <is>
+          <t>QA</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="8" t="inlineStr">
+        <is>
+          <t>kpi</t>
+        </is>
+      </c>
+      <c r="B67" s="8" t="inlineStr">
+        <is>
+          <t>Hoàn thành đúng tiến độ và chất lượng các Công việc phát sinh/ Seminar/ Cải tiến</t>
+        </is>
+      </c>
+      <c r="C67" s="8" t="inlineStr">
+        <is>
+          <t>Hoàn thành đúng tiến độ và chất lượng các Công việc phát sinh</t>
+        </is>
+      </c>
+      <c r="D67" s="8" t="inlineStr">
+        <is>
+          <t>Có &gt;= 1 cải tiến để nâng cao chất lượng công việc trong dự án/ môi trường hoặc semninar/ công việc phát sinh được CBQL giao</t>
+        </is>
+      </c>
+      <c r="E67" s="8" t="inlineStr">
+        <is>
+          <t>CBQL/PM/SA confirm</t>
+        </is>
+      </c>
+      <c r="F67" s="8" t="inlineStr">
+        <is>
+          <t>Taiga</t>
+        </is>
+      </c>
+      <c r="G67" s="8" t="inlineStr">
+        <is>
+          <t>Tháng</t>
+        </is>
+      </c>
+      <c r="H67" s="8" t="inlineStr">
+        <is>
+          <t>%</t>
+        </is>
+      </c>
+      <c r="I67" s="8" t="inlineStr">
+        <is>
+          <t>=</t>
+        </is>
+      </c>
+      <c r="J67" s="8" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="K67" s="8" t="n">
+        <v>20</v>
+      </c>
+      <c r="L67" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="M67" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="N67" s="8" t="n">
+        <v>11</v>
+      </c>
+      <c r="O67" s="8" t="n">
         <v>8</v>
       </c>
-      <c r="B66" s="3" t="inlineStr">
-        <is>
-          <t>Lê Huy Nam</t>
-        </is>
-      </c>
-      <c r="C66" s="3" t="inlineStr">
-        <is>
-          <t>namlh44</t>
-        </is>
-      </c>
-      <c r="D66" s="3" t="inlineStr">
-        <is>
-          <t>L1</t>
-        </is>
-      </c>
-      <c r="E66" s="3" t="inlineStr">
-        <is>
-          <t>Team Python</t>
-        </is>
-      </c>
-      <c r="F66" s="2" t="n"/>
-      <c r="G66" s="2" t="n"/>
-      <c r="H66" s="2" t="n"/>
-      <c r="I66" s="2" t="n"/>
-      <c r="J66" s="2" t="n"/>
-      <c r="K66" s="2" t="n"/>
-      <c r="L66" s="2" t="n"/>
-      <c r="M66" s="2" t="n"/>
-      <c r="N66" s="2" t="n"/>
-      <c r="O66" s="2" t="n"/>
-      <c r="P66" s="2" t="n"/>
-      <c r="Q66" s="2" t="n"/>
-      <c r="R66" s="2" t="n"/>
-    </row>
-    <row r="67">
-      <c r="A67" s="4" t="inlineStr">
-        <is>
-          <t>Loại</t>
-        </is>
-      </c>
-      <c r="B67" s="5" t="inlineStr">
-        <is>
-          <t>KR phòng</t>
-        </is>
-      </c>
-      <c r="C67" s="5" t="inlineStr">
-        <is>
-          <t>KR team</t>
-        </is>
-      </c>
-      <c r="D67" s="5" t="inlineStr">
-        <is>
-          <t>KR cá nhân</t>
-        </is>
-      </c>
-      <c r="E67" s="5" t="inlineStr">
-        <is>
-          <t>Công thức tính</t>
-        </is>
-      </c>
-      <c r="F67" s="5" t="inlineStr">
-        <is>
-          <t>Nguồn dữ liệu</t>
-        </is>
-      </c>
-      <c r="G67" s="5" t="inlineStr">
-        <is>
-          <t>Định kỳ tính</t>
-        </is>
-      </c>
-      <c r="H67" s="5" t="inlineStr">
-        <is>
-          <t>Đơn vị tính</t>
-        </is>
-      </c>
-      <c r="I67" s="5" t="inlineStr">
-        <is>
-          <t>Điều kiện</t>
-        </is>
-      </c>
-      <c r="J67" s="5" t="inlineStr">
-        <is>
-          <t>Norm</t>
-        </is>
-      </c>
-      <c r="K67" s="6" t="inlineStr">
-        <is>
-          <t>% Trọng số chỉ tiêu</t>
-        </is>
-      </c>
-      <c r="L67" s="6" t="inlineStr">
-        <is>
-          <t>Kết quả</t>
-        </is>
-      </c>
-      <c r="M67" s="6" t="inlineStr">
-        <is>
-          <t>Tỷ lệ</t>
-        </is>
-      </c>
-      <c r="N67" s="6" t="inlineStr">
-        <is>
-          <t>Tổng thời gian dự kiến/ ước tính công việc (giờ)</t>
-        </is>
-      </c>
-      <c r="O67" s="4" t="inlineStr">
-        <is>
-          <t>Tổng thời gian thực hiện công việc thực tế (giờ)</t>
-        </is>
-      </c>
-      <c r="P67" s="6" t="inlineStr">
-        <is>
-          <t>Note dự kiến</t>
-        </is>
-      </c>
-      <c r="Q67" s="4" t="inlineStr">
-        <is>
-          <t>Note bằng chứng thực tế</t>
-        </is>
-      </c>
-      <c r="R67" s="7" t="inlineStr">
-        <is>
-          <t>QA</t>
-        </is>
-      </c>
+      <c r="P67" s="8" t="inlineStr">
+        <is>
+          <t>11h/tháng</t>
+        </is>
+      </c>
+      <c r="Q67" s="8" t="n"/>
+      <c r="R67" s="8" t="inlineStr"/>
     </row>
     <row r="68">
-      <c r="A68" s="8" t="inlineStr">
-        <is>
-          <t>kpi</t>
-        </is>
-      </c>
+      <c r="A68" s="2" t="n"/>
       <c r="B68" s="8" t="inlineStr">
         <is>
-          <t>Hoàn thành đúng tiến độ và chất lượng các Công việc phát sinh/ Seminar/ Cải tiến</t>
+          <t>Đảm bảo chất lượng sản phẩm  1. PTSP: với số bug log trên các môi trường trong dự án OnCX, SOP, HappyConnect, Dialo, CheckMK, SmartRouting 2. Vận hành: Đảm bảo cam kết thời gian khắc phục lỗi từ lúc phát hiện đến khi xử lý xong</t>
         </is>
       </c>
       <c r="C68" s="8" t="inlineStr">
         <is>
-          <t>Hoàn thành đúng tiến độ và chất lượng các Công việc phát sinh</t>
+          <t>Tỷ lệ cam kết thời gian khắc phục lỗi từ lúc phát hiện đến khi xử lý xong &gt;= 90%</t>
         </is>
       </c>
       <c r="D68" s="8" t="inlineStr">
         <is>
-          <t>Có &gt;= 1 cải tiến để nâng cao chất lượng công việc trong dự án/ môi trường hoặc semninar/ công việc phát sinh được CBQL giao</t>
+          <t>Tỷ lệ hoàn thành xử lý lỗi vận hành đúng hạn &gt;= 90%</t>
         </is>
       </c>
       <c r="E68" s="8" t="inlineStr">
         <is>
-          <t>CBQL/PM/SA confirm</t>
+          <t>Tổng số ticket đúng hạn trong tháng/ Tổng số ticket nhận trong tháng</t>
         </is>
       </c>
       <c r="F68" s="8" t="inlineStr">
@@ -4928,26 +5025,38 @@
         </is>
       </c>
       <c r="K68" s="8" t="n">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="L68" s="8" t="n">
+        <v>100</v>
+      </c>
+      <c r="M68" s="8" t="n">
+        <v>30</v>
+      </c>
+      <c r="N68" s="8" t="n">
         <v>0</v>
       </c>
-      <c r="M68" s="8" t="n">
+      <c r="O68" s="8" t="n">
         <v>0</v>
       </c>
-      <c r="N68" s="8" t="n">
-        <v>11</v>
-      </c>
-      <c r="O68" s="8" t="n">
-        <v>8</v>
-      </c>
-      <c r="P68" s="8" t="inlineStr">
-        <is>
-          <t>11h/tháng</t>
-        </is>
-      </c>
-      <c r="Q68" s="8" t="n"/>
+      <c r="P68" s="8" t="n"/>
+      <c r="Q68" s="8" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+              <rFont val="&lt;openpyxl.styles.fonts.Font object&gt;&#10;Parameters:&#10;name='Arial', charset=None, family=None, b=False, i=False, strike=False, outline=None, shadow=None, condense=None, color=&lt;openpyxl.styles.colors.Color object&gt;&#10;Parameters:&#10;rgb='00FF0000', indexed=None, auto=None, theme=None, tint=0.0, type='rgb', extend=None, sz=11.0, u=None, vertAlign=None, scheme=None"/>
+            </rPr>
+            <t xml:space="preserve">Bằng chứng : </t>
+          </r>
+          <r>
+            <rPr>
+              <rFont val="&lt;openpyxl.styles.fonts.Font object&gt;&#10;Parameters:&#10;name='Arial', charset=None, family=None, b=False, i=False, strike=False, outline=None, shadow=None, condense=None, color=&lt;openpyxl.styles.colors.Color object&gt;&#10;Parameters:&#10;rgb='006699CC', indexed=None, auto=None, theme=None, tint=0.0, type='rgb', extend=None, sz=11.0, u=None, vertAlign=None, scheme=None"/>
+            </rPr>
+            <t xml:space="preserve">https://docs.google.com/spreadsheets/d/1DhuH-R5bhZsOXwSuTBgLR92b_SDoFTZV/edit#gid=155501133
+</t>
+          </r>
+        </is>
+      </c>
       <c r="R68" s="8" t="inlineStr"/>
     </row>
     <row r="69">
@@ -5010,7 +5119,7 @@
         <v>100</v>
       </c>
       <c r="M69" s="8" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="N69" s="8" t="n">
         <v>38</v>
@@ -5043,214 +5152,132 @@
       <c r="R69" s="8" t="inlineStr"/>
     </row>
     <row r="70">
-      <c r="A70" s="2" t="n"/>
-      <c r="B70" s="8" t="inlineStr">
-        <is>
-          <t>Đảm bảo chất lượng sản phẩm  1. PTSP: với số bug log trên các môi trường trong dự án OnCX, SOP, HappyConnect, Dialo, CheckMK, SmartRouting 2. Vận hành: Đảm bảo cam kết thời gian khắc phục lỗi từ lúc phát hiện đến khi xử lý xong</t>
-        </is>
-      </c>
-      <c r="C70" s="8" t="inlineStr">
-        <is>
-          <t>Tỷ lệ cam kết thời gian khắc phục lỗi từ lúc phát hiện đến khi xử lý xong &gt;= 90%</t>
-        </is>
-      </c>
-      <c r="D70" s="8" t="inlineStr">
-        <is>
-          <t>Tỷ lệ hoàn thành xử lý lỗi vận hành đúng hạn &gt;= 90%</t>
-        </is>
-      </c>
-      <c r="E70" s="8" t="inlineStr">
-        <is>
-          <t>Tổng số ticket đúng hạn trong tháng/ Tổng số ticket nhận trong tháng</t>
-        </is>
-      </c>
-      <c r="F70" s="8" t="inlineStr">
-        <is>
-          <t>Taiga</t>
-        </is>
-      </c>
-      <c r="G70" s="8" t="inlineStr">
-        <is>
-          <t>Tháng</t>
-        </is>
-      </c>
-      <c r="H70" s="8" t="inlineStr">
-        <is>
-          <t>%</t>
-        </is>
-      </c>
-      <c r="I70" s="8" t="inlineStr">
-        <is>
-          <t>=</t>
-        </is>
-      </c>
-      <c r="J70" s="8" t="inlineStr">
-        <is>
-          <t>100%</t>
-        </is>
-      </c>
-      <c r="K70" s="8" t="n">
-        <v>30</v>
-      </c>
-      <c r="L70" s="8" t="n">
-        <v>100</v>
-      </c>
-      <c r="M70" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="N70" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="O70" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="P70" s="8" t="n"/>
-      <c r="Q70" s="8" t="inlineStr">
-        <is>
-          <r>
-            <rPr>
-              <rFont val="&lt;openpyxl.styles.fonts.Font object&gt;&#10;Parameters:&#10;name='Arial', charset=None, family=None, b=False, i=False, strike=False, outline=None, shadow=None, condense=None, color=&lt;openpyxl.styles.colors.Color object&gt;&#10;Parameters:&#10;rgb='00FF0000', indexed=None, auto=None, theme=None, tint=0.0, type='rgb', extend=None, sz=11.0, u=None, vertAlign=None, scheme=None"/>
-            </rPr>
-            <t xml:space="preserve">Bằng chứng : </t>
-          </r>
-          <r>
-            <rPr>
-              <rFont val="&lt;openpyxl.styles.fonts.Font object&gt;&#10;Parameters:&#10;name='Arial', charset=None, family=None, b=False, i=False, strike=False, outline=None, shadow=None, condense=None, color=&lt;openpyxl.styles.colors.Color object&gt;&#10;Parameters:&#10;rgb='006699CC', indexed=None, auto=None, theme=None, tint=0.0, type='rgb', extend=None, sz=11.0, u=None, vertAlign=None, scheme=None"/>
-            </rPr>
-            <t xml:space="preserve">https://docs.google.com/spreadsheets/d/1DhuH-R5bhZsOXwSuTBgLR92b_SDoFTZV/edit#gid=155501133
-</t>
-          </r>
-        </is>
-      </c>
-      <c r="R70" s="8" t="inlineStr"/>
+      <c r="A70" s="8" t="n">
+        <v/>
+      </c>
+      <c r="B70" s="8" t="n">
+        <v/>
+      </c>
+      <c r="C70" s="8" t="n">
+        <v/>
+      </c>
+      <c r="D70" s="8" t="n">
+        <v/>
+      </c>
+      <c r="E70" s="8" t="n">
+        <v/>
+      </c>
+      <c r="F70" s="8" t="n">
+        <v/>
+      </c>
+      <c r="G70" s="8" t="n">
+        <v/>
+      </c>
+      <c r="H70" s="8" t="n">
+        <v/>
+      </c>
+      <c r="I70" s="8" t="n">
+        <v/>
+      </c>
+      <c r="J70" s="8" t="n">
+        <v/>
+      </c>
+      <c r="K70" s="9" t="n">
+        <v>100</v>
+      </c>
+      <c r="L70" s="9" t="n">
+        <v>200</v>
+      </c>
+      <c r="M70" s="9" t="n">
+        <v>80</v>
+      </c>
+      <c r="N70" s="9" t="inlineStr"/>
+      <c r="O70" s="9" t="inlineStr"/>
+      <c r="P70" s="8" t="n">
+        <v/>
+      </c>
+      <c r="Q70" s="8" t="n">
+        <v/>
+      </c>
+      <c r="R70" s="8" t="n">
+        <v/>
+      </c>
     </row>
     <row r="71">
-      <c r="A71" s="8" t="n">
-        <v/>
-      </c>
-      <c r="B71" s="8" t="n">
-        <v/>
-      </c>
-      <c r="C71" s="8" t="n">
-        <v/>
-      </c>
-      <c r="D71" s="8" t="n">
-        <v/>
-      </c>
-      <c r="E71" s="8" t="n">
-        <v/>
-      </c>
-      <c r="F71" s="8" t="n">
-        <v/>
-      </c>
-      <c r="G71" s="8" t="n">
-        <v/>
-      </c>
-      <c r="H71" s="8" t="n">
-        <v/>
-      </c>
-      <c r="I71" s="8" t="n">
-        <v/>
-      </c>
-      <c r="J71" s="8" t="n">
-        <v/>
-      </c>
-      <c r="K71" s="9" t="n">
-        <v>100</v>
-      </c>
-      <c r="L71" s="9" t="n">
-        <v>200</v>
-      </c>
-      <c r="M71" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="N71" s="9" t="inlineStr"/>
-      <c r="O71" s="9" t="inlineStr"/>
-      <c r="P71" s="8" t="n">
-        <v/>
-      </c>
-      <c r="Q71" s="8" t="n">
-        <v/>
-      </c>
-      <c r="R71" s="8" t="n">
-        <v/>
-      </c>
-    </row>
-    <row r="72">
-      <c r="A72" s="8" t="inlineStr">
+      <c r="A71" s="8" t="inlineStr">
         <is>
           <t>okr</t>
         </is>
       </c>
-      <c r="B72" s="8" t="inlineStr">
+      <c r="B71" s="8" t="inlineStr">
         <is>
           <t>Nâng cao chất lượng hoàn thành phát triển và release 100% các tính năng trong dự án trung tâm OnCX, SOP, HappyConnect, Dialo, CheckMK đúng thời hạn cam kết</t>
         </is>
       </c>
-      <c r="C72" s="8" t="inlineStr">
+      <c r="C71" s="8" t="inlineStr">
         <is>
           <t>Hoàn thành xây dựng dashboard đầu tư và đánh giá hạ tầng, IP Pool theo kế hoạch trong tháng 9</t>
         </is>
       </c>
-      <c r="D72" s="8" t="inlineStr">
+      <c r="D71" s="8" t="inlineStr">
         <is>
           <t>Đảm bảo 100% các tính năng trong sprint được giao hoàn thành đúng thời hạn dự án PoolIP - #661 7. Mô tả các job IP Pool -&gt; Check IP Free - #656 5. Ứng cứu sự cố</t>
         </is>
       </c>
-      <c r="E72" s="8" t="inlineStr">
+      <c r="E71" s="8" t="inlineStr">
         <is>
           <t>'100% US/ sprint hoàn thành thỏa cả 2 điều kiện:
 - Có bằng chứng dev intergration test/ unittest ở mt dev
 - Tester test pass các US trên mt stg</t>
         </is>
       </c>
-      <c r="F72" s="8" t="inlineStr">
+      <c r="F71" s="8" t="inlineStr">
         <is>
           <t>Taiga</t>
         </is>
       </c>
-      <c r="G72" s="8" t="inlineStr">
+      <c r="G71" s="8" t="inlineStr">
         <is>
           <t>Tháng</t>
         </is>
       </c>
-      <c r="H72" s="8" t="inlineStr">
+      <c r="H71" s="8" t="inlineStr">
         <is>
           <t>%</t>
         </is>
       </c>
-      <c r="I72" s="8" t="inlineStr">
+      <c r="I71" s="8" t="inlineStr">
         <is>
           <t>=</t>
         </is>
       </c>
-      <c r="J72" s="8" t="inlineStr">
+      <c r="J71" s="8" t="inlineStr">
         <is>
           <t>100%</t>
         </is>
       </c>
-      <c r="K72" s="8" t="n">
-        <v>100</v>
-      </c>
-      <c r="L72" s="8" t="n">
-        <v>100</v>
-      </c>
-      <c r="M72" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="N72" s="8" t="n">
+      <c r="K71" s="8" t="n">
+        <v>100</v>
+      </c>
+      <c r="L71" s="8" t="n">
+        <v>100</v>
+      </c>
+      <c r="M71" s="8" t="n">
+        <v>100</v>
+      </c>
+      <c r="N71" s="8" t="n">
         <v>103</v>
       </c>
-      <c r="O72" s="8" t="n">
+      <c r="O71" s="8" t="n">
         <v>134</v>
       </c>
-      <c r="P72" s="8" t="inlineStr">
+      <c r="P71" s="8" t="inlineStr">
         <is>
           <t>19 * 5( 4h mỗi ngày làm task , khoảng 30 phút - 1 tiếng daily/ meeting)
 8h/tháng (4h review, retro, planing 1 sprint)</t>
         </is>
       </c>
-      <c r="Q72" s="8" t="inlineStr">
+      <c r="Q71" s="8" t="inlineStr">
         <is>
           <r>
             <rPr>
@@ -5267,61 +5294,61 @@
           </r>
         </is>
       </c>
-      <c r="R72" s="8" t="inlineStr"/>
-    </row>
-    <row r="73">
-      <c r="A73" s="8" t="n">
-        <v/>
-      </c>
-      <c r="B73" s="8" t="n">
-        <v/>
-      </c>
-      <c r="C73" s="8" t="n">
-        <v/>
-      </c>
-      <c r="D73" s="8" t="n">
-        <v/>
-      </c>
-      <c r="E73" s="8" t="n">
-        <v/>
-      </c>
-      <c r="F73" s="8" t="n">
-        <v/>
-      </c>
-      <c r="G73" s="8" t="n">
-        <v/>
-      </c>
-      <c r="H73" s="8" t="n">
-        <v/>
-      </c>
-      <c r="I73" s="8" t="n">
-        <v/>
-      </c>
-      <c r="J73" s="8" t="n">
-        <v/>
-      </c>
-      <c r="K73" s="9" t="n">
-        <v>100</v>
-      </c>
-      <c r="L73" s="9" t="n">
-        <v>100</v>
-      </c>
-      <c r="M73" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="N73" s="9" t="n">
+      <c r="R71" s="8" t="inlineStr"/>
+    </row>
+    <row r="72">
+      <c r="A72" s="8" t="n">
+        <v/>
+      </c>
+      <c r="B72" s="8" t="n">
+        <v/>
+      </c>
+      <c r="C72" s="8" t="n">
+        <v/>
+      </c>
+      <c r="D72" s="8" t="n">
+        <v/>
+      </c>
+      <c r="E72" s="8" t="n">
+        <v/>
+      </c>
+      <c r="F72" s="8" t="n">
+        <v/>
+      </c>
+      <c r="G72" s="8" t="n">
+        <v/>
+      </c>
+      <c r="H72" s="8" t="n">
+        <v/>
+      </c>
+      <c r="I72" s="8" t="n">
+        <v/>
+      </c>
+      <c r="J72" s="8" t="n">
+        <v/>
+      </c>
+      <c r="K72" s="9" t="n">
+        <v>100</v>
+      </c>
+      <c r="L72" s="9" t="n">
+        <v>100</v>
+      </c>
+      <c r="M72" s="9" t="n">
+        <v>100</v>
+      </c>
+      <c r="N72" s="9" t="n">
         <v>152</v>
       </c>
-      <c r="O73" s="9" t="n">
+      <c r="O72" s="9" t="n">
         <v>144</v>
       </c>
-      <c r="P73" s="8" t="n">
-        <v/>
-      </c>
-      <c r="Q73" s="8" t="n">
-        <v/>
-      </c>
-      <c r="R73" s="8" t="n">
+      <c r="P72" s="8" t="n">
+        <v/>
+      </c>
+      <c r="Q72" s="8" t="n">
+        <v/>
+      </c>
+      <c r="R72" s="8" t="n">
         <v/>
       </c>
     </row>
@@ -5329,21 +5356,21 @@
   <mergeCells count="17">
     <mergeCell ref="A1:T1"/>
     <mergeCell ref="A8"/>
-    <mergeCell ref="A35:A36"/>
-    <mergeCell ref="A59:A61"/>
     <mergeCell ref="A17"/>
     <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A35"/>
+    <mergeCell ref="A58:A60"/>
     <mergeCell ref="A26"/>
-    <mergeCell ref="A54"/>
-    <mergeCell ref="A63"/>
-    <mergeCell ref="A72"/>
-    <mergeCell ref="A41:A43"/>
+    <mergeCell ref="A62"/>
+    <mergeCell ref="A53"/>
+    <mergeCell ref="A44"/>
+    <mergeCell ref="A67:A69"/>
+    <mergeCell ref="A71"/>
     <mergeCell ref="A31:A33"/>
-    <mergeCell ref="A50:A52"/>
+    <mergeCell ref="A49:A51"/>
     <mergeCell ref="A22:A24"/>
-    <mergeCell ref="A45"/>
+    <mergeCell ref="A40:A42"/>
     <mergeCell ref="A13:A15"/>
-    <mergeCell ref="A68:A70"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
